--- a/Documents/Cord/Cord Documents/4002 Condition S-4.xlsx
+++ b/Documents/Cord/Cord Documents/4002 Condition S-4.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC702FF-51EB-4748-ACDD-1E62D599258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8B978C8-73CD-4A74-993C-B4D7E4763EDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S-4-2 P1671TT" sheetId="2" r:id="rId1"/>
     <sheet name="P1671TT S-4-1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -759,11 +753,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="14"/>
       <name val="CordiaUPC"/>
@@ -888,8 +882,29 @@
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +923,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="60">
     <border>
@@ -1632,7 +1653,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1673,16 +1694,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1697,29 +1709,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1730,9 +1721,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1741,9 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1757,9 +1742,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1774,9 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1790,16 +1769,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,13 +1778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1841,9 +1805,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1856,36 +1817,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,20 +1836,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1917,28 +1847,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1949,39 +1860,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,13 +1884,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2021,12 +1902,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,10 +1911,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2049,8 +1920,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2060,19 +1929,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2089,28 +1946,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2141,12 +1980,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2165,23 +1998,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2192,9 +2013,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2203,9 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2258,7 +2073,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2267,29 +2082,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2297,70 +2091,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2368,12 +2114,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2384,75 +2124,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2472,12 +2161,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2490,10 +2173,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2503,8 +2182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2515,12 +2192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2539,27 +2210,407 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{D030B4C2-0CFF-44FA-B311-152C9E0DA9B9}"/>
-    <cellStyle name="ปกติ_Original" xfId="1" xr:uid="{7E5B4E16-80D0-4867-A8D8-FC00AEA915EB}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ_Original" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2594,7 +2645,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEE3E5A-5B22-488A-ADC1-5C0FC56A438B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FEE3E5A-5B22-488A-ADC1-5C0FC56A438B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2672,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2648,7 +2699,7 @@
         <xdr:cNvPr id="3" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E249CEC-410B-4699-9EAE-A8AC198A3803}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E249CEC-410B-4699-9EAE-A8AC198A3803}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2726,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2702,7 +2753,7 @@
         <xdr:cNvPr id="4" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE1E78E-7B5F-4794-ACA9-0BCCB40C7E32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BE1E78E-7B5F-4794-ACA9-0BCCB40C7E32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2780,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2756,7 +2807,7 @@
         <xdr:cNvPr id="5" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68F2AD6-6FBE-4422-A9EF-6C0BAFB35ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C68F2AD6-6FBE-4422-A9EF-6C0BAFB35ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2834,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2815,7 +2866,7 @@
         <xdr:cNvPr id="2" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C367E13E-BBDF-4F4D-9380-4836E5D84B6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C367E13E-BBDF-4F4D-9380-4836E5D84B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2893,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2869,7 +2920,7 @@
         <xdr:cNvPr id="3" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724F14A7-E08C-4800-886F-F50C3663259B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{724F14A7-E08C-4800-886F-F50C3663259B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2947,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2923,7 +2974,7 @@
         <xdr:cNvPr id="4" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3E9FA7-674C-401F-AF02-119E853BAFB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C3E9FA7-674C-401F-AF02-119E853BAFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +3001,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2977,7 +3028,7 @@
         <xdr:cNvPr id="5" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E4903-5D14-4BBF-8FDE-19588582EE98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E4903-5D14-4BBF-8FDE-19588582EE98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3055,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3031,7 +3082,7 @@
         <xdr:cNvPr id="6" name="Line 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB595F0B-B5DE-4299-8044-E08476EEDCCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB595F0B-B5DE-4299-8044-E08476EEDCCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3109,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3085,7 +3136,7 @@
         <xdr:cNvPr id="7" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BB1B1B-6339-4C03-AC3E-1EBF671DDEA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86BB1B1B-6339-4C03-AC3E-1EBF671DDEA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3163,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3139,7 +3190,7 @@
         <xdr:cNvPr id="8" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA32EDF-04FC-4F55-B2A5-8D1277D18E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BA32EDF-04FC-4F55-B2A5-8D1277D18E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3217,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3193,7 +3244,7 @@
         <xdr:cNvPr id="9" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B71FEB-7240-424F-A692-3588E780EF4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B71FEB-7240-424F-A692-3588E780EF4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3271,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3275,7 +3326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3327,7 +3378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3521,1595 +3572,1581 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321A5E9D-1552-4029-9497-E28CAE2EF7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="21.5" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="182" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="182" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" style="182" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="182" customWidth="1"/>
-    <col min="5" max="5" width="4.8984375" style="182" customWidth="1"/>
-    <col min="6" max="6" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" style="182" customWidth="1"/>
-    <col min="8" max="8" width="5.09765625" style="182" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="182" customWidth="1"/>
-    <col min="10" max="10" width="10" style="182" customWidth="1"/>
-    <col min="11" max="11" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12" max="256" width="7.09765625" style="182"/>
-    <col min="257" max="257" width="4.69921875" style="182" customWidth="1"/>
-    <col min="258" max="258" width="16.69921875" style="182" customWidth="1"/>
-    <col min="259" max="259" width="7.59765625" style="182" customWidth="1"/>
-    <col min="260" max="260" width="7.3984375" style="182" customWidth="1"/>
-    <col min="261" max="261" width="4.8984375" style="182" customWidth="1"/>
-    <col min="262" max="262" width="18.8984375" style="182" customWidth="1"/>
-    <col min="263" max="263" width="4.59765625" style="182" customWidth="1"/>
-    <col min="264" max="264" width="5.09765625" style="182" customWidth="1"/>
-    <col min="265" max="265" width="10.09765625" style="182" customWidth="1"/>
-    <col min="266" max="266" width="10" style="182" customWidth="1"/>
-    <col min="267" max="267" width="18.8984375" style="182" customWidth="1"/>
-    <col min="268" max="512" width="7.09765625" style="182"/>
-    <col min="513" max="513" width="4.69921875" style="182" customWidth="1"/>
-    <col min="514" max="514" width="16.69921875" style="182" customWidth="1"/>
-    <col min="515" max="515" width="7.59765625" style="182" customWidth="1"/>
-    <col min="516" max="516" width="7.3984375" style="182" customWidth="1"/>
-    <col min="517" max="517" width="4.8984375" style="182" customWidth="1"/>
-    <col min="518" max="518" width="18.8984375" style="182" customWidth="1"/>
-    <col min="519" max="519" width="4.59765625" style="182" customWidth="1"/>
-    <col min="520" max="520" width="5.09765625" style="182" customWidth="1"/>
-    <col min="521" max="521" width="10.09765625" style="182" customWidth="1"/>
-    <col min="522" max="522" width="10" style="182" customWidth="1"/>
-    <col min="523" max="523" width="18.8984375" style="182" customWidth="1"/>
-    <col min="524" max="768" width="7.09765625" style="182"/>
-    <col min="769" max="769" width="4.69921875" style="182" customWidth="1"/>
-    <col min="770" max="770" width="16.69921875" style="182" customWidth="1"/>
-    <col min="771" max="771" width="7.59765625" style="182" customWidth="1"/>
-    <col min="772" max="772" width="7.3984375" style="182" customWidth="1"/>
-    <col min="773" max="773" width="4.8984375" style="182" customWidth="1"/>
-    <col min="774" max="774" width="18.8984375" style="182" customWidth="1"/>
-    <col min="775" max="775" width="4.59765625" style="182" customWidth="1"/>
-    <col min="776" max="776" width="5.09765625" style="182" customWidth="1"/>
-    <col min="777" max="777" width="10.09765625" style="182" customWidth="1"/>
-    <col min="778" max="778" width="10" style="182" customWidth="1"/>
-    <col min="779" max="779" width="18.8984375" style="182" customWidth="1"/>
-    <col min="780" max="1024" width="7.09765625" style="182"/>
-    <col min="1025" max="1025" width="4.69921875" style="182" customWidth="1"/>
-    <col min="1026" max="1026" width="16.69921875" style="182" customWidth="1"/>
-    <col min="1027" max="1027" width="7.59765625" style="182" customWidth="1"/>
-    <col min="1028" max="1028" width="7.3984375" style="182" customWidth="1"/>
-    <col min="1029" max="1029" width="4.8984375" style="182" customWidth="1"/>
-    <col min="1030" max="1030" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1031" max="1031" width="4.59765625" style="182" customWidth="1"/>
-    <col min="1032" max="1032" width="5.09765625" style="182" customWidth="1"/>
-    <col min="1033" max="1033" width="10.09765625" style="182" customWidth="1"/>
-    <col min="1034" max="1034" width="10" style="182" customWidth="1"/>
-    <col min="1035" max="1035" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1036" max="1280" width="7.09765625" style="182"/>
-    <col min="1281" max="1281" width="4.69921875" style="182" customWidth="1"/>
-    <col min="1282" max="1282" width="16.69921875" style="182" customWidth="1"/>
-    <col min="1283" max="1283" width="7.59765625" style="182" customWidth="1"/>
-    <col min="1284" max="1284" width="7.3984375" style="182" customWidth="1"/>
-    <col min="1285" max="1285" width="4.8984375" style="182" customWidth="1"/>
-    <col min="1286" max="1286" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1287" max="1287" width="4.59765625" style="182" customWidth="1"/>
-    <col min="1288" max="1288" width="5.09765625" style="182" customWidth="1"/>
-    <col min="1289" max="1289" width="10.09765625" style="182" customWidth="1"/>
-    <col min="1290" max="1290" width="10" style="182" customWidth="1"/>
-    <col min="1291" max="1291" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1292" max="1536" width="7.09765625" style="182"/>
-    <col min="1537" max="1537" width="4.69921875" style="182" customWidth="1"/>
-    <col min="1538" max="1538" width="16.69921875" style="182" customWidth="1"/>
-    <col min="1539" max="1539" width="7.59765625" style="182" customWidth="1"/>
-    <col min="1540" max="1540" width="7.3984375" style="182" customWidth="1"/>
-    <col min="1541" max="1541" width="4.8984375" style="182" customWidth="1"/>
-    <col min="1542" max="1542" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1543" max="1543" width="4.59765625" style="182" customWidth="1"/>
-    <col min="1544" max="1544" width="5.09765625" style="182" customWidth="1"/>
-    <col min="1545" max="1545" width="10.09765625" style="182" customWidth="1"/>
-    <col min="1546" max="1546" width="10" style="182" customWidth="1"/>
-    <col min="1547" max="1547" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1548" max="1792" width="7.09765625" style="182"/>
-    <col min="1793" max="1793" width="4.69921875" style="182" customWidth="1"/>
-    <col min="1794" max="1794" width="16.69921875" style="182" customWidth="1"/>
-    <col min="1795" max="1795" width="7.59765625" style="182" customWidth="1"/>
-    <col min="1796" max="1796" width="7.3984375" style="182" customWidth="1"/>
-    <col min="1797" max="1797" width="4.8984375" style="182" customWidth="1"/>
-    <col min="1798" max="1798" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1799" max="1799" width="4.59765625" style="182" customWidth="1"/>
-    <col min="1800" max="1800" width="5.09765625" style="182" customWidth="1"/>
-    <col min="1801" max="1801" width="10.09765625" style="182" customWidth="1"/>
-    <col min="1802" max="1802" width="10" style="182" customWidth="1"/>
-    <col min="1803" max="1803" width="18.8984375" style="182" customWidth="1"/>
-    <col min="1804" max="2048" width="7.09765625" style="182"/>
-    <col min="2049" max="2049" width="4.69921875" style="182" customWidth="1"/>
-    <col min="2050" max="2050" width="16.69921875" style="182" customWidth="1"/>
-    <col min="2051" max="2051" width="7.59765625" style="182" customWidth="1"/>
-    <col min="2052" max="2052" width="7.3984375" style="182" customWidth="1"/>
-    <col min="2053" max="2053" width="4.8984375" style="182" customWidth="1"/>
-    <col min="2054" max="2054" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2055" max="2055" width="4.59765625" style="182" customWidth="1"/>
-    <col min="2056" max="2056" width="5.09765625" style="182" customWidth="1"/>
-    <col min="2057" max="2057" width="10.09765625" style="182" customWidth="1"/>
-    <col min="2058" max="2058" width="10" style="182" customWidth="1"/>
-    <col min="2059" max="2059" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2060" max="2304" width="7.09765625" style="182"/>
-    <col min="2305" max="2305" width="4.69921875" style="182" customWidth="1"/>
-    <col min="2306" max="2306" width="16.69921875" style="182" customWidth="1"/>
-    <col min="2307" max="2307" width="7.59765625" style="182" customWidth="1"/>
-    <col min="2308" max="2308" width="7.3984375" style="182" customWidth="1"/>
-    <col min="2309" max="2309" width="4.8984375" style="182" customWidth="1"/>
-    <col min="2310" max="2310" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2311" max="2311" width="4.59765625" style="182" customWidth="1"/>
-    <col min="2312" max="2312" width="5.09765625" style="182" customWidth="1"/>
-    <col min="2313" max="2313" width="10.09765625" style="182" customWidth="1"/>
-    <col min="2314" max="2314" width="10" style="182" customWidth="1"/>
-    <col min="2315" max="2315" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2316" max="2560" width="7.09765625" style="182"/>
-    <col min="2561" max="2561" width="4.69921875" style="182" customWidth="1"/>
-    <col min="2562" max="2562" width="16.69921875" style="182" customWidth="1"/>
-    <col min="2563" max="2563" width="7.59765625" style="182" customWidth="1"/>
-    <col min="2564" max="2564" width="7.3984375" style="182" customWidth="1"/>
-    <col min="2565" max="2565" width="4.8984375" style="182" customWidth="1"/>
-    <col min="2566" max="2566" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2567" max="2567" width="4.59765625" style="182" customWidth="1"/>
-    <col min="2568" max="2568" width="5.09765625" style="182" customWidth="1"/>
-    <col min="2569" max="2569" width="10.09765625" style="182" customWidth="1"/>
-    <col min="2570" max="2570" width="10" style="182" customWidth="1"/>
-    <col min="2571" max="2571" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2572" max="2816" width="7.09765625" style="182"/>
-    <col min="2817" max="2817" width="4.69921875" style="182" customWidth="1"/>
-    <col min="2818" max="2818" width="16.69921875" style="182" customWidth="1"/>
-    <col min="2819" max="2819" width="7.59765625" style="182" customWidth="1"/>
-    <col min="2820" max="2820" width="7.3984375" style="182" customWidth="1"/>
-    <col min="2821" max="2821" width="4.8984375" style="182" customWidth="1"/>
-    <col min="2822" max="2822" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2823" max="2823" width="4.59765625" style="182" customWidth="1"/>
-    <col min="2824" max="2824" width="5.09765625" style="182" customWidth="1"/>
-    <col min="2825" max="2825" width="10.09765625" style="182" customWidth="1"/>
-    <col min="2826" max="2826" width="10" style="182" customWidth="1"/>
-    <col min="2827" max="2827" width="18.8984375" style="182" customWidth="1"/>
-    <col min="2828" max="3072" width="7.09765625" style="182"/>
-    <col min="3073" max="3073" width="4.69921875" style="182" customWidth="1"/>
-    <col min="3074" max="3074" width="16.69921875" style="182" customWidth="1"/>
-    <col min="3075" max="3075" width="7.59765625" style="182" customWidth="1"/>
-    <col min="3076" max="3076" width="7.3984375" style="182" customWidth="1"/>
-    <col min="3077" max="3077" width="4.8984375" style="182" customWidth="1"/>
-    <col min="3078" max="3078" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3079" max="3079" width="4.59765625" style="182" customWidth="1"/>
-    <col min="3080" max="3080" width="5.09765625" style="182" customWidth="1"/>
-    <col min="3081" max="3081" width="10.09765625" style="182" customWidth="1"/>
-    <col min="3082" max="3082" width="10" style="182" customWidth="1"/>
-    <col min="3083" max="3083" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3084" max="3328" width="7.09765625" style="182"/>
-    <col min="3329" max="3329" width="4.69921875" style="182" customWidth="1"/>
-    <col min="3330" max="3330" width="16.69921875" style="182" customWidth="1"/>
-    <col min="3331" max="3331" width="7.59765625" style="182" customWidth="1"/>
-    <col min="3332" max="3332" width="7.3984375" style="182" customWidth="1"/>
-    <col min="3333" max="3333" width="4.8984375" style="182" customWidth="1"/>
-    <col min="3334" max="3334" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3335" max="3335" width="4.59765625" style="182" customWidth="1"/>
-    <col min="3336" max="3336" width="5.09765625" style="182" customWidth="1"/>
-    <col min="3337" max="3337" width="10.09765625" style="182" customWidth="1"/>
-    <col min="3338" max="3338" width="10" style="182" customWidth="1"/>
-    <col min="3339" max="3339" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3340" max="3584" width="7.09765625" style="182"/>
-    <col min="3585" max="3585" width="4.69921875" style="182" customWidth="1"/>
-    <col min="3586" max="3586" width="16.69921875" style="182" customWidth="1"/>
-    <col min="3587" max="3587" width="7.59765625" style="182" customWidth="1"/>
-    <col min="3588" max="3588" width="7.3984375" style="182" customWidth="1"/>
-    <col min="3589" max="3589" width="4.8984375" style="182" customWidth="1"/>
-    <col min="3590" max="3590" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3591" max="3591" width="4.59765625" style="182" customWidth="1"/>
-    <col min="3592" max="3592" width="5.09765625" style="182" customWidth="1"/>
-    <col min="3593" max="3593" width="10.09765625" style="182" customWidth="1"/>
-    <col min="3594" max="3594" width="10" style="182" customWidth="1"/>
-    <col min="3595" max="3595" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3596" max="3840" width="7.09765625" style="182"/>
-    <col min="3841" max="3841" width="4.69921875" style="182" customWidth="1"/>
-    <col min="3842" max="3842" width="16.69921875" style="182" customWidth="1"/>
-    <col min="3843" max="3843" width="7.59765625" style="182" customWidth="1"/>
-    <col min="3844" max="3844" width="7.3984375" style="182" customWidth="1"/>
-    <col min="3845" max="3845" width="4.8984375" style="182" customWidth="1"/>
-    <col min="3846" max="3846" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3847" max="3847" width="4.59765625" style="182" customWidth="1"/>
-    <col min="3848" max="3848" width="5.09765625" style="182" customWidth="1"/>
-    <col min="3849" max="3849" width="10.09765625" style="182" customWidth="1"/>
-    <col min="3850" max="3850" width="10" style="182" customWidth="1"/>
-    <col min="3851" max="3851" width="18.8984375" style="182" customWidth="1"/>
-    <col min="3852" max="4096" width="7.09765625" style="182"/>
-    <col min="4097" max="4097" width="4.69921875" style="182" customWidth="1"/>
-    <col min="4098" max="4098" width="16.69921875" style="182" customWidth="1"/>
-    <col min="4099" max="4099" width="7.59765625" style="182" customWidth="1"/>
-    <col min="4100" max="4100" width="7.3984375" style="182" customWidth="1"/>
-    <col min="4101" max="4101" width="4.8984375" style="182" customWidth="1"/>
-    <col min="4102" max="4102" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4103" max="4103" width="4.59765625" style="182" customWidth="1"/>
-    <col min="4104" max="4104" width="5.09765625" style="182" customWidth="1"/>
-    <col min="4105" max="4105" width="10.09765625" style="182" customWidth="1"/>
-    <col min="4106" max="4106" width="10" style="182" customWidth="1"/>
-    <col min="4107" max="4107" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4108" max="4352" width="7.09765625" style="182"/>
-    <col min="4353" max="4353" width="4.69921875" style="182" customWidth="1"/>
-    <col min="4354" max="4354" width="16.69921875" style="182" customWidth="1"/>
-    <col min="4355" max="4355" width="7.59765625" style="182" customWidth="1"/>
-    <col min="4356" max="4356" width="7.3984375" style="182" customWidth="1"/>
-    <col min="4357" max="4357" width="4.8984375" style="182" customWidth="1"/>
-    <col min="4358" max="4358" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4359" max="4359" width="4.59765625" style="182" customWidth="1"/>
-    <col min="4360" max="4360" width="5.09765625" style="182" customWidth="1"/>
-    <col min="4361" max="4361" width="10.09765625" style="182" customWidth="1"/>
-    <col min="4362" max="4362" width="10" style="182" customWidth="1"/>
-    <col min="4363" max="4363" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4364" max="4608" width="7.09765625" style="182"/>
-    <col min="4609" max="4609" width="4.69921875" style="182" customWidth="1"/>
-    <col min="4610" max="4610" width="16.69921875" style="182" customWidth="1"/>
-    <col min="4611" max="4611" width="7.59765625" style="182" customWidth="1"/>
-    <col min="4612" max="4612" width="7.3984375" style="182" customWidth="1"/>
-    <col min="4613" max="4613" width="4.8984375" style="182" customWidth="1"/>
-    <col min="4614" max="4614" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4615" max="4615" width="4.59765625" style="182" customWidth="1"/>
-    <col min="4616" max="4616" width="5.09765625" style="182" customWidth="1"/>
-    <col min="4617" max="4617" width="10.09765625" style="182" customWidth="1"/>
-    <col min="4618" max="4618" width="10" style="182" customWidth="1"/>
-    <col min="4619" max="4619" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4620" max="4864" width="7.09765625" style="182"/>
-    <col min="4865" max="4865" width="4.69921875" style="182" customWidth="1"/>
-    <col min="4866" max="4866" width="16.69921875" style="182" customWidth="1"/>
-    <col min="4867" max="4867" width="7.59765625" style="182" customWidth="1"/>
-    <col min="4868" max="4868" width="7.3984375" style="182" customWidth="1"/>
-    <col min="4869" max="4869" width="4.8984375" style="182" customWidth="1"/>
-    <col min="4870" max="4870" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4871" max="4871" width="4.59765625" style="182" customWidth="1"/>
-    <col min="4872" max="4872" width="5.09765625" style="182" customWidth="1"/>
-    <col min="4873" max="4873" width="10.09765625" style="182" customWidth="1"/>
-    <col min="4874" max="4874" width="10" style="182" customWidth="1"/>
-    <col min="4875" max="4875" width="18.8984375" style="182" customWidth="1"/>
-    <col min="4876" max="5120" width="7.09765625" style="182"/>
-    <col min="5121" max="5121" width="4.69921875" style="182" customWidth="1"/>
-    <col min="5122" max="5122" width="16.69921875" style="182" customWidth="1"/>
-    <col min="5123" max="5123" width="7.59765625" style="182" customWidth="1"/>
-    <col min="5124" max="5124" width="7.3984375" style="182" customWidth="1"/>
-    <col min="5125" max="5125" width="4.8984375" style="182" customWidth="1"/>
-    <col min="5126" max="5126" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5127" max="5127" width="4.59765625" style="182" customWidth="1"/>
-    <col min="5128" max="5128" width="5.09765625" style="182" customWidth="1"/>
-    <col min="5129" max="5129" width="10.09765625" style="182" customWidth="1"/>
-    <col min="5130" max="5130" width="10" style="182" customWidth="1"/>
-    <col min="5131" max="5131" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5132" max="5376" width="7.09765625" style="182"/>
-    <col min="5377" max="5377" width="4.69921875" style="182" customWidth="1"/>
-    <col min="5378" max="5378" width="16.69921875" style="182" customWidth="1"/>
-    <col min="5379" max="5379" width="7.59765625" style="182" customWidth="1"/>
-    <col min="5380" max="5380" width="7.3984375" style="182" customWidth="1"/>
-    <col min="5381" max="5381" width="4.8984375" style="182" customWidth="1"/>
-    <col min="5382" max="5382" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5383" max="5383" width="4.59765625" style="182" customWidth="1"/>
-    <col min="5384" max="5384" width="5.09765625" style="182" customWidth="1"/>
-    <col min="5385" max="5385" width="10.09765625" style="182" customWidth="1"/>
-    <col min="5386" max="5386" width="10" style="182" customWidth="1"/>
-    <col min="5387" max="5387" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5388" max="5632" width="7.09765625" style="182"/>
-    <col min="5633" max="5633" width="4.69921875" style="182" customWidth="1"/>
-    <col min="5634" max="5634" width="16.69921875" style="182" customWidth="1"/>
-    <col min="5635" max="5635" width="7.59765625" style="182" customWidth="1"/>
-    <col min="5636" max="5636" width="7.3984375" style="182" customWidth="1"/>
-    <col min="5637" max="5637" width="4.8984375" style="182" customWidth="1"/>
-    <col min="5638" max="5638" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5639" max="5639" width="4.59765625" style="182" customWidth="1"/>
-    <col min="5640" max="5640" width="5.09765625" style="182" customWidth="1"/>
-    <col min="5641" max="5641" width="10.09765625" style="182" customWidth="1"/>
-    <col min="5642" max="5642" width="10" style="182" customWidth="1"/>
-    <col min="5643" max="5643" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5644" max="5888" width="7.09765625" style="182"/>
-    <col min="5889" max="5889" width="4.69921875" style="182" customWidth="1"/>
-    <col min="5890" max="5890" width="16.69921875" style="182" customWidth="1"/>
-    <col min="5891" max="5891" width="7.59765625" style="182" customWidth="1"/>
-    <col min="5892" max="5892" width="7.3984375" style="182" customWidth="1"/>
-    <col min="5893" max="5893" width="4.8984375" style="182" customWidth="1"/>
-    <col min="5894" max="5894" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5895" max="5895" width="4.59765625" style="182" customWidth="1"/>
-    <col min="5896" max="5896" width="5.09765625" style="182" customWidth="1"/>
-    <col min="5897" max="5897" width="10.09765625" style="182" customWidth="1"/>
-    <col min="5898" max="5898" width="10" style="182" customWidth="1"/>
-    <col min="5899" max="5899" width="18.8984375" style="182" customWidth="1"/>
-    <col min="5900" max="6144" width="7.09765625" style="182"/>
-    <col min="6145" max="6145" width="4.69921875" style="182" customWidth="1"/>
-    <col min="6146" max="6146" width="16.69921875" style="182" customWidth="1"/>
-    <col min="6147" max="6147" width="7.59765625" style="182" customWidth="1"/>
-    <col min="6148" max="6148" width="7.3984375" style="182" customWidth="1"/>
-    <col min="6149" max="6149" width="4.8984375" style="182" customWidth="1"/>
-    <col min="6150" max="6150" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6151" max="6151" width="4.59765625" style="182" customWidth="1"/>
-    <col min="6152" max="6152" width="5.09765625" style="182" customWidth="1"/>
-    <col min="6153" max="6153" width="10.09765625" style="182" customWidth="1"/>
-    <col min="6154" max="6154" width="10" style="182" customWidth="1"/>
-    <col min="6155" max="6155" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6156" max="6400" width="7.09765625" style="182"/>
-    <col min="6401" max="6401" width="4.69921875" style="182" customWidth="1"/>
-    <col min="6402" max="6402" width="16.69921875" style="182" customWidth="1"/>
-    <col min="6403" max="6403" width="7.59765625" style="182" customWidth="1"/>
-    <col min="6404" max="6404" width="7.3984375" style="182" customWidth="1"/>
-    <col min="6405" max="6405" width="4.8984375" style="182" customWidth="1"/>
-    <col min="6406" max="6406" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6407" max="6407" width="4.59765625" style="182" customWidth="1"/>
-    <col min="6408" max="6408" width="5.09765625" style="182" customWidth="1"/>
-    <col min="6409" max="6409" width="10.09765625" style="182" customWidth="1"/>
-    <col min="6410" max="6410" width="10" style="182" customWidth="1"/>
-    <col min="6411" max="6411" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6412" max="6656" width="7.09765625" style="182"/>
-    <col min="6657" max="6657" width="4.69921875" style="182" customWidth="1"/>
-    <col min="6658" max="6658" width="16.69921875" style="182" customWidth="1"/>
-    <col min="6659" max="6659" width="7.59765625" style="182" customWidth="1"/>
-    <col min="6660" max="6660" width="7.3984375" style="182" customWidth="1"/>
-    <col min="6661" max="6661" width="4.8984375" style="182" customWidth="1"/>
-    <col min="6662" max="6662" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6663" max="6663" width="4.59765625" style="182" customWidth="1"/>
-    <col min="6664" max="6664" width="5.09765625" style="182" customWidth="1"/>
-    <col min="6665" max="6665" width="10.09765625" style="182" customWidth="1"/>
-    <col min="6666" max="6666" width="10" style="182" customWidth="1"/>
-    <col min="6667" max="6667" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6668" max="6912" width="7.09765625" style="182"/>
-    <col min="6913" max="6913" width="4.69921875" style="182" customWidth="1"/>
-    <col min="6914" max="6914" width="16.69921875" style="182" customWidth="1"/>
-    <col min="6915" max="6915" width="7.59765625" style="182" customWidth="1"/>
-    <col min="6916" max="6916" width="7.3984375" style="182" customWidth="1"/>
-    <col min="6917" max="6917" width="4.8984375" style="182" customWidth="1"/>
-    <col min="6918" max="6918" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6919" max="6919" width="4.59765625" style="182" customWidth="1"/>
-    <col min="6920" max="6920" width="5.09765625" style="182" customWidth="1"/>
-    <col min="6921" max="6921" width="10.09765625" style="182" customWidth="1"/>
-    <col min="6922" max="6922" width="10" style="182" customWidth="1"/>
-    <col min="6923" max="6923" width="18.8984375" style="182" customWidth="1"/>
-    <col min="6924" max="7168" width="7.09765625" style="182"/>
-    <col min="7169" max="7169" width="4.69921875" style="182" customWidth="1"/>
-    <col min="7170" max="7170" width="16.69921875" style="182" customWidth="1"/>
-    <col min="7171" max="7171" width="7.59765625" style="182" customWidth="1"/>
-    <col min="7172" max="7172" width="7.3984375" style="182" customWidth="1"/>
-    <col min="7173" max="7173" width="4.8984375" style="182" customWidth="1"/>
-    <col min="7174" max="7174" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7175" max="7175" width="4.59765625" style="182" customWidth="1"/>
-    <col min="7176" max="7176" width="5.09765625" style="182" customWidth="1"/>
-    <col min="7177" max="7177" width="10.09765625" style="182" customWidth="1"/>
-    <col min="7178" max="7178" width="10" style="182" customWidth="1"/>
-    <col min="7179" max="7179" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7180" max="7424" width="7.09765625" style="182"/>
-    <col min="7425" max="7425" width="4.69921875" style="182" customWidth="1"/>
-    <col min="7426" max="7426" width="16.69921875" style="182" customWidth="1"/>
-    <col min="7427" max="7427" width="7.59765625" style="182" customWidth="1"/>
-    <col min="7428" max="7428" width="7.3984375" style="182" customWidth="1"/>
-    <col min="7429" max="7429" width="4.8984375" style="182" customWidth="1"/>
-    <col min="7430" max="7430" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7431" max="7431" width="4.59765625" style="182" customWidth="1"/>
-    <col min="7432" max="7432" width="5.09765625" style="182" customWidth="1"/>
-    <col min="7433" max="7433" width="10.09765625" style="182" customWidth="1"/>
-    <col min="7434" max="7434" width="10" style="182" customWidth="1"/>
-    <col min="7435" max="7435" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7436" max="7680" width="7.09765625" style="182"/>
-    <col min="7681" max="7681" width="4.69921875" style="182" customWidth="1"/>
-    <col min="7682" max="7682" width="16.69921875" style="182" customWidth="1"/>
-    <col min="7683" max="7683" width="7.59765625" style="182" customWidth="1"/>
-    <col min="7684" max="7684" width="7.3984375" style="182" customWidth="1"/>
-    <col min="7685" max="7685" width="4.8984375" style="182" customWidth="1"/>
-    <col min="7686" max="7686" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7687" max="7687" width="4.59765625" style="182" customWidth="1"/>
-    <col min="7688" max="7688" width="5.09765625" style="182" customWidth="1"/>
-    <col min="7689" max="7689" width="10.09765625" style="182" customWidth="1"/>
-    <col min="7690" max="7690" width="10" style="182" customWidth="1"/>
-    <col min="7691" max="7691" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7692" max="7936" width="7.09765625" style="182"/>
-    <col min="7937" max="7937" width="4.69921875" style="182" customWidth="1"/>
-    <col min="7938" max="7938" width="16.69921875" style="182" customWidth="1"/>
-    <col min="7939" max="7939" width="7.59765625" style="182" customWidth="1"/>
-    <col min="7940" max="7940" width="7.3984375" style="182" customWidth="1"/>
-    <col min="7941" max="7941" width="4.8984375" style="182" customWidth="1"/>
-    <col min="7942" max="7942" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7943" max="7943" width="4.59765625" style="182" customWidth="1"/>
-    <col min="7944" max="7944" width="5.09765625" style="182" customWidth="1"/>
-    <col min="7945" max="7945" width="10.09765625" style="182" customWidth="1"/>
-    <col min="7946" max="7946" width="10" style="182" customWidth="1"/>
-    <col min="7947" max="7947" width="18.8984375" style="182" customWidth="1"/>
-    <col min="7948" max="8192" width="7.09765625" style="182"/>
-    <col min="8193" max="8193" width="4.69921875" style="182" customWidth="1"/>
-    <col min="8194" max="8194" width="16.69921875" style="182" customWidth="1"/>
-    <col min="8195" max="8195" width="7.59765625" style="182" customWidth="1"/>
-    <col min="8196" max="8196" width="7.3984375" style="182" customWidth="1"/>
-    <col min="8197" max="8197" width="4.8984375" style="182" customWidth="1"/>
-    <col min="8198" max="8198" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8199" max="8199" width="4.59765625" style="182" customWidth="1"/>
-    <col min="8200" max="8200" width="5.09765625" style="182" customWidth="1"/>
-    <col min="8201" max="8201" width="10.09765625" style="182" customWidth="1"/>
-    <col min="8202" max="8202" width="10" style="182" customWidth="1"/>
-    <col min="8203" max="8203" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8204" max="8448" width="7.09765625" style="182"/>
-    <col min="8449" max="8449" width="4.69921875" style="182" customWidth="1"/>
-    <col min="8450" max="8450" width="16.69921875" style="182" customWidth="1"/>
-    <col min="8451" max="8451" width="7.59765625" style="182" customWidth="1"/>
-    <col min="8452" max="8452" width="7.3984375" style="182" customWidth="1"/>
-    <col min="8453" max="8453" width="4.8984375" style="182" customWidth="1"/>
-    <col min="8454" max="8454" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8455" max="8455" width="4.59765625" style="182" customWidth="1"/>
-    <col min="8456" max="8456" width="5.09765625" style="182" customWidth="1"/>
-    <col min="8457" max="8457" width="10.09765625" style="182" customWidth="1"/>
-    <col min="8458" max="8458" width="10" style="182" customWidth="1"/>
-    <col min="8459" max="8459" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8460" max="8704" width="7.09765625" style="182"/>
-    <col min="8705" max="8705" width="4.69921875" style="182" customWidth="1"/>
-    <col min="8706" max="8706" width="16.69921875" style="182" customWidth="1"/>
-    <col min="8707" max="8707" width="7.59765625" style="182" customWidth="1"/>
-    <col min="8708" max="8708" width="7.3984375" style="182" customWidth="1"/>
-    <col min="8709" max="8709" width="4.8984375" style="182" customWidth="1"/>
-    <col min="8710" max="8710" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8711" max="8711" width="4.59765625" style="182" customWidth="1"/>
-    <col min="8712" max="8712" width="5.09765625" style="182" customWidth="1"/>
-    <col min="8713" max="8713" width="10.09765625" style="182" customWidth="1"/>
-    <col min="8714" max="8714" width="10" style="182" customWidth="1"/>
-    <col min="8715" max="8715" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8716" max="8960" width="7.09765625" style="182"/>
-    <col min="8961" max="8961" width="4.69921875" style="182" customWidth="1"/>
-    <col min="8962" max="8962" width="16.69921875" style="182" customWidth="1"/>
-    <col min="8963" max="8963" width="7.59765625" style="182" customWidth="1"/>
-    <col min="8964" max="8964" width="7.3984375" style="182" customWidth="1"/>
-    <col min="8965" max="8965" width="4.8984375" style="182" customWidth="1"/>
-    <col min="8966" max="8966" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8967" max="8967" width="4.59765625" style="182" customWidth="1"/>
-    <col min="8968" max="8968" width="5.09765625" style="182" customWidth="1"/>
-    <col min="8969" max="8969" width="10.09765625" style="182" customWidth="1"/>
-    <col min="8970" max="8970" width="10" style="182" customWidth="1"/>
-    <col min="8971" max="8971" width="18.8984375" style="182" customWidth="1"/>
-    <col min="8972" max="9216" width="7.09765625" style="182"/>
-    <col min="9217" max="9217" width="4.69921875" style="182" customWidth="1"/>
-    <col min="9218" max="9218" width="16.69921875" style="182" customWidth="1"/>
-    <col min="9219" max="9219" width="7.59765625" style="182" customWidth="1"/>
-    <col min="9220" max="9220" width="7.3984375" style="182" customWidth="1"/>
-    <col min="9221" max="9221" width="4.8984375" style="182" customWidth="1"/>
-    <col min="9222" max="9222" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9223" max="9223" width="4.59765625" style="182" customWidth="1"/>
-    <col min="9224" max="9224" width="5.09765625" style="182" customWidth="1"/>
-    <col min="9225" max="9225" width="10.09765625" style="182" customWidth="1"/>
-    <col min="9226" max="9226" width="10" style="182" customWidth="1"/>
-    <col min="9227" max="9227" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9228" max="9472" width="7.09765625" style="182"/>
-    <col min="9473" max="9473" width="4.69921875" style="182" customWidth="1"/>
-    <col min="9474" max="9474" width="16.69921875" style="182" customWidth="1"/>
-    <col min="9475" max="9475" width="7.59765625" style="182" customWidth="1"/>
-    <col min="9476" max="9476" width="7.3984375" style="182" customWidth="1"/>
-    <col min="9477" max="9477" width="4.8984375" style="182" customWidth="1"/>
-    <col min="9478" max="9478" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9479" max="9479" width="4.59765625" style="182" customWidth="1"/>
-    <col min="9480" max="9480" width="5.09765625" style="182" customWidth="1"/>
-    <col min="9481" max="9481" width="10.09765625" style="182" customWidth="1"/>
-    <col min="9482" max="9482" width="10" style="182" customWidth="1"/>
-    <col min="9483" max="9483" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9484" max="9728" width="7.09765625" style="182"/>
-    <col min="9729" max="9729" width="4.69921875" style="182" customWidth="1"/>
-    <col min="9730" max="9730" width="16.69921875" style="182" customWidth="1"/>
-    <col min="9731" max="9731" width="7.59765625" style="182" customWidth="1"/>
-    <col min="9732" max="9732" width="7.3984375" style="182" customWidth="1"/>
-    <col min="9733" max="9733" width="4.8984375" style="182" customWidth="1"/>
-    <col min="9734" max="9734" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9735" max="9735" width="4.59765625" style="182" customWidth="1"/>
-    <col min="9736" max="9736" width="5.09765625" style="182" customWidth="1"/>
-    <col min="9737" max="9737" width="10.09765625" style="182" customWidth="1"/>
-    <col min="9738" max="9738" width="10" style="182" customWidth="1"/>
-    <col min="9739" max="9739" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9740" max="9984" width="7.09765625" style="182"/>
-    <col min="9985" max="9985" width="4.69921875" style="182" customWidth="1"/>
-    <col min="9986" max="9986" width="16.69921875" style="182" customWidth="1"/>
-    <col min="9987" max="9987" width="7.59765625" style="182" customWidth="1"/>
-    <col min="9988" max="9988" width="7.3984375" style="182" customWidth="1"/>
-    <col min="9989" max="9989" width="4.8984375" style="182" customWidth="1"/>
-    <col min="9990" max="9990" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9991" max="9991" width="4.59765625" style="182" customWidth="1"/>
-    <col min="9992" max="9992" width="5.09765625" style="182" customWidth="1"/>
-    <col min="9993" max="9993" width="10.09765625" style="182" customWidth="1"/>
-    <col min="9994" max="9994" width="10" style="182" customWidth="1"/>
-    <col min="9995" max="9995" width="18.8984375" style="182" customWidth="1"/>
-    <col min="9996" max="10240" width="7.09765625" style="182"/>
-    <col min="10241" max="10241" width="4.69921875" style="182" customWidth="1"/>
-    <col min="10242" max="10242" width="16.69921875" style="182" customWidth="1"/>
-    <col min="10243" max="10243" width="7.59765625" style="182" customWidth="1"/>
-    <col min="10244" max="10244" width="7.3984375" style="182" customWidth="1"/>
-    <col min="10245" max="10245" width="4.8984375" style="182" customWidth="1"/>
-    <col min="10246" max="10246" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10247" max="10247" width="4.59765625" style="182" customWidth="1"/>
-    <col min="10248" max="10248" width="5.09765625" style="182" customWidth="1"/>
-    <col min="10249" max="10249" width="10.09765625" style="182" customWidth="1"/>
-    <col min="10250" max="10250" width="10" style="182" customWidth="1"/>
-    <col min="10251" max="10251" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10252" max="10496" width="7.09765625" style="182"/>
-    <col min="10497" max="10497" width="4.69921875" style="182" customWidth="1"/>
-    <col min="10498" max="10498" width="16.69921875" style="182" customWidth="1"/>
-    <col min="10499" max="10499" width="7.59765625" style="182" customWidth="1"/>
-    <col min="10500" max="10500" width="7.3984375" style="182" customWidth="1"/>
-    <col min="10501" max="10501" width="4.8984375" style="182" customWidth="1"/>
-    <col min="10502" max="10502" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10503" max="10503" width="4.59765625" style="182" customWidth="1"/>
-    <col min="10504" max="10504" width="5.09765625" style="182" customWidth="1"/>
-    <col min="10505" max="10505" width="10.09765625" style="182" customWidth="1"/>
-    <col min="10506" max="10506" width="10" style="182" customWidth="1"/>
-    <col min="10507" max="10507" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10508" max="10752" width="7.09765625" style="182"/>
-    <col min="10753" max="10753" width="4.69921875" style="182" customWidth="1"/>
-    <col min="10754" max="10754" width="16.69921875" style="182" customWidth="1"/>
-    <col min="10755" max="10755" width="7.59765625" style="182" customWidth="1"/>
-    <col min="10756" max="10756" width="7.3984375" style="182" customWidth="1"/>
-    <col min="10757" max="10757" width="4.8984375" style="182" customWidth="1"/>
-    <col min="10758" max="10758" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10759" max="10759" width="4.59765625" style="182" customWidth="1"/>
-    <col min="10760" max="10760" width="5.09765625" style="182" customWidth="1"/>
-    <col min="10761" max="10761" width="10.09765625" style="182" customWidth="1"/>
-    <col min="10762" max="10762" width="10" style="182" customWidth="1"/>
-    <col min="10763" max="10763" width="18.8984375" style="182" customWidth="1"/>
-    <col min="10764" max="11008" width="7.09765625" style="182"/>
-    <col min="11009" max="11009" width="4.69921875" style="182" customWidth="1"/>
-    <col min="11010" max="11010" width="16.69921875" style="182" customWidth="1"/>
-    <col min="11011" max="11011" width="7.59765625" style="182" customWidth="1"/>
-    <col min="11012" max="11012" width="7.3984375" style="182" customWidth="1"/>
-    <col min="11013" max="11013" width="4.8984375" style="182" customWidth="1"/>
-    <col min="11014" max="11014" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11015" max="11015" width="4.59765625" style="182" customWidth="1"/>
-    <col min="11016" max="11016" width="5.09765625" style="182" customWidth="1"/>
-    <col min="11017" max="11017" width="10.09765625" style="182" customWidth="1"/>
-    <col min="11018" max="11018" width="10" style="182" customWidth="1"/>
-    <col min="11019" max="11019" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11020" max="11264" width="7.09765625" style="182"/>
-    <col min="11265" max="11265" width="4.69921875" style="182" customWidth="1"/>
-    <col min="11266" max="11266" width="16.69921875" style="182" customWidth="1"/>
-    <col min="11267" max="11267" width="7.59765625" style="182" customWidth="1"/>
-    <col min="11268" max="11268" width="7.3984375" style="182" customWidth="1"/>
-    <col min="11269" max="11269" width="4.8984375" style="182" customWidth="1"/>
-    <col min="11270" max="11270" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11271" max="11271" width="4.59765625" style="182" customWidth="1"/>
-    <col min="11272" max="11272" width="5.09765625" style="182" customWidth="1"/>
-    <col min="11273" max="11273" width="10.09765625" style="182" customWidth="1"/>
-    <col min="11274" max="11274" width="10" style="182" customWidth="1"/>
-    <col min="11275" max="11275" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11276" max="11520" width="7.09765625" style="182"/>
-    <col min="11521" max="11521" width="4.69921875" style="182" customWidth="1"/>
-    <col min="11522" max="11522" width="16.69921875" style="182" customWidth="1"/>
-    <col min="11523" max="11523" width="7.59765625" style="182" customWidth="1"/>
-    <col min="11524" max="11524" width="7.3984375" style="182" customWidth="1"/>
-    <col min="11525" max="11525" width="4.8984375" style="182" customWidth="1"/>
-    <col min="11526" max="11526" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11527" max="11527" width="4.59765625" style="182" customWidth="1"/>
-    <col min="11528" max="11528" width="5.09765625" style="182" customWidth="1"/>
-    <col min="11529" max="11529" width="10.09765625" style="182" customWidth="1"/>
-    <col min="11530" max="11530" width="10" style="182" customWidth="1"/>
-    <col min="11531" max="11531" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11532" max="11776" width="7.09765625" style="182"/>
-    <col min="11777" max="11777" width="4.69921875" style="182" customWidth="1"/>
-    <col min="11778" max="11778" width="16.69921875" style="182" customWidth="1"/>
-    <col min="11779" max="11779" width="7.59765625" style="182" customWidth="1"/>
-    <col min="11780" max="11780" width="7.3984375" style="182" customWidth="1"/>
-    <col min="11781" max="11781" width="4.8984375" style="182" customWidth="1"/>
-    <col min="11782" max="11782" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11783" max="11783" width="4.59765625" style="182" customWidth="1"/>
-    <col min="11784" max="11784" width="5.09765625" style="182" customWidth="1"/>
-    <col min="11785" max="11785" width="10.09765625" style="182" customWidth="1"/>
-    <col min="11786" max="11786" width="10" style="182" customWidth="1"/>
-    <col min="11787" max="11787" width="18.8984375" style="182" customWidth="1"/>
-    <col min="11788" max="12032" width="7.09765625" style="182"/>
-    <col min="12033" max="12033" width="4.69921875" style="182" customWidth="1"/>
-    <col min="12034" max="12034" width="16.69921875" style="182" customWidth="1"/>
-    <col min="12035" max="12035" width="7.59765625" style="182" customWidth="1"/>
-    <col min="12036" max="12036" width="7.3984375" style="182" customWidth="1"/>
-    <col min="12037" max="12037" width="4.8984375" style="182" customWidth="1"/>
-    <col min="12038" max="12038" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12039" max="12039" width="4.59765625" style="182" customWidth="1"/>
-    <col min="12040" max="12040" width="5.09765625" style="182" customWidth="1"/>
-    <col min="12041" max="12041" width="10.09765625" style="182" customWidth="1"/>
-    <col min="12042" max="12042" width="10" style="182" customWidth="1"/>
-    <col min="12043" max="12043" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12044" max="12288" width="7.09765625" style="182"/>
-    <col min="12289" max="12289" width="4.69921875" style="182" customWidth="1"/>
-    <col min="12290" max="12290" width="16.69921875" style="182" customWidth="1"/>
-    <col min="12291" max="12291" width="7.59765625" style="182" customWidth="1"/>
-    <col min="12292" max="12292" width="7.3984375" style="182" customWidth="1"/>
-    <col min="12293" max="12293" width="4.8984375" style="182" customWidth="1"/>
-    <col min="12294" max="12294" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12295" max="12295" width="4.59765625" style="182" customWidth="1"/>
-    <col min="12296" max="12296" width="5.09765625" style="182" customWidth="1"/>
-    <col min="12297" max="12297" width="10.09765625" style="182" customWidth="1"/>
-    <col min="12298" max="12298" width="10" style="182" customWidth="1"/>
-    <col min="12299" max="12299" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12300" max="12544" width="7.09765625" style="182"/>
-    <col min="12545" max="12545" width="4.69921875" style="182" customWidth="1"/>
-    <col min="12546" max="12546" width="16.69921875" style="182" customWidth="1"/>
-    <col min="12547" max="12547" width="7.59765625" style="182" customWidth="1"/>
-    <col min="12548" max="12548" width="7.3984375" style="182" customWidth="1"/>
-    <col min="12549" max="12549" width="4.8984375" style="182" customWidth="1"/>
-    <col min="12550" max="12550" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12551" max="12551" width="4.59765625" style="182" customWidth="1"/>
-    <col min="12552" max="12552" width="5.09765625" style="182" customWidth="1"/>
-    <col min="12553" max="12553" width="10.09765625" style="182" customWidth="1"/>
-    <col min="12554" max="12554" width="10" style="182" customWidth="1"/>
-    <col min="12555" max="12555" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12556" max="12800" width="7.09765625" style="182"/>
-    <col min="12801" max="12801" width="4.69921875" style="182" customWidth="1"/>
-    <col min="12802" max="12802" width="16.69921875" style="182" customWidth="1"/>
-    <col min="12803" max="12803" width="7.59765625" style="182" customWidth="1"/>
-    <col min="12804" max="12804" width="7.3984375" style="182" customWidth="1"/>
-    <col min="12805" max="12805" width="4.8984375" style="182" customWidth="1"/>
-    <col min="12806" max="12806" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12807" max="12807" width="4.59765625" style="182" customWidth="1"/>
-    <col min="12808" max="12808" width="5.09765625" style="182" customWidth="1"/>
-    <col min="12809" max="12809" width="10.09765625" style="182" customWidth="1"/>
-    <col min="12810" max="12810" width="10" style="182" customWidth="1"/>
-    <col min="12811" max="12811" width="18.8984375" style="182" customWidth="1"/>
-    <col min="12812" max="13056" width="7.09765625" style="182"/>
-    <col min="13057" max="13057" width="4.69921875" style="182" customWidth="1"/>
-    <col min="13058" max="13058" width="16.69921875" style="182" customWidth="1"/>
-    <col min="13059" max="13059" width="7.59765625" style="182" customWidth="1"/>
-    <col min="13060" max="13060" width="7.3984375" style="182" customWidth="1"/>
-    <col min="13061" max="13061" width="4.8984375" style="182" customWidth="1"/>
-    <col min="13062" max="13062" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13063" max="13063" width="4.59765625" style="182" customWidth="1"/>
-    <col min="13064" max="13064" width="5.09765625" style="182" customWidth="1"/>
-    <col min="13065" max="13065" width="10.09765625" style="182" customWidth="1"/>
-    <col min="13066" max="13066" width="10" style="182" customWidth="1"/>
-    <col min="13067" max="13067" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13068" max="13312" width="7.09765625" style="182"/>
-    <col min="13313" max="13313" width="4.69921875" style="182" customWidth="1"/>
-    <col min="13314" max="13314" width="16.69921875" style="182" customWidth="1"/>
-    <col min="13315" max="13315" width="7.59765625" style="182" customWidth="1"/>
-    <col min="13316" max="13316" width="7.3984375" style="182" customWidth="1"/>
-    <col min="13317" max="13317" width="4.8984375" style="182" customWidth="1"/>
-    <col min="13318" max="13318" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13319" max="13319" width="4.59765625" style="182" customWidth="1"/>
-    <col min="13320" max="13320" width="5.09765625" style="182" customWidth="1"/>
-    <col min="13321" max="13321" width="10.09765625" style="182" customWidth="1"/>
-    <col min="13322" max="13322" width="10" style="182" customWidth="1"/>
-    <col min="13323" max="13323" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13324" max="13568" width="7.09765625" style="182"/>
-    <col min="13569" max="13569" width="4.69921875" style="182" customWidth="1"/>
-    <col min="13570" max="13570" width="16.69921875" style="182" customWidth="1"/>
-    <col min="13571" max="13571" width="7.59765625" style="182" customWidth="1"/>
-    <col min="13572" max="13572" width="7.3984375" style="182" customWidth="1"/>
-    <col min="13573" max="13573" width="4.8984375" style="182" customWidth="1"/>
-    <col min="13574" max="13574" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13575" max="13575" width="4.59765625" style="182" customWidth="1"/>
-    <col min="13576" max="13576" width="5.09765625" style="182" customWidth="1"/>
-    <col min="13577" max="13577" width="10.09765625" style="182" customWidth="1"/>
-    <col min="13578" max="13578" width="10" style="182" customWidth="1"/>
-    <col min="13579" max="13579" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13580" max="13824" width="7.09765625" style="182"/>
-    <col min="13825" max="13825" width="4.69921875" style="182" customWidth="1"/>
-    <col min="13826" max="13826" width="16.69921875" style="182" customWidth="1"/>
-    <col min="13827" max="13827" width="7.59765625" style="182" customWidth="1"/>
-    <col min="13828" max="13828" width="7.3984375" style="182" customWidth="1"/>
-    <col min="13829" max="13829" width="4.8984375" style="182" customWidth="1"/>
-    <col min="13830" max="13830" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13831" max="13831" width="4.59765625" style="182" customWidth="1"/>
-    <col min="13832" max="13832" width="5.09765625" style="182" customWidth="1"/>
-    <col min="13833" max="13833" width="10.09765625" style="182" customWidth="1"/>
-    <col min="13834" max="13834" width="10" style="182" customWidth="1"/>
-    <col min="13835" max="13835" width="18.8984375" style="182" customWidth="1"/>
-    <col min="13836" max="14080" width="7.09765625" style="182"/>
-    <col min="14081" max="14081" width="4.69921875" style="182" customWidth="1"/>
-    <col min="14082" max="14082" width="16.69921875" style="182" customWidth="1"/>
-    <col min="14083" max="14083" width="7.59765625" style="182" customWidth="1"/>
-    <col min="14084" max="14084" width="7.3984375" style="182" customWidth="1"/>
-    <col min="14085" max="14085" width="4.8984375" style="182" customWidth="1"/>
-    <col min="14086" max="14086" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14087" max="14087" width="4.59765625" style="182" customWidth="1"/>
-    <col min="14088" max="14088" width="5.09765625" style="182" customWidth="1"/>
-    <col min="14089" max="14089" width="10.09765625" style="182" customWidth="1"/>
-    <col min="14090" max="14090" width="10" style="182" customWidth="1"/>
-    <col min="14091" max="14091" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14092" max="14336" width="7.09765625" style="182"/>
-    <col min="14337" max="14337" width="4.69921875" style="182" customWidth="1"/>
-    <col min="14338" max="14338" width="16.69921875" style="182" customWidth="1"/>
-    <col min="14339" max="14339" width="7.59765625" style="182" customWidth="1"/>
-    <col min="14340" max="14340" width="7.3984375" style="182" customWidth="1"/>
-    <col min="14341" max="14341" width="4.8984375" style="182" customWidth="1"/>
-    <col min="14342" max="14342" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14343" max="14343" width="4.59765625" style="182" customWidth="1"/>
-    <col min="14344" max="14344" width="5.09765625" style="182" customWidth="1"/>
-    <col min="14345" max="14345" width="10.09765625" style="182" customWidth="1"/>
-    <col min="14346" max="14346" width="10" style="182" customWidth="1"/>
-    <col min="14347" max="14347" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14348" max="14592" width="7.09765625" style="182"/>
-    <col min="14593" max="14593" width="4.69921875" style="182" customWidth="1"/>
-    <col min="14594" max="14594" width="16.69921875" style="182" customWidth="1"/>
-    <col min="14595" max="14595" width="7.59765625" style="182" customWidth="1"/>
-    <col min="14596" max="14596" width="7.3984375" style="182" customWidth="1"/>
-    <col min="14597" max="14597" width="4.8984375" style="182" customWidth="1"/>
-    <col min="14598" max="14598" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14599" max="14599" width="4.59765625" style="182" customWidth="1"/>
-    <col min="14600" max="14600" width="5.09765625" style="182" customWidth="1"/>
-    <col min="14601" max="14601" width="10.09765625" style="182" customWidth="1"/>
-    <col min="14602" max="14602" width="10" style="182" customWidth="1"/>
-    <col min="14603" max="14603" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14604" max="14848" width="7.09765625" style="182"/>
-    <col min="14849" max="14849" width="4.69921875" style="182" customWidth="1"/>
-    <col min="14850" max="14850" width="16.69921875" style="182" customWidth="1"/>
-    <col min="14851" max="14851" width="7.59765625" style="182" customWidth="1"/>
-    <col min="14852" max="14852" width="7.3984375" style="182" customWidth="1"/>
-    <col min="14853" max="14853" width="4.8984375" style="182" customWidth="1"/>
-    <col min="14854" max="14854" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14855" max="14855" width="4.59765625" style="182" customWidth="1"/>
-    <col min="14856" max="14856" width="5.09765625" style="182" customWidth="1"/>
-    <col min="14857" max="14857" width="10.09765625" style="182" customWidth="1"/>
-    <col min="14858" max="14858" width="10" style="182" customWidth="1"/>
-    <col min="14859" max="14859" width="18.8984375" style="182" customWidth="1"/>
-    <col min="14860" max="15104" width="7.09765625" style="182"/>
-    <col min="15105" max="15105" width="4.69921875" style="182" customWidth="1"/>
-    <col min="15106" max="15106" width="16.69921875" style="182" customWidth="1"/>
-    <col min="15107" max="15107" width="7.59765625" style="182" customWidth="1"/>
-    <col min="15108" max="15108" width="7.3984375" style="182" customWidth="1"/>
-    <col min="15109" max="15109" width="4.8984375" style="182" customWidth="1"/>
-    <col min="15110" max="15110" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15111" max="15111" width="4.59765625" style="182" customWidth="1"/>
-    <col min="15112" max="15112" width="5.09765625" style="182" customWidth="1"/>
-    <col min="15113" max="15113" width="10.09765625" style="182" customWidth="1"/>
-    <col min="15114" max="15114" width="10" style="182" customWidth="1"/>
-    <col min="15115" max="15115" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15116" max="15360" width="7.09765625" style="182"/>
-    <col min="15361" max="15361" width="4.69921875" style="182" customWidth="1"/>
-    <col min="15362" max="15362" width="16.69921875" style="182" customWidth="1"/>
-    <col min="15363" max="15363" width="7.59765625" style="182" customWidth="1"/>
-    <col min="15364" max="15364" width="7.3984375" style="182" customWidth="1"/>
-    <col min="15365" max="15365" width="4.8984375" style="182" customWidth="1"/>
-    <col min="15366" max="15366" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15367" max="15367" width="4.59765625" style="182" customWidth="1"/>
-    <col min="15368" max="15368" width="5.09765625" style="182" customWidth="1"/>
-    <col min="15369" max="15369" width="10.09765625" style="182" customWidth="1"/>
-    <col min="15370" max="15370" width="10" style="182" customWidth="1"/>
-    <col min="15371" max="15371" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15372" max="15616" width="7.09765625" style="182"/>
-    <col min="15617" max="15617" width="4.69921875" style="182" customWidth="1"/>
-    <col min="15618" max="15618" width="16.69921875" style="182" customWidth="1"/>
-    <col min="15619" max="15619" width="7.59765625" style="182" customWidth="1"/>
-    <col min="15620" max="15620" width="7.3984375" style="182" customWidth="1"/>
-    <col min="15621" max="15621" width="4.8984375" style="182" customWidth="1"/>
-    <col min="15622" max="15622" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15623" max="15623" width="4.59765625" style="182" customWidth="1"/>
-    <col min="15624" max="15624" width="5.09765625" style="182" customWidth="1"/>
-    <col min="15625" max="15625" width="10.09765625" style="182" customWidth="1"/>
-    <col min="15626" max="15626" width="10" style="182" customWidth="1"/>
-    <col min="15627" max="15627" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15628" max="15872" width="7.09765625" style="182"/>
-    <col min="15873" max="15873" width="4.69921875" style="182" customWidth="1"/>
-    <col min="15874" max="15874" width="16.69921875" style="182" customWidth="1"/>
-    <col min="15875" max="15875" width="7.59765625" style="182" customWidth="1"/>
-    <col min="15876" max="15876" width="7.3984375" style="182" customWidth="1"/>
-    <col min="15877" max="15877" width="4.8984375" style="182" customWidth="1"/>
-    <col min="15878" max="15878" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15879" max="15879" width="4.59765625" style="182" customWidth="1"/>
-    <col min="15880" max="15880" width="5.09765625" style="182" customWidth="1"/>
-    <col min="15881" max="15881" width="10.09765625" style="182" customWidth="1"/>
-    <col min="15882" max="15882" width="10" style="182" customWidth="1"/>
-    <col min="15883" max="15883" width="18.8984375" style="182" customWidth="1"/>
-    <col min="15884" max="16128" width="7.09765625" style="182"/>
-    <col min="16129" max="16129" width="4.69921875" style="182" customWidth="1"/>
-    <col min="16130" max="16130" width="16.69921875" style="182" customWidth="1"/>
-    <col min="16131" max="16131" width="7.59765625" style="182" customWidth="1"/>
-    <col min="16132" max="16132" width="7.3984375" style="182" customWidth="1"/>
-    <col min="16133" max="16133" width="4.8984375" style="182" customWidth="1"/>
-    <col min="16134" max="16134" width="18.8984375" style="182" customWidth="1"/>
-    <col min="16135" max="16135" width="4.59765625" style="182" customWidth="1"/>
-    <col min="16136" max="16136" width="5.09765625" style="182" customWidth="1"/>
-    <col min="16137" max="16137" width="10.09765625" style="182" customWidth="1"/>
-    <col min="16138" max="16138" width="10" style="182" customWidth="1"/>
-    <col min="16139" max="16139" width="18.8984375" style="182" customWidth="1"/>
-    <col min="16140" max="16384" width="7.09765625" style="182"/>
+    <col min="1" max="1" width="4.75" style="116" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="116" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="116" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="116" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="116" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="116" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="116" customWidth="1"/>
+    <col min="10" max="10" width="10" style="116" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="116" customWidth="1"/>
+    <col min="12" max="256" width="7.125" style="116"/>
+    <col min="257" max="257" width="4.75" style="116" customWidth="1"/>
+    <col min="258" max="258" width="16.75" style="116" customWidth="1"/>
+    <col min="259" max="259" width="7.625" style="116" customWidth="1"/>
+    <col min="260" max="260" width="7.375" style="116" customWidth="1"/>
+    <col min="261" max="261" width="4.875" style="116" customWidth="1"/>
+    <col min="262" max="262" width="18.875" style="116" customWidth="1"/>
+    <col min="263" max="263" width="4.625" style="116" customWidth="1"/>
+    <col min="264" max="264" width="5.125" style="116" customWidth="1"/>
+    <col min="265" max="265" width="10.125" style="116" customWidth="1"/>
+    <col min="266" max="266" width="10" style="116" customWidth="1"/>
+    <col min="267" max="267" width="18.875" style="116" customWidth="1"/>
+    <col min="268" max="512" width="7.125" style="116"/>
+    <col min="513" max="513" width="4.75" style="116" customWidth="1"/>
+    <col min="514" max="514" width="16.75" style="116" customWidth="1"/>
+    <col min="515" max="515" width="7.625" style="116" customWidth="1"/>
+    <col min="516" max="516" width="7.375" style="116" customWidth="1"/>
+    <col min="517" max="517" width="4.875" style="116" customWidth="1"/>
+    <col min="518" max="518" width="18.875" style="116" customWidth="1"/>
+    <col min="519" max="519" width="4.625" style="116" customWidth="1"/>
+    <col min="520" max="520" width="5.125" style="116" customWidth="1"/>
+    <col min="521" max="521" width="10.125" style="116" customWidth="1"/>
+    <col min="522" max="522" width="10" style="116" customWidth="1"/>
+    <col min="523" max="523" width="18.875" style="116" customWidth="1"/>
+    <col min="524" max="768" width="7.125" style="116"/>
+    <col min="769" max="769" width="4.75" style="116" customWidth="1"/>
+    <col min="770" max="770" width="16.75" style="116" customWidth="1"/>
+    <col min="771" max="771" width="7.625" style="116" customWidth="1"/>
+    <col min="772" max="772" width="7.375" style="116" customWidth="1"/>
+    <col min="773" max="773" width="4.875" style="116" customWidth="1"/>
+    <col min="774" max="774" width="18.875" style="116" customWidth="1"/>
+    <col min="775" max="775" width="4.625" style="116" customWidth="1"/>
+    <col min="776" max="776" width="5.125" style="116" customWidth="1"/>
+    <col min="777" max="777" width="10.125" style="116" customWidth="1"/>
+    <col min="778" max="778" width="10" style="116" customWidth="1"/>
+    <col min="779" max="779" width="18.875" style="116" customWidth="1"/>
+    <col min="780" max="1024" width="7.125" style="116"/>
+    <col min="1025" max="1025" width="4.75" style="116" customWidth="1"/>
+    <col min="1026" max="1026" width="16.75" style="116" customWidth="1"/>
+    <col min="1027" max="1027" width="7.625" style="116" customWidth="1"/>
+    <col min="1028" max="1028" width="7.375" style="116" customWidth="1"/>
+    <col min="1029" max="1029" width="4.875" style="116" customWidth="1"/>
+    <col min="1030" max="1030" width="18.875" style="116" customWidth="1"/>
+    <col min="1031" max="1031" width="4.625" style="116" customWidth="1"/>
+    <col min="1032" max="1032" width="5.125" style="116" customWidth="1"/>
+    <col min="1033" max="1033" width="10.125" style="116" customWidth="1"/>
+    <col min="1034" max="1034" width="10" style="116" customWidth="1"/>
+    <col min="1035" max="1035" width="18.875" style="116" customWidth="1"/>
+    <col min="1036" max="1280" width="7.125" style="116"/>
+    <col min="1281" max="1281" width="4.75" style="116" customWidth="1"/>
+    <col min="1282" max="1282" width="16.75" style="116" customWidth="1"/>
+    <col min="1283" max="1283" width="7.625" style="116" customWidth="1"/>
+    <col min="1284" max="1284" width="7.375" style="116" customWidth="1"/>
+    <col min="1285" max="1285" width="4.875" style="116" customWidth="1"/>
+    <col min="1286" max="1286" width="18.875" style="116" customWidth="1"/>
+    <col min="1287" max="1287" width="4.625" style="116" customWidth="1"/>
+    <col min="1288" max="1288" width="5.125" style="116" customWidth="1"/>
+    <col min="1289" max="1289" width="10.125" style="116" customWidth="1"/>
+    <col min="1290" max="1290" width="10" style="116" customWidth="1"/>
+    <col min="1291" max="1291" width="18.875" style="116" customWidth="1"/>
+    <col min="1292" max="1536" width="7.125" style="116"/>
+    <col min="1537" max="1537" width="4.75" style="116" customWidth="1"/>
+    <col min="1538" max="1538" width="16.75" style="116" customWidth="1"/>
+    <col min="1539" max="1539" width="7.625" style="116" customWidth="1"/>
+    <col min="1540" max="1540" width="7.375" style="116" customWidth="1"/>
+    <col min="1541" max="1541" width="4.875" style="116" customWidth="1"/>
+    <col min="1542" max="1542" width="18.875" style="116" customWidth="1"/>
+    <col min="1543" max="1543" width="4.625" style="116" customWidth="1"/>
+    <col min="1544" max="1544" width="5.125" style="116" customWidth="1"/>
+    <col min="1545" max="1545" width="10.125" style="116" customWidth="1"/>
+    <col min="1546" max="1546" width="10" style="116" customWidth="1"/>
+    <col min="1547" max="1547" width="18.875" style="116" customWidth="1"/>
+    <col min="1548" max="1792" width="7.125" style="116"/>
+    <col min="1793" max="1793" width="4.75" style="116" customWidth="1"/>
+    <col min="1794" max="1794" width="16.75" style="116" customWidth="1"/>
+    <col min="1795" max="1795" width="7.625" style="116" customWidth="1"/>
+    <col min="1796" max="1796" width="7.375" style="116" customWidth="1"/>
+    <col min="1797" max="1797" width="4.875" style="116" customWidth="1"/>
+    <col min="1798" max="1798" width="18.875" style="116" customWidth="1"/>
+    <col min="1799" max="1799" width="4.625" style="116" customWidth="1"/>
+    <col min="1800" max="1800" width="5.125" style="116" customWidth="1"/>
+    <col min="1801" max="1801" width="10.125" style="116" customWidth="1"/>
+    <col min="1802" max="1802" width="10" style="116" customWidth="1"/>
+    <col min="1803" max="1803" width="18.875" style="116" customWidth="1"/>
+    <col min="1804" max="2048" width="7.125" style="116"/>
+    <col min="2049" max="2049" width="4.75" style="116" customWidth="1"/>
+    <col min="2050" max="2050" width="16.75" style="116" customWidth="1"/>
+    <col min="2051" max="2051" width="7.625" style="116" customWidth="1"/>
+    <col min="2052" max="2052" width="7.375" style="116" customWidth="1"/>
+    <col min="2053" max="2053" width="4.875" style="116" customWidth="1"/>
+    <col min="2054" max="2054" width="18.875" style="116" customWidth="1"/>
+    <col min="2055" max="2055" width="4.625" style="116" customWidth="1"/>
+    <col min="2056" max="2056" width="5.125" style="116" customWidth="1"/>
+    <col min="2057" max="2057" width="10.125" style="116" customWidth="1"/>
+    <col min="2058" max="2058" width="10" style="116" customWidth="1"/>
+    <col min="2059" max="2059" width="18.875" style="116" customWidth="1"/>
+    <col min="2060" max="2304" width="7.125" style="116"/>
+    <col min="2305" max="2305" width="4.75" style="116" customWidth="1"/>
+    <col min="2306" max="2306" width="16.75" style="116" customWidth="1"/>
+    <col min="2307" max="2307" width="7.625" style="116" customWidth="1"/>
+    <col min="2308" max="2308" width="7.375" style="116" customWidth="1"/>
+    <col min="2309" max="2309" width="4.875" style="116" customWidth="1"/>
+    <col min="2310" max="2310" width="18.875" style="116" customWidth="1"/>
+    <col min="2311" max="2311" width="4.625" style="116" customWidth="1"/>
+    <col min="2312" max="2312" width="5.125" style="116" customWidth="1"/>
+    <col min="2313" max="2313" width="10.125" style="116" customWidth="1"/>
+    <col min="2314" max="2314" width="10" style="116" customWidth="1"/>
+    <col min="2315" max="2315" width="18.875" style="116" customWidth="1"/>
+    <col min="2316" max="2560" width="7.125" style="116"/>
+    <col min="2561" max="2561" width="4.75" style="116" customWidth="1"/>
+    <col min="2562" max="2562" width="16.75" style="116" customWidth="1"/>
+    <col min="2563" max="2563" width="7.625" style="116" customWidth="1"/>
+    <col min="2564" max="2564" width="7.375" style="116" customWidth="1"/>
+    <col min="2565" max="2565" width="4.875" style="116" customWidth="1"/>
+    <col min="2566" max="2566" width="18.875" style="116" customWidth="1"/>
+    <col min="2567" max="2567" width="4.625" style="116" customWidth="1"/>
+    <col min="2568" max="2568" width="5.125" style="116" customWidth="1"/>
+    <col min="2569" max="2569" width="10.125" style="116" customWidth="1"/>
+    <col min="2570" max="2570" width="10" style="116" customWidth="1"/>
+    <col min="2571" max="2571" width="18.875" style="116" customWidth="1"/>
+    <col min="2572" max="2816" width="7.125" style="116"/>
+    <col min="2817" max="2817" width="4.75" style="116" customWidth="1"/>
+    <col min="2818" max="2818" width="16.75" style="116" customWidth="1"/>
+    <col min="2819" max="2819" width="7.625" style="116" customWidth="1"/>
+    <col min="2820" max="2820" width="7.375" style="116" customWidth="1"/>
+    <col min="2821" max="2821" width="4.875" style="116" customWidth="1"/>
+    <col min="2822" max="2822" width="18.875" style="116" customWidth="1"/>
+    <col min="2823" max="2823" width="4.625" style="116" customWidth="1"/>
+    <col min="2824" max="2824" width="5.125" style="116" customWidth="1"/>
+    <col min="2825" max="2825" width="10.125" style="116" customWidth="1"/>
+    <col min="2826" max="2826" width="10" style="116" customWidth="1"/>
+    <col min="2827" max="2827" width="18.875" style="116" customWidth="1"/>
+    <col min="2828" max="3072" width="7.125" style="116"/>
+    <col min="3073" max="3073" width="4.75" style="116" customWidth="1"/>
+    <col min="3074" max="3074" width="16.75" style="116" customWidth="1"/>
+    <col min="3075" max="3075" width="7.625" style="116" customWidth="1"/>
+    <col min="3076" max="3076" width="7.375" style="116" customWidth="1"/>
+    <col min="3077" max="3077" width="4.875" style="116" customWidth="1"/>
+    <col min="3078" max="3078" width="18.875" style="116" customWidth="1"/>
+    <col min="3079" max="3079" width="4.625" style="116" customWidth="1"/>
+    <col min="3080" max="3080" width="5.125" style="116" customWidth="1"/>
+    <col min="3081" max="3081" width="10.125" style="116" customWidth="1"/>
+    <col min="3082" max="3082" width="10" style="116" customWidth="1"/>
+    <col min="3083" max="3083" width="18.875" style="116" customWidth="1"/>
+    <col min="3084" max="3328" width="7.125" style="116"/>
+    <col min="3329" max="3329" width="4.75" style="116" customWidth="1"/>
+    <col min="3330" max="3330" width="16.75" style="116" customWidth="1"/>
+    <col min="3331" max="3331" width="7.625" style="116" customWidth="1"/>
+    <col min="3332" max="3332" width="7.375" style="116" customWidth="1"/>
+    <col min="3333" max="3333" width="4.875" style="116" customWidth="1"/>
+    <col min="3334" max="3334" width="18.875" style="116" customWidth="1"/>
+    <col min="3335" max="3335" width="4.625" style="116" customWidth="1"/>
+    <col min="3336" max="3336" width="5.125" style="116" customWidth="1"/>
+    <col min="3337" max="3337" width="10.125" style="116" customWidth="1"/>
+    <col min="3338" max="3338" width="10" style="116" customWidth="1"/>
+    <col min="3339" max="3339" width="18.875" style="116" customWidth="1"/>
+    <col min="3340" max="3584" width="7.125" style="116"/>
+    <col min="3585" max="3585" width="4.75" style="116" customWidth="1"/>
+    <col min="3586" max="3586" width="16.75" style="116" customWidth="1"/>
+    <col min="3587" max="3587" width="7.625" style="116" customWidth="1"/>
+    <col min="3588" max="3588" width="7.375" style="116" customWidth="1"/>
+    <col min="3589" max="3589" width="4.875" style="116" customWidth="1"/>
+    <col min="3590" max="3590" width="18.875" style="116" customWidth="1"/>
+    <col min="3591" max="3591" width="4.625" style="116" customWidth="1"/>
+    <col min="3592" max="3592" width="5.125" style="116" customWidth="1"/>
+    <col min="3593" max="3593" width="10.125" style="116" customWidth="1"/>
+    <col min="3594" max="3594" width="10" style="116" customWidth="1"/>
+    <col min="3595" max="3595" width="18.875" style="116" customWidth="1"/>
+    <col min="3596" max="3840" width="7.125" style="116"/>
+    <col min="3841" max="3841" width="4.75" style="116" customWidth="1"/>
+    <col min="3842" max="3842" width="16.75" style="116" customWidth="1"/>
+    <col min="3843" max="3843" width="7.625" style="116" customWidth="1"/>
+    <col min="3844" max="3844" width="7.375" style="116" customWidth="1"/>
+    <col min="3845" max="3845" width="4.875" style="116" customWidth="1"/>
+    <col min="3846" max="3846" width="18.875" style="116" customWidth="1"/>
+    <col min="3847" max="3847" width="4.625" style="116" customWidth="1"/>
+    <col min="3848" max="3848" width="5.125" style="116" customWidth="1"/>
+    <col min="3849" max="3849" width="10.125" style="116" customWidth="1"/>
+    <col min="3850" max="3850" width="10" style="116" customWidth="1"/>
+    <col min="3851" max="3851" width="18.875" style="116" customWidth="1"/>
+    <col min="3852" max="4096" width="7.125" style="116"/>
+    <col min="4097" max="4097" width="4.75" style="116" customWidth="1"/>
+    <col min="4098" max="4098" width="16.75" style="116" customWidth="1"/>
+    <col min="4099" max="4099" width="7.625" style="116" customWidth="1"/>
+    <col min="4100" max="4100" width="7.375" style="116" customWidth="1"/>
+    <col min="4101" max="4101" width="4.875" style="116" customWidth="1"/>
+    <col min="4102" max="4102" width="18.875" style="116" customWidth="1"/>
+    <col min="4103" max="4103" width="4.625" style="116" customWidth="1"/>
+    <col min="4104" max="4104" width="5.125" style="116" customWidth="1"/>
+    <col min="4105" max="4105" width="10.125" style="116" customWidth="1"/>
+    <col min="4106" max="4106" width="10" style="116" customWidth="1"/>
+    <col min="4107" max="4107" width="18.875" style="116" customWidth="1"/>
+    <col min="4108" max="4352" width="7.125" style="116"/>
+    <col min="4353" max="4353" width="4.75" style="116" customWidth="1"/>
+    <col min="4354" max="4354" width="16.75" style="116" customWidth="1"/>
+    <col min="4355" max="4355" width="7.625" style="116" customWidth="1"/>
+    <col min="4356" max="4356" width="7.375" style="116" customWidth="1"/>
+    <col min="4357" max="4357" width="4.875" style="116" customWidth="1"/>
+    <col min="4358" max="4358" width="18.875" style="116" customWidth="1"/>
+    <col min="4359" max="4359" width="4.625" style="116" customWidth="1"/>
+    <col min="4360" max="4360" width="5.125" style="116" customWidth="1"/>
+    <col min="4361" max="4361" width="10.125" style="116" customWidth="1"/>
+    <col min="4362" max="4362" width="10" style="116" customWidth="1"/>
+    <col min="4363" max="4363" width="18.875" style="116" customWidth="1"/>
+    <col min="4364" max="4608" width="7.125" style="116"/>
+    <col min="4609" max="4609" width="4.75" style="116" customWidth="1"/>
+    <col min="4610" max="4610" width="16.75" style="116" customWidth="1"/>
+    <col min="4611" max="4611" width="7.625" style="116" customWidth="1"/>
+    <col min="4612" max="4612" width="7.375" style="116" customWidth="1"/>
+    <col min="4613" max="4613" width="4.875" style="116" customWidth="1"/>
+    <col min="4614" max="4614" width="18.875" style="116" customWidth="1"/>
+    <col min="4615" max="4615" width="4.625" style="116" customWidth="1"/>
+    <col min="4616" max="4616" width="5.125" style="116" customWidth="1"/>
+    <col min="4617" max="4617" width="10.125" style="116" customWidth="1"/>
+    <col min="4618" max="4618" width="10" style="116" customWidth="1"/>
+    <col min="4619" max="4619" width="18.875" style="116" customWidth="1"/>
+    <col min="4620" max="4864" width="7.125" style="116"/>
+    <col min="4865" max="4865" width="4.75" style="116" customWidth="1"/>
+    <col min="4866" max="4866" width="16.75" style="116" customWidth="1"/>
+    <col min="4867" max="4867" width="7.625" style="116" customWidth="1"/>
+    <col min="4868" max="4868" width="7.375" style="116" customWidth="1"/>
+    <col min="4869" max="4869" width="4.875" style="116" customWidth="1"/>
+    <col min="4870" max="4870" width="18.875" style="116" customWidth="1"/>
+    <col min="4871" max="4871" width="4.625" style="116" customWidth="1"/>
+    <col min="4872" max="4872" width="5.125" style="116" customWidth="1"/>
+    <col min="4873" max="4873" width="10.125" style="116" customWidth="1"/>
+    <col min="4874" max="4874" width="10" style="116" customWidth="1"/>
+    <col min="4875" max="4875" width="18.875" style="116" customWidth="1"/>
+    <col min="4876" max="5120" width="7.125" style="116"/>
+    <col min="5121" max="5121" width="4.75" style="116" customWidth="1"/>
+    <col min="5122" max="5122" width="16.75" style="116" customWidth="1"/>
+    <col min="5123" max="5123" width="7.625" style="116" customWidth="1"/>
+    <col min="5124" max="5124" width="7.375" style="116" customWidth="1"/>
+    <col min="5125" max="5125" width="4.875" style="116" customWidth="1"/>
+    <col min="5126" max="5126" width="18.875" style="116" customWidth="1"/>
+    <col min="5127" max="5127" width="4.625" style="116" customWidth="1"/>
+    <col min="5128" max="5128" width="5.125" style="116" customWidth="1"/>
+    <col min="5129" max="5129" width="10.125" style="116" customWidth="1"/>
+    <col min="5130" max="5130" width="10" style="116" customWidth="1"/>
+    <col min="5131" max="5131" width="18.875" style="116" customWidth="1"/>
+    <col min="5132" max="5376" width="7.125" style="116"/>
+    <col min="5377" max="5377" width="4.75" style="116" customWidth="1"/>
+    <col min="5378" max="5378" width="16.75" style="116" customWidth="1"/>
+    <col min="5379" max="5379" width="7.625" style="116" customWidth="1"/>
+    <col min="5380" max="5380" width="7.375" style="116" customWidth="1"/>
+    <col min="5381" max="5381" width="4.875" style="116" customWidth="1"/>
+    <col min="5382" max="5382" width="18.875" style="116" customWidth="1"/>
+    <col min="5383" max="5383" width="4.625" style="116" customWidth="1"/>
+    <col min="5384" max="5384" width="5.125" style="116" customWidth="1"/>
+    <col min="5385" max="5385" width="10.125" style="116" customWidth="1"/>
+    <col min="5386" max="5386" width="10" style="116" customWidth="1"/>
+    <col min="5387" max="5387" width="18.875" style="116" customWidth="1"/>
+    <col min="5388" max="5632" width="7.125" style="116"/>
+    <col min="5633" max="5633" width="4.75" style="116" customWidth="1"/>
+    <col min="5634" max="5634" width="16.75" style="116" customWidth="1"/>
+    <col min="5635" max="5635" width="7.625" style="116" customWidth="1"/>
+    <col min="5636" max="5636" width="7.375" style="116" customWidth="1"/>
+    <col min="5637" max="5637" width="4.875" style="116" customWidth="1"/>
+    <col min="5638" max="5638" width="18.875" style="116" customWidth="1"/>
+    <col min="5639" max="5639" width="4.625" style="116" customWidth="1"/>
+    <col min="5640" max="5640" width="5.125" style="116" customWidth="1"/>
+    <col min="5641" max="5641" width="10.125" style="116" customWidth="1"/>
+    <col min="5642" max="5642" width="10" style="116" customWidth="1"/>
+    <col min="5643" max="5643" width="18.875" style="116" customWidth="1"/>
+    <col min="5644" max="5888" width="7.125" style="116"/>
+    <col min="5889" max="5889" width="4.75" style="116" customWidth="1"/>
+    <col min="5890" max="5890" width="16.75" style="116" customWidth="1"/>
+    <col min="5891" max="5891" width="7.625" style="116" customWidth="1"/>
+    <col min="5892" max="5892" width="7.375" style="116" customWidth="1"/>
+    <col min="5893" max="5893" width="4.875" style="116" customWidth="1"/>
+    <col min="5894" max="5894" width="18.875" style="116" customWidth="1"/>
+    <col min="5895" max="5895" width="4.625" style="116" customWidth="1"/>
+    <col min="5896" max="5896" width="5.125" style="116" customWidth="1"/>
+    <col min="5897" max="5897" width="10.125" style="116" customWidth="1"/>
+    <col min="5898" max="5898" width="10" style="116" customWidth="1"/>
+    <col min="5899" max="5899" width="18.875" style="116" customWidth="1"/>
+    <col min="5900" max="6144" width="7.125" style="116"/>
+    <col min="6145" max="6145" width="4.75" style="116" customWidth="1"/>
+    <col min="6146" max="6146" width="16.75" style="116" customWidth="1"/>
+    <col min="6147" max="6147" width="7.625" style="116" customWidth="1"/>
+    <col min="6148" max="6148" width="7.375" style="116" customWidth="1"/>
+    <col min="6149" max="6149" width="4.875" style="116" customWidth="1"/>
+    <col min="6150" max="6150" width="18.875" style="116" customWidth="1"/>
+    <col min="6151" max="6151" width="4.625" style="116" customWidth="1"/>
+    <col min="6152" max="6152" width="5.125" style="116" customWidth="1"/>
+    <col min="6153" max="6153" width="10.125" style="116" customWidth="1"/>
+    <col min="6154" max="6154" width="10" style="116" customWidth="1"/>
+    <col min="6155" max="6155" width="18.875" style="116" customWidth="1"/>
+    <col min="6156" max="6400" width="7.125" style="116"/>
+    <col min="6401" max="6401" width="4.75" style="116" customWidth="1"/>
+    <col min="6402" max="6402" width="16.75" style="116" customWidth="1"/>
+    <col min="6403" max="6403" width="7.625" style="116" customWidth="1"/>
+    <col min="6404" max="6404" width="7.375" style="116" customWidth="1"/>
+    <col min="6405" max="6405" width="4.875" style="116" customWidth="1"/>
+    <col min="6406" max="6406" width="18.875" style="116" customWidth="1"/>
+    <col min="6407" max="6407" width="4.625" style="116" customWidth="1"/>
+    <col min="6408" max="6408" width="5.125" style="116" customWidth="1"/>
+    <col min="6409" max="6409" width="10.125" style="116" customWidth="1"/>
+    <col min="6410" max="6410" width="10" style="116" customWidth="1"/>
+    <col min="6411" max="6411" width="18.875" style="116" customWidth="1"/>
+    <col min="6412" max="6656" width="7.125" style="116"/>
+    <col min="6657" max="6657" width="4.75" style="116" customWidth="1"/>
+    <col min="6658" max="6658" width="16.75" style="116" customWidth="1"/>
+    <col min="6659" max="6659" width="7.625" style="116" customWidth="1"/>
+    <col min="6660" max="6660" width="7.375" style="116" customWidth="1"/>
+    <col min="6661" max="6661" width="4.875" style="116" customWidth="1"/>
+    <col min="6662" max="6662" width="18.875" style="116" customWidth="1"/>
+    <col min="6663" max="6663" width="4.625" style="116" customWidth="1"/>
+    <col min="6664" max="6664" width="5.125" style="116" customWidth="1"/>
+    <col min="6665" max="6665" width="10.125" style="116" customWidth="1"/>
+    <col min="6666" max="6666" width="10" style="116" customWidth="1"/>
+    <col min="6667" max="6667" width="18.875" style="116" customWidth="1"/>
+    <col min="6668" max="6912" width="7.125" style="116"/>
+    <col min="6913" max="6913" width="4.75" style="116" customWidth="1"/>
+    <col min="6914" max="6914" width="16.75" style="116" customWidth="1"/>
+    <col min="6915" max="6915" width="7.625" style="116" customWidth="1"/>
+    <col min="6916" max="6916" width="7.375" style="116" customWidth="1"/>
+    <col min="6917" max="6917" width="4.875" style="116" customWidth="1"/>
+    <col min="6918" max="6918" width="18.875" style="116" customWidth="1"/>
+    <col min="6919" max="6919" width="4.625" style="116" customWidth="1"/>
+    <col min="6920" max="6920" width="5.125" style="116" customWidth="1"/>
+    <col min="6921" max="6921" width="10.125" style="116" customWidth="1"/>
+    <col min="6922" max="6922" width="10" style="116" customWidth="1"/>
+    <col min="6923" max="6923" width="18.875" style="116" customWidth="1"/>
+    <col min="6924" max="7168" width="7.125" style="116"/>
+    <col min="7169" max="7169" width="4.75" style="116" customWidth="1"/>
+    <col min="7170" max="7170" width="16.75" style="116" customWidth="1"/>
+    <col min="7171" max="7171" width="7.625" style="116" customWidth="1"/>
+    <col min="7172" max="7172" width="7.375" style="116" customWidth="1"/>
+    <col min="7173" max="7173" width="4.875" style="116" customWidth="1"/>
+    <col min="7174" max="7174" width="18.875" style="116" customWidth="1"/>
+    <col min="7175" max="7175" width="4.625" style="116" customWidth="1"/>
+    <col min="7176" max="7176" width="5.125" style="116" customWidth="1"/>
+    <col min="7177" max="7177" width="10.125" style="116" customWidth="1"/>
+    <col min="7178" max="7178" width="10" style="116" customWidth="1"/>
+    <col min="7179" max="7179" width="18.875" style="116" customWidth="1"/>
+    <col min="7180" max="7424" width="7.125" style="116"/>
+    <col min="7425" max="7425" width="4.75" style="116" customWidth="1"/>
+    <col min="7426" max="7426" width="16.75" style="116" customWidth="1"/>
+    <col min="7427" max="7427" width="7.625" style="116" customWidth="1"/>
+    <col min="7428" max="7428" width="7.375" style="116" customWidth="1"/>
+    <col min="7429" max="7429" width="4.875" style="116" customWidth="1"/>
+    <col min="7430" max="7430" width="18.875" style="116" customWidth="1"/>
+    <col min="7431" max="7431" width="4.625" style="116" customWidth="1"/>
+    <col min="7432" max="7432" width="5.125" style="116" customWidth="1"/>
+    <col min="7433" max="7433" width="10.125" style="116" customWidth="1"/>
+    <col min="7434" max="7434" width="10" style="116" customWidth="1"/>
+    <col min="7435" max="7435" width="18.875" style="116" customWidth="1"/>
+    <col min="7436" max="7680" width="7.125" style="116"/>
+    <col min="7681" max="7681" width="4.75" style="116" customWidth="1"/>
+    <col min="7682" max="7682" width="16.75" style="116" customWidth="1"/>
+    <col min="7683" max="7683" width="7.625" style="116" customWidth="1"/>
+    <col min="7684" max="7684" width="7.375" style="116" customWidth="1"/>
+    <col min="7685" max="7685" width="4.875" style="116" customWidth="1"/>
+    <col min="7686" max="7686" width="18.875" style="116" customWidth="1"/>
+    <col min="7687" max="7687" width="4.625" style="116" customWidth="1"/>
+    <col min="7688" max="7688" width="5.125" style="116" customWidth="1"/>
+    <col min="7689" max="7689" width="10.125" style="116" customWidth="1"/>
+    <col min="7690" max="7690" width="10" style="116" customWidth="1"/>
+    <col min="7691" max="7691" width="18.875" style="116" customWidth="1"/>
+    <col min="7692" max="7936" width="7.125" style="116"/>
+    <col min="7937" max="7937" width="4.75" style="116" customWidth="1"/>
+    <col min="7938" max="7938" width="16.75" style="116" customWidth="1"/>
+    <col min="7939" max="7939" width="7.625" style="116" customWidth="1"/>
+    <col min="7940" max="7940" width="7.375" style="116" customWidth="1"/>
+    <col min="7941" max="7941" width="4.875" style="116" customWidth="1"/>
+    <col min="7942" max="7942" width="18.875" style="116" customWidth="1"/>
+    <col min="7943" max="7943" width="4.625" style="116" customWidth="1"/>
+    <col min="7944" max="7944" width="5.125" style="116" customWidth="1"/>
+    <col min="7945" max="7945" width="10.125" style="116" customWidth="1"/>
+    <col min="7946" max="7946" width="10" style="116" customWidth="1"/>
+    <col min="7947" max="7947" width="18.875" style="116" customWidth="1"/>
+    <col min="7948" max="8192" width="7.125" style="116"/>
+    <col min="8193" max="8193" width="4.75" style="116" customWidth="1"/>
+    <col min="8194" max="8194" width="16.75" style="116" customWidth="1"/>
+    <col min="8195" max="8195" width="7.625" style="116" customWidth="1"/>
+    <col min="8196" max="8196" width="7.375" style="116" customWidth="1"/>
+    <col min="8197" max="8197" width="4.875" style="116" customWidth="1"/>
+    <col min="8198" max="8198" width="18.875" style="116" customWidth="1"/>
+    <col min="8199" max="8199" width="4.625" style="116" customWidth="1"/>
+    <col min="8200" max="8200" width="5.125" style="116" customWidth="1"/>
+    <col min="8201" max="8201" width="10.125" style="116" customWidth="1"/>
+    <col min="8202" max="8202" width="10" style="116" customWidth="1"/>
+    <col min="8203" max="8203" width="18.875" style="116" customWidth="1"/>
+    <col min="8204" max="8448" width="7.125" style="116"/>
+    <col min="8449" max="8449" width="4.75" style="116" customWidth="1"/>
+    <col min="8450" max="8450" width="16.75" style="116" customWidth="1"/>
+    <col min="8451" max="8451" width="7.625" style="116" customWidth="1"/>
+    <col min="8452" max="8452" width="7.375" style="116" customWidth="1"/>
+    <col min="8453" max="8453" width="4.875" style="116" customWidth="1"/>
+    <col min="8454" max="8454" width="18.875" style="116" customWidth="1"/>
+    <col min="8455" max="8455" width="4.625" style="116" customWidth="1"/>
+    <col min="8456" max="8456" width="5.125" style="116" customWidth="1"/>
+    <col min="8457" max="8457" width="10.125" style="116" customWidth="1"/>
+    <col min="8458" max="8458" width="10" style="116" customWidth="1"/>
+    <col min="8459" max="8459" width="18.875" style="116" customWidth="1"/>
+    <col min="8460" max="8704" width="7.125" style="116"/>
+    <col min="8705" max="8705" width="4.75" style="116" customWidth="1"/>
+    <col min="8706" max="8706" width="16.75" style="116" customWidth="1"/>
+    <col min="8707" max="8707" width="7.625" style="116" customWidth="1"/>
+    <col min="8708" max="8708" width="7.375" style="116" customWidth="1"/>
+    <col min="8709" max="8709" width="4.875" style="116" customWidth="1"/>
+    <col min="8710" max="8710" width="18.875" style="116" customWidth="1"/>
+    <col min="8711" max="8711" width="4.625" style="116" customWidth="1"/>
+    <col min="8712" max="8712" width="5.125" style="116" customWidth="1"/>
+    <col min="8713" max="8713" width="10.125" style="116" customWidth="1"/>
+    <col min="8714" max="8714" width="10" style="116" customWidth="1"/>
+    <col min="8715" max="8715" width="18.875" style="116" customWidth="1"/>
+    <col min="8716" max="8960" width="7.125" style="116"/>
+    <col min="8961" max="8961" width="4.75" style="116" customWidth="1"/>
+    <col min="8962" max="8962" width="16.75" style="116" customWidth="1"/>
+    <col min="8963" max="8963" width="7.625" style="116" customWidth="1"/>
+    <col min="8964" max="8964" width="7.375" style="116" customWidth="1"/>
+    <col min="8965" max="8965" width="4.875" style="116" customWidth="1"/>
+    <col min="8966" max="8966" width="18.875" style="116" customWidth="1"/>
+    <col min="8967" max="8967" width="4.625" style="116" customWidth="1"/>
+    <col min="8968" max="8968" width="5.125" style="116" customWidth="1"/>
+    <col min="8969" max="8969" width="10.125" style="116" customWidth="1"/>
+    <col min="8970" max="8970" width="10" style="116" customWidth="1"/>
+    <col min="8971" max="8971" width="18.875" style="116" customWidth="1"/>
+    <col min="8972" max="9216" width="7.125" style="116"/>
+    <col min="9217" max="9217" width="4.75" style="116" customWidth="1"/>
+    <col min="9218" max="9218" width="16.75" style="116" customWidth="1"/>
+    <col min="9219" max="9219" width="7.625" style="116" customWidth="1"/>
+    <col min="9220" max="9220" width="7.375" style="116" customWidth="1"/>
+    <col min="9221" max="9221" width="4.875" style="116" customWidth="1"/>
+    <col min="9222" max="9222" width="18.875" style="116" customWidth="1"/>
+    <col min="9223" max="9223" width="4.625" style="116" customWidth="1"/>
+    <col min="9224" max="9224" width="5.125" style="116" customWidth="1"/>
+    <col min="9225" max="9225" width="10.125" style="116" customWidth="1"/>
+    <col min="9226" max="9226" width="10" style="116" customWidth="1"/>
+    <col min="9227" max="9227" width="18.875" style="116" customWidth="1"/>
+    <col min="9228" max="9472" width="7.125" style="116"/>
+    <col min="9473" max="9473" width="4.75" style="116" customWidth="1"/>
+    <col min="9474" max="9474" width="16.75" style="116" customWidth="1"/>
+    <col min="9475" max="9475" width="7.625" style="116" customWidth="1"/>
+    <col min="9476" max="9476" width="7.375" style="116" customWidth="1"/>
+    <col min="9477" max="9477" width="4.875" style="116" customWidth="1"/>
+    <col min="9478" max="9478" width="18.875" style="116" customWidth="1"/>
+    <col min="9479" max="9479" width="4.625" style="116" customWidth="1"/>
+    <col min="9480" max="9480" width="5.125" style="116" customWidth="1"/>
+    <col min="9481" max="9481" width="10.125" style="116" customWidth="1"/>
+    <col min="9482" max="9482" width="10" style="116" customWidth="1"/>
+    <col min="9483" max="9483" width="18.875" style="116" customWidth="1"/>
+    <col min="9484" max="9728" width="7.125" style="116"/>
+    <col min="9729" max="9729" width="4.75" style="116" customWidth="1"/>
+    <col min="9730" max="9730" width="16.75" style="116" customWidth="1"/>
+    <col min="9731" max="9731" width="7.625" style="116" customWidth="1"/>
+    <col min="9732" max="9732" width="7.375" style="116" customWidth="1"/>
+    <col min="9733" max="9733" width="4.875" style="116" customWidth="1"/>
+    <col min="9734" max="9734" width="18.875" style="116" customWidth="1"/>
+    <col min="9735" max="9735" width="4.625" style="116" customWidth="1"/>
+    <col min="9736" max="9736" width="5.125" style="116" customWidth="1"/>
+    <col min="9737" max="9737" width="10.125" style="116" customWidth="1"/>
+    <col min="9738" max="9738" width="10" style="116" customWidth="1"/>
+    <col min="9739" max="9739" width="18.875" style="116" customWidth="1"/>
+    <col min="9740" max="9984" width="7.125" style="116"/>
+    <col min="9985" max="9985" width="4.75" style="116" customWidth="1"/>
+    <col min="9986" max="9986" width="16.75" style="116" customWidth="1"/>
+    <col min="9987" max="9987" width="7.625" style="116" customWidth="1"/>
+    <col min="9988" max="9988" width="7.375" style="116" customWidth="1"/>
+    <col min="9989" max="9989" width="4.875" style="116" customWidth="1"/>
+    <col min="9990" max="9990" width="18.875" style="116" customWidth="1"/>
+    <col min="9991" max="9991" width="4.625" style="116" customWidth="1"/>
+    <col min="9992" max="9992" width="5.125" style="116" customWidth="1"/>
+    <col min="9993" max="9993" width="10.125" style="116" customWidth="1"/>
+    <col min="9994" max="9994" width="10" style="116" customWidth="1"/>
+    <col min="9995" max="9995" width="18.875" style="116" customWidth="1"/>
+    <col min="9996" max="10240" width="7.125" style="116"/>
+    <col min="10241" max="10241" width="4.75" style="116" customWidth="1"/>
+    <col min="10242" max="10242" width="16.75" style="116" customWidth="1"/>
+    <col min="10243" max="10243" width="7.625" style="116" customWidth="1"/>
+    <col min="10244" max="10244" width="7.375" style="116" customWidth="1"/>
+    <col min="10245" max="10245" width="4.875" style="116" customWidth="1"/>
+    <col min="10246" max="10246" width="18.875" style="116" customWidth="1"/>
+    <col min="10247" max="10247" width="4.625" style="116" customWidth="1"/>
+    <col min="10248" max="10248" width="5.125" style="116" customWidth="1"/>
+    <col min="10249" max="10249" width="10.125" style="116" customWidth="1"/>
+    <col min="10250" max="10250" width="10" style="116" customWidth="1"/>
+    <col min="10251" max="10251" width="18.875" style="116" customWidth="1"/>
+    <col min="10252" max="10496" width="7.125" style="116"/>
+    <col min="10497" max="10497" width="4.75" style="116" customWidth="1"/>
+    <col min="10498" max="10498" width="16.75" style="116" customWidth="1"/>
+    <col min="10499" max="10499" width="7.625" style="116" customWidth="1"/>
+    <col min="10500" max="10500" width="7.375" style="116" customWidth="1"/>
+    <col min="10501" max="10501" width="4.875" style="116" customWidth="1"/>
+    <col min="10502" max="10502" width="18.875" style="116" customWidth="1"/>
+    <col min="10503" max="10503" width="4.625" style="116" customWidth="1"/>
+    <col min="10504" max="10504" width="5.125" style="116" customWidth="1"/>
+    <col min="10505" max="10505" width="10.125" style="116" customWidth="1"/>
+    <col min="10506" max="10506" width="10" style="116" customWidth="1"/>
+    <col min="10507" max="10507" width="18.875" style="116" customWidth="1"/>
+    <col min="10508" max="10752" width="7.125" style="116"/>
+    <col min="10753" max="10753" width="4.75" style="116" customWidth="1"/>
+    <col min="10754" max="10754" width="16.75" style="116" customWidth="1"/>
+    <col min="10755" max="10755" width="7.625" style="116" customWidth="1"/>
+    <col min="10756" max="10756" width="7.375" style="116" customWidth="1"/>
+    <col min="10757" max="10757" width="4.875" style="116" customWidth="1"/>
+    <col min="10758" max="10758" width="18.875" style="116" customWidth="1"/>
+    <col min="10759" max="10759" width="4.625" style="116" customWidth="1"/>
+    <col min="10760" max="10760" width="5.125" style="116" customWidth="1"/>
+    <col min="10761" max="10761" width="10.125" style="116" customWidth="1"/>
+    <col min="10762" max="10762" width="10" style="116" customWidth="1"/>
+    <col min="10763" max="10763" width="18.875" style="116" customWidth="1"/>
+    <col min="10764" max="11008" width="7.125" style="116"/>
+    <col min="11009" max="11009" width="4.75" style="116" customWidth="1"/>
+    <col min="11010" max="11010" width="16.75" style="116" customWidth="1"/>
+    <col min="11011" max="11011" width="7.625" style="116" customWidth="1"/>
+    <col min="11012" max="11012" width="7.375" style="116" customWidth="1"/>
+    <col min="11013" max="11013" width="4.875" style="116" customWidth="1"/>
+    <col min="11014" max="11014" width="18.875" style="116" customWidth="1"/>
+    <col min="11015" max="11015" width="4.625" style="116" customWidth="1"/>
+    <col min="11016" max="11016" width="5.125" style="116" customWidth="1"/>
+    <col min="11017" max="11017" width="10.125" style="116" customWidth="1"/>
+    <col min="11018" max="11018" width="10" style="116" customWidth="1"/>
+    <col min="11019" max="11019" width="18.875" style="116" customWidth="1"/>
+    <col min="11020" max="11264" width="7.125" style="116"/>
+    <col min="11265" max="11265" width="4.75" style="116" customWidth="1"/>
+    <col min="11266" max="11266" width="16.75" style="116" customWidth="1"/>
+    <col min="11267" max="11267" width="7.625" style="116" customWidth="1"/>
+    <col min="11268" max="11268" width="7.375" style="116" customWidth="1"/>
+    <col min="11269" max="11269" width="4.875" style="116" customWidth="1"/>
+    <col min="11270" max="11270" width="18.875" style="116" customWidth="1"/>
+    <col min="11271" max="11271" width="4.625" style="116" customWidth="1"/>
+    <col min="11272" max="11272" width="5.125" style="116" customWidth="1"/>
+    <col min="11273" max="11273" width="10.125" style="116" customWidth="1"/>
+    <col min="11274" max="11274" width="10" style="116" customWidth="1"/>
+    <col min="11275" max="11275" width="18.875" style="116" customWidth="1"/>
+    <col min="11276" max="11520" width="7.125" style="116"/>
+    <col min="11521" max="11521" width="4.75" style="116" customWidth="1"/>
+    <col min="11522" max="11522" width="16.75" style="116" customWidth="1"/>
+    <col min="11523" max="11523" width="7.625" style="116" customWidth="1"/>
+    <col min="11524" max="11524" width="7.375" style="116" customWidth="1"/>
+    <col min="11525" max="11525" width="4.875" style="116" customWidth="1"/>
+    <col min="11526" max="11526" width="18.875" style="116" customWidth="1"/>
+    <col min="11527" max="11527" width="4.625" style="116" customWidth="1"/>
+    <col min="11528" max="11528" width="5.125" style="116" customWidth="1"/>
+    <col min="11529" max="11529" width="10.125" style="116" customWidth="1"/>
+    <col min="11530" max="11530" width="10" style="116" customWidth="1"/>
+    <col min="11531" max="11531" width="18.875" style="116" customWidth="1"/>
+    <col min="11532" max="11776" width="7.125" style="116"/>
+    <col min="11777" max="11777" width="4.75" style="116" customWidth="1"/>
+    <col min="11778" max="11778" width="16.75" style="116" customWidth="1"/>
+    <col min="11779" max="11779" width="7.625" style="116" customWidth="1"/>
+    <col min="11780" max="11780" width="7.375" style="116" customWidth="1"/>
+    <col min="11781" max="11781" width="4.875" style="116" customWidth="1"/>
+    <col min="11782" max="11782" width="18.875" style="116" customWidth="1"/>
+    <col min="11783" max="11783" width="4.625" style="116" customWidth="1"/>
+    <col min="11784" max="11784" width="5.125" style="116" customWidth="1"/>
+    <col min="11785" max="11785" width="10.125" style="116" customWidth="1"/>
+    <col min="11786" max="11786" width="10" style="116" customWidth="1"/>
+    <col min="11787" max="11787" width="18.875" style="116" customWidth="1"/>
+    <col min="11788" max="12032" width="7.125" style="116"/>
+    <col min="12033" max="12033" width="4.75" style="116" customWidth="1"/>
+    <col min="12034" max="12034" width="16.75" style="116" customWidth="1"/>
+    <col min="12035" max="12035" width="7.625" style="116" customWidth="1"/>
+    <col min="12036" max="12036" width="7.375" style="116" customWidth="1"/>
+    <col min="12037" max="12037" width="4.875" style="116" customWidth="1"/>
+    <col min="12038" max="12038" width="18.875" style="116" customWidth="1"/>
+    <col min="12039" max="12039" width="4.625" style="116" customWidth="1"/>
+    <col min="12040" max="12040" width="5.125" style="116" customWidth="1"/>
+    <col min="12041" max="12041" width="10.125" style="116" customWidth="1"/>
+    <col min="12042" max="12042" width="10" style="116" customWidth="1"/>
+    <col min="12043" max="12043" width="18.875" style="116" customWidth="1"/>
+    <col min="12044" max="12288" width="7.125" style="116"/>
+    <col min="12289" max="12289" width="4.75" style="116" customWidth="1"/>
+    <col min="12290" max="12290" width="16.75" style="116" customWidth="1"/>
+    <col min="12291" max="12291" width="7.625" style="116" customWidth="1"/>
+    <col min="12292" max="12292" width="7.375" style="116" customWidth="1"/>
+    <col min="12293" max="12293" width="4.875" style="116" customWidth="1"/>
+    <col min="12294" max="12294" width="18.875" style="116" customWidth="1"/>
+    <col min="12295" max="12295" width="4.625" style="116" customWidth="1"/>
+    <col min="12296" max="12296" width="5.125" style="116" customWidth="1"/>
+    <col min="12297" max="12297" width="10.125" style="116" customWidth="1"/>
+    <col min="12298" max="12298" width="10" style="116" customWidth="1"/>
+    <col min="12299" max="12299" width="18.875" style="116" customWidth="1"/>
+    <col min="12300" max="12544" width="7.125" style="116"/>
+    <col min="12545" max="12545" width="4.75" style="116" customWidth="1"/>
+    <col min="12546" max="12546" width="16.75" style="116" customWidth="1"/>
+    <col min="12547" max="12547" width="7.625" style="116" customWidth="1"/>
+    <col min="12548" max="12548" width="7.375" style="116" customWidth="1"/>
+    <col min="12549" max="12549" width="4.875" style="116" customWidth="1"/>
+    <col min="12550" max="12550" width="18.875" style="116" customWidth="1"/>
+    <col min="12551" max="12551" width="4.625" style="116" customWidth="1"/>
+    <col min="12552" max="12552" width="5.125" style="116" customWidth="1"/>
+    <col min="12553" max="12553" width="10.125" style="116" customWidth="1"/>
+    <col min="12554" max="12554" width="10" style="116" customWidth="1"/>
+    <col min="12555" max="12555" width="18.875" style="116" customWidth="1"/>
+    <col min="12556" max="12800" width="7.125" style="116"/>
+    <col min="12801" max="12801" width="4.75" style="116" customWidth="1"/>
+    <col min="12802" max="12802" width="16.75" style="116" customWidth="1"/>
+    <col min="12803" max="12803" width="7.625" style="116" customWidth="1"/>
+    <col min="12804" max="12804" width="7.375" style="116" customWidth="1"/>
+    <col min="12805" max="12805" width="4.875" style="116" customWidth="1"/>
+    <col min="12806" max="12806" width="18.875" style="116" customWidth="1"/>
+    <col min="12807" max="12807" width="4.625" style="116" customWidth="1"/>
+    <col min="12808" max="12808" width="5.125" style="116" customWidth="1"/>
+    <col min="12809" max="12809" width="10.125" style="116" customWidth="1"/>
+    <col min="12810" max="12810" width="10" style="116" customWidth="1"/>
+    <col min="12811" max="12811" width="18.875" style="116" customWidth="1"/>
+    <col min="12812" max="13056" width="7.125" style="116"/>
+    <col min="13057" max="13057" width="4.75" style="116" customWidth="1"/>
+    <col min="13058" max="13058" width="16.75" style="116" customWidth="1"/>
+    <col min="13059" max="13059" width="7.625" style="116" customWidth="1"/>
+    <col min="13060" max="13060" width="7.375" style="116" customWidth="1"/>
+    <col min="13061" max="13061" width="4.875" style="116" customWidth="1"/>
+    <col min="13062" max="13062" width="18.875" style="116" customWidth="1"/>
+    <col min="13063" max="13063" width="4.625" style="116" customWidth="1"/>
+    <col min="13064" max="13064" width="5.125" style="116" customWidth="1"/>
+    <col min="13065" max="13065" width="10.125" style="116" customWidth="1"/>
+    <col min="13066" max="13066" width="10" style="116" customWidth="1"/>
+    <col min="13067" max="13067" width="18.875" style="116" customWidth="1"/>
+    <col min="13068" max="13312" width="7.125" style="116"/>
+    <col min="13313" max="13313" width="4.75" style="116" customWidth="1"/>
+    <col min="13314" max="13314" width="16.75" style="116" customWidth="1"/>
+    <col min="13315" max="13315" width="7.625" style="116" customWidth="1"/>
+    <col min="13316" max="13316" width="7.375" style="116" customWidth="1"/>
+    <col min="13317" max="13317" width="4.875" style="116" customWidth="1"/>
+    <col min="13318" max="13318" width="18.875" style="116" customWidth="1"/>
+    <col min="13319" max="13319" width="4.625" style="116" customWidth="1"/>
+    <col min="13320" max="13320" width="5.125" style="116" customWidth="1"/>
+    <col min="13321" max="13321" width="10.125" style="116" customWidth="1"/>
+    <col min="13322" max="13322" width="10" style="116" customWidth="1"/>
+    <col min="13323" max="13323" width="18.875" style="116" customWidth="1"/>
+    <col min="13324" max="13568" width="7.125" style="116"/>
+    <col min="13569" max="13569" width="4.75" style="116" customWidth="1"/>
+    <col min="13570" max="13570" width="16.75" style="116" customWidth="1"/>
+    <col min="13571" max="13571" width="7.625" style="116" customWidth="1"/>
+    <col min="13572" max="13572" width="7.375" style="116" customWidth="1"/>
+    <col min="13573" max="13573" width="4.875" style="116" customWidth="1"/>
+    <col min="13574" max="13574" width="18.875" style="116" customWidth="1"/>
+    <col min="13575" max="13575" width="4.625" style="116" customWidth="1"/>
+    <col min="13576" max="13576" width="5.125" style="116" customWidth="1"/>
+    <col min="13577" max="13577" width="10.125" style="116" customWidth="1"/>
+    <col min="13578" max="13578" width="10" style="116" customWidth="1"/>
+    <col min="13579" max="13579" width="18.875" style="116" customWidth="1"/>
+    <col min="13580" max="13824" width="7.125" style="116"/>
+    <col min="13825" max="13825" width="4.75" style="116" customWidth="1"/>
+    <col min="13826" max="13826" width="16.75" style="116" customWidth="1"/>
+    <col min="13827" max="13827" width="7.625" style="116" customWidth="1"/>
+    <col min="13828" max="13828" width="7.375" style="116" customWidth="1"/>
+    <col min="13829" max="13829" width="4.875" style="116" customWidth="1"/>
+    <col min="13830" max="13830" width="18.875" style="116" customWidth="1"/>
+    <col min="13831" max="13831" width="4.625" style="116" customWidth="1"/>
+    <col min="13832" max="13832" width="5.125" style="116" customWidth="1"/>
+    <col min="13833" max="13833" width="10.125" style="116" customWidth="1"/>
+    <col min="13834" max="13834" width="10" style="116" customWidth="1"/>
+    <col min="13835" max="13835" width="18.875" style="116" customWidth="1"/>
+    <col min="13836" max="14080" width="7.125" style="116"/>
+    <col min="14081" max="14081" width="4.75" style="116" customWidth="1"/>
+    <col min="14082" max="14082" width="16.75" style="116" customWidth="1"/>
+    <col min="14083" max="14083" width="7.625" style="116" customWidth="1"/>
+    <col min="14084" max="14084" width="7.375" style="116" customWidth="1"/>
+    <col min="14085" max="14085" width="4.875" style="116" customWidth="1"/>
+    <col min="14086" max="14086" width="18.875" style="116" customWidth="1"/>
+    <col min="14087" max="14087" width="4.625" style="116" customWidth="1"/>
+    <col min="14088" max="14088" width="5.125" style="116" customWidth="1"/>
+    <col min="14089" max="14089" width="10.125" style="116" customWidth="1"/>
+    <col min="14090" max="14090" width="10" style="116" customWidth="1"/>
+    <col min="14091" max="14091" width="18.875" style="116" customWidth="1"/>
+    <col min="14092" max="14336" width="7.125" style="116"/>
+    <col min="14337" max="14337" width="4.75" style="116" customWidth="1"/>
+    <col min="14338" max="14338" width="16.75" style="116" customWidth="1"/>
+    <col min="14339" max="14339" width="7.625" style="116" customWidth="1"/>
+    <col min="14340" max="14340" width="7.375" style="116" customWidth="1"/>
+    <col min="14341" max="14341" width="4.875" style="116" customWidth="1"/>
+    <col min="14342" max="14342" width="18.875" style="116" customWidth="1"/>
+    <col min="14343" max="14343" width="4.625" style="116" customWidth="1"/>
+    <col min="14344" max="14344" width="5.125" style="116" customWidth="1"/>
+    <col min="14345" max="14345" width="10.125" style="116" customWidth="1"/>
+    <col min="14346" max="14346" width="10" style="116" customWidth="1"/>
+    <col min="14347" max="14347" width="18.875" style="116" customWidth="1"/>
+    <col min="14348" max="14592" width="7.125" style="116"/>
+    <col min="14593" max="14593" width="4.75" style="116" customWidth="1"/>
+    <col min="14594" max="14594" width="16.75" style="116" customWidth="1"/>
+    <col min="14595" max="14595" width="7.625" style="116" customWidth="1"/>
+    <col min="14596" max="14596" width="7.375" style="116" customWidth="1"/>
+    <col min="14597" max="14597" width="4.875" style="116" customWidth="1"/>
+    <col min="14598" max="14598" width="18.875" style="116" customWidth="1"/>
+    <col min="14599" max="14599" width="4.625" style="116" customWidth="1"/>
+    <col min="14600" max="14600" width="5.125" style="116" customWidth="1"/>
+    <col min="14601" max="14601" width="10.125" style="116" customWidth="1"/>
+    <col min="14602" max="14602" width="10" style="116" customWidth="1"/>
+    <col min="14603" max="14603" width="18.875" style="116" customWidth="1"/>
+    <col min="14604" max="14848" width="7.125" style="116"/>
+    <col min="14849" max="14849" width="4.75" style="116" customWidth="1"/>
+    <col min="14850" max="14850" width="16.75" style="116" customWidth="1"/>
+    <col min="14851" max="14851" width="7.625" style="116" customWidth="1"/>
+    <col min="14852" max="14852" width="7.375" style="116" customWidth="1"/>
+    <col min="14853" max="14853" width="4.875" style="116" customWidth="1"/>
+    <col min="14854" max="14854" width="18.875" style="116" customWidth="1"/>
+    <col min="14855" max="14855" width="4.625" style="116" customWidth="1"/>
+    <col min="14856" max="14856" width="5.125" style="116" customWidth="1"/>
+    <col min="14857" max="14857" width="10.125" style="116" customWidth="1"/>
+    <col min="14858" max="14858" width="10" style="116" customWidth="1"/>
+    <col min="14859" max="14859" width="18.875" style="116" customWidth="1"/>
+    <col min="14860" max="15104" width="7.125" style="116"/>
+    <col min="15105" max="15105" width="4.75" style="116" customWidth="1"/>
+    <col min="15106" max="15106" width="16.75" style="116" customWidth="1"/>
+    <col min="15107" max="15107" width="7.625" style="116" customWidth="1"/>
+    <col min="15108" max="15108" width="7.375" style="116" customWidth="1"/>
+    <col min="15109" max="15109" width="4.875" style="116" customWidth="1"/>
+    <col min="15110" max="15110" width="18.875" style="116" customWidth="1"/>
+    <col min="15111" max="15111" width="4.625" style="116" customWidth="1"/>
+    <col min="15112" max="15112" width="5.125" style="116" customWidth="1"/>
+    <col min="15113" max="15113" width="10.125" style="116" customWidth="1"/>
+    <col min="15114" max="15114" width="10" style="116" customWidth="1"/>
+    <col min="15115" max="15115" width="18.875" style="116" customWidth="1"/>
+    <col min="15116" max="15360" width="7.125" style="116"/>
+    <col min="15361" max="15361" width="4.75" style="116" customWidth="1"/>
+    <col min="15362" max="15362" width="16.75" style="116" customWidth="1"/>
+    <col min="15363" max="15363" width="7.625" style="116" customWidth="1"/>
+    <col min="15364" max="15364" width="7.375" style="116" customWidth="1"/>
+    <col min="15365" max="15365" width="4.875" style="116" customWidth="1"/>
+    <col min="15366" max="15366" width="18.875" style="116" customWidth="1"/>
+    <col min="15367" max="15367" width="4.625" style="116" customWidth="1"/>
+    <col min="15368" max="15368" width="5.125" style="116" customWidth="1"/>
+    <col min="15369" max="15369" width="10.125" style="116" customWidth="1"/>
+    <col min="15370" max="15370" width="10" style="116" customWidth="1"/>
+    <col min="15371" max="15371" width="18.875" style="116" customWidth="1"/>
+    <col min="15372" max="15616" width="7.125" style="116"/>
+    <col min="15617" max="15617" width="4.75" style="116" customWidth="1"/>
+    <col min="15618" max="15618" width="16.75" style="116" customWidth="1"/>
+    <col min="15619" max="15619" width="7.625" style="116" customWidth="1"/>
+    <col min="15620" max="15620" width="7.375" style="116" customWidth="1"/>
+    <col min="15621" max="15621" width="4.875" style="116" customWidth="1"/>
+    <col min="15622" max="15622" width="18.875" style="116" customWidth="1"/>
+    <col min="15623" max="15623" width="4.625" style="116" customWidth="1"/>
+    <col min="15624" max="15624" width="5.125" style="116" customWidth="1"/>
+    <col min="15625" max="15625" width="10.125" style="116" customWidth="1"/>
+    <col min="15626" max="15626" width="10" style="116" customWidth="1"/>
+    <col min="15627" max="15627" width="18.875" style="116" customWidth="1"/>
+    <col min="15628" max="15872" width="7.125" style="116"/>
+    <col min="15873" max="15873" width="4.75" style="116" customWidth="1"/>
+    <col min="15874" max="15874" width="16.75" style="116" customWidth="1"/>
+    <col min="15875" max="15875" width="7.625" style="116" customWidth="1"/>
+    <col min="15876" max="15876" width="7.375" style="116" customWidth="1"/>
+    <col min="15877" max="15877" width="4.875" style="116" customWidth="1"/>
+    <col min="15878" max="15878" width="18.875" style="116" customWidth="1"/>
+    <col min="15879" max="15879" width="4.625" style="116" customWidth="1"/>
+    <col min="15880" max="15880" width="5.125" style="116" customWidth="1"/>
+    <col min="15881" max="15881" width="10.125" style="116" customWidth="1"/>
+    <col min="15882" max="15882" width="10" style="116" customWidth="1"/>
+    <col min="15883" max="15883" width="18.875" style="116" customWidth="1"/>
+    <col min="15884" max="16128" width="7.125" style="116"/>
+    <col min="16129" max="16129" width="4.75" style="116" customWidth="1"/>
+    <col min="16130" max="16130" width="16.75" style="116" customWidth="1"/>
+    <col min="16131" max="16131" width="7.625" style="116" customWidth="1"/>
+    <col min="16132" max="16132" width="7.375" style="116" customWidth="1"/>
+    <col min="16133" max="16133" width="4.875" style="116" customWidth="1"/>
+    <col min="16134" max="16134" width="18.875" style="116" customWidth="1"/>
+    <col min="16135" max="16135" width="4.625" style="116" customWidth="1"/>
+    <col min="16136" max="16136" width="5.125" style="116" customWidth="1"/>
+    <col min="16137" max="16137" width="10.125" style="116" customWidth="1"/>
+    <col min="16138" max="16138" width="10" style="116" customWidth="1"/>
+    <col min="16139" max="16139" width="18.875" style="116" customWidth="1"/>
+    <col min="16140" max="16384" width="7.125" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="178" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:21" s="112" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="I1" s="179" t="s">
+      <c r="B1" s="271"/>
+      <c r="I1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="180" t="s">
+      <c r="J1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="180" t="s">
+      <c r="K1" s="114" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="181" t="s">
+    <row r="2" spans="1:21" ht="30" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="178"/>
+      <c r="E2" s="112"/>
       <c r="I2" s="8">
         <v>45205</v>
       </c>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184"/>
-    </row>
-    <row r="3" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="185" t="s">
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+    </row>
+    <row r="3" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="186"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-    </row>
-    <row r="4" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="185" t="s">
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+    </row>
+    <row r="4" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A4" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="273" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-    </row>
-    <row r="5" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="185" t="s">
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+    </row>
+    <row r="5" spans="1:21" ht="39" customHeight="1">
+      <c r="A5" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="186"/>
-      <c r="E5" s="190" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="191" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="193" t="s">
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="194"/>
-    </row>
-    <row r="6" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="185" t="s">
+      <c r="K5" s="126"/>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A6" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="D6" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="195" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="127" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="8" spans="1:21" s="204" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="196" t="s">
+    <row r="7" spans="1:21" ht="11.25" customHeight="1" thickBot="1"/>
+    <row r="8" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+      <c r="A8" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="199" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="200"/>
-      <c r="H8" s="201" t="s">
+      <c r="G8" s="277"/>
+      <c r="H8" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="202" t="s">
+      <c r="I8" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="203"/>
-    </row>
-    <row r="9" spans="1:21" s="204" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="210" t="s">
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+    </row>
+    <row r="9" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="275"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="279"/>
+      <c r="I9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="211"/>
-      <c r="K9" s="212" t="s">
+      <c r="J9" s="137"/>
+      <c r="K9" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-    </row>
-    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="214">
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+    </row>
+    <row r="10" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A10" s="140">
         <v>1</v>
       </c>
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219" t="s">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="220"/>
-      <c r="K10" s="221"/>
-    </row>
-    <row r="11" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="214">
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+    </row>
+    <row r="11" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A11" s="140">
         <v>2</v>
       </c>
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="216" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="217"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="223" t="s">
+      <c r="G11" s="143"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
-    </row>
-    <row r="12" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="214">
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+    </row>
+    <row r="12" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A12" s="140">
         <v>3</v>
       </c>
-      <c r="B12" s="215" t="s">
+      <c r="B12" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="219" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="352" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="220"/>
-      <c r="K12" s="221"/>
-      <c r="U12" s="182">
+      <c r="J12" s="353"/>
+      <c r="K12" s="147"/>
+      <c r="U12" s="116">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="214">
+    <row r="13" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A13" s="140">
         <v>4</v>
       </c>
-      <c r="B13" s="215" t="s">
+      <c r="B13" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="226" t="s">
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="220"/>
-      <c r="K13" s="221"/>
-    </row>
-    <row r="14" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="214">
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+    </row>
+    <row r="14" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A14" s="140">
         <v>5</v>
       </c>
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="216" t="s">
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="217"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="227" t="s">
+      <c r="G14" s="143"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="228"/>
-      <c r="K14" s="229"/>
-    </row>
-    <row r="15" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="214">
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+    </row>
+    <row r="15" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A15" s="140">
         <v>6</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="230" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="231"/>
-      <c r="K15" s="221"/>
-    </row>
-    <row r="16" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="214">
+      <c r="J15" s="221"/>
+      <c r="K15" s="147"/>
+    </row>
+    <row r="16" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A16" s="140">
         <v>7</v>
       </c>
-      <c r="B16" s="215" t="s">
+      <c r="B16" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="230" t="s">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="231"/>
-      <c r="K16" s="221"/>
-    </row>
-    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="214">
+      <c r="J16" s="221"/>
+      <c r="K16" s="147"/>
+    </row>
+    <row r="17" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A17" s="140">
         <v>8</v>
       </c>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="230" t="s">
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="220" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="231"/>
-      <c r="K17" s="221"/>
-    </row>
-    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="214">
+      <c r="J17" s="221"/>
+      <c r="K17" s="147"/>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A18" s="140">
         <v>9</v>
       </c>
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="230" t="s">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="231"/>
-      <c r="K18" s="221"/>
-    </row>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A19" s="214">
+      <c r="J18" s="221"/>
+      <c r="K18" s="147"/>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A19" s="140">
         <v>10</v>
       </c>
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="230" t="s">
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="231"/>
-      <c r="K19" s="221"/>
-    </row>
-    <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="214">
+      <c r="J19" s="221"/>
+      <c r="K19" s="147"/>
+    </row>
+    <row r="20" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A20" s="140">
         <v>11</v>
       </c>
-      <c r="B20" s="215" t="s">
+      <c r="B20" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="219" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="352" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="220"/>
-      <c r="K20" s="221"/>
-    </row>
-    <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="214">
+      <c r="J20" s="353"/>
+      <c r="K20" s="147"/>
+    </row>
+    <row r="21" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A21" s="140">
         <v>12</v>
       </c>
-      <c r="B21" s="215" t="s">
+      <c r="B21" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="216" t="s">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="217"/>
-      <c r="H21" s="222"/>
-      <c r="I21" s="227" t="s">
+      <c r="G21" s="143"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="228"/>
-      <c r="K21" s="229"/>
-    </row>
-    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="214">
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A22" s="140">
         <v>13</v>
       </c>
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="216" t="s">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="217"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="219" t="s">
+      <c r="G22" s="143"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="220"/>
-      <c r="K22" s="221"/>
-    </row>
-    <row r="23" spans="1:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A23" s="214">
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A23" s="140">
         <v>14</v>
       </c>
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="216" t="s">
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="217"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="219" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="220"/>
-      <c r="K23" s="221"/>
-    </row>
-    <row r="24" spans="1:15" s="241" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="232"/>
-      <c r="B24" s="233" t="s">
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+    </row>
+    <row r="24" spans="1:15" s="160" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="265" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="236" t="s">
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="268"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="237"/>
-      <c r="K24" s="239" t="s">
+      <c r="J24" s="269"/>
+      <c r="K24" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="240"/>
-    </row>
-    <row r="25" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L24" s="159"/>
+    </row>
+    <row r="25" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="242">
         <v>15</v>
       </c>
-      <c r="B25" s="243" t="s">
+      <c r="B25" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="246" t="s">
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="161" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="247"/>
-      <c r="H25" s="248" t="s">
+      <c r="G25" s="162"/>
+      <c r="H25" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="249" t="s">
+      <c r="I25" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-    </row>
-    <row r="26" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="252"/>
-      <c r="B26" s="253" t="s">
+      <c r="J25" s="260"/>
+      <c r="K25" s="163"/>
+    </row>
+    <row r="26" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="253"/>
+      <c r="B26" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="257"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
       <c r="H26" s="258"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="260"/>
-      <c r="K26" s="261"/>
-      <c r="M26" s="241">
+      <c r="I26" s="261"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="166"/>
+      <c r="M26" s="160">
         <v>70</v>
       </c>
-      <c r="N26" s="241">
+      <c r="N26" s="160">
         <v>80</v>
       </c>
-      <c r="O26" s="241">
+      <c r="O26" s="160">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="262">
+    <row r="27" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="228">
         <v>16</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="266" t="s">
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="267"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="269" t="s">
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="J27" s="270"/>
-      <c r="K27" s="271"/>
-      <c r="M27" s="241">
+      <c r="J27" s="233"/>
+      <c r="K27" s="170"/>
+      <c r="M27" s="160">
         <v>4100</v>
       </c>
-      <c r="N27" s="241">
+      <c r="N27" s="160">
         <v>4200</v>
       </c>
-      <c r="O27" s="241">
+      <c r="O27" s="160">
         <v>4300</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="262"/>
-      <c r="B28" s="253" t="s">
+    <row r="28" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="228"/>
+      <c r="B28" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="254"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="272"/>
-      <c r="G28" s="273"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="275"/>
-      <c r="J28" s="276"/>
-      <c r="K28" s="261"/>
-    </row>
-    <row r="29" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="262">
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="234"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="166"/>
+    </row>
+    <row r="29" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="228">
         <v>17</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="277"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="278"/>
-      <c r="F29" s="266" t="s">
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="279"/>
-      <c r="H29" s="268"/>
-      <c r="I29" s="269" t="s">
+      <c r="G29" s="174"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="270"/>
-      <c r="K29" s="280" t="s">
+      <c r="J29" s="233"/>
+      <c r="K29" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="M29" s="241">
+      <c r="M29" s="160">
         <f>M27/M26*2</f>
         <v>117.14285714285714</v>
       </c>
-      <c r="N29" s="281">
+      <c r="N29" s="175">
         <f>N27/N26*2</f>
         <v>105</v>
       </c>
-      <c r="O29" s="241">
+      <c r="O29" s="160">
         <f>O27/O26*2</f>
         <v>95.555555555555557</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="262"/>
-      <c r="B30" s="253" t="s">
+    <row r="30" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="228"/>
+      <c r="B30" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="282"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="276"/>
-      <c r="K30" s="284"/>
-      <c r="M30" s="241">
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="234"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="237"/>
+      <c r="M30" s="160">
         <f>M27/O26*2</f>
         <v>91.111111111111114</v>
       </c>
-      <c r="O30" s="241">
+      <c r="O30" s="160">
         <f>O27/M26*2</f>
         <v>122.85714285714286</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="294" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="285">
+    <row r="31" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="241">
         <v>18</v>
       </c>
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="289"/>
-      <c r="I31" s="291" t="s">
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="246" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="292"/>
-      <c r="K31" s="293"/>
-    </row>
-    <row r="32" spans="1:15" s="294" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="J31" s="247"/>
+      <c r="K31" s="180"/>
+    </row>
+    <row r="32" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="242"/>
-      <c r="B32" s="295" t="s">
+      <c r="B32" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="296"/>
-      <c r="D32" s="296"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="299"/>
-      <c r="I32" s="300"/>
-      <c r="J32" s="301"/>
-      <c r="K32" s="293"/>
-      <c r="M32" s="302">
+      <c r="C32" s="251"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="248"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="180"/>
+      <c r="M32" s="184">
         <f>N29-M30</f>
         <v>13.888888888888886</v>
       </c>
-      <c r="N32" s="302">
+      <c r="N32" s="184">
         <f>O30-N29</f>
         <v>17.857142857142861</v>
       </c>
-      <c r="O32" s="302">
+      <c r="O32" s="184">
         <f>M32+N32</f>
         <v>31.746031746031747</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="308" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A33" s="303" t="s">
+    <row r="33" spans="1:15" s="190" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="304"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="306"/>
-      <c r="H33" s="306"/>
-      <c r="I33" s="306"/>
-      <c r="J33" s="306"/>
-      <c r="K33" s="307"/>
-    </row>
-    <row r="34" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="309" t="s">
+      <c r="B33" s="186"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="189"/>
+    </row>
+    <row r="34" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A34" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="310"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="310"/>
-      <c r="E34" s="310"/>
-      <c r="H34" s="311" t="s">
+      <c r="B34" s="192"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="H34" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="312"/>
-      <c r="J34" s="313" t="s">
+      <c r="I34" s="215"/>
+      <c r="J34" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="314" t="s">
+      <c r="K34" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="O34" s="308">
+      <c r="O34" s="190">
         <f>O32/2</f>
         <v>15.873015873015873</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="316" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="315" t="s">
+    <row r="35" spans="1:15" s="196" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A35" s="195" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="310"/>
-      <c r="E35" s="310"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="317" t="s">
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="318"/>
-      <c r="J35" s="319"/>
-      <c r="K35" s="320"/>
-    </row>
-    <row r="36" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A36" s="315" t="s">
+      <c r="I35" s="217"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+    </row>
+    <row r="36" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="310"/>
-      <c r="G36" s="321"/>
-      <c r="H36" s="322"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="324"/>
-      <c r="K36" s="325"/>
-    </row>
-    <row r="37" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A37" s="315" t="s">
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="201"/>
+    </row>
+    <row r="37" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A37" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="310"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="230"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="326" t="s">
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="192"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="327" t="s">
+      <c r="K37" s="203" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A38" s="315" t="s">
+    <row r="38" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A38" s="195" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="310"/>
-      <c r="H38" s="328" t="s">
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="192"/>
+      <c r="H38" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="329"/>
-      <c r="J38" s="319"/>
-      <c r="K38" s="330"/>
-    </row>
-    <row r="39" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A39" s="315" t="s">
+      <c r="I38" s="223"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="204"/>
+    </row>
+    <row r="39" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A39" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="310"/>
-      <c r="H39" s="328"/>
-      <c r="I39" s="329"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="331"/>
-    </row>
-    <row r="40" spans="1:15" s="308" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A40" s="332" t="s">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="192"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="205"/>
+    </row>
+    <row r="40" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A40" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="333"/>
-      <c r="C40" s="334"/>
-      <c r="D40" s="334"/>
-      <c r="E40" s="334"/>
-      <c r="F40" s="335"/>
-      <c r="G40" s="336"/>
-      <c r="H40" s="337"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="339" t="s">
+      <c r="B40" s="207"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="225"/>
+      <c r="J40" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="340" t="s">
+      <c r="K40" s="212" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="308" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A41" s="341" t="s">
+    <row r="41" spans="1:15" s="190" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A41" s="213" t="s">
         <v>137</v>
       </c>
-      <c r="J41" s="342" t="s">
+      <c r="J41" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="K41" s="343"/>
-    </row>
-    <row r="42" spans="1:15" ht="22" thickTop="1" x14ac:dyDescent="0.75"/>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="C44" s="308"/>
+      <c r="K41" s="227"/>
+    </row>
+    <row r="42" spans="1:15" ht="21.6" thickTop="1"/>
+    <row r="44" spans="1:15">
+      <c r="C44" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="I27:J28"/>
@@ -5122,12 +5159,26 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.14000000000000001" top="0.14000000000000001" bottom="0.19" header="0.12" footer="0.19"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5137,850 +5188,850 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C4CB7E-C18E-4103-944A-51F339CD9327}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="21.5" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.09765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.8984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.296875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.296875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="3.59765625" style="7" customWidth="1"/>
-    <col min="13" max="256" width="7.09765625" style="7"/>
-    <col min="257" max="257" width="4.69921875" style="7" customWidth="1"/>
-    <col min="258" max="258" width="18.3984375" style="7" customWidth="1"/>
-    <col min="259" max="259" width="7.09765625" style="7"/>
-    <col min="260" max="260" width="5.3984375" style="7" customWidth="1"/>
-    <col min="261" max="261" width="7.296875" style="7" customWidth="1"/>
-    <col min="262" max="262" width="11.09765625" style="7" customWidth="1"/>
-    <col min="263" max="263" width="10.69921875" style="7" customWidth="1"/>
-    <col min="264" max="264" width="4.8984375" style="7" customWidth="1"/>
-    <col min="265" max="265" width="10.8984375" style="7" customWidth="1"/>
-    <col min="266" max="266" width="11.296875" style="7" customWidth="1"/>
-    <col min="267" max="267" width="21.296875" style="7" customWidth="1"/>
-    <col min="268" max="268" width="3.59765625" style="7" customWidth="1"/>
-    <col min="269" max="512" width="7.09765625" style="7"/>
-    <col min="513" max="513" width="4.69921875" style="7" customWidth="1"/>
-    <col min="514" max="514" width="18.3984375" style="7" customWidth="1"/>
-    <col min="515" max="515" width="7.09765625" style="7"/>
-    <col min="516" max="516" width="5.3984375" style="7" customWidth="1"/>
-    <col min="517" max="517" width="7.296875" style="7" customWidth="1"/>
-    <col min="518" max="518" width="11.09765625" style="7" customWidth="1"/>
-    <col min="519" max="519" width="10.69921875" style="7" customWidth="1"/>
-    <col min="520" max="520" width="4.8984375" style="7" customWidth="1"/>
-    <col min="521" max="521" width="10.8984375" style="7" customWidth="1"/>
-    <col min="522" max="522" width="11.296875" style="7" customWidth="1"/>
-    <col min="523" max="523" width="21.296875" style="7" customWidth="1"/>
-    <col min="524" max="524" width="3.59765625" style="7" customWidth="1"/>
-    <col min="525" max="768" width="7.09765625" style="7"/>
-    <col min="769" max="769" width="4.69921875" style="7" customWidth="1"/>
-    <col min="770" max="770" width="18.3984375" style="7" customWidth="1"/>
-    <col min="771" max="771" width="7.09765625" style="7"/>
-    <col min="772" max="772" width="5.3984375" style="7" customWidth="1"/>
-    <col min="773" max="773" width="7.296875" style="7" customWidth="1"/>
-    <col min="774" max="774" width="11.09765625" style="7" customWidth="1"/>
-    <col min="775" max="775" width="10.69921875" style="7" customWidth="1"/>
-    <col min="776" max="776" width="4.8984375" style="7" customWidth="1"/>
-    <col min="777" max="777" width="10.8984375" style="7" customWidth="1"/>
-    <col min="778" max="778" width="11.296875" style="7" customWidth="1"/>
-    <col min="779" max="779" width="21.296875" style="7" customWidth="1"/>
-    <col min="780" max="780" width="3.59765625" style="7" customWidth="1"/>
-    <col min="781" max="1024" width="7.09765625" style="7"/>
-    <col min="1025" max="1025" width="4.69921875" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="18.3984375" style="7" customWidth="1"/>
-    <col min="1027" max="1027" width="7.09765625" style="7"/>
-    <col min="1028" max="1028" width="5.3984375" style="7" customWidth="1"/>
-    <col min="1029" max="1029" width="7.296875" style="7" customWidth="1"/>
-    <col min="1030" max="1030" width="11.09765625" style="7" customWidth="1"/>
-    <col min="1031" max="1031" width="10.69921875" style="7" customWidth="1"/>
-    <col min="1032" max="1032" width="4.8984375" style="7" customWidth="1"/>
-    <col min="1033" max="1033" width="10.8984375" style="7" customWidth="1"/>
-    <col min="1034" max="1034" width="11.296875" style="7" customWidth="1"/>
-    <col min="1035" max="1035" width="21.296875" style="7" customWidth="1"/>
-    <col min="1036" max="1036" width="3.59765625" style="7" customWidth="1"/>
-    <col min="1037" max="1280" width="7.09765625" style="7"/>
-    <col min="1281" max="1281" width="4.69921875" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="18.3984375" style="7" customWidth="1"/>
-    <col min="1283" max="1283" width="7.09765625" style="7"/>
-    <col min="1284" max="1284" width="5.3984375" style="7" customWidth="1"/>
-    <col min="1285" max="1285" width="7.296875" style="7" customWidth="1"/>
-    <col min="1286" max="1286" width="11.09765625" style="7" customWidth="1"/>
-    <col min="1287" max="1287" width="10.69921875" style="7" customWidth="1"/>
-    <col min="1288" max="1288" width="4.8984375" style="7" customWidth="1"/>
-    <col min="1289" max="1289" width="10.8984375" style="7" customWidth="1"/>
-    <col min="1290" max="1290" width="11.296875" style="7" customWidth="1"/>
-    <col min="1291" max="1291" width="21.296875" style="7" customWidth="1"/>
-    <col min="1292" max="1292" width="3.59765625" style="7" customWidth="1"/>
-    <col min="1293" max="1536" width="7.09765625" style="7"/>
-    <col min="1537" max="1537" width="4.69921875" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="18.3984375" style="7" customWidth="1"/>
-    <col min="1539" max="1539" width="7.09765625" style="7"/>
-    <col min="1540" max="1540" width="5.3984375" style="7" customWidth="1"/>
-    <col min="1541" max="1541" width="7.296875" style="7" customWidth="1"/>
-    <col min="1542" max="1542" width="11.09765625" style="7" customWidth="1"/>
-    <col min="1543" max="1543" width="10.69921875" style="7" customWidth="1"/>
-    <col min="1544" max="1544" width="4.8984375" style="7" customWidth="1"/>
-    <col min="1545" max="1545" width="10.8984375" style="7" customWidth="1"/>
-    <col min="1546" max="1546" width="11.296875" style="7" customWidth="1"/>
-    <col min="1547" max="1547" width="21.296875" style="7" customWidth="1"/>
-    <col min="1548" max="1548" width="3.59765625" style="7" customWidth="1"/>
-    <col min="1549" max="1792" width="7.09765625" style="7"/>
-    <col min="1793" max="1793" width="4.69921875" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="18.3984375" style="7" customWidth="1"/>
-    <col min="1795" max="1795" width="7.09765625" style="7"/>
-    <col min="1796" max="1796" width="5.3984375" style="7" customWidth="1"/>
-    <col min="1797" max="1797" width="7.296875" style="7" customWidth="1"/>
-    <col min="1798" max="1798" width="11.09765625" style="7" customWidth="1"/>
-    <col min="1799" max="1799" width="10.69921875" style="7" customWidth="1"/>
-    <col min="1800" max="1800" width="4.8984375" style="7" customWidth="1"/>
-    <col min="1801" max="1801" width="10.8984375" style="7" customWidth="1"/>
-    <col min="1802" max="1802" width="11.296875" style="7" customWidth="1"/>
-    <col min="1803" max="1803" width="21.296875" style="7" customWidth="1"/>
-    <col min="1804" max="1804" width="3.59765625" style="7" customWidth="1"/>
-    <col min="1805" max="2048" width="7.09765625" style="7"/>
-    <col min="2049" max="2049" width="4.69921875" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="18.3984375" style="7" customWidth="1"/>
-    <col min="2051" max="2051" width="7.09765625" style="7"/>
-    <col min="2052" max="2052" width="5.3984375" style="7" customWidth="1"/>
-    <col min="2053" max="2053" width="7.296875" style="7" customWidth="1"/>
-    <col min="2054" max="2054" width="11.09765625" style="7" customWidth="1"/>
-    <col min="2055" max="2055" width="10.69921875" style="7" customWidth="1"/>
-    <col min="2056" max="2056" width="4.8984375" style="7" customWidth="1"/>
-    <col min="2057" max="2057" width="10.8984375" style="7" customWidth="1"/>
-    <col min="2058" max="2058" width="11.296875" style="7" customWidth="1"/>
-    <col min="2059" max="2059" width="21.296875" style="7" customWidth="1"/>
-    <col min="2060" max="2060" width="3.59765625" style="7" customWidth="1"/>
-    <col min="2061" max="2304" width="7.09765625" style="7"/>
-    <col min="2305" max="2305" width="4.69921875" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="18.3984375" style="7" customWidth="1"/>
-    <col min="2307" max="2307" width="7.09765625" style="7"/>
-    <col min="2308" max="2308" width="5.3984375" style="7" customWidth="1"/>
-    <col min="2309" max="2309" width="7.296875" style="7" customWidth="1"/>
-    <col min="2310" max="2310" width="11.09765625" style="7" customWidth="1"/>
-    <col min="2311" max="2311" width="10.69921875" style="7" customWidth="1"/>
-    <col min="2312" max="2312" width="4.8984375" style="7" customWidth="1"/>
-    <col min="2313" max="2313" width="10.8984375" style="7" customWidth="1"/>
-    <col min="2314" max="2314" width="11.296875" style="7" customWidth="1"/>
-    <col min="2315" max="2315" width="21.296875" style="7" customWidth="1"/>
-    <col min="2316" max="2316" width="3.59765625" style="7" customWidth="1"/>
-    <col min="2317" max="2560" width="7.09765625" style="7"/>
-    <col min="2561" max="2561" width="4.69921875" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="18.3984375" style="7" customWidth="1"/>
-    <col min="2563" max="2563" width="7.09765625" style="7"/>
-    <col min="2564" max="2564" width="5.3984375" style="7" customWidth="1"/>
-    <col min="2565" max="2565" width="7.296875" style="7" customWidth="1"/>
-    <col min="2566" max="2566" width="11.09765625" style="7" customWidth="1"/>
-    <col min="2567" max="2567" width="10.69921875" style="7" customWidth="1"/>
-    <col min="2568" max="2568" width="4.8984375" style="7" customWidth="1"/>
-    <col min="2569" max="2569" width="10.8984375" style="7" customWidth="1"/>
-    <col min="2570" max="2570" width="11.296875" style="7" customWidth="1"/>
-    <col min="2571" max="2571" width="21.296875" style="7" customWidth="1"/>
-    <col min="2572" max="2572" width="3.59765625" style="7" customWidth="1"/>
-    <col min="2573" max="2816" width="7.09765625" style="7"/>
-    <col min="2817" max="2817" width="4.69921875" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="18.3984375" style="7" customWidth="1"/>
-    <col min="2819" max="2819" width="7.09765625" style="7"/>
-    <col min="2820" max="2820" width="5.3984375" style="7" customWidth="1"/>
-    <col min="2821" max="2821" width="7.296875" style="7" customWidth="1"/>
-    <col min="2822" max="2822" width="11.09765625" style="7" customWidth="1"/>
-    <col min="2823" max="2823" width="10.69921875" style="7" customWidth="1"/>
-    <col min="2824" max="2824" width="4.8984375" style="7" customWidth="1"/>
-    <col min="2825" max="2825" width="10.8984375" style="7" customWidth="1"/>
-    <col min="2826" max="2826" width="11.296875" style="7" customWidth="1"/>
-    <col min="2827" max="2827" width="21.296875" style="7" customWidth="1"/>
-    <col min="2828" max="2828" width="3.59765625" style="7" customWidth="1"/>
-    <col min="2829" max="3072" width="7.09765625" style="7"/>
-    <col min="3073" max="3073" width="4.69921875" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="18.3984375" style="7" customWidth="1"/>
-    <col min="3075" max="3075" width="7.09765625" style="7"/>
-    <col min="3076" max="3076" width="5.3984375" style="7" customWidth="1"/>
-    <col min="3077" max="3077" width="7.296875" style="7" customWidth="1"/>
-    <col min="3078" max="3078" width="11.09765625" style="7" customWidth="1"/>
-    <col min="3079" max="3079" width="10.69921875" style="7" customWidth="1"/>
-    <col min="3080" max="3080" width="4.8984375" style="7" customWidth="1"/>
-    <col min="3081" max="3081" width="10.8984375" style="7" customWidth="1"/>
-    <col min="3082" max="3082" width="11.296875" style="7" customWidth="1"/>
-    <col min="3083" max="3083" width="21.296875" style="7" customWidth="1"/>
-    <col min="3084" max="3084" width="3.59765625" style="7" customWidth="1"/>
-    <col min="3085" max="3328" width="7.09765625" style="7"/>
-    <col min="3329" max="3329" width="4.69921875" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="18.3984375" style="7" customWidth="1"/>
-    <col min="3331" max="3331" width="7.09765625" style="7"/>
-    <col min="3332" max="3332" width="5.3984375" style="7" customWidth="1"/>
-    <col min="3333" max="3333" width="7.296875" style="7" customWidth="1"/>
-    <col min="3334" max="3334" width="11.09765625" style="7" customWidth="1"/>
-    <col min="3335" max="3335" width="10.69921875" style="7" customWidth="1"/>
-    <col min="3336" max="3336" width="4.8984375" style="7" customWidth="1"/>
-    <col min="3337" max="3337" width="10.8984375" style="7" customWidth="1"/>
-    <col min="3338" max="3338" width="11.296875" style="7" customWidth="1"/>
-    <col min="3339" max="3339" width="21.296875" style="7" customWidth="1"/>
-    <col min="3340" max="3340" width="3.59765625" style="7" customWidth="1"/>
-    <col min="3341" max="3584" width="7.09765625" style="7"/>
-    <col min="3585" max="3585" width="4.69921875" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="18.3984375" style="7" customWidth="1"/>
-    <col min="3587" max="3587" width="7.09765625" style="7"/>
-    <col min="3588" max="3588" width="5.3984375" style="7" customWidth="1"/>
-    <col min="3589" max="3589" width="7.296875" style="7" customWidth="1"/>
-    <col min="3590" max="3590" width="11.09765625" style="7" customWidth="1"/>
-    <col min="3591" max="3591" width="10.69921875" style="7" customWidth="1"/>
-    <col min="3592" max="3592" width="4.8984375" style="7" customWidth="1"/>
-    <col min="3593" max="3593" width="10.8984375" style="7" customWidth="1"/>
-    <col min="3594" max="3594" width="11.296875" style="7" customWidth="1"/>
-    <col min="3595" max="3595" width="21.296875" style="7" customWidth="1"/>
-    <col min="3596" max="3596" width="3.59765625" style="7" customWidth="1"/>
-    <col min="3597" max="3840" width="7.09765625" style="7"/>
-    <col min="3841" max="3841" width="4.69921875" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="18.3984375" style="7" customWidth="1"/>
-    <col min="3843" max="3843" width="7.09765625" style="7"/>
-    <col min="3844" max="3844" width="5.3984375" style="7" customWidth="1"/>
-    <col min="3845" max="3845" width="7.296875" style="7" customWidth="1"/>
-    <col min="3846" max="3846" width="11.09765625" style="7" customWidth="1"/>
-    <col min="3847" max="3847" width="10.69921875" style="7" customWidth="1"/>
-    <col min="3848" max="3848" width="4.8984375" style="7" customWidth="1"/>
-    <col min="3849" max="3849" width="10.8984375" style="7" customWidth="1"/>
-    <col min="3850" max="3850" width="11.296875" style="7" customWidth="1"/>
-    <col min="3851" max="3851" width="21.296875" style="7" customWidth="1"/>
-    <col min="3852" max="3852" width="3.59765625" style="7" customWidth="1"/>
-    <col min="3853" max="4096" width="7.09765625" style="7"/>
-    <col min="4097" max="4097" width="4.69921875" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="18.3984375" style="7" customWidth="1"/>
-    <col min="4099" max="4099" width="7.09765625" style="7"/>
-    <col min="4100" max="4100" width="5.3984375" style="7" customWidth="1"/>
-    <col min="4101" max="4101" width="7.296875" style="7" customWidth="1"/>
-    <col min="4102" max="4102" width="11.09765625" style="7" customWidth="1"/>
-    <col min="4103" max="4103" width="10.69921875" style="7" customWidth="1"/>
-    <col min="4104" max="4104" width="4.8984375" style="7" customWidth="1"/>
-    <col min="4105" max="4105" width="10.8984375" style="7" customWidth="1"/>
-    <col min="4106" max="4106" width="11.296875" style="7" customWidth="1"/>
-    <col min="4107" max="4107" width="21.296875" style="7" customWidth="1"/>
-    <col min="4108" max="4108" width="3.59765625" style="7" customWidth="1"/>
-    <col min="4109" max="4352" width="7.09765625" style="7"/>
-    <col min="4353" max="4353" width="4.69921875" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="18.3984375" style="7" customWidth="1"/>
-    <col min="4355" max="4355" width="7.09765625" style="7"/>
-    <col min="4356" max="4356" width="5.3984375" style="7" customWidth="1"/>
-    <col min="4357" max="4357" width="7.296875" style="7" customWidth="1"/>
-    <col min="4358" max="4358" width="11.09765625" style="7" customWidth="1"/>
-    <col min="4359" max="4359" width="10.69921875" style="7" customWidth="1"/>
-    <col min="4360" max="4360" width="4.8984375" style="7" customWidth="1"/>
-    <col min="4361" max="4361" width="10.8984375" style="7" customWidth="1"/>
-    <col min="4362" max="4362" width="11.296875" style="7" customWidth="1"/>
-    <col min="4363" max="4363" width="21.296875" style="7" customWidth="1"/>
-    <col min="4364" max="4364" width="3.59765625" style="7" customWidth="1"/>
-    <col min="4365" max="4608" width="7.09765625" style="7"/>
-    <col min="4609" max="4609" width="4.69921875" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="18.3984375" style="7" customWidth="1"/>
-    <col min="4611" max="4611" width="7.09765625" style="7"/>
-    <col min="4612" max="4612" width="5.3984375" style="7" customWidth="1"/>
-    <col min="4613" max="4613" width="7.296875" style="7" customWidth="1"/>
-    <col min="4614" max="4614" width="11.09765625" style="7" customWidth="1"/>
-    <col min="4615" max="4615" width="10.69921875" style="7" customWidth="1"/>
-    <col min="4616" max="4616" width="4.8984375" style="7" customWidth="1"/>
-    <col min="4617" max="4617" width="10.8984375" style="7" customWidth="1"/>
-    <col min="4618" max="4618" width="11.296875" style="7" customWidth="1"/>
-    <col min="4619" max="4619" width="21.296875" style="7" customWidth="1"/>
-    <col min="4620" max="4620" width="3.59765625" style="7" customWidth="1"/>
-    <col min="4621" max="4864" width="7.09765625" style="7"/>
-    <col min="4865" max="4865" width="4.69921875" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="18.3984375" style="7" customWidth="1"/>
-    <col min="4867" max="4867" width="7.09765625" style="7"/>
-    <col min="4868" max="4868" width="5.3984375" style="7" customWidth="1"/>
-    <col min="4869" max="4869" width="7.296875" style="7" customWidth="1"/>
-    <col min="4870" max="4870" width="11.09765625" style="7" customWidth="1"/>
-    <col min="4871" max="4871" width="10.69921875" style="7" customWidth="1"/>
-    <col min="4872" max="4872" width="4.8984375" style="7" customWidth="1"/>
-    <col min="4873" max="4873" width="10.8984375" style="7" customWidth="1"/>
-    <col min="4874" max="4874" width="11.296875" style="7" customWidth="1"/>
-    <col min="4875" max="4875" width="21.296875" style="7" customWidth="1"/>
-    <col min="4876" max="4876" width="3.59765625" style="7" customWidth="1"/>
-    <col min="4877" max="5120" width="7.09765625" style="7"/>
-    <col min="5121" max="5121" width="4.69921875" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="18.3984375" style="7" customWidth="1"/>
-    <col min="5123" max="5123" width="7.09765625" style="7"/>
-    <col min="5124" max="5124" width="5.3984375" style="7" customWidth="1"/>
-    <col min="5125" max="5125" width="7.296875" style="7" customWidth="1"/>
-    <col min="5126" max="5126" width="11.09765625" style="7" customWidth="1"/>
-    <col min="5127" max="5127" width="10.69921875" style="7" customWidth="1"/>
-    <col min="5128" max="5128" width="4.8984375" style="7" customWidth="1"/>
-    <col min="5129" max="5129" width="10.8984375" style="7" customWidth="1"/>
-    <col min="5130" max="5130" width="11.296875" style="7" customWidth="1"/>
-    <col min="5131" max="5131" width="21.296875" style="7" customWidth="1"/>
-    <col min="5132" max="5132" width="3.59765625" style="7" customWidth="1"/>
-    <col min="5133" max="5376" width="7.09765625" style="7"/>
-    <col min="5377" max="5377" width="4.69921875" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="18.3984375" style="7" customWidth="1"/>
-    <col min="5379" max="5379" width="7.09765625" style="7"/>
-    <col min="5380" max="5380" width="5.3984375" style="7" customWidth="1"/>
-    <col min="5381" max="5381" width="7.296875" style="7" customWidth="1"/>
-    <col min="5382" max="5382" width="11.09765625" style="7" customWidth="1"/>
-    <col min="5383" max="5383" width="10.69921875" style="7" customWidth="1"/>
-    <col min="5384" max="5384" width="4.8984375" style="7" customWidth="1"/>
-    <col min="5385" max="5385" width="10.8984375" style="7" customWidth="1"/>
-    <col min="5386" max="5386" width="11.296875" style="7" customWidth="1"/>
-    <col min="5387" max="5387" width="21.296875" style="7" customWidth="1"/>
-    <col min="5388" max="5388" width="3.59765625" style="7" customWidth="1"/>
-    <col min="5389" max="5632" width="7.09765625" style="7"/>
-    <col min="5633" max="5633" width="4.69921875" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="18.3984375" style="7" customWidth="1"/>
-    <col min="5635" max="5635" width="7.09765625" style="7"/>
-    <col min="5636" max="5636" width="5.3984375" style="7" customWidth="1"/>
-    <col min="5637" max="5637" width="7.296875" style="7" customWidth="1"/>
-    <col min="5638" max="5638" width="11.09765625" style="7" customWidth="1"/>
-    <col min="5639" max="5639" width="10.69921875" style="7" customWidth="1"/>
-    <col min="5640" max="5640" width="4.8984375" style="7" customWidth="1"/>
-    <col min="5641" max="5641" width="10.8984375" style="7" customWidth="1"/>
-    <col min="5642" max="5642" width="11.296875" style="7" customWidth="1"/>
-    <col min="5643" max="5643" width="21.296875" style="7" customWidth="1"/>
-    <col min="5644" max="5644" width="3.59765625" style="7" customWidth="1"/>
-    <col min="5645" max="5888" width="7.09765625" style="7"/>
-    <col min="5889" max="5889" width="4.69921875" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="18.3984375" style="7" customWidth="1"/>
-    <col min="5891" max="5891" width="7.09765625" style="7"/>
-    <col min="5892" max="5892" width="5.3984375" style="7" customWidth="1"/>
-    <col min="5893" max="5893" width="7.296875" style="7" customWidth="1"/>
-    <col min="5894" max="5894" width="11.09765625" style="7" customWidth="1"/>
-    <col min="5895" max="5895" width="10.69921875" style="7" customWidth="1"/>
-    <col min="5896" max="5896" width="4.8984375" style="7" customWidth="1"/>
-    <col min="5897" max="5897" width="10.8984375" style="7" customWidth="1"/>
-    <col min="5898" max="5898" width="11.296875" style="7" customWidth="1"/>
-    <col min="5899" max="5899" width="21.296875" style="7" customWidth="1"/>
-    <col min="5900" max="5900" width="3.59765625" style="7" customWidth="1"/>
-    <col min="5901" max="6144" width="7.09765625" style="7"/>
-    <col min="6145" max="6145" width="4.69921875" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="18.3984375" style="7" customWidth="1"/>
-    <col min="6147" max="6147" width="7.09765625" style="7"/>
-    <col min="6148" max="6148" width="5.3984375" style="7" customWidth="1"/>
-    <col min="6149" max="6149" width="7.296875" style="7" customWidth="1"/>
-    <col min="6150" max="6150" width="11.09765625" style="7" customWidth="1"/>
-    <col min="6151" max="6151" width="10.69921875" style="7" customWidth="1"/>
-    <col min="6152" max="6152" width="4.8984375" style="7" customWidth="1"/>
-    <col min="6153" max="6153" width="10.8984375" style="7" customWidth="1"/>
-    <col min="6154" max="6154" width="11.296875" style="7" customWidth="1"/>
-    <col min="6155" max="6155" width="21.296875" style="7" customWidth="1"/>
-    <col min="6156" max="6156" width="3.59765625" style="7" customWidth="1"/>
-    <col min="6157" max="6400" width="7.09765625" style="7"/>
-    <col min="6401" max="6401" width="4.69921875" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="18.3984375" style="7" customWidth="1"/>
-    <col min="6403" max="6403" width="7.09765625" style="7"/>
-    <col min="6404" max="6404" width="5.3984375" style="7" customWidth="1"/>
-    <col min="6405" max="6405" width="7.296875" style="7" customWidth="1"/>
-    <col min="6406" max="6406" width="11.09765625" style="7" customWidth="1"/>
-    <col min="6407" max="6407" width="10.69921875" style="7" customWidth="1"/>
-    <col min="6408" max="6408" width="4.8984375" style="7" customWidth="1"/>
-    <col min="6409" max="6409" width="10.8984375" style="7" customWidth="1"/>
-    <col min="6410" max="6410" width="11.296875" style="7" customWidth="1"/>
-    <col min="6411" max="6411" width="21.296875" style="7" customWidth="1"/>
-    <col min="6412" max="6412" width="3.59765625" style="7" customWidth="1"/>
-    <col min="6413" max="6656" width="7.09765625" style="7"/>
-    <col min="6657" max="6657" width="4.69921875" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="18.3984375" style="7" customWidth="1"/>
-    <col min="6659" max="6659" width="7.09765625" style="7"/>
-    <col min="6660" max="6660" width="5.3984375" style="7" customWidth="1"/>
-    <col min="6661" max="6661" width="7.296875" style="7" customWidth="1"/>
-    <col min="6662" max="6662" width="11.09765625" style="7" customWidth="1"/>
-    <col min="6663" max="6663" width="10.69921875" style="7" customWidth="1"/>
-    <col min="6664" max="6664" width="4.8984375" style="7" customWidth="1"/>
-    <col min="6665" max="6665" width="10.8984375" style="7" customWidth="1"/>
-    <col min="6666" max="6666" width="11.296875" style="7" customWidth="1"/>
-    <col min="6667" max="6667" width="21.296875" style="7" customWidth="1"/>
-    <col min="6668" max="6668" width="3.59765625" style="7" customWidth="1"/>
-    <col min="6669" max="6912" width="7.09765625" style="7"/>
-    <col min="6913" max="6913" width="4.69921875" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="18.3984375" style="7" customWidth="1"/>
-    <col min="6915" max="6915" width="7.09765625" style="7"/>
-    <col min="6916" max="6916" width="5.3984375" style="7" customWidth="1"/>
-    <col min="6917" max="6917" width="7.296875" style="7" customWidth="1"/>
-    <col min="6918" max="6918" width="11.09765625" style="7" customWidth="1"/>
-    <col min="6919" max="6919" width="10.69921875" style="7" customWidth="1"/>
-    <col min="6920" max="6920" width="4.8984375" style="7" customWidth="1"/>
-    <col min="6921" max="6921" width="10.8984375" style="7" customWidth="1"/>
-    <col min="6922" max="6922" width="11.296875" style="7" customWidth="1"/>
-    <col min="6923" max="6923" width="21.296875" style="7" customWidth="1"/>
-    <col min="6924" max="6924" width="3.59765625" style="7" customWidth="1"/>
-    <col min="6925" max="7168" width="7.09765625" style="7"/>
-    <col min="7169" max="7169" width="4.69921875" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="18.3984375" style="7" customWidth="1"/>
-    <col min="7171" max="7171" width="7.09765625" style="7"/>
-    <col min="7172" max="7172" width="5.3984375" style="7" customWidth="1"/>
-    <col min="7173" max="7173" width="7.296875" style="7" customWidth="1"/>
-    <col min="7174" max="7174" width="11.09765625" style="7" customWidth="1"/>
-    <col min="7175" max="7175" width="10.69921875" style="7" customWidth="1"/>
-    <col min="7176" max="7176" width="4.8984375" style="7" customWidth="1"/>
-    <col min="7177" max="7177" width="10.8984375" style="7" customWidth="1"/>
-    <col min="7178" max="7178" width="11.296875" style="7" customWidth="1"/>
-    <col min="7179" max="7179" width="21.296875" style="7" customWidth="1"/>
-    <col min="7180" max="7180" width="3.59765625" style="7" customWidth="1"/>
-    <col min="7181" max="7424" width="7.09765625" style="7"/>
-    <col min="7425" max="7425" width="4.69921875" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="18.3984375" style="7" customWidth="1"/>
-    <col min="7427" max="7427" width="7.09765625" style="7"/>
-    <col min="7428" max="7428" width="5.3984375" style="7" customWidth="1"/>
-    <col min="7429" max="7429" width="7.296875" style="7" customWidth="1"/>
-    <col min="7430" max="7430" width="11.09765625" style="7" customWidth="1"/>
-    <col min="7431" max="7431" width="10.69921875" style="7" customWidth="1"/>
-    <col min="7432" max="7432" width="4.8984375" style="7" customWidth="1"/>
-    <col min="7433" max="7433" width="10.8984375" style="7" customWidth="1"/>
-    <col min="7434" max="7434" width="11.296875" style="7" customWidth="1"/>
-    <col min="7435" max="7435" width="21.296875" style="7" customWidth="1"/>
-    <col min="7436" max="7436" width="3.59765625" style="7" customWidth="1"/>
-    <col min="7437" max="7680" width="7.09765625" style="7"/>
-    <col min="7681" max="7681" width="4.69921875" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="18.3984375" style="7" customWidth="1"/>
-    <col min="7683" max="7683" width="7.09765625" style="7"/>
-    <col min="7684" max="7684" width="5.3984375" style="7" customWidth="1"/>
-    <col min="7685" max="7685" width="7.296875" style="7" customWidth="1"/>
-    <col min="7686" max="7686" width="11.09765625" style="7" customWidth="1"/>
-    <col min="7687" max="7687" width="10.69921875" style="7" customWidth="1"/>
-    <col min="7688" max="7688" width="4.8984375" style="7" customWidth="1"/>
-    <col min="7689" max="7689" width="10.8984375" style="7" customWidth="1"/>
-    <col min="7690" max="7690" width="11.296875" style="7" customWidth="1"/>
-    <col min="7691" max="7691" width="21.296875" style="7" customWidth="1"/>
-    <col min="7692" max="7692" width="3.59765625" style="7" customWidth="1"/>
-    <col min="7693" max="7936" width="7.09765625" style="7"/>
-    <col min="7937" max="7937" width="4.69921875" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="18.3984375" style="7" customWidth="1"/>
-    <col min="7939" max="7939" width="7.09765625" style="7"/>
-    <col min="7940" max="7940" width="5.3984375" style="7" customWidth="1"/>
-    <col min="7941" max="7941" width="7.296875" style="7" customWidth="1"/>
-    <col min="7942" max="7942" width="11.09765625" style="7" customWidth="1"/>
-    <col min="7943" max="7943" width="10.69921875" style="7" customWidth="1"/>
-    <col min="7944" max="7944" width="4.8984375" style="7" customWidth="1"/>
-    <col min="7945" max="7945" width="10.8984375" style="7" customWidth="1"/>
-    <col min="7946" max="7946" width="11.296875" style="7" customWidth="1"/>
-    <col min="7947" max="7947" width="21.296875" style="7" customWidth="1"/>
-    <col min="7948" max="7948" width="3.59765625" style="7" customWidth="1"/>
-    <col min="7949" max="8192" width="7.09765625" style="7"/>
-    <col min="8193" max="8193" width="4.69921875" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="18.3984375" style="7" customWidth="1"/>
-    <col min="8195" max="8195" width="7.09765625" style="7"/>
-    <col min="8196" max="8196" width="5.3984375" style="7" customWidth="1"/>
-    <col min="8197" max="8197" width="7.296875" style="7" customWidth="1"/>
-    <col min="8198" max="8198" width="11.09765625" style="7" customWidth="1"/>
-    <col min="8199" max="8199" width="10.69921875" style="7" customWidth="1"/>
-    <col min="8200" max="8200" width="4.8984375" style="7" customWidth="1"/>
-    <col min="8201" max="8201" width="10.8984375" style="7" customWidth="1"/>
-    <col min="8202" max="8202" width="11.296875" style="7" customWidth="1"/>
-    <col min="8203" max="8203" width="21.296875" style="7" customWidth="1"/>
-    <col min="8204" max="8204" width="3.59765625" style="7" customWidth="1"/>
-    <col min="8205" max="8448" width="7.09765625" style="7"/>
-    <col min="8449" max="8449" width="4.69921875" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="18.3984375" style="7" customWidth="1"/>
-    <col min="8451" max="8451" width="7.09765625" style="7"/>
-    <col min="8452" max="8452" width="5.3984375" style="7" customWidth="1"/>
-    <col min="8453" max="8453" width="7.296875" style="7" customWidth="1"/>
-    <col min="8454" max="8454" width="11.09765625" style="7" customWidth="1"/>
-    <col min="8455" max="8455" width="10.69921875" style="7" customWidth="1"/>
-    <col min="8456" max="8456" width="4.8984375" style="7" customWidth="1"/>
-    <col min="8457" max="8457" width="10.8984375" style="7" customWidth="1"/>
-    <col min="8458" max="8458" width="11.296875" style="7" customWidth="1"/>
-    <col min="8459" max="8459" width="21.296875" style="7" customWidth="1"/>
-    <col min="8460" max="8460" width="3.59765625" style="7" customWidth="1"/>
-    <col min="8461" max="8704" width="7.09765625" style="7"/>
-    <col min="8705" max="8705" width="4.69921875" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="18.3984375" style="7" customWidth="1"/>
-    <col min="8707" max="8707" width="7.09765625" style="7"/>
-    <col min="8708" max="8708" width="5.3984375" style="7" customWidth="1"/>
-    <col min="8709" max="8709" width="7.296875" style="7" customWidth="1"/>
-    <col min="8710" max="8710" width="11.09765625" style="7" customWidth="1"/>
-    <col min="8711" max="8711" width="10.69921875" style="7" customWidth="1"/>
-    <col min="8712" max="8712" width="4.8984375" style="7" customWidth="1"/>
-    <col min="8713" max="8713" width="10.8984375" style="7" customWidth="1"/>
-    <col min="8714" max="8714" width="11.296875" style="7" customWidth="1"/>
-    <col min="8715" max="8715" width="21.296875" style="7" customWidth="1"/>
-    <col min="8716" max="8716" width="3.59765625" style="7" customWidth="1"/>
-    <col min="8717" max="8960" width="7.09765625" style="7"/>
-    <col min="8961" max="8961" width="4.69921875" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="18.3984375" style="7" customWidth="1"/>
-    <col min="8963" max="8963" width="7.09765625" style="7"/>
-    <col min="8964" max="8964" width="5.3984375" style="7" customWidth="1"/>
-    <col min="8965" max="8965" width="7.296875" style="7" customWidth="1"/>
-    <col min="8966" max="8966" width="11.09765625" style="7" customWidth="1"/>
-    <col min="8967" max="8967" width="10.69921875" style="7" customWidth="1"/>
-    <col min="8968" max="8968" width="4.8984375" style="7" customWidth="1"/>
-    <col min="8969" max="8969" width="10.8984375" style="7" customWidth="1"/>
-    <col min="8970" max="8970" width="11.296875" style="7" customWidth="1"/>
-    <col min="8971" max="8971" width="21.296875" style="7" customWidth="1"/>
-    <col min="8972" max="8972" width="3.59765625" style="7" customWidth="1"/>
-    <col min="8973" max="9216" width="7.09765625" style="7"/>
-    <col min="9217" max="9217" width="4.69921875" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="18.3984375" style="7" customWidth="1"/>
-    <col min="9219" max="9219" width="7.09765625" style="7"/>
-    <col min="9220" max="9220" width="5.3984375" style="7" customWidth="1"/>
-    <col min="9221" max="9221" width="7.296875" style="7" customWidth="1"/>
-    <col min="9222" max="9222" width="11.09765625" style="7" customWidth="1"/>
-    <col min="9223" max="9223" width="10.69921875" style="7" customWidth="1"/>
-    <col min="9224" max="9224" width="4.8984375" style="7" customWidth="1"/>
-    <col min="9225" max="9225" width="10.8984375" style="7" customWidth="1"/>
-    <col min="9226" max="9226" width="11.296875" style="7" customWidth="1"/>
-    <col min="9227" max="9227" width="21.296875" style="7" customWidth="1"/>
-    <col min="9228" max="9228" width="3.59765625" style="7" customWidth="1"/>
-    <col min="9229" max="9472" width="7.09765625" style="7"/>
-    <col min="9473" max="9473" width="4.69921875" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="18.3984375" style="7" customWidth="1"/>
-    <col min="9475" max="9475" width="7.09765625" style="7"/>
-    <col min="9476" max="9476" width="5.3984375" style="7" customWidth="1"/>
-    <col min="9477" max="9477" width="7.296875" style="7" customWidth="1"/>
-    <col min="9478" max="9478" width="11.09765625" style="7" customWidth="1"/>
-    <col min="9479" max="9479" width="10.69921875" style="7" customWidth="1"/>
-    <col min="9480" max="9480" width="4.8984375" style="7" customWidth="1"/>
-    <col min="9481" max="9481" width="10.8984375" style="7" customWidth="1"/>
-    <col min="9482" max="9482" width="11.296875" style="7" customWidth="1"/>
-    <col min="9483" max="9483" width="21.296875" style="7" customWidth="1"/>
-    <col min="9484" max="9484" width="3.59765625" style="7" customWidth="1"/>
-    <col min="9485" max="9728" width="7.09765625" style="7"/>
-    <col min="9729" max="9729" width="4.69921875" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="18.3984375" style="7" customWidth="1"/>
-    <col min="9731" max="9731" width="7.09765625" style="7"/>
-    <col min="9732" max="9732" width="5.3984375" style="7" customWidth="1"/>
-    <col min="9733" max="9733" width="7.296875" style="7" customWidth="1"/>
-    <col min="9734" max="9734" width="11.09765625" style="7" customWidth="1"/>
-    <col min="9735" max="9735" width="10.69921875" style="7" customWidth="1"/>
-    <col min="9736" max="9736" width="4.8984375" style="7" customWidth="1"/>
-    <col min="9737" max="9737" width="10.8984375" style="7" customWidth="1"/>
-    <col min="9738" max="9738" width="11.296875" style="7" customWidth="1"/>
-    <col min="9739" max="9739" width="21.296875" style="7" customWidth="1"/>
-    <col min="9740" max="9740" width="3.59765625" style="7" customWidth="1"/>
-    <col min="9741" max="9984" width="7.09765625" style="7"/>
-    <col min="9985" max="9985" width="4.69921875" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="18.3984375" style="7" customWidth="1"/>
-    <col min="9987" max="9987" width="7.09765625" style="7"/>
-    <col min="9988" max="9988" width="5.3984375" style="7" customWidth="1"/>
-    <col min="9989" max="9989" width="7.296875" style="7" customWidth="1"/>
-    <col min="9990" max="9990" width="11.09765625" style="7" customWidth="1"/>
-    <col min="9991" max="9991" width="10.69921875" style="7" customWidth="1"/>
-    <col min="9992" max="9992" width="4.8984375" style="7" customWidth="1"/>
-    <col min="9993" max="9993" width="10.8984375" style="7" customWidth="1"/>
-    <col min="9994" max="9994" width="11.296875" style="7" customWidth="1"/>
-    <col min="9995" max="9995" width="21.296875" style="7" customWidth="1"/>
-    <col min="9996" max="9996" width="3.59765625" style="7" customWidth="1"/>
-    <col min="9997" max="10240" width="7.09765625" style="7"/>
-    <col min="10241" max="10241" width="4.69921875" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="18.3984375" style="7" customWidth="1"/>
-    <col min="10243" max="10243" width="7.09765625" style="7"/>
-    <col min="10244" max="10244" width="5.3984375" style="7" customWidth="1"/>
-    <col min="10245" max="10245" width="7.296875" style="7" customWidth="1"/>
-    <col min="10246" max="10246" width="11.09765625" style="7" customWidth="1"/>
-    <col min="10247" max="10247" width="10.69921875" style="7" customWidth="1"/>
-    <col min="10248" max="10248" width="4.8984375" style="7" customWidth="1"/>
-    <col min="10249" max="10249" width="10.8984375" style="7" customWidth="1"/>
-    <col min="10250" max="10250" width="11.296875" style="7" customWidth="1"/>
-    <col min="10251" max="10251" width="21.296875" style="7" customWidth="1"/>
-    <col min="10252" max="10252" width="3.59765625" style="7" customWidth="1"/>
-    <col min="10253" max="10496" width="7.09765625" style="7"/>
-    <col min="10497" max="10497" width="4.69921875" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="18.3984375" style="7" customWidth="1"/>
-    <col min="10499" max="10499" width="7.09765625" style="7"/>
-    <col min="10500" max="10500" width="5.3984375" style="7" customWidth="1"/>
-    <col min="10501" max="10501" width="7.296875" style="7" customWidth="1"/>
-    <col min="10502" max="10502" width="11.09765625" style="7" customWidth="1"/>
-    <col min="10503" max="10503" width="10.69921875" style="7" customWidth="1"/>
-    <col min="10504" max="10504" width="4.8984375" style="7" customWidth="1"/>
-    <col min="10505" max="10505" width="10.8984375" style="7" customWidth="1"/>
-    <col min="10506" max="10506" width="11.296875" style="7" customWidth="1"/>
-    <col min="10507" max="10507" width="21.296875" style="7" customWidth="1"/>
-    <col min="10508" max="10508" width="3.59765625" style="7" customWidth="1"/>
-    <col min="10509" max="10752" width="7.09765625" style="7"/>
-    <col min="10753" max="10753" width="4.69921875" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="18.3984375" style="7" customWidth="1"/>
-    <col min="10755" max="10755" width="7.09765625" style="7"/>
-    <col min="10756" max="10756" width="5.3984375" style="7" customWidth="1"/>
-    <col min="10757" max="10757" width="7.296875" style="7" customWidth="1"/>
-    <col min="10758" max="10758" width="11.09765625" style="7" customWidth="1"/>
-    <col min="10759" max="10759" width="10.69921875" style="7" customWidth="1"/>
-    <col min="10760" max="10760" width="4.8984375" style="7" customWidth="1"/>
-    <col min="10761" max="10761" width="10.8984375" style="7" customWidth="1"/>
-    <col min="10762" max="10762" width="11.296875" style="7" customWidth="1"/>
-    <col min="10763" max="10763" width="21.296875" style="7" customWidth="1"/>
-    <col min="10764" max="10764" width="3.59765625" style="7" customWidth="1"/>
-    <col min="10765" max="11008" width="7.09765625" style="7"/>
-    <col min="11009" max="11009" width="4.69921875" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="18.3984375" style="7" customWidth="1"/>
-    <col min="11011" max="11011" width="7.09765625" style="7"/>
-    <col min="11012" max="11012" width="5.3984375" style="7" customWidth="1"/>
-    <col min="11013" max="11013" width="7.296875" style="7" customWidth="1"/>
-    <col min="11014" max="11014" width="11.09765625" style="7" customWidth="1"/>
-    <col min="11015" max="11015" width="10.69921875" style="7" customWidth="1"/>
-    <col min="11016" max="11016" width="4.8984375" style="7" customWidth="1"/>
-    <col min="11017" max="11017" width="10.8984375" style="7" customWidth="1"/>
-    <col min="11018" max="11018" width="11.296875" style="7" customWidth="1"/>
-    <col min="11019" max="11019" width="21.296875" style="7" customWidth="1"/>
-    <col min="11020" max="11020" width="3.59765625" style="7" customWidth="1"/>
-    <col min="11021" max="11264" width="7.09765625" style="7"/>
-    <col min="11265" max="11265" width="4.69921875" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="18.3984375" style="7" customWidth="1"/>
-    <col min="11267" max="11267" width="7.09765625" style="7"/>
-    <col min="11268" max="11268" width="5.3984375" style="7" customWidth="1"/>
-    <col min="11269" max="11269" width="7.296875" style="7" customWidth="1"/>
-    <col min="11270" max="11270" width="11.09765625" style="7" customWidth="1"/>
-    <col min="11271" max="11271" width="10.69921875" style="7" customWidth="1"/>
-    <col min="11272" max="11272" width="4.8984375" style="7" customWidth="1"/>
-    <col min="11273" max="11273" width="10.8984375" style="7" customWidth="1"/>
-    <col min="11274" max="11274" width="11.296875" style="7" customWidth="1"/>
-    <col min="11275" max="11275" width="21.296875" style="7" customWidth="1"/>
-    <col min="11276" max="11276" width="3.59765625" style="7" customWidth="1"/>
-    <col min="11277" max="11520" width="7.09765625" style="7"/>
-    <col min="11521" max="11521" width="4.69921875" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="18.3984375" style="7" customWidth="1"/>
-    <col min="11523" max="11523" width="7.09765625" style="7"/>
-    <col min="11524" max="11524" width="5.3984375" style="7" customWidth="1"/>
-    <col min="11525" max="11525" width="7.296875" style="7" customWidth="1"/>
-    <col min="11526" max="11526" width="11.09765625" style="7" customWidth="1"/>
-    <col min="11527" max="11527" width="10.69921875" style="7" customWidth="1"/>
-    <col min="11528" max="11528" width="4.8984375" style="7" customWidth="1"/>
-    <col min="11529" max="11529" width="10.8984375" style="7" customWidth="1"/>
-    <col min="11530" max="11530" width="11.296875" style="7" customWidth="1"/>
-    <col min="11531" max="11531" width="21.296875" style="7" customWidth="1"/>
-    <col min="11532" max="11532" width="3.59765625" style="7" customWidth="1"/>
-    <col min="11533" max="11776" width="7.09765625" style="7"/>
-    <col min="11777" max="11777" width="4.69921875" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="18.3984375" style="7" customWidth="1"/>
-    <col min="11779" max="11779" width="7.09765625" style="7"/>
-    <col min="11780" max="11780" width="5.3984375" style="7" customWidth="1"/>
-    <col min="11781" max="11781" width="7.296875" style="7" customWidth="1"/>
-    <col min="11782" max="11782" width="11.09765625" style="7" customWidth="1"/>
-    <col min="11783" max="11783" width="10.69921875" style="7" customWidth="1"/>
-    <col min="11784" max="11784" width="4.8984375" style="7" customWidth="1"/>
-    <col min="11785" max="11785" width="10.8984375" style="7" customWidth="1"/>
-    <col min="11786" max="11786" width="11.296875" style="7" customWidth="1"/>
-    <col min="11787" max="11787" width="21.296875" style="7" customWidth="1"/>
-    <col min="11788" max="11788" width="3.59765625" style="7" customWidth="1"/>
-    <col min="11789" max="12032" width="7.09765625" style="7"/>
-    <col min="12033" max="12033" width="4.69921875" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="18.3984375" style="7" customWidth="1"/>
-    <col min="12035" max="12035" width="7.09765625" style="7"/>
-    <col min="12036" max="12036" width="5.3984375" style="7" customWidth="1"/>
-    <col min="12037" max="12037" width="7.296875" style="7" customWidth="1"/>
-    <col min="12038" max="12038" width="11.09765625" style="7" customWidth="1"/>
-    <col min="12039" max="12039" width="10.69921875" style="7" customWidth="1"/>
-    <col min="12040" max="12040" width="4.8984375" style="7" customWidth="1"/>
-    <col min="12041" max="12041" width="10.8984375" style="7" customWidth="1"/>
-    <col min="12042" max="12042" width="11.296875" style="7" customWidth="1"/>
-    <col min="12043" max="12043" width="21.296875" style="7" customWidth="1"/>
-    <col min="12044" max="12044" width="3.59765625" style="7" customWidth="1"/>
-    <col min="12045" max="12288" width="7.09765625" style="7"/>
-    <col min="12289" max="12289" width="4.69921875" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="18.3984375" style="7" customWidth="1"/>
-    <col min="12291" max="12291" width="7.09765625" style="7"/>
-    <col min="12292" max="12292" width="5.3984375" style="7" customWidth="1"/>
-    <col min="12293" max="12293" width="7.296875" style="7" customWidth="1"/>
-    <col min="12294" max="12294" width="11.09765625" style="7" customWidth="1"/>
-    <col min="12295" max="12295" width="10.69921875" style="7" customWidth="1"/>
-    <col min="12296" max="12296" width="4.8984375" style="7" customWidth="1"/>
-    <col min="12297" max="12297" width="10.8984375" style="7" customWidth="1"/>
-    <col min="12298" max="12298" width="11.296875" style="7" customWidth="1"/>
-    <col min="12299" max="12299" width="21.296875" style="7" customWidth="1"/>
-    <col min="12300" max="12300" width="3.59765625" style="7" customWidth="1"/>
-    <col min="12301" max="12544" width="7.09765625" style="7"/>
-    <col min="12545" max="12545" width="4.69921875" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="18.3984375" style="7" customWidth="1"/>
-    <col min="12547" max="12547" width="7.09765625" style="7"/>
-    <col min="12548" max="12548" width="5.3984375" style="7" customWidth="1"/>
-    <col min="12549" max="12549" width="7.296875" style="7" customWidth="1"/>
-    <col min="12550" max="12550" width="11.09765625" style="7" customWidth="1"/>
-    <col min="12551" max="12551" width="10.69921875" style="7" customWidth="1"/>
-    <col min="12552" max="12552" width="4.8984375" style="7" customWidth="1"/>
-    <col min="12553" max="12553" width="10.8984375" style="7" customWidth="1"/>
-    <col min="12554" max="12554" width="11.296875" style="7" customWidth="1"/>
-    <col min="12555" max="12555" width="21.296875" style="7" customWidth="1"/>
-    <col min="12556" max="12556" width="3.59765625" style="7" customWidth="1"/>
-    <col min="12557" max="12800" width="7.09765625" style="7"/>
-    <col min="12801" max="12801" width="4.69921875" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="18.3984375" style="7" customWidth="1"/>
-    <col min="12803" max="12803" width="7.09765625" style="7"/>
-    <col min="12804" max="12804" width="5.3984375" style="7" customWidth="1"/>
-    <col min="12805" max="12805" width="7.296875" style="7" customWidth="1"/>
-    <col min="12806" max="12806" width="11.09765625" style="7" customWidth="1"/>
-    <col min="12807" max="12807" width="10.69921875" style="7" customWidth="1"/>
-    <col min="12808" max="12808" width="4.8984375" style="7" customWidth="1"/>
-    <col min="12809" max="12809" width="10.8984375" style="7" customWidth="1"/>
-    <col min="12810" max="12810" width="11.296875" style="7" customWidth="1"/>
-    <col min="12811" max="12811" width="21.296875" style="7" customWidth="1"/>
-    <col min="12812" max="12812" width="3.59765625" style="7" customWidth="1"/>
-    <col min="12813" max="13056" width="7.09765625" style="7"/>
-    <col min="13057" max="13057" width="4.69921875" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="18.3984375" style="7" customWidth="1"/>
-    <col min="13059" max="13059" width="7.09765625" style="7"/>
-    <col min="13060" max="13060" width="5.3984375" style="7" customWidth="1"/>
-    <col min="13061" max="13061" width="7.296875" style="7" customWidth="1"/>
-    <col min="13062" max="13062" width="11.09765625" style="7" customWidth="1"/>
-    <col min="13063" max="13063" width="10.69921875" style="7" customWidth="1"/>
-    <col min="13064" max="13064" width="4.8984375" style="7" customWidth="1"/>
-    <col min="13065" max="13065" width="10.8984375" style="7" customWidth="1"/>
-    <col min="13066" max="13066" width="11.296875" style="7" customWidth="1"/>
-    <col min="13067" max="13067" width="21.296875" style="7" customWidth="1"/>
-    <col min="13068" max="13068" width="3.59765625" style="7" customWidth="1"/>
-    <col min="13069" max="13312" width="7.09765625" style="7"/>
-    <col min="13313" max="13313" width="4.69921875" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="18.3984375" style="7" customWidth="1"/>
-    <col min="13315" max="13315" width="7.09765625" style="7"/>
-    <col min="13316" max="13316" width="5.3984375" style="7" customWidth="1"/>
-    <col min="13317" max="13317" width="7.296875" style="7" customWidth="1"/>
-    <col min="13318" max="13318" width="11.09765625" style="7" customWidth="1"/>
-    <col min="13319" max="13319" width="10.69921875" style="7" customWidth="1"/>
-    <col min="13320" max="13320" width="4.8984375" style="7" customWidth="1"/>
-    <col min="13321" max="13321" width="10.8984375" style="7" customWidth="1"/>
-    <col min="13322" max="13322" width="11.296875" style="7" customWidth="1"/>
-    <col min="13323" max="13323" width="21.296875" style="7" customWidth="1"/>
-    <col min="13324" max="13324" width="3.59765625" style="7" customWidth="1"/>
-    <col min="13325" max="13568" width="7.09765625" style="7"/>
-    <col min="13569" max="13569" width="4.69921875" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="18.3984375" style="7" customWidth="1"/>
-    <col min="13571" max="13571" width="7.09765625" style="7"/>
-    <col min="13572" max="13572" width="5.3984375" style="7" customWidth="1"/>
-    <col min="13573" max="13573" width="7.296875" style="7" customWidth="1"/>
-    <col min="13574" max="13574" width="11.09765625" style="7" customWidth="1"/>
-    <col min="13575" max="13575" width="10.69921875" style="7" customWidth="1"/>
-    <col min="13576" max="13576" width="4.8984375" style="7" customWidth="1"/>
-    <col min="13577" max="13577" width="10.8984375" style="7" customWidth="1"/>
-    <col min="13578" max="13578" width="11.296875" style="7" customWidth="1"/>
-    <col min="13579" max="13579" width="21.296875" style="7" customWidth="1"/>
-    <col min="13580" max="13580" width="3.59765625" style="7" customWidth="1"/>
-    <col min="13581" max="13824" width="7.09765625" style="7"/>
-    <col min="13825" max="13825" width="4.69921875" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="18.3984375" style="7" customWidth="1"/>
-    <col min="13827" max="13827" width="7.09765625" style="7"/>
-    <col min="13828" max="13828" width="5.3984375" style="7" customWidth="1"/>
-    <col min="13829" max="13829" width="7.296875" style="7" customWidth="1"/>
-    <col min="13830" max="13830" width="11.09765625" style="7" customWidth="1"/>
-    <col min="13831" max="13831" width="10.69921875" style="7" customWidth="1"/>
-    <col min="13832" max="13832" width="4.8984375" style="7" customWidth="1"/>
-    <col min="13833" max="13833" width="10.8984375" style="7" customWidth="1"/>
-    <col min="13834" max="13834" width="11.296875" style="7" customWidth="1"/>
-    <col min="13835" max="13835" width="21.296875" style="7" customWidth="1"/>
-    <col min="13836" max="13836" width="3.59765625" style="7" customWidth="1"/>
-    <col min="13837" max="14080" width="7.09765625" style="7"/>
-    <col min="14081" max="14081" width="4.69921875" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="18.3984375" style="7" customWidth="1"/>
-    <col min="14083" max="14083" width="7.09765625" style="7"/>
-    <col min="14084" max="14084" width="5.3984375" style="7" customWidth="1"/>
-    <col min="14085" max="14085" width="7.296875" style="7" customWidth="1"/>
-    <col min="14086" max="14086" width="11.09765625" style="7" customWidth="1"/>
-    <col min="14087" max="14087" width="10.69921875" style="7" customWidth="1"/>
-    <col min="14088" max="14088" width="4.8984375" style="7" customWidth="1"/>
-    <col min="14089" max="14089" width="10.8984375" style="7" customWidth="1"/>
-    <col min="14090" max="14090" width="11.296875" style="7" customWidth="1"/>
-    <col min="14091" max="14091" width="21.296875" style="7" customWidth="1"/>
-    <col min="14092" max="14092" width="3.59765625" style="7" customWidth="1"/>
-    <col min="14093" max="14336" width="7.09765625" style="7"/>
-    <col min="14337" max="14337" width="4.69921875" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="18.3984375" style="7" customWidth="1"/>
-    <col min="14339" max="14339" width="7.09765625" style="7"/>
-    <col min="14340" max="14340" width="5.3984375" style="7" customWidth="1"/>
-    <col min="14341" max="14341" width="7.296875" style="7" customWidth="1"/>
-    <col min="14342" max="14342" width="11.09765625" style="7" customWidth="1"/>
-    <col min="14343" max="14343" width="10.69921875" style="7" customWidth="1"/>
-    <col min="14344" max="14344" width="4.8984375" style="7" customWidth="1"/>
-    <col min="14345" max="14345" width="10.8984375" style="7" customWidth="1"/>
-    <col min="14346" max="14346" width="11.296875" style="7" customWidth="1"/>
-    <col min="14347" max="14347" width="21.296875" style="7" customWidth="1"/>
-    <col min="14348" max="14348" width="3.59765625" style="7" customWidth="1"/>
-    <col min="14349" max="14592" width="7.09765625" style="7"/>
-    <col min="14593" max="14593" width="4.69921875" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="18.3984375" style="7" customWidth="1"/>
-    <col min="14595" max="14595" width="7.09765625" style="7"/>
-    <col min="14596" max="14596" width="5.3984375" style="7" customWidth="1"/>
-    <col min="14597" max="14597" width="7.296875" style="7" customWidth="1"/>
-    <col min="14598" max="14598" width="11.09765625" style="7" customWidth="1"/>
-    <col min="14599" max="14599" width="10.69921875" style="7" customWidth="1"/>
-    <col min="14600" max="14600" width="4.8984375" style="7" customWidth="1"/>
-    <col min="14601" max="14601" width="10.8984375" style="7" customWidth="1"/>
-    <col min="14602" max="14602" width="11.296875" style="7" customWidth="1"/>
-    <col min="14603" max="14603" width="21.296875" style="7" customWidth="1"/>
-    <col min="14604" max="14604" width="3.59765625" style="7" customWidth="1"/>
-    <col min="14605" max="14848" width="7.09765625" style="7"/>
-    <col min="14849" max="14849" width="4.69921875" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="18.3984375" style="7" customWidth="1"/>
-    <col min="14851" max="14851" width="7.09765625" style="7"/>
-    <col min="14852" max="14852" width="5.3984375" style="7" customWidth="1"/>
-    <col min="14853" max="14853" width="7.296875" style="7" customWidth="1"/>
-    <col min="14854" max="14854" width="11.09765625" style="7" customWidth="1"/>
-    <col min="14855" max="14855" width="10.69921875" style="7" customWidth="1"/>
-    <col min="14856" max="14856" width="4.8984375" style="7" customWidth="1"/>
-    <col min="14857" max="14857" width="10.8984375" style="7" customWidth="1"/>
-    <col min="14858" max="14858" width="11.296875" style="7" customWidth="1"/>
-    <col min="14859" max="14859" width="21.296875" style="7" customWidth="1"/>
-    <col min="14860" max="14860" width="3.59765625" style="7" customWidth="1"/>
-    <col min="14861" max="15104" width="7.09765625" style="7"/>
-    <col min="15105" max="15105" width="4.69921875" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="18.3984375" style="7" customWidth="1"/>
-    <col min="15107" max="15107" width="7.09765625" style="7"/>
-    <col min="15108" max="15108" width="5.3984375" style="7" customWidth="1"/>
-    <col min="15109" max="15109" width="7.296875" style="7" customWidth="1"/>
-    <col min="15110" max="15110" width="11.09765625" style="7" customWidth="1"/>
-    <col min="15111" max="15111" width="10.69921875" style="7" customWidth="1"/>
-    <col min="15112" max="15112" width="4.8984375" style="7" customWidth="1"/>
-    <col min="15113" max="15113" width="10.8984375" style="7" customWidth="1"/>
-    <col min="15114" max="15114" width="11.296875" style="7" customWidth="1"/>
-    <col min="15115" max="15115" width="21.296875" style="7" customWidth="1"/>
-    <col min="15116" max="15116" width="3.59765625" style="7" customWidth="1"/>
-    <col min="15117" max="15360" width="7.09765625" style="7"/>
-    <col min="15361" max="15361" width="4.69921875" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="18.3984375" style="7" customWidth="1"/>
-    <col min="15363" max="15363" width="7.09765625" style="7"/>
-    <col min="15364" max="15364" width="5.3984375" style="7" customWidth="1"/>
-    <col min="15365" max="15365" width="7.296875" style="7" customWidth="1"/>
-    <col min="15366" max="15366" width="11.09765625" style="7" customWidth="1"/>
-    <col min="15367" max="15367" width="10.69921875" style="7" customWidth="1"/>
-    <col min="15368" max="15368" width="4.8984375" style="7" customWidth="1"/>
-    <col min="15369" max="15369" width="10.8984375" style="7" customWidth="1"/>
-    <col min="15370" max="15370" width="11.296875" style="7" customWidth="1"/>
-    <col min="15371" max="15371" width="21.296875" style="7" customWidth="1"/>
-    <col min="15372" max="15372" width="3.59765625" style="7" customWidth="1"/>
-    <col min="15373" max="15616" width="7.09765625" style="7"/>
-    <col min="15617" max="15617" width="4.69921875" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="18.3984375" style="7" customWidth="1"/>
-    <col min="15619" max="15619" width="7.09765625" style="7"/>
-    <col min="15620" max="15620" width="5.3984375" style="7" customWidth="1"/>
-    <col min="15621" max="15621" width="7.296875" style="7" customWidth="1"/>
-    <col min="15622" max="15622" width="11.09765625" style="7" customWidth="1"/>
-    <col min="15623" max="15623" width="10.69921875" style="7" customWidth="1"/>
-    <col min="15624" max="15624" width="4.8984375" style="7" customWidth="1"/>
-    <col min="15625" max="15625" width="10.8984375" style="7" customWidth="1"/>
-    <col min="15626" max="15626" width="11.296875" style="7" customWidth="1"/>
-    <col min="15627" max="15627" width="21.296875" style="7" customWidth="1"/>
-    <col min="15628" max="15628" width="3.59765625" style="7" customWidth="1"/>
-    <col min="15629" max="15872" width="7.09765625" style="7"/>
-    <col min="15873" max="15873" width="4.69921875" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="18.3984375" style="7" customWidth="1"/>
-    <col min="15875" max="15875" width="7.09765625" style="7"/>
-    <col min="15876" max="15876" width="5.3984375" style="7" customWidth="1"/>
-    <col min="15877" max="15877" width="7.296875" style="7" customWidth="1"/>
-    <col min="15878" max="15878" width="11.09765625" style="7" customWidth="1"/>
-    <col min="15879" max="15879" width="10.69921875" style="7" customWidth="1"/>
-    <col min="15880" max="15880" width="4.8984375" style="7" customWidth="1"/>
-    <col min="15881" max="15881" width="10.8984375" style="7" customWidth="1"/>
-    <col min="15882" max="15882" width="11.296875" style="7" customWidth="1"/>
-    <col min="15883" max="15883" width="21.296875" style="7" customWidth="1"/>
-    <col min="15884" max="15884" width="3.59765625" style="7" customWidth="1"/>
-    <col min="15885" max="16128" width="7.09765625" style="7"/>
-    <col min="16129" max="16129" width="4.69921875" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="18.3984375" style="7" customWidth="1"/>
-    <col min="16131" max="16131" width="7.09765625" style="7"/>
-    <col min="16132" max="16132" width="5.3984375" style="7" customWidth="1"/>
-    <col min="16133" max="16133" width="7.296875" style="7" customWidth="1"/>
-    <col min="16134" max="16134" width="11.09765625" style="7" customWidth="1"/>
-    <col min="16135" max="16135" width="10.69921875" style="7" customWidth="1"/>
-    <col min="16136" max="16136" width="4.8984375" style="7" customWidth="1"/>
-    <col min="16137" max="16137" width="10.8984375" style="7" customWidth="1"/>
-    <col min="16138" max="16138" width="11.296875" style="7" customWidth="1"/>
-    <col min="16139" max="16139" width="21.296875" style="7" customWidth="1"/>
-    <col min="16140" max="16140" width="3.59765625" style="7" customWidth="1"/>
-    <col min="16141" max="16384" width="7.09765625" style="7"/>
+    <col min="1" max="1" width="4.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="7" customWidth="1"/>
+    <col min="13" max="256" width="7.125" style="7"/>
+    <col min="257" max="257" width="4.75" style="7" customWidth="1"/>
+    <col min="258" max="258" width="18.375" style="7" customWidth="1"/>
+    <col min="259" max="259" width="7.125" style="7"/>
+    <col min="260" max="260" width="5.375" style="7" customWidth="1"/>
+    <col min="261" max="261" width="7.25" style="7" customWidth="1"/>
+    <col min="262" max="262" width="11.125" style="7" customWidth="1"/>
+    <col min="263" max="263" width="10.75" style="7" customWidth="1"/>
+    <col min="264" max="264" width="4.875" style="7" customWidth="1"/>
+    <col min="265" max="265" width="10.875" style="7" customWidth="1"/>
+    <col min="266" max="266" width="11.25" style="7" customWidth="1"/>
+    <col min="267" max="267" width="21.25" style="7" customWidth="1"/>
+    <col min="268" max="268" width="3.625" style="7" customWidth="1"/>
+    <col min="269" max="512" width="7.125" style="7"/>
+    <col min="513" max="513" width="4.75" style="7" customWidth="1"/>
+    <col min="514" max="514" width="18.375" style="7" customWidth="1"/>
+    <col min="515" max="515" width="7.125" style="7"/>
+    <col min="516" max="516" width="5.375" style="7" customWidth="1"/>
+    <col min="517" max="517" width="7.25" style="7" customWidth="1"/>
+    <col min="518" max="518" width="11.125" style="7" customWidth="1"/>
+    <col min="519" max="519" width="10.75" style="7" customWidth="1"/>
+    <col min="520" max="520" width="4.875" style="7" customWidth="1"/>
+    <col min="521" max="521" width="10.875" style="7" customWidth="1"/>
+    <col min="522" max="522" width="11.25" style="7" customWidth="1"/>
+    <col min="523" max="523" width="21.25" style="7" customWidth="1"/>
+    <col min="524" max="524" width="3.625" style="7" customWidth="1"/>
+    <col min="525" max="768" width="7.125" style="7"/>
+    <col min="769" max="769" width="4.75" style="7" customWidth="1"/>
+    <col min="770" max="770" width="18.375" style="7" customWidth="1"/>
+    <col min="771" max="771" width="7.125" style="7"/>
+    <col min="772" max="772" width="5.375" style="7" customWidth="1"/>
+    <col min="773" max="773" width="7.25" style="7" customWidth="1"/>
+    <col min="774" max="774" width="11.125" style="7" customWidth="1"/>
+    <col min="775" max="775" width="10.75" style="7" customWidth="1"/>
+    <col min="776" max="776" width="4.875" style="7" customWidth="1"/>
+    <col min="777" max="777" width="10.875" style="7" customWidth="1"/>
+    <col min="778" max="778" width="11.25" style="7" customWidth="1"/>
+    <col min="779" max="779" width="21.25" style="7" customWidth="1"/>
+    <col min="780" max="780" width="3.625" style="7" customWidth="1"/>
+    <col min="781" max="1024" width="7.125" style="7"/>
+    <col min="1025" max="1025" width="4.75" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="18.375" style="7" customWidth="1"/>
+    <col min="1027" max="1027" width="7.125" style="7"/>
+    <col min="1028" max="1028" width="5.375" style="7" customWidth="1"/>
+    <col min="1029" max="1029" width="7.25" style="7" customWidth="1"/>
+    <col min="1030" max="1030" width="11.125" style="7" customWidth="1"/>
+    <col min="1031" max="1031" width="10.75" style="7" customWidth="1"/>
+    <col min="1032" max="1032" width="4.875" style="7" customWidth="1"/>
+    <col min="1033" max="1033" width="10.875" style="7" customWidth="1"/>
+    <col min="1034" max="1034" width="11.25" style="7" customWidth="1"/>
+    <col min="1035" max="1035" width="21.25" style="7" customWidth="1"/>
+    <col min="1036" max="1036" width="3.625" style="7" customWidth="1"/>
+    <col min="1037" max="1280" width="7.125" style="7"/>
+    <col min="1281" max="1281" width="4.75" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="18.375" style="7" customWidth="1"/>
+    <col min="1283" max="1283" width="7.125" style="7"/>
+    <col min="1284" max="1284" width="5.375" style="7" customWidth="1"/>
+    <col min="1285" max="1285" width="7.25" style="7" customWidth="1"/>
+    <col min="1286" max="1286" width="11.125" style="7" customWidth="1"/>
+    <col min="1287" max="1287" width="10.75" style="7" customWidth="1"/>
+    <col min="1288" max="1288" width="4.875" style="7" customWidth="1"/>
+    <col min="1289" max="1289" width="10.875" style="7" customWidth="1"/>
+    <col min="1290" max="1290" width="11.25" style="7" customWidth="1"/>
+    <col min="1291" max="1291" width="21.25" style="7" customWidth="1"/>
+    <col min="1292" max="1292" width="3.625" style="7" customWidth="1"/>
+    <col min="1293" max="1536" width="7.125" style="7"/>
+    <col min="1537" max="1537" width="4.75" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="18.375" style="7" customWidth="1"/>
+    <col min="1539" max="1539" width="7.125" style="7"/>
+    <col min="1540" max="1540" width="5.375" style="7" customWidth="1"/>
+    <col min="1541" max="1541" width="7.25" style="7" customWidth="1"/>
+    <col min="1542" max="1542" width="11.125" style="7" customWidth="1"/>
+    <col min="1543" max="1543" width="10.75" style="7" customWidth="1"/>
+    <col min="1544" max="1544" width="4.875" style="7" customWidth="1"/>
+    <col min="1545" max="1545" width="10.875" style="7" customWidth="1"/>
+    <col min="1546" max="1546" width="11.25" style="7" customWidth="1"/>
+    <col min="1547" max="1547" width="21.25" style="7" customWidth="1"/>
+    <col min="1548" max="1548" width="3.625" style="7" customWidth="1"/>
+    <col min="1549" max="1792" width="7.125" style="7"/>
+    <col min="1793" max="1793" width="4.75" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="18.375" style="7" customWidth="1"/>
+    <col min="1795" max="1795" width="7.125" style="7"/>
+    <col min="1796" max="1796" width="5.375" style="7" customWidth="1"/>
+    <col min="1797" max="1797" width="7.25" style="7" customWidth="1"/>
+    <col min="1798" max="1798" width="11.125" style="7" customWidth="1"/>
+    <col min="1799" max="1799" width="10.75" style="7" customWidth="1"/>
+    <col min="1800" max="1800" width="4.875" style="7" customWidth="1"/>
+    <col min="1801" max="1801" width="10.875" style="7" customWidth="1"/>
+    <col min="1802" max="1802" width="11.25" style="7" customWidth="1"/>
+    <col min="1803" max="1803" width="21.25" style="7" customWidth="1"/>
+    <col min="1804" max="1804" width="3.625" style="7" customWidth="1"/>
+    <col min="1805" max="2048" width="7.125" style="7"/>
+    <col min="2049" max="2049" width="4.75" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="18.375" style="7" customWidth="1"/>
+    <col min="2051" max="2051" width="7.125" style="7"/>
+    <col min="2052" max="2052" width="5.375" style="7" customWidth="1"/>
+    <col min="2053" max="2053" width="7.25" style="7" customWidth="1"/>
+    <col min="2054" max="2054" width="11.125" style="7" customWidth="1"/>
+    <col min="2055" max="2055" width="10.75" style="7" customWidth="1"/>
+    <col min="2056" max="2056" width="4.875" style="7" customWidth="1"/>
+    <col min="2057" max="2057" width="10.875" style="7" customWidth="1"/>
+    <col min="2058" max="2058" width="11.25" style="7" customWidth="1"/>
+    <col min="2059" max="2059" width="21.25" style="7" customWidth="1"/>
+    <col min="2060" max="2060" width="3.625" style="7" customWidth="1"/>
+    <col min="2061" max="2304" width="7.125" style="7"/>
+    <col min="2305" max="2305" width="4.75" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="18.375" style="7" customWidth="1"/>
+    <col min="2307" max="2307" width="7.125" style="7"/>
+    <col min="2308" max="2308" width="5.375" style="7" customWidth="1"/>
+    <col min="2309" max="2309" width="7.25" style="7" customWidth="1"/>
+    <col min="2310" max="2310" width="11.125" style="7" customWidth="1"/>
+    <col min="2311" max="2311" width="10.75" style="7" customWidth="1"/>
+    <col min="2312" max="2312" width="4.875" style="7" customWidth="1"/>
+    <col min="2313" max="2313" width="10.875" style="7" customWidth="1"/>
+    <col min="2314" max="2314" width="11.25" style="7" customWidth="1"/>
+    <col min="2315" max="2315" width="21.25" style="7" customWidth="1"/>
+    <col min="2316" max="2316" width="3.625" style="7" customWidth="1"/>
+    <col min="2317" max="2560" width="7.125" style="7"/>
+    <col min="2561" max="2561" width="4.75" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="18.375" style="7" customWidth="1"/>
+    <col min="2563" max="2563" width="7.125" style="7"/>
+    <col min="2564" max="2564" width="5.375" style="7" customWidth="1"/>
+    <col min="2565" max="2565" width="7.25" style="7" customWidth="1"/>
+    <col min="2566" max="2566" width="11.125" style="7" customWidth="1"/>
+    <col min="2567" max="2567" width="10.75" style="7" customWidth="1"/>
+    <col min="2568" max="2568" width="4.875" style="7" customWidth="1"/>
+    <col min="2569" max="2569" width="10.875" style="7" customWidth="1"/>
+    <col min="2570" max="2570" width="11.25" style="7" customWidth="1"/>
+    <col min="2571" max="2571" width="21.25" style="7" customWidth="1"/>
+    <col min="2572" max="2572" width="3.625" style="7" customWidth="1"/>
+    <col min="2573" max="2816" width="7.125" style="7"/>
+    <col min="2817" max="2817" width="4.75" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="18.375" style="7" customWidth="1"/>
+    <col min="2819" max="2819" width="7.125" style="7"/>
+    <col min="2820" max="2820" width="5.375" style="7" customWidth="1"/>
+    <col min="2821" max="2821" width="7.25" style="7" customWidth="1"/>
+    <col min="2822" max="2822" width="11.125" style="7" customWidth="1"/>
+    <col min="2823" max="2823" width="10.75" style="7" customWidth="1"/>
+    <col min="2824" max="2824" width="4.875" style="7" customWidth="1"/>
+    <col min="2825" max="2825" width="10.875" style="7" customWidth="1"/>
+    <col min="2826" max="2826" width="11.25" style="7" customWidth="1"/>
+    <col min="2827" max="2827" width="21.25" style="7" customWidth="1"/>
+    <col min="2828" max="2828" width="3.625" style="7" customWidth="1"/>
+    <col min="2829" max="3072" width="7.125" style="7"/>
+    <col min="3073" max="3073" width="4.75" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="18.375" style="7" customWidth="1"/>
+    <col min="3075" max="3075" width="7.125" style="7"/>
+    <col min="3076" max="3076" width="5.375" style="7" customWidth="1"/>
+    <col min="3077" max="3077" width="7.25" style="7" customWidth="1"/>
+    <col min="3078" max="3078" width="11.125" style="7" customWidth="1"/>
+    <col min="3079" max="3079" width="10.75" style="7" customWidth="1"/>
+    <col min="3080" max="3080" width="4.875" style="7" customWidth="1"/>
+    <col min="3081" max="3081" width="10.875" style="7" customWidth="1"/>
+    <col min="3082" max="3082" width="11.25" style="7" customWidth="1"/>
+    <col min="3083" max="3083" width="21.25" style="7" customWidth="1"/>
+    <col min="3084" max="3084" width="3.625" style="7" customWidth="1"/>
+    <col min="3085" max="3328" width="7.125" style="7"/>
+    <col min="3329" max="3329" width="4.75" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="18.375" style="7" customWidth="1"/>
+    <col min="3331" max="3331" width="7.125" style="7"/>
+    <col min="3332" max="3332" width="5.375" style="7" customWidth="1"/>
+    <col min="3333" max="3333" width="7.25" style="7" customWidth="1"/>
+    <col min="3334" max="3334" width="11.125" style="7" customWidth="1"/>
+    <col min="3335" max="3335" width="10.75" style="7" customWidth="1"/>
+    <col min="3336" max="3336" width="4.875" style="7" customWidth="1"/>
+    <col min="3337" max="3337" width="10.875" style="7" customWidth="1"/>
+    <col min="3338" max="3338" width="11.25" style="7" customWidth="1"/>
+    <col min="3339" max="3339" width="21.25" style="7" customWidth="1"/>
+    <col min="3340" max="3340" width="3.625" style="7" customWidth="1"/>
+    <col min="3341" max="3584" width="7.125" style="7"/>
+    <col min="3585" max="3585" width="4.75" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="18.375" style="7" customWidth="1"/>
+    <col min="3587" max="3587" width="7.125" style="7"/>
+    <col min="3588" max="3588" width="5.375" style="7" customWidth="1"/>
+    <col min="3589" max="3589" width="7.25" style="7" customWidth="1"/>
+    <col min="3590" max="3590" width="11.125" style="7" customWidth="1"/>
+    <col min="3591" max="3591" width="10.75" style="7" customWidth="1"/>
+    <col min="3592" max="3592" width="4.875" style="7" customWidth="1"/>
+    <col min="3593" max="3593" width="10.875" style="7" customWidth="1"/>
+    <col min="3594" max="3594" width="11.25" style="7" customWidth="1"/>
+    <col min="3595" max="3595" width="21.25" style="7" customWidth="1"/>
+    <col min="3596" max="3596" width="3.625" style="7" customWidth="1"/>
+    <col min="3597" max="3840" width="7.125" style="7"/>
+    <col min="3841" max="3841" width="4.75" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="18.375" style="7" customWidth="1"/>
+    <col min="3843" max="3843" width="7.125" style="7"/>
+    <col min="3844" max="3844" width="5.375" style="7" customWidth="1"/>
+    <col min="3845" max="3845" width="7.25" style="7" customWidth="1"/>
+    <col min="3846" max="3846" width="11.125" style="7" customWidth="1"/>
+    <col min="3847" max="3847" width="10.75" style="7" customWidth="1"/>
+    <col min="3848" max="3848" width="4.875" style="7" customWidth="1"/>
+    <col min="3849" max="3849" width="10.875" style="7" customWidth="1"/>
+    <col min="3850" max="3850" width="11.25" style="7" customWidth="1"/>
+    <col min="3851" max="3851" width="21.25" style="7" customWidth="1"/>
+    <col min="3852" max="3852" width="3.625" style="7" customWidth="1"/>
+    <col min="3853" max="4096" width="7.125" style="7"/>
+    <col min="4097" max="4097" width="4.75" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="18.375" style="7" customWidth="1"/>
+    <col min="4099" max="4099" width="7.125" style="7"/>
+    <col min="4100" max="4100" width="5.375" style="7" customWidth="1"/>
+    <col min="4101" max="4101" width="7.25" style="7" customWidth="1"/>
+    <col min="4102" max="4102" width="11.125" style="7" customWidth="1"/>
+    <col min="4103" max="4103" width="10.75" style="7" customWidth="1"/>
+    <col min="4104" max="4104" width="4.875" style="7" customWidth="1"/>
+    <col min="4105" max="4105" width="10.875" style="7" customWidth="1"/>
+    <col min="4106" max="4106" width="11.25" style="7" customWidth="1"/>
+    <col min="4107" max="4107" width="21.25" style="7" customWidth="1"/>
+    <col min="4108" max="4108" width="3.625" style="7" customWidth="1"/>
+    <col min="4109" max="4352" width="7.125" style="7"/>
+    <col min="4353" max="4353" width="4.75" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="18.375" style="7" customWidth="1"/>
+    <col min="4355" max="4355" width="7.125" style="7"/>
+    <col min="4356" max="4356" width="5.375" style="7" customWidth="1"/>
+    <col min="4357" max="4357" width="7.25" style="7" customWidth="1"/>
+    <col min="4358" max="4358" width="11.125" style="7" customWidth="1"/>
+    <col min="4359" max="4359" width="10.75" style="7" customWidth="1"/>
+    <col min="4360" max="4360" width="4.875" style="7" customWidth="1"/>
+    <col min="4361" max="4361" width="10.875" style="7" customWidth="1"/>
+    <col min="4362" max="4362" width="11.25" style="7" customWidth="1"/>
+    <col min="4363" max="4363" width="21.25" style="7" customWidth="1"/>
+    <col min="4364" max="4364" width="3.625" style="7" customWidth="1"/>
+    <col min="4365" max="4608" width="7.125" style="7"/>
+    <col min="4609" max="4609" width="4.75" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="18.375" style="7" customWidth="1"/>
+    <col min="4611" max="4611" width="7.125" style="7"/>
+    <col min="4612" max="4612" width="5.375" style="7" customWidth="1"/>
+    <col min="4613" max="4613" width="7.25" style="7" customWidth="1"/>
+    <col min="4614" max="4614" width="11.125" style="7" customWidth="1"/>
+    <col min="4615" max="4615" width="10.75" style="7" customWidth="1"/>
+    <col min="4616" max="4616" width="4.875" style="7" customWidth="1"/>
+    <col min="4617" max="4617" width="10.875" style="7" customWidth="1"/>
+    <col min="4618" max="4618" width="11.25" style="7" customWidth="1"/>
+    <col min="4619" max="4619" width="21.25" style="7" customWidth="1"/>
+    <col min="4620" max="4620" width="3.625" style="7" customWidth="1"/>
+    <col min="4621" max="4864" width="7.125" style="7"/>
+    <col min="4865" max="4865" width="4.75" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="18.375" style="7" customWidth="1"/>
+    <col min="4867" max="4867" width="7.125" style="7"/>
+    <col min="4868" max="4868" width="5.375" style="7" customWidth="1"/>
+    <col min="4869" max="4869" width="7.25" style="7" customWidth="1"/>
+    <col min="4870" max="4870" width="11.125" style="7" customWidth="1"/>
+    <col min="4871" max="4871" width="10.75" style="7" customWidth="1"/>
+    <col min="4872" max="4872" width="4.875" style="7" customWidth="1"/>
+    <col min="4873" max="4873" width="10.875" style="7" customWidth="1"/>
+    <col min="4874" max="4874" width="11.25" style="7" customWidth="1"/>
+    <col min="4875" max="4875" width="21.25" style="7" customWidth="1"/>
+    <col min="4876" max="4876" width="3.625" style="7" customWidth="1"/>
+    <col min="4877" max="5120" width="7.125" style="7"/>
+    <col min="5121" max="5121" width="4.75" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="18.375" style="7" customWidth="1"/>
+    <col min="5123" max="5123" width="7.125" style="7"/>
+    <col min="5124" max="5124" width="5.375" style="7" customWidth="1"/>
+    <col min="5125" max="5125" width="7.25" style="7" customWidth="1"/>
+    <col min="5126" max="5126" width="11.125" style="7" customWidth="1"/>
+    <col min="5127" max="5127" width="10.75" style="7" customWidth="1"/>
+    <col min="5128" max="5128" width="4.875" style="7" customWidth="1"/>
+    <col min="5129" max="5129" width="10.875" style="7" customWidth="1"/>
+    <col min="5130" max="5130" width="11.25" style="7" customWidth="1"/>
+    <col min="5131" max="5131" width="21.25" style="7" customWidth="1"/>
+    <col min="5132" max="5132" width="3.625" style="7" customWidth="1"/>
+    <col min="5133" max="5376" width="7.125" style="7"/>
+    <col min="5377" max="5377" width="4.75" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="18.375" style="7" customWidth="1"/>
+    <col min="5379" max="5379" width="7.125" style="7"/>
+    <col min="5380" max="5380" width="5.375" style="7" customWidth="1"/>
+    <col min="5381" max="5381" width="7.25" style="7" customWidth="1"/>
+    <col min="5382" max="5382" width="11.125" style="7" customWidth="1"/>
+    <col min="5383" max="5383" width="10.75" style="7" customWidth="1"/>
+    <col min="5384" max="5384" width="4.875" style="7" customWidth="1"/>
+    <col min="5385" max="5385" width="10.875" style="7" customWidth="1"/>
+    <col min="5386" max="5386" width="11.25" style="7" customWidth="1"/>
+    <col min="5387" max="5387" width="21.25" style="7" customWidth="1"/>
+    <col min="5388" max="5388" width="3.625" style="7" customWidth="1"/>
+    <col min="5389" max="5632" width="7.125" style="7"/>
+    <col min="5633" max="5633" width="4.75" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="18.375" style="7" customWidth="1"/>
+    <col min="5635" max="5635" width="7.125" style="7"/>
+    <col min="5636" max="5636" width="5.375" style="7" customWidth="1"/>
+    <col min="5637" max="5637" width="7.25" style="7" customWidth="1"/>
+    <col min="5638" max="5638" width="11.125" style="7" customWidth="1"/>
+    <col min="5639" max="5639" width="10.75" style="7" customWidth="1"/>
+    <col min="5640" max="5640" width="4.875" style="7" customWidth="1"/>
+    <col min="5641" max="5641" width="10.875" style="7" customWidth="1"/>
+    <col min="5642" max="5642" width="11.25" style="7" customWidth="1"/>
+    <col min="5643" max="5643" width="21.25" style="7" customWidth="1"/>
+    <col min="5644" max="5644" width="3.625" style="7" customWidth="1"/>
+    <col min="5645" max="5888" width="7.125" style="7"/>
+    <col min="5889" max="5889" width="4.75" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="18.375" style="7" customWidth="1"/>
+    <col min="5891" max="5891" width="7.125" style="7"/>
+    <col min="5892" max="5892" width="5.375" style="7" customWidth="1"/>
+    <col min="5893" max="5893" width="7.25" style="7" customWidth="1"/>
+    <col min="5894" max="5894" width="11.125" style="7" customWidth="1"/>
+    <col min="5895" max="5895" width="10.75" style="7" customWidth="1"/>
+    <col min="5896" max="5896" width="4.875" style="7" customWidth="1"/>
+    <col min="5897" max="5897" width="10.875" style="7" customWidth="1"/>
+    <col min="5898" max="5898" width="11.25" style="7" customWidth="1"/>
+    <col min="5899" max="5899" width="21.25" style="7" customWidth="1"/>
+    <col min="5900" max="5900" width="3.625" style="7" customWidth="1"/>
+    <col min="5901" max="6144" width="7.125" style="7"/>
+    <col min="6145" max="6145" width="4.75" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="18.375" style="7" customWidth="1"/>
+    <col min="6147" max="6147" width="7.125" style="7"/>
+    <col min="6148" max="6148" width="5.375" style="7" customWidth="1"/>
+    <col min="6149" max="6149" width="7.25" style="7" customWidth="1"/>
+    <col min="6150" max="6150" width="11.125" style="7" customWidth="1"/>
+    <col min="6151" max="6151" width="10.75" style="7" customWidth="1"/>
+    <col min="6152" max="6152" width="4.875" style="7" customWidth="1"/>
+    <col min="6153" max="6153" width="10.875" style="7" customWidth="1"/>
+    <col min="6154" max="6154" width="11.25" style="7" customWidth="1"/>
+    <col min="6155" max="6155" width="21.25" style="7" customWidth="1"/>
+    <col min="6156" max="6156" width="3.625" style="7" customWidth="1"/>
+    <col min="6157" max="6400" width="7.125" style="7"/>
+    <col min="6401" max="6401" width="4.75" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="18.375" style="7" customWidth="1"/>
+    <col min="6403" max="6403" width="7.125" style="7"/>
+    <col min="6404" max="6404" width="5.375" style="7" customWidth="1"/>
+    <col min="6405" max="6405" width="7.25" style="7" customWidth="1"/>
+    <col min="6406" max="6406" width="11.125" style="7" customWidth="1"/>
+    <col min="6407" max="6407" width="10.75" style="7" customWidth="1"/>
+    <col min="6408" max="6408" width="4.875" style="7" customWidth="1"/>
+    <col min="6409" max="6409" width="10.875" style="7" customWidth="1"/>
+    <col min="6410" max="6410" width="11.25" style="7" customWidth="1"/>
+    <col min="6411" max="6411" width="21.25" style="7" customWidth="1"/>
+    <col min="6412" max="6412" width="3.625" style="7" customWidth="1"/>
+    <col min="6413" max="6656" width="7.125" style="7"/>
+    <col min="6657" max="6657" width="4.75" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="18.375" style="7" customWidth="1"/>
+    <col min="6659" max="6659" width="7.125" style="7"/>
+    <col min="6660" max="6660" width="5.375" style="7" customWidth="1"/>
+    <col min="6661" max="6661" width="7.25" style="7" customWidth="1"/>
+    <col min="6662" max="6662" width="11.125" style="7" customWidth="1"/>
+    <col min="6663" max="6663" width="10.75" style="7" customWidth="1"/>
+    <col min="6664" max="6664" width="4.875" style="7" customWidth="1"/>
+    <col min="6665" max="6665" width="10.875" style="7" customWidth="1"/>
+    <col min="6666" max="6666" width="11.25" style="7" customWidth="1"/>
+    <col min="6667" max="6667" width="21.25" style="7" customWidth="1"/>
+    <col min="6668" max="6668" width="3.625" style="7" customWidth="1"/>
+    <col min="6669" max="6912" width="7.125" style="7"/>
+    <col min="6913" max="6913" width="4.75" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="18.375" style="7" customWidth="1"/>
+    <col min="6915" max="6915" width="7.125" style="7"/>
+    <col min="6916" max="6916" width="5.375" style="7" customWidth="1"/>
+    <col min="6917" max="6917" width="7.25" style="7" customWidth="1"/>
+    <col min="6918" max="6918" width="11.125" style="7" customWidth="1"/>
+    <col min="6919" max="6919" width="10.75" style="7" customWidth="1"/>
+    <col min="6920" max="6920" width="4.875" style="7" customWidth="1"/>
+    <col min="6921" max="6921" width="10.875" style="7" customWidth="1"/>
+    <col min="6922" max="6922" width="11.25" style="7" customWidth="1"/>
+    <col min="6923" max="6923" width="21.25" style="7" customWidth="1"/>
+    <col min="6924" max="6924" width="3.625" style="7" customWidth="1"/>
+    <col min="6925" max="7168" width="7.125" style="7"/>
+    <col min="7169" max="7169" width="4.75" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="18.375" style="7" customWidth="1"/>
+    <col min="7171" max="7171" width="7.125" style="7"/>
+    <col min="7172" max="7172" width="5.375" style="7" customWidth="1"/>
+    <col min="7173" max="7173" width="7.25" style="7" customWidth="1"/>
+    <col min="7174" max="7174" width="11.125" style="7" customWidth="1"/>
+    <col min="7175" max="7175" width="10.75" style="7" customWidth="1"/>
+    <col min="7176" max="7176" width="4.875" style="7" customWidth="1"/>
+    <col min="7177" max="7177" width="10.875" style="7" customWidth="1"/>
+    <col min="7178" max="7178" width="11.25" style="7" customWidth="1"/>
+    <col min="7179" max="7179" width="21.25" style="7" customWidth="1"/>
+    <col min="7180" max="7180" width="3.625" style="7" customWidth="1"/>
+    <col min="7181" max="7424" width="7.125" style="7"/>
+    <col min="7425" max="7425" width="4.75" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="18.375" style="7" customWidth="1"/>
+    <col min="7427" max="7427" width="7.125" style="7"/>
+    <col min="7428" max="7428" width="5.375" style="7" customWidth="1"/>
+    <col min="7429" max="7429" width="7.25" style="7" customWidth="1"/>
+    <col min="7430" max="7430" width="11.125" style="7" customWidth="1"/>
+    <col min="7431" max="7431" width="10.75" style="7" customWidth="1"/>
+    <col min="7432" max="7432" width="4.875" style="7" customWidth="1"/>
+    <col min="7433" max="7433" width="10.875" style="7" customWidth="1"/>
+    <col min="7434" max="7434" width="11.25" style="7" customWidth="1"/>
+    <col min="7435" max="7435" width="21.25" style="7" customWidth="1"/>
+    <col min="7436" max="7436" width="3.625" style="7" customWidth="1"/>
+    <col min="7437" max="7680" width="7.125" style="7"/>
+    <col min="7681" max="7681" width="4.75" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="18.375" style="7" customWidth="1"/>
+    <col min="7683" max="7683" width="7.125" style="7"/>
+    <col min="7684" max="7684" width="5.375" style="7" customWidth="1"/>
+    <col min="7685" max="7685" width="7.25" style="7" customWidth="1"/>
+    <col min="7686" max="7686" width="11.125" style="7" customWidth="1"/>
+    <col min="7687" max="7687" width="10.75" style="7" customWidth="1"/>
+    <col min="7688" max="7688" width="4.875" style="7" customWidth="1"/>
+    <col min="7689" max="7689" width="10.875" style="7" customWidth="1"/>
+    <col min="7690" max="7690" width="11.25" style="7" customWidth="1"/>
+    <col min="7691" max="7691" width="21.25" style="7" customWidth="1"/>
+    <col min="7692" max="7692" width="3.625" style="7" customWidth="1"/>
+    <col min="7693" max="7936" width="7.125" style="7"/>
+    <col min="7937" max="7937" width="4.75" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="18.375" style="7" customWidth="1"/>
+    <col min="7939" max="7939" width="7.125" style="7"/>
+    <col min="7940" max="7940" width="5.375" style="7" customWidth="1"/>
+    <col min="7941" max="7941" width="7.25" style="7" customWidth="1"/>
+    <col min="7942" max="7942" width="11.125" style="7" customWidth="1"/>
+    <col min="7943" max="7943" width="10.75" style="7" customWidth="1"/>
+    <col min="7944" max="7944" width="4.875" style="7" customWidth="1"/>
+    <col min="7945" max="7945" width="10.875" style="7" customWidth="1"/>
+    <col min="7946" max="7946" width="11.25" style="7" customWidth="1"/>
+    <col min="7947" max="7947" width="21.25" style="7" customWidth="1"/>
+    <col min="7948" max="7948" width="3.625" style="7" customWidth="1"/>
+    <col min="7949" max="8192" width="7.125" style="7"/>
+    <col min="8193" max="8193" width="4.75" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="18.375" style="7" customWidth="1"/>
+    <col min="8195" max="8195" width="7.125" style="7"/>
+    <col min="8196" max="8196" width="5.375" style="7" customWidth="1"/>
+    <col min="8197" max="8197" width="7.25" style="7" customWidth="1"/>
+    <col min="8198" max="8198" width="11.125" style="7" customWidth="1"/>
+    <col min="8199" max="8199" width="10.75" style="7" customWidth="1"/>
+    <col min="8200" max="8200" width="4.875" style="7" customWidth="1"/>
+    <col min="8201" max="8201" width="10.875" style="7" customWidth="1"/>
+    <col min="8202" max="8202" width="11.25" style="7" customWidth="1"/>
+    <col min="8203" max="8203" width="21.25" style="7" customWidth="1"/>
+    <col min="8204" max="8204" width="3.625" style="7" customWidth="1"/>
+    <col min="8205" max="8448" width="7.125" style="7"/>
+    <col min="8449" max="8449" width="4.75" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="18.375" style="7" customWidth="1"/>
+    <col min="8451" max="8451" width="7.125" style="7"/>
+    <col min="8452" max="8452" width="5.375" style="7" customWidth="1"/>
+    <col min="8453" max="8453" width="7.25" style="7" customWidth="1"/>
+    <col min="8454" max="8454" width="11.125" style="7" customWidth="1"/>
+    <col min="8455" max="8455" width="10.75" style="7" customWidth="1"/>
+    <col min="8456" max="8456" width="4.875" style="7" customWidth="1"/>
+    <col min="8457" max="8457" width="10.875" style="7" customWidth="1"/>
+    <col min="8458" max="8458" width="11.25" style="7" customWidth="1"/>
+    <col min="8459" max="8459" width="21.25" style="7" customWidth="1"/>
+    <col min="8460" max="8460" width="3.625" style="7" customWidth="1"/>
+    <col min="8461" max="8704" width="7.125" style="7"/>
+    <col min="8705" max="8705" width="4.75" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="18.375" style="7" customWidth="1"/>
+    <col min="8707" max="8707" width="7.125" style="7"/>
+    <col min="8708" max="8708" width="5.375" style="7" customWidth="1"/>
+    <col min="8709" max="8709" width="7.25" style="7" customWidth="1"/>
+    <col min="8710" max="8710" width="11.125" style="7" customWidth="1"/>
+    <col min="8711" max="8711" width="10.75" style="7" customWidth="1"/>
+    <col min="8712" max="8712" width="4.875" style="7" customWidth="1"/>
+    <col min="8713" max="8713" width="10.875" style="7" customWidth="1"/>
+    <col min="8714" max="8714" width="11.25" style="7" customWidth="1"/>
+    <col min="8715" max="8715" width="21.25" style="7" customWidth="1"/>
+    <col min="8716" max="8716" width="3.625" style="7" customWidth="1"/>
+    <col min="8717" max="8960" width="7.125" style="7"/>
+    <col min="8961" max="8961" width="4.75" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="18.375" style="7" customWidth="1"/>
+    <col min="8963" max="8963" width="7.125" style="7"/>
+    <col min="8964" max="8964" width="5.375" style="7" customWidth="1"/>
+    <col min="8965" max="8965" width="7.25" style="7" customWidth="1"/>
+    <col min="8966" max="8966" width="11.125" style="7" customWidth="1"/>
+    <col min="8967" max="8967" width="10.75" style="7" customWidth="1"/>
+    <col min="8968" max="8968" width="4.875" style="7" customWidth="1"/>
+    <col min="8969" max="8969" width="10.875" style="7" customWidth="1"/>
+    <col min="8970" max="8970" width="11.25" style="7" customWidth="1"/>
+    <col min="8971" max="8971" width="21.25" style="7" customWidth="1"/>
+    <col min="8972" max="8972" width="3.625" style="7" customWidth="1"/>
+    <col min="8973" max="9216" width="7.125" style="7"/>
+    <col min="9217" max="9217" width="4.75" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="18.375" style="7" customWidth="1"/>
+    <col min="9219" max="9219" width="7.125" style="7"/>
+    <col min="9220" max="9220" width="5.375" style="7" customWidth="1"/>
+    <col min="9221" max="9221" width="7.25" style="7" customWidth="1"/>
+    <col min="9222" max="9222" width="11.125" style="7" customWidth="1"/>
+    <col min="9223" max="9223" width="10.75" style="7" customWidth="1"/>
+    <col min="9224" max="9224" width="4.875" style="7" customWidth="1"/>
+    <col min="9225" max="9225" width="10.875" style="7" customWidth="1"/>
+    <col min="9226" max="9226" width="11.25" style="7" customWidth="1"/>
+    <col min="9227" max="9227" width="21.25" style="7" customWidth="1"/>
+    <col min="9228" max="9228" width="3.625" style="7" customWidth="1"/>
+    <col min="9229" max="9472" width="7.125" style="7"/>
+    <col min="9473" max="9473" width="4.75" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="18.375" style="7" customWidth="1"/>
+    <col min="9475" max="9475" width="7.125" style="7"/>
+    <col min="9476" max="9476" width="5.375" style="7" customWidth="1"/>
+    <col min="9477" max="9477" width="7.25" style="7" customWidth="1"/>
+    <col min="9478" max="9478" width="11.125" style="7" customWidth="1"/>
+    <col min="9479" max="9479" width="10.75" style="7" customWidth="1"/>
+    <col min="9480" max="9480" width="4.875" style="7" customWidth="1"/>
+    <col min="9481" max="9481" width="10.875" style="7" customWidth="1"/>
+    <col min="9482" max="9482" width="11.25" style="7" customWidth="1"/>
+    <col min="9483" max="9483" width="21.25" style="7" customWidth="1"/>
+    <col min="9484" max="9484" width="3.625" style="7" customWidth="1"/>
+    <col min="9485" max="9728" width="7.125" style="7"/>
+    <col min="9729" max="9729" width="4.75" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="18.375" style="7" customWidth="1"/>
+    <col min="9731" max="9731" width="7.125" style="7"/>
+    <col min="9732" max="9732" width="5.375" style="7" customWidth="1"/>
+    <col min="9733" max="9733" width="7.25" style="7" customWidth="1"/>
+    <col min="9734" max="9734" width="11.125" style="7" customWidth="1"/>
+    <col min="9735" max="9735" width="10.75" style="7" customWidth="1"/>
+    <col min="9736" max="9736" width="4.875" style="7" customWidth="1"/>
+    <col min="9737" max="9737" width="10.875" style="7" customWidth="1"/>
+    <col min="9738" max="9738" width="11.25" style="7" customWidth="1"/>
+    <col min="9739" max="9739" width="21.25" style="7" customWidth="1"/>
+    <col min="9740" max="9740" width="3.625" style="7" customWidth="1"/>
+    <col min="9741" max="9984" width="7.125" style="7"/>
+    <col min="9985" max="9985" width="4.75" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="18.375" style="7" customWidth="1"/>
+    <col min="9987" max="9987" width="7.125" style="7"/>
+    <col min="9988" max="9988" width="5.375" style="7" customWidth="1"/>
+    <col min="9989" max="9989" width="7.25" style="7" customWidth="1"/>
+    <col min="9990" max="9990" width="11.125" style="7" customWidth="1"/>
+    <col min="9991" max="9991" width="10.75" style="7" customWidth="1"/>
+    <col min="9992" max="9992" width="4.875" style="7" customWidth="1"/>
+    <col min="9993" max="9993" width="10.875" style="7" customWidth="1"/>
+    <col min="9994" max="9994" width="11.25" style="7" customWidth="1"/>
+    <col min="9995" max="9995" width="21.25" style="7" customWidth="1"/>
+    <col min="9996" max="9996" width="3.625" style="7" customWidth="1"/>
+    <col min="9997" max="10240" width="7.125" style="7"/>
+    <col min="10241" max="10241" width="4.75" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="18.375" style="7" customWidth="1"/>
+    <col min="10243" max="10243" width="7.125" style="7"/>
+    <col min="10244" max="10244" width="5.375" style="7" customWidth="1"/>
+    <col min="10245" max="10245" width="7.25" style="7" customWidth="1"/>
+    <col min="10246" max="10246" width="11.125" style="7" customWidth="1"/>
+    <col min="10247" max="10247" width="10.75" style="7" customWidth="1"/>
+    <col min="10248" max="10248" width="4.875" style="7" customWidth="1"/>
+    <col min="10249" max="10249" width="10.875" style="7" customWidth="1"/>
+    <col min="10250" max="10250" width="11.25" style="7" customWidth="1"/>
+    <col min="10251" max="10251" width="21.25" style="7" customWidth="1"/>
+    <col min="10252" max="10252" width="3.625" style="7" customWidth="1"/>
+    <col min="10253" max="10496" width="7.125" style="7"/>
+    <col min="10497" max="10497" width="4.75" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="18.375" style="7" customWidth="1"/>
+    <col min="10499" max="10499" width="7.125" style="7"/>
+    <col min="10500" max="10500" width="5.375" style="7" customWidth="1"/>
+    <col min="10501" max="10501" width="7.25" style="7" customWidth="1"/>
+    <col min="10502" max="10502" width="11.125" style="7" customWidth="1"/>
+    <col min="10503" max="10503" width="10.75" style="7" customWidth="1"/>
+    <col min="10504" max="10504" width="4.875" style="7" customWidth="1"/>
+    <col min="10505" max="10505" width="10.875" style="7" customWidth="1"/>
+    <col min="10506" max="10506" width="11.25" style="7" customWidth="1"/>
+    <col min="10507" max="10507" width="21.25" style="7" customWidth="1"/>
+    <col min="10508" max="10508" width="3.625" style="7" customWidth="1"/>
+    <col min="10509" max="10752" width="7.125" style="7"/>
+    <col min="10753" max="10753" width="4.75" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="18.375" style="7" customWidth="1"/>
+    <col min="10755" max="10755" width="7.125" style="7"/>
+    <col min="10756" max="10756" width="5.375" style="7" customWidth="1"/>
+    <col min="10757" max="10757" width="7.25" style="7" customWidth="1"/>
+    <col min="10758" max="10758" width="11.125" style="7" customWidth="1"/>
+    <col min="10759" max="10759" width="10.75" style="7" customWidth="1"/>
+    <col min="10760" max="10760" width="4.875" style="7" customWidth="1"/>
+    <col min="10761" max="10761" width="10.875" style="7" customWidth="1"/>
+    <col min="10762" max="10762" width="11.25" style="7" customWidth="1"/>
+    <col min="10763" max="10763" width="21.25" style="7" customWidth="1"/>
+    <col min="10764" max="10764" width="3.625" style="7" customWidth="1"/>
+    <col min="10765" max="11008" width="7.125" style="7"/>
+    <col min="11009" max="11009" width="4.75" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="18.375" style="7" customWidth="1"/>
+    <col min="11011" max="11011" width="7.125" style="7"/>
+    <col min="11012" max="11012" width="5.375" style="7" customWidth="1"/>
+    <col min="11013" max="11013" width="7.25" style="7" customWidth="1"/>
+    <col min="11014" max="11014" width="11.125" style="7" customWidth="1"/>
+    <col min="11015" max="11015" width="10.75" style="7" customWidth="1"/>
+    <col min="11016" max="11016" width="4.875" style="7" customWidth="1"/>
+    <col min="11017" max="11017" width="10.875" style="7" customWidth="1"/>
+    <col min="11018" max="11018" width="11.25" style="7" customWidth="1"/>
+    <col min="11019" max="11019" width="21.25" style="7" customWidth="1"/>
+    <col min="11020" max="11020" width="3.625" style="7" customWidth="1"/>
+    <col min="11021" max="11264" width="7.125" style="7"/>
+    <col min="11265" max="11265" width="4.75" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="18.375" style="7" customWidth="1"/>
+    <col min="11267" max="11267" width="7.125" style="7"/>
+    <col min="11268" max="11268" width="5.375" style="7" customWidth="1"/>
+    <col min="11269" max="11269" width="7.25" style="7" customWidth="1"/>
+    <col min="11270" max="11270" width="11.125" style="7" customWidth="1"/>
+    <col min="11271" max="11271" width="10.75" style="7" customWidth="1"/>
+    <col min="11272" max="11272" width="4.875" style="7" customWidth="1"/>
+    <col min="11273" max="11273" width="10.875" style="7" customWidth="1"/>
+    <col min="11274" max="11274" width="11.25" style="7" customWidth="1"/>
+    <col min="11275" max="11275" width="21.25" style="7" customWidth="1"/>
+    <col min="11276" max="11276" width="3.625" style="7" customWidth="1"/>
+    <col min="11277" max="11520" width="7.125" style="7"/>
+    <col min="11521" max="11521" width="4.75" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="18.375" style="7" customWidth="1"/>
+    <col min="11523" max="11523" width="7.125" style="7"/>
+    <col min="11524" max="11524" width="5.375" style="7" customWidth="1"/>
+    <col min="11525" max="11525" width="7.25" style="7" customWidth="1"/>
+    <col min="11526" max="11526" width="11.125" style="7" customWidth="1"/>
+    <col min="11527" max="11527" width="10.75" style="7" customWidth="1"/>
+    <col min="11528" max="11528" width="4.875" style="7" customWidth="1"/>
+    <col min="11529" max="11529" width="10.875" style="7" customWidth="1"/>
+    <col min="11530" max="11530" width="11.25" style="7" customWidth="1"/>
+    <col min="11531" max="11531" width="21.25" style="7" customWidth="1"/>
+    <col min="11532" max="11532" width="3.625" style="7" customWidth="1"/>
+    <col min="11533" max="11776" width="7.125" style="7"/>
+    <col min="11777" max="11777" width="4.75" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="18.375" style="7" customWidth="1"/>
+    <col min="11779" max="11779" width="7.125" style="7"/>
+    <col min="11780" max="11780" width="5.375" style="7" customWidth="1"/>
+    <col min="11781" max="11781" width="7.25" style="7" customWidth="1"/>
+    <col min="11782" max="11782" width="11.125" style="7" customWidth="1"/>
+    <col min="11783" max="11783" width="10.75" style="7" customWidth="1"/>
+    <col min="11784" max="11784" width="4.875" style="7" customWidth="1"/>
+    <col min="11785" max="11785" width="10.875" style="7" customWidth="1"/>
+    <col min="11786" max="11786" width="11.25" style="7" customWidth="1"/>
+    <col min="11787" max="11787" width="21.25" style="7" customWidth="1"/>
+    <col min="11788" max="11788" width="3.625" style="7" customWidth="1"/>
+    <col min="11789" max="12032" width="7.125" style="7"/>
+    <col min="12033" max="12033" width="4.75" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="18.375" style="7" customWidth="1"/>
+    <col min="12035" max="12035" width="7.125" style="7"/>
+    <col min="12036" max="12036" width="5.375" style="7" customWidth="1"/>
+    <col min="12037" max="12037" width="7.25" style="7" customWidth="1"/>
+    <col min="12038" max="12038" width="11.125" style="7" customWidth="1"/>
+    <col min="12039" max="12039" width="10.75" style="7" customWidth="1"/>
+    <col min="12040" max="12040" width="4.875" style="7" customWidth="1"/>
+    <col min="12041" max="12041" width="10.875" style="7" customWidth="1"/>
+    <col min="12042" max="12042" width="11.25" style="7" customWidth="1"/>
+    <col min="12043" max="12043" width="21.25" style="7" customWidth="1"/>
+    <col min="12044" max="12044" width="3.625" style="7" customWidth="1"/>
+    <col min="12045" max="12288" width="7.125" style="7"/>
+    <col min="12289" max="12289" width="4.75" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="18.375" style="7" customWidth="1"/>
+    <col min="12291" max="12291" width="7.125" style="7"/>
+    <col min="12292" max="12292" width="5.375" style="7" customWidth="1"/>
+    <col min="12293" max="12293" width="7.25" style="7" customWidth="1"/>
+    <col min="12294" max="12294" width="11.125" style="7" customWidth="1"/>
+    <col min="12295" max="12295" width="10.75" style="7" customWidth="1"/>
+    <col min="12296" max="12296" width="4.875" style="7" customWidth="1"/>
+    <col min="12297" max="12297" width="10.875" style="7" customWidth="1"/>
+    <col min="12298" max="12298" width="11.25" style="7" customWidth="1"/>
+    <col min="12299" max="12299" width="21.25" style="7" customWidth="1"/>
+    <col min="12300" max="12300" width="3.625" style="7" customWidth="1"/>
+    <col min="12301" max="12544" width="7.125" style="7"/>
+    <col min="12545" max="12545" width="4.75" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="18.375" style="7" customWidth="1"/>
+    <col min="12547" max="12547" width="7.125" style="7"/>
+    <col min="12548" max="12548" width="5.375" style="7" customWidth="1"/>
+    <col min="12549" max="12549" width="7.25" style="7" customWidth="1"/>
+    <col min="12550" max="12550" width="11.125" style="7" customWidth="1"/>
+    <col min="12551" max="12551" width="10.75" style="7" customWidth="1"/>
+    <col min="12552" max="12552" width="4.875" style="7" customWidth="1"/>
+    <col min="12553" max="12553" width="10.875" style="7" customWidth="1"/>
+    <col min="12554" max="12554" width="11.25" style="7" customWidth="1"/>
+    <col min="12555" max="12555" width="21.25" style="7" customWidth="1"/>
+    <col min="12556" max="12556" width="3.625" style="7" customWidth="1"/>
+    <col min="12557" max="12800" width="7.125" style="7"/>
+    <col min="12801" max="12801" width="4.75" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="18.375" style="7" customWidth="1"/>
+    <col min="12803" max="12803" width="7.125" style="7"/>
+    <col min="12804" max="12804" width="5.375" style="7" customWidth="1"/>
+    <col min="12805" max="12805" width="7.25" style="7" customWidth="1"/>
+    <col min="12806" max="12806" width="11.125" style="7" customWidth="1"/>
+    <col min="12807" max="12807" width="10.75" style="7" customWidth="1"/>
+    <col min="12808" max="12808" width="4.875" style="7" customWidth="1"/>
+    <col min="12809" max="12809" width="10.875" style="7" customWidth="1"/>
+    <col min="12810" max="12810" width="11.25" style="7" customWidth="1"/>
+    <col min="12811" max="12811" width="21.25" style="7" customWidth="1"/>
+    <col min="12812" max="12812" width="3.625" style="7" customWidth="1"/>
+    <col min="12813" max="13056" width="7.125" style="7"/>
+    <col min="13057" max="13057" width="4.75" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="18.375" style="7" customWidth="1"/>
+    <col min="13059" max="13059" width="7.125" style="7"/>
+    <col min="13060" max="13060" width="5.375" style="7" customWidth="1"/>
+    <col min="13061" max="13061" width="7.25" style="7" customWidth="1"/>
+    <col min="13062" max="13062" width="11.125" style="7" customWidth="1"/>
+    <col min="13063" max="13063" width="10.75" style="7" customWidth="1"/>
+    <col min="13064" max="13064" width="4.875" style="7" customWidth="1"/>
+    <col min="13065" max="13065" width="10.875" style="7" customWidth="1"/>
+    <col min="13066" max="13066" width="11.25" style="7" customWidth="1"/>
+    <col min="13067" max="13067" width="21.25" style="7" customWidth="1"/>
+    <col min="13068" max="13068" width="3.625" style="7" customWidth="1"/>
+    <col min="13069" max="13312" width="7.125" style="7"/>
+    <col min="13313" max="13313" width="4.75" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="18.375" style="7" customWidth="1"/>
+    <col min="13315" max="13315" width="7.125" style="7"/>
+    <col min="13316" max="13316" width="5.375" style="7" customWidth="1"/>
+    <col min="13317" max="13317" width="7.25" style="7" customWidth="1"/>
+    <col min="13318" max="13318" width="11.125" style="7" customWidth="1"/>
+    <col min="13319" max="13319" width="10.75" style="7" customWidth="1"/>
+    <col min="13320" max="13320" width="4.875" style="7" customWidth="1"/>
+    <col min="13321" max="13321" width="10.875" style="7" customWidth="1"/>
+    <col min="13322" max="13322" width="11.25" style="7" customWidth="1"/>
+    <col min="13323" max="13323" width="21.25" style="7" customWidth="1"/>
+    <col min="13324" max="13324" width="3.625" style="7" customWidth="1"/>
+    <col min="13325" max="13568" width="7.125" style="7"/>
+    <col min="13569" max="13569" width="4.75" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="18.375" style="7" customWidth="1"/>
+    <col min="13571" max="13571" width="7.125" style="7"/>
+    <col min="13572" max="13572" width="5.375" style="7" customWidth="1"/>
+    <col min="13573" max="13573" width="7.25" style="7" customWidth="1"/>
+    <col min="13574" max="13574" width="11.125" style="7" customWidth="1"/>
+    <col min="13575" max="13575" width="10.75" style="7" customWidth="1"/>
+    <col min="13576" max="13576" width="4.875" style="7" customWidth="1"/>
+    <col min="13577" max="13577" width="10.875" style="7" customWidth="1"/>
+    <col min="13578" max="13578" width="11.25" style="7" customWidth="1"/>
+    <col min="13579" max="13579" width="21.25" style="7" customWidth="1"/>
+    <col min="13580" max="13580" width="3.625" style="7" customWidth="1"/>
+    <col min="13581" max="13824" width="7.125" style="7"/>
+    <col min="13825" max="13825" width="4.75" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="18.375" style="7" customWidth="1"/>
+    <col min="13827" max="13827" width="7.125" style="7"/>
+    <col min="13828" max="13828" width="5.375" style="7" customWidth="1"/>
+    <col min="13829" max="13829" width="7.25" style="7" customWidth="1"/>
+    <col min="13830" max="13830" width="11.125" style="7" customWidth="1"/>
+    <col min="13831" max="13831" width="10.75" style="7" customWidth="1"/>
+    <col min="13832" max="13832" width="4.875" style="7" customWidth="1"/>
+    <col min="13833" max="13833" width="10.875" style="7" customWidth="1"/>
+    <col min="13834" max="13834" width="11.25" style="7" customWidth="1"/>
+    <col min="13835" max="13835" width="21.25" style="7" customWidth="1"/>
+    <col min="13836" max="13836" width="3.625" style="7" customWidth="1"/>
+    <col min="13837" max="14080" width="7.125" style="7"/>
+    <col min="14081" max="14081" width="4.75" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="18.375" style="7" customWidth="1"/>
+    <col min="14083" max="14083" width="7.125" style="7"/>
+    <col min="14084" max="14084" width="5.375" style="7" customWidth="1"/>
+    <col min="14085" max="14085" width="7.25" style="7" customWidth="1"/>
+    <col min="14086" max="14086" width="11.125" style="7" customWidth="1"/>
+    <col min="14087" max="14087" width="10.75" style="7" customWidth="1"/>
+    <col min="14088" max="14088" width="4.875" style="7" customWidth="1"/>
+    <col min="14089" max="14089" width="10.875" style="7" customWidth="1"/>
+    <col min="14090" max="14090" width="11.25" style="7" customWidth="1"/>
+    <col min="14091" max="14091" width="21.25" style="7" customWidth="1"/>
+    <col min="14092" max="14092" width="3.625" style="7" customWidth="1"/>
+    <col min="14093" max="14336" width="7.125" style="7"/>
+    <col min="14337" max="14337" width="4.75" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="18.375" style="7" customWidth="1"/>
+    <col min="14339" max="14339" width="7.125" style="7"/>
+    <col min="14340" max="14340" width="5.375" style="7" customWidth="1"/>
+    <col min="14341" max="14341" width="7.25" style="7" customWidth="1"/>
+    <col min="14342" max="14342" width="11.125" style="7" customWidth="1"/>
+    <col min="14343" max="14343" width="10.75" style="7" customWidth="1"/>
+    <col min="14344" max="14344" width="4.875" style="7" customWidth="1"/>
+    <col min="14345" max="14345" width="10.875" style="7" customWidth="1"/>
+    <col min="14346" max="14346" width="11.25" style="7" customWidth="1"/>
+    <col min="14347" max="14347" width="21.25" style="7" customWidth="1"/>
+    <col min="14348" max="14348" width="3.625" style="7" customWidth="1"/>
+    <col min="14349" max="14592" width="7.125" style="7"/>
+    <col min="14593" max="14593" width="4.75" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="18.375" style="7" customWidth="1"/>
+    <col min="14595" max="14595" width="7.125" style="7"/>
+    <col min="14596" max="14596" width="5.375" style="7" customWidth="1"/>
+    <col min="14597" max="14597" width="7.25" style="7" customWidth="1"/>
+    <col min="14598" max="14598" width="11.125" style="7" customWidth="1"/>
+    <col min="14599" max="14599" width="10.75" style="7" customWidth="1"/>
+    <col min="14600" max="14600" width="4.875" style="7" customWidth="1"/>
+    <col min="14601" max="14601" width="10.875" style="7" customWidth="1"/>
+    <col min="14602" max="14602" width="11.25" style="7" customWidth="1"/>
+    <col min="14603" max="14603" width="21.25" style="7" customWidth="1"/>
+    <col min="14604" max="14604" width="3.625" style="7" customWidth="1"/>
+    <col min="14605" max="14848" width="7.125" style="7"/>
+    <col min="14849" max="14849" width="4.75" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="18.375" style="7" customWidth="1"/>
+    <col min="14851" max="14851" width="7.125" style="7"/>
+    <col min="14852" max="14852" width="5.375" style="7" customWidth="1"/>
+    <col min="14853" max="14853" width="7.25" style="7" customWidth="1"/>
+    <col min="14854" max="14854" width="11.125" style="7" customWidth="1"/>
+    <col min="14855" max="14855" width="10.75" style="7" customWidth="1"/>
+    <col min="14856" max="14856" width="4.875" style="7" customWidth="1"/>
+    <col min="14857" max="14857" width="10.875" style="7" customWidth="1"/>
+    <col min="14858" max="14858" width="11.25" style="7" customWidth="1"/>
+    <col min="14859" max="14859" width="21.25" style="7" customWidth="1"/>
+    <col min="14860" max="14860" width="3.625" style="7" customWidth="1"/>
+    <col min="14861" max="15104" width="7.125" style="7"/>
+    <col min="15105" max="15105" width="4.75" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="18.375" style="7" customWidth="1"/>
+    <col min="15107" max="15107" width="7.125" style="7"/>
+    <col min="15108" max="15108" width="5.375" style="7" customWidth="1"/>
+    <col min="15109" max="15109" width="7.25" style="7" customWidth="1"/>
+    <col min="15110" max="15110" width="11.125" style="7" customWidth="1"/>
+    <col min="15111" max="15111" width="10.75" style="7" customWidth="1"/>
+    <col min="15112" max="15112" width="4.875" style="7" customWidth="1"/>
+    <col min="15113" max="15113" width="10.875" style="7" customWidth="1"/>
+    <col min="15114" max="15114" width="11.25" style="7" customWidth="1"/>
+    <col min="15115" max="15115" width="21.25" style="7" customWidth="1"/>
+    <col min="15116" max="15116" width="3.625" style="7" customWidth="1"/>
+    <col min="15117" max="15360" width="7.125" style="7"/>
+    <col min="15361" max="15361" width="4.75" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="18.375" style="7" customWidth="1"/>
+    <col min="15363" max="15363" width="7.125" style="7"/>
+    <col min="15364" max="15364" width="5.375" style="7" customWidth="1"/>
+    <col min="15365" max="15365" width="7.25" style="7" customWidth="1"/>
+    <col min="15366" max="15366" width="11.125" style="7" customWidth="1"/>
+    <col min="15367" max="15367" width="10.75" style="7" customWidth="1"/>
+    <col min="15368" max="15368" width="4.875" style="7" customWidth="1"/>
+    <col min="15369" max="15369" width="10.875" style="7" customWidth="1"/>
+    <col min="15370" max="15370" width="11.25" style="7" customWidth="1"/>
+    <col min="15371" max="15371" width="21.25" style="7" customWidth="1"/>
+    <col min="15372" max="15372" width="3.625" style="7" customWidth="1"/>
+    <col min="15373" max="15616" width="7.125" style="7"/>
+    <col min="15617" max="15617" width="4.75" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="18.375" style="7" customWidth="1"/>
+    <col min="15619" max="15619" width="7.125" style="7"/>
+    <col min="15620" max="15620" width="5.375" style="7" customWidth="1"/>
+    <col min="15621" max="15621" width="7.25" style="7" customWidth="1"/>
+    <col min="15622" max="15622" width="11.125" style="7" customWidth="1"/>
+    <col min="15623" max="15623" width="10.75" style="7" customWidth="1"/>
+    <col min="15624" max="15624" width="4.875" style="7" customWidth="1"/>
+    <col min="15625" max="15625" width="10.875" style="7" customWidth="1"/>
+    <col min="15626" max="15626" width="11.25" style="7" customWidth="1"/>
+    <col min="15627" max="15627" width="21.25" style="7" customWidth="1"/>
+    <col min="15628" max="15628" width="3.625" style="7" customWidth="1"/>
+    <col min="15629" max="15872" width="7.125" style="7"/>
+    <col min="15873" max="15873" width="4.75" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="18.375" style="7" customWidth="1"/>
+    <col min="15875" max="15875" width="7.125" style="7"/>
+    <col min="15876" max="15876" width="5.375" style="7" customWidth="1"/>
+    <col min="15877" max="15877" width="7.25" style="7" customWidth="1"/>
+    <col min="15878" max="15878" width="11.125" style="7" customWidth="1"/>
+    <col min="15879" max="15879" width="10.75" style="7" customWidth="1"/>
+    <col min="15880" max="15880" width="4.875" style="7" customWidth="1"/>
+    <col min="15881" max="15881" width="10.875" style="7" customWidth="1"/>
+    <col min="15882" max="15882" width="11.25" style="7" customWidth="1"/>
+    <col min="15883" max="15883" width="21.25" style="7" customWidth="1"/>
+    <col min="15884" max="15884" width="3.625" style="7" customWidth="1"/>
+    <col min="15885" max="16128" width="7.125" style="7"/>
+    <col min="16129" max="16129" width="4.75" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="18.375" style="7" customWidth="1"/>
+    <col min="16131" max="16131" width="7.125" style="7"/>
+    <col min="16132" max="16132" width="5.375" style="7" customWidth="1"/>
+    <col min="16133" max="16133" width="7.25" style="7" customWidth="1"/>
+    <col min="16134" max="16134" width="11.125" style="7" customWidth="1"/>
+    <col min="16135" max="16135" width="10.75" style="7" customWidth="1"/>
+    <col min="16136" max="16136" width="4.875" style="7" customWidth="1"/>
+    <col min="16137" max="16137" width="10.875" style="7" customWidth="1"/>
+    <col min="16138" max="16138" width="11.25" style="7" customWidth="1"/>
+    <col min="16139" max="16139" width="21.25" style="7" customWidth="1"/>
+    <col min="16140" max="16140" width="3.625" style="7" customWidth="1"/>
+    <col min="16141" max="16384" width="7.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5997,7 +6048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6008,7 +6059,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" ht="24.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -6017,809 +6068,827 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="347" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
+      <c r="K3" s="347"/>
+    </row>
+    <row r="4" spans="1:14" ht="24.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="349"/>
+      <c r="K4" s="349"/>
+    </row>
+    <row r="5" spans="1:14" ht="39" customHeight="1">
+      <c r="A5" s="324" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="325"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="326"/>
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="11" t="s">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A6" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="346"/>
+      <c r="C6" s="346"/>
+      <c r="D6" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="8" spans="1:14" s="32" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="24" t="s">
+      <c r="E6" s="343"/>
+      <c r="F6" s="343"/>
+      <c r="G6" s="344"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="343"/>
+      <c r="K6" s="343"/>
+    </row>
+    <row r="7" spans="1:14" ht="11.25" customHeight="1" thickBot="1"/>
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+      <c r="A8" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="342"/>
+      <c r="H8" s="328" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="N8" s="32" t="s">
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="N8" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="32" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="322"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="329"/>
+      <c r="I9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="42">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A10" s="319">
         <v>1</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="42"/>
-      <c r="B11" s="52" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A11" s="319"/>
+      <c r="B11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="49" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="331"/>
+      <c r="I11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="54">
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A12" s="320">
         <v>2</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="49">
+      <c r="G12" s="34"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="35">
         <v>224</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="54"/>
-      <c r="B13" s="52" t="s">
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A13" s="320"/>
+      <c r="B13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="46" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="49">
+      <c r="G13" s="34"/>
+      <c r="H13" s="332"/>
+      <c r="I13" s="35">
         <v>236</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-    </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="42">
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A14" s="319">
         <v>3</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="49">
+      <c r="G14" s="34"/>
+      <c r="H14" s="332"/>
+      <c r="I14" s="35">
         <v>15.6</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="42"/>
-      <c r="B15" s="52" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A15" s="319"/>
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="46" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="49">
+      <c r="G15" s="34"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="35">
         <v>28</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-    </row>
-    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="42">
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A16" s="319">
         <v>4</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56">
+      <c r="G16" s="34"/>
+      <c r="H16" s="332"/>
+      <c r="I16" s="39">
         <v>35</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="42"/>
-      <c r="B17" s="52" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A17" s="319"/>
+      <c r="B17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="49" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="332"/>
+      <c r="I17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="59">
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A18" s="307">
         <v>5</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="49">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="332"/>
+      <c r="I18" s="35">
         <v>3</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A19" s="60"/>
-      <c r="B19" s="52" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A19" s="308"/>
+      <c r="B19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="49" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="332"/>
+      <c r="I19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-    </row>
-    <row r="20" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="59">
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A20" s="307">
         <v>6</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="49" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="350" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-    </row>
-    <row r="21" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="60"/>
-      <c r="B21" s="52" t="s">
+      <c r="J20" s="351"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A21" s="308"/>
+      <c r="B21" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="46" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="61" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-    </row>
-    <row r="22" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="59">
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A22" s="307">
         <v>8</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="46" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="62" t="s">
+      <c r="G22" s="34"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
       <c r="M22" s="7">
         <f>30350/104.81/60</f>
         <v>4.8261934293801483</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="60"/>
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A23" s="308"/>
+      <c r="B23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="49" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="332"/>
+      <c r="I23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-    </row>
-    <row r="24" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="65">
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A24" s="46">
         <v>9</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="46" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="49" t="s">
+      <c r="G24" s="34"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-    </row>
-    <row r="25" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67" t="s">
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="333"/>
+      <c r="I25" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="26" spans="1:18" s="85" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:18" s="59" customFormat="1" ht="18" customHeight="1" thickTop="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81" t="s">
+      <c r="C26" s="310"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="334"/>
+      <c r="I26" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83" t="s">
+      <c r="J26" s="313"/>
+      <c r="K26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="84"/>
-    </row>
-    <row r="27" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86">
+      <c r="L26" s="58"/>
+    </row>
+    <row r="27" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="302">
         <v>10</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="91" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="335" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="92" t="s">
+      <c r="I27" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="M27" s="85">
+      <c r="J27" s="316"/>
+      <c r="K27" s="64"/>
+      <c r="M27" s="59">
         <v>70</v>
       </c>
-      <c r="N27" s="85">
+      <c r="N27" s="59">
         <v>80</v>
       </c>
-      <c r="O27" s="85">
+      <c r="O27" s="59">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96" t="s">
+    <row r="28" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="314"/>
+      <c r="B28" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
-      <c r="M28" s="85">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="336"/>
+      <c r="I28" s="317"/>
+      <c r="J28" s="318"/>
+      <c r="K28" s="69"/>
+      <c r="M28" s="59">
         <v>4050</v>
       </c>
-      <c r="N28" s="85">
+      <c r="N28" s="59">
         <v>4150</v>
       </c>
-      <c r="O28" s="85">
+      <c r="O28" s="59">
         <v>4250</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="104">
+    <row r="29" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="294">
         <v>11</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="295" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="109"/>
-      <c r="M29" s="85">
+      <c r="J29" s="296"/>
+      <c r="K29" s="71"/>
+      <c r="M29" s="59">
         <f>4150/80*2</f>
         <v>103.75</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="104"/>
-      <c r="B30" s="96" t="s">
+    <row r="30" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="294"/>
+      <c r="B30" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="103"/>
-      <c r="M30" s="85">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="338"/>
+      <c r="I30" s="297"/>
+      <c r="J30" s="298"/>
+      <c r="K30" s="69"/>
+      <c r="M30" s="59">
         <f>N28/N27*2</f>
         <v>103.75</v>
       </c>
-      <c r="N30" s="85">
+      <c r="N30" s="59">
         <f>M28/O27*2</f>
         <v>90</v>
       </c>
-      <c r="O30" s="85">
+      <c r="O30" s="59">
         <f>O28/M27*2</f>
         <v>121.42857142857143</v>
       </c>
-      <c r="P30" s="85">
+      <c r="P30" s="59">
         <f>M28/O27*2</f>
         <v>90</v>
       </c>
-      <c r="Q30" s="85">
+      <c r="Q30" s="59">
         <f>O28/M27*2</f>
         <v>121.42857142857143</v>
       </c>
-      <c r="R30" s="85">
+      <c r="R30" s="59">
         <f>O28/O27*2</f>
         <v>94.444444444444443</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="104">
+    <row r="31" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="294">
         <v>12</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="295" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="108"/>
-      <c r="K31" s="116" t="s">
+      <c r="J31" s="296"/>
+      <c r="K31" s="299" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="104"/>
-      <c r="B32" s="96" t="s">
+    <row r="32" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="294"/>
+      <c r="B32" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="119"/>
-      <c r="N32" s="85">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="338"/>
+      <c r="I32" s="297"/>
+      <c r="J32" s="298"/>
+      <c r="K32" s="300"/>
+      <c r="N32" s="59">
         <f>M30-N30</f>
         <v>13.75</v>
       </c>
-      <c r="O32" s="85">
+      <c r="O32" s="59">
         <f>M30-P30</f>
         <v>13.75</v>
       </c>
-      <c r="P32" s="85">
+      <c r="P32" s="59">
         <f>M30-P30</f>
         <v>13.75</v>
       </c>
-      <c r="Q32" s="85">
+      <c r="Q32" s="59">
         <f>O30-M30</f>
         <v>17.678571428571431</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="128" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="120">
+    <row r="33" spans="1:11" s="81" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="301">
         <v>13</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="125" t="s">
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="339"/>
+      <c r="I33" s="303" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="126"/>
-      <c r="K33" s="127"/>
-    </row>
-    <row r="34" spans="1:11" s="128" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="86"/>
-      <c r="B34" s="129" t="s">
+      <c r="J33" s="304"/>
+      <c r="K33" s="80"/>
+    </row>
+    <row r="34" spans="1:11" s="81" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="302"/>
+      <c r="B34" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="127"/>
-    </row>
-    <row r="35" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A35" s="136" t="s">
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="340"/>
+      <c r="I34" s="305"/>
+      <c r="J34" s="306"/>
+      <c r="K34" s="80"/>
+    </row>
+    <row r="35" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A35" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="137"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="140"/>
-    </row>
-    <row r="36" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="A36" s="142" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+    </row>
+    <row r="36" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1" thickTop="1">
+      <c r="A36" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="143"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="144" t="s">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="145"/>
-      <c r="J36" s="146" t="s">
+      <c r="I36" s="281"/>
+      <c r="J36" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="147" t="s">
+      <c r="K36" s="95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="153" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="148" t="s">
+    <row r="37" spans="1:11" s="99" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="149" t="s">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="282" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="150"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="152"/>
-    </row>
-    <row r="38" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A38" s="148" t="s">
+      <c r="I37" s="283"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="98"/>
+    </row>
+    <row r="38" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="96" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="157"/>
-    </row>
-    <row r="39" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A39" s="148" t="s">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="101"/>
+    </row>
+    <row r="39" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="96" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="160" t="s">
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="286"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="161" t="s">
+      <c r="K39" s="103" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="148" t="s">
+    <row r="40" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="96" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="162" t="s">
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="163"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="164"/>
-    </row>
-    <row r="41" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A41" s="148" t="s">
+      <c r="I40" s="289"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="104"/>
+    </row>
+    <row r="41" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="96" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="165"/>
-    </row>
-    <row r="42" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A42" s="166" t="s">
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="288"/>
+      <c r="I41" s="289"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="105"/>
+    </row>
+    <row r="42" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A42" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171" t="s">
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="291"/>
+      <c r="J42" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="172" t="s">
+      <c r="K42" s="110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="141" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A43" s="173" t="s">
+    <row r="43" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A43" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="174" t="s">
+      <c r="J43" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="175"/>
-    </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.75"/>
+      <c r="K43" s="293"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:J28"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="I29:J30"/>
@@ -6828,25 +6897,11 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="I33:J34"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.15748031496062992" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Documents/Cord/Cord Documents/4002 Condition S-4.xlsx
+++ b/Documents/Cord/Cord Documents/4002 Condition S-4.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
-    <sheet name="S-4-2 P1671TT" sheetId="2" r:id="rId1"/>
-    <sheet name="P1671TT S-4-1" sheetId="1" r:id="rId2"/>
+    <sheet name="P1671TT S-4-1" sheetId="1" r:id="rId1"/>
+    <sheet name="S-4-2 P1671TT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -2214,41 +2214,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2256,10 +2297,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,12 +2314,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2289,41 +2324,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2349,56 +2372,209 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2429,182 +2605,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2629,6 +2629,443 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C367E13E-BBDF-4F4D-9380-4836E5D84B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3803650" y="1917700"/>
+          <a:ext cx="247650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724F14A7-E08C-4800-886F-F50C3663259B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2724150" y="1898650"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3E9FA7-674C-401F-AF02-119E853BAFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629150" y="1905000"/>
+          <a:ext cx="247650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E4903-5D14-4BBF-8FDE-19588582EE98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2724150" y="1898650"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB595F0B-B5DE-4299-8044-E08476EEDCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="1905000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BB1B1B-6339-4C03-AC3E-1EBF671DDEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="1905000"/>
+          <a:ext cx="215900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA32EDF-04FC-4F55-B2A5-8D1277D18E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="1898650"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B71FEB-7240-424F-A692-3588E780EF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5740400" y="1905000"/>
+          <a:ext cx="241300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="sm"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2645,7 +3082,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FEE3E5A-5B22-488A-ADC1-5C0FC56A438B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEE3E5A-5B22-488A-ADC1-5C0FC56A438B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +3109,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2699,7 +3136,7 @@
         <xdr:cNvPr id="3" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E249CEC-410B-4699-9EAE-A8AC198A3803}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E249CEC-410B-4699-9EAE-A8AC198A3803}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +3163,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2753,7 +3190,7 @@
         <xdr:cNvPr id="4" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BE1E78E-7B5F-4794-ACA9-0BCCB40C7E32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE1E78E-7B5F-4794-ACA9-0BCCB40C7E32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +3217,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2807,7 +3244,7 @@
         <xdr:cNvPr id="5" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C68F2AD6-6FBE-4422-A9EF-6C0BAFB35ACE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68F2AD6-6FBE-4422-A9EF-6C0BAFB35ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,444 +3271,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C367E13E-BBDF-4F4D-9380-4836E5D84B6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3803650" y="1917700"/>
-          <a:ext cx="247650" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{724F14A7-E08C-4800-886F-F50C3663259B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2724150" y="1898650"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C3E9FA7-674C-401F-AF02-119E853BAFB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4629150" y="1905000"/>
-          <a:ext cx="247650" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E4903-5D14-4BBF-8FDE-19588582EE98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2724150" y="1898650"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB595F0B-B5DE-4299-8044-E08476EEDCCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3429000" y="1905000"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86BB1B1B-6339-4C03-AC3E-1EBF671DDEA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2857500" y="1905000"/>
-          <a:ext cx="215900" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1073150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BA32EDF-04FC-4F55-B2A5-8D1277D18E30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="3429000" y="1898650"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B71FEB-7240-424F-A692-3588E780EF4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5740400" y="1905000"/>
-          <a:ext cx="241300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="sm" len="sm"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3572,7 +3572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3580,1618 +3580,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="116" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="116" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="116" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="116" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="116" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="116" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="116" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="116" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="116" customWidth="1"/>
-    <col min="10" max="10" width="10" style="116" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="116" customWidth="1"/>
-    <col min="12" max="256" width="7.125" style="116"/>
-    <col min="257" max="257" width="4.75" style="116" customWidth="1"/>
-    <col min="258" max="258" width="16.75" style="116" customWidth="1"/>
-    <col min="259" max="259" width="7.625" style="116" customWidth="1"/>
-    <col min="260" max="260" width="7.375" style="116" customWidth="1"/>
-    <col min="261" max="261" width="4.875" style="116" customWidth="1"/>
-    <col min="262" max="262" width="18.875" style="116" customWidth="1"/>
-    <col min="263" max="263" width="4.625" style="116" customWidth="1"/>
-    <col min="264" max="264" width="5.125" style="116" customWidth="1"/>
-    <col min="265" max="265" width="10.125" style="116" customWidth="1"/>
-    <col min="266" max="266" width="10" style="116" customWidth="1"/>
-    <col min="267" max="267" width="18.875" style="116" customWidth="1"/>
-    <col min="268" max="512" width="7.125" style="116"/>
-    <col min="513" max="513" width="4.75" style="116" customWidth="1"/>
-    <col min="514" max="514" width="16.75" style="116" customWidth="1"/>
-    <col min="515" max="515" width="7.625" style="116" customWidth="1"/>
-    <col min="516" max="516" width="7.375" style="116" customWidth="1"/>
-    <col min="517" max="517" width="4.875" style="116" customWidth="1"/>
-    <col min="518" max="518" width="18.875" style="116" customWidth="1"/>
-    <col min="519" max="519" width="4.625" style="116" customWidth="1"/>
-    <col min="520" max="520" width="5.125" style="116" customWidth="1"/>
-    <col min="521" max="521" width="10.125" style="116" customWidth="1"/>
-    <col min="522" max="522" width="10" style="116" customWidth="1"/>
-    <col min="523" max="523" width="18.875" style="116" customWidth="1"/>
-    <col min="524" max="768" width="7.125" style="116"/>
-    <col min="769" max="769" width="4.75" style="116" customWidth="1"/>
-    <col min="770" max="770" width="16.75" style="116" customWidth="1"/>
-    <col min="771" max="771" width="7.625" style="116" customWidth="1"/>
-    <col min="772" max="772" width="7.375" style="116" customWidth="1"/>
-    <col min="773" max="773" width="4.875" style="116" customWidth="1"/>
-    <col min="774" max="774" width="18.875" style="116" customWidth="1"/>
-    <col min="775" max="775" width="4.625" style="116" customWidth="1"/>
-    <col min="776" max="776" width="5.125" style="116" customWidth="1"/>
-    <col min="777" max="777" width="10.125" style="116" customWidth="1"/>
-    <col min="778" max="778" width="10" style="116" customWidth="1"/>
-    <col min="779" max="779" width="18.875" style="116" customWidth="1"/>
-    <col min="780" max="1024" width="7.125" style="116"/>
-    <col min="1025" max="1025" width="4.75" style="116" customWidth="1"/>
-    <col min="1026" max="1026" width="16.75" style="116" customWidth="1"/>
-    <col min="1027" max="1027" width="7.625" style="116" customWidth="1"/>
-    <col min="1028" max="1028" width="7.375" style="116" customWidth="1"/>
-    <col min="1029" max="1029" width="4.875" style="116" customWidth="1"/>
-    <col min="1030" max="1030" width="18.875" style="116" customWidth="1"/>
-    <col min="1031" max="1031" width="4.625" style="116" customWidth="1"/>
-    <col min="1032" max="1032" width="5.125" style="116" customWidth="1"/>
-    <col min="1033" max="1033" width="10.125" style="116" customWidth="1"/>
-    <col min="1034" max="1034" width="10" style="116" customWidth="1"/>
-    <col min="1035" max="1035" width="18.875" style="116" customWidth="1"/>
-    <col min="1036" max="1280" width="7.125" style="116"/>
-    <col min="1281" max="1281" width="4.75" style="116" customWidth="1"/>
-    <col min="1282" max="1282" width="16.75" style="116" customWidth="1"/>
-    <col min="1283" max="1283" width="7.625" style="116" customWidth="1"/>
-    <col min="1284" max="1284" width="7.375" style="116" customWidth="1"/>
-    <col min="1285" max="1285" width="4.875" style="116" customWidth="1"/>
-    <col min="1286" max="1286" width="18.875" style="116" customWidth="1"/>
-    <col min="1287" max="1287" width="4.625" style="116" customWidth="1"/>
-    <col min="1288" max="1288" width="5.125" style="116" customWidth="1"/>
-    <col min="1289" max="1289" width="10.125" style="116" customWidth="1"/>
-    <col min="1290" max="1290" width="10" style="116" customWidth="1"/>
-    <col min="1291" max="1291" width="18.875" style="116" customWidth="1"/>
-    <col min="1292" max="1536" width="7.125" style="116"/>
-    <col min="1537" max="1537" width="4.75" style="116" customWidth="1"/>
-    <col min="1538" max="1538" width="16.75" style="116" customWidth="1"/>
-    <col min="1539" max="1539" width="7.625" style="116" customWidth="1"/>
-    <col min="1540" max="1540" width="7.375" style="116" customWidth="1"/>
-    <col min="1541" max="1541" width="4.875" style="116" customWidth="1"/>
-    <col min="1542" max="1542" width="18.875" style="116" customWidth="1"/>
-    <col min="1543" max="1543" width="4.625" style="116" customWidth="1"/>
-    <col min="1544" max="1544" width="5.125" style="116" customWidth="1"/>
-    <col min="1545" max="1545" width="10.125" style="116" customWidth="1"/>
-    <col min="1546" max="1546" width="10" style="116" customWidth="1"/>
-    <col min="1547" max="1547" width="18.875" style="116" customWidth="1"/>
-    <col min="1548" max="1792" width="7.125" style="116"/>
-    <col min="1793" max="1793" width="4.75" style="116" customWidth="1"/>
-    <col min="1794" max="1794" width="16.75" style="116" customWidth="1"/>
-    <col min="1795" max="1795" width="7.625" style="116" customWidth="1"/>
-    <col min="1796" max="1796" width="7.375" style="116" customWidth="1"/>
-    <col min="1797" max="1797" width="4.875" style="116" customWidth="1"/>
-    <col min="1798" max="1798" width="18.875" style="116" customWidth="1"/>
-    <col min="1799" max="1799" width="4.625" style="116" customWidth="1"/>
-    <col min="1800" max="1800" width="5.125" style="116" customWidth="1"/>
-    <col min="1801" max="1801" width="10.125" style="116" customWidth="1"/>
-    <col min="1802" max="1802" width="10" style="116" customWidth="1"/>
-    <col min="1803" max="1803" width="18.875" style="116" customWidth="1"/>
-    <col min="1804" max="2048" width="7.125" style="116"/>
-    <col min="2049" max="2049" width="4.75" style="116" customWidth="1"/>
-    <col min="2050" max="2050" width="16.75" style="116" customWidth="1"/>
-    <col min="2051" max="2051" width="7.625" style="116" customWidth="1"/>
-    <col min="2052" max="2052" width="7.375" style="116" customWidth="1"/>
-    <col min="2053" max="2053" width="4.875" style="116" customWidth="1"/>
-    <col min="2054" max="2054" width="18.875" style="116" customWidth="1"/>
-    <col min="2055" max="2055" width="4.625" style="116" customWidth="1"/>
-    <col min="2056" max="2056" width="5.125" style="116" customWidth="1"/>
-    <col min="2057" max="2057" width="10.125" style="116" customWidth="1"/>
-    <col min="2058" max="2058" width="10" style="116" customWidth="1"/>
-    <col min="2059" max="2059" width="18.875" style="116" customWidth="1"/>
-    <col min="2060" max="2304" width="7.125" style="116"/>
-    <col min="2305" max="2305" width="4.75" style="116" customWidth="1"/>
-    <col min="2306" max="2306" width="16.75" style="116" customWidth="1"/>
-    <col min="2307" max="2307" width="7.625" style="116" customWidth="1"/>
-    <col min="2308" max="2308" width="7.375" style="116" customWidth="1"/>
-    <col min="2309" max="2309" width="4.875" style="116" customWidth="1"/>
-    <col min="2310" max="2310" width="18.875" style="116" customWidth="1"/>
-    <col min="2311" max="2311" width="4.625" style="116" customWidth="1"/>
-    <col min="2312" max="2312" width="5.125" style="116" customWidth="1"/>
-    <col min="2313" max="2313" width="10.125" style="116" customWidth="1"/>
-    <col min="2314" max="2314" width="10" style="116" customWidth="1"/>
-    <col min="2315" max="2315" width="18.875" style="116" customWidth="1"/>
-    <col min="2316" max="2560" width="7.125" style="116"/>
-    <col min="2561" max="2561" width="4.75" style="116" customWidth="1"/>
-    <col min="2562" max="2562" width="16.75" style="116" customWidth="1"/>
-    <col min="2563" max="2563" width="7.625" style="116" customWidth="1"/>
-    <col min="2564" max="2564" width="7.375" style="116" customWidth="1"/>
-    <col min="2565" max="2565" width="4.875" style="116" customWidth="1"/>
-    <col min="2566" max="2566" width="18.875" style="116" customWidth="1"/>
-    <col min="2567" max="2567" width="4.625" style="116" customWidth="1"/>
-    <col min="2568" max="2568" width="5.125" style="116" customWidth="1"/>
-    <col min="2569" max="2569" width="10.125" style="116" customWidth="1"/>
-    <col min="2570" max="2570" width="10" style="116" customWidth="1"/>
-    <col min="2571" max="2571" width="18.875" style="116" customWidth="1"/>
-    <col min="2572" max="2816" width="7.125" style="116"/>
-    <col min="2817" max="2817" width="4.75" style="116" customWidth="1"/>
-    <col min="2818" max="2818" width="16.75" style="116" customWidth="1"/>
-    <col min="2819" max="2819" width="7.625" style="116" customWidth="1"/>
-    <col min="2820" max="2820" width="7.375" style="116" customWidth="1"/>
-    <col min="2821" max="2821" width="4.875" style="116" customWidth="1"/>
-    <col min="2822" max="2822" width="18.875" style="116" customWidth="1"/>
-    <col min="2823" max="2823" width="4.625" style="116" customWidth="1"/>
-    <col min="2824" max="2824" width="5.125" style="116" customWidth="1"/>
-    <col min="2825" max="2825" width="10.125" style="116" customWidth="1"/>
-    <col min="2826" max="2826" width="10" style="116" customWidth="1"/>
-    <col min="2827" max="2827" width="18.875" style="116" customWidth="1"/>
-    <col min="2828" max="3072" width="7.125" style="116"/>
-    <col min="3073" max="3073" width="4.75" style="116" customWidth="1"/>
-    <col min="3074" max="3074" width="16.75" style="116" customWidth="1"/>
-    <col min="3075" max="3075" width="7.625" style="116" customWidth="1"/>
-    <col min="3076" max="3076" width="7.375" style="116" customWidth="1"/>
-    <col min="3077" max="3077" width="4.875" style="116" customWidth="1"/>
-    <col min="3078" max="3078" width="18.875" style="116" customWidth="1"/>
-    <col min="3079" max="3079" width="4.625" style="116" customWidth="1"/>
-    <col min="3080" max="3080" width="5.125" style="116" customWidth="1"/>
-    <col min="3081" max="3081" width="10.125" style="116" customWidth="1"/>
-    <col min="3082" max="3082" width="10" style="116" customWidth="1"/>
-    <col min="3083" max="3083" width="18.875" style="116" customWidth="1"/>
-    <col min="3084" max="3328" width="7.125" style="116"/>
-    <col min="3329" max="3329" width="4.75" style="116" customWidth="1"/>
-    <col min="3330" max="3330" width="16.75" style="116" customWidth="1"/>
-    <col min="3331" max="3331" width="7.625" style="116" customWidth="1"/>
-    <col min="3332" max="3332" width="7.375" style="116" customWidth="1"/>
-    <col min="3333" max="3333" width="4.875" style="116" customWidth="1"/>
-    <col min="3334" max="3334" width="18.875" style="116" customWidth="1"/>
-    <col min="3335" max="3335" width="4.625" style="116" customWidth="1"/>
-    <col min="3336" max="3336" width="5.125" style="116" customWidth="1"/>
-    <col min="3337" max="3337" width="10.125" style="116" customWidth="1"/>
-    <col min="3338" max="3338" width="10" style="116" customWidth="1"/>
-    <col min="3339" max="3339" width="18.875" style="116" customWidth="1"/>
-    <col min="3340" max="3584" width="7.125" style="116"/>
-    <col min="3585" max="3585" width="4.75" style="116" customWidth="1"/>
-    <col min="3586" max="3586" width="16.75" style="116" customWidth="1"/>
-    <col min="3587" max="3587" width="7.625" style="116" customWidth="1"/>
-    <col min="3588" max="3588" width="7.375" style="116" customWidth="1"/>
-    <col min="3589" max="3589" width="4.875" style="116" customWidth="1"/>
-    <col min="3590" max="3590" width="18.875" style="116" customWidth="1"/>
-    <col min="3591" max="3591" width="4.625" style="116" customWidth="1"/>
-    <col min="3592" max="3592" width="5.125" style="116" customWidth="1"/>
-    <col min="3593" max="3593" width="10.125" style="116" customWidth="1"/>
-    <col min="3594" max="3594" width="10" style="116" customWidth="1"/>
-    <col min="3595" max="3595" width="18.875" style="116" customWidth="1"/>
-    <col min="3596" max="3840" width="7.125" style="116"/>
-    <col min="3841" max="3841" width="4.75" style="116" customWidth="1"/>
-    <col min="3842" max="3842" width="16.75" style="116" customWidth="1"/>
-    <col min="3843" max="3843" width="7.625" style="116" customWidth="1"/>
-    <col min="3844" max="3844" width="7.375" style="116" customWidth="1"/>
-    <col min="3845" max="3845" width="4.875" style="116" customWidth="1"/>
-    <col min="3846" max="3846" width="18.875" style="116" customWidth="1"/>
-    <col min="3847" max="3847" width="4.625" style="116" customWidth="1"/>
-    <col min="3848" max="3848" width="5.125" style="116" customWidth="1"/>
-    <col min="3849" max="3849" width="10.125" style="116" customWidth="1"/>
-    <col min="3850" max="3850" width="10" style="116" customWidth="1"/>
-    <col min="3851" max="3851" width="18.875" style="116" customWidth="1"/>
-    <col min="3852" max="4096" width="7.125" style="116"/>
-    <col min="4097" max="4097" width="4.75" style="116" customWidth="1"/>
-    <col min="4098" max="4098" width="16.75" style="116" customWidth="1"/>
-    <col min="4099" max="4099" width="7.625" style="116" customWidth="1"/>
-    <col min="4100" max="4100" width="7.375" style="116" customWidth="1"/>
-    <col min="4101" max="4101" width="4.875" style="116" customWidth="1"/>
-    <col min="4102" max="4102" width="18.875" style="116" customWidth="1"/>
-    <col min="4103" max="4103" width="4.625" style="116" customWidth="1"/>
-    <col min="4104" max="4104" width="5.125" style="116" customWidth="1"/>
-    <col min="4105" max="4105" width="10.125" style="116" customWidth="1"/>
-    <col min="4106" max="4106" width="10" style="116" customWidth="1"/>
-    <col min="4107" max="4107" width="18.875" style="116" customWidth="1"/>
-    <col min="4108" max="4352" width="7.125" style="116"/>
-    <col min="4353" max="4353" width="4.75" style="116" customWidth="1"/>
-    <col min="4354" max="4354" width="16.75" style="116" customWidth="1"/>
-    <col min="4355" max="4355" width="7.625" style="116" customWidth="1"/>
-    <col min="4356" max="4356" width="7.375" style="116" customWidth="1"/>
-    <col min="4357" max="4357" width="4.875" style="116" customWidth="1"/>
-    <col min="4358" max="4358" width="18.875" style="116" customWidth="1"/>
-    <col min="4359" max="4359" width="4.625" style="116" customWidth="1"/>
-    <col min="4360" max="4360" width="5.125" style="116" customWidth="1"/>
-    <col min="4361" max="4361" width="10.125" style="116" customWidth="1"/>
-    <col min="4362" max="4362" width="10" style="116" customWidth="1"/>
-    <col min="4363" max="4363" width="18.875" style="116" customWidth="1"/>
-    <col min="4364" max="4608" width="7.125" style="116"/>
-    <col min="4609" max="4609" width="4.75" style="116" customWidth="1"/>
-    <col min="4610" max="4610" width="16.75" style="116" customWidth="1"/>
-    <col min="4611" max="4611" width="7.625" style="116" customWidth="1"/>
-    <col min="4612" max="4612" width="7.375" style="116" customWidth="1"/>
-    <col min="4613" max="4613" width="4.875" style="116" customWidth="1"/>
-    <col min="4614" max="4614" width="18.875" style="116" customWidth="1"/>
-    <col min="4615" max="4615" width="4.625" style="116" customWidth="1"/>
-    <col min="4616" max="4616" width="5.125" style="116" customWidth="1"/>
-    <col min="4617" max="4617" width="10.125" style="116" customWidth="1"/>
-    <col min="4618" max="4618" width="10" style="116" customWidth="1"/>
-    <col min="4619" max="4619" width="18.875" style="116" customWidth="1"/>
-    <col min="4620" max="4864" width="7.125" style="116"/>
-    <col min="4865" max="4865" width="4.75" style="116" customWidth="1"/>
-    <col min="4866" max="4866" width="16.75" style="116" customWidth="1"/>
-    <col min="4867" max="4867" width="7.625" style="116" customWidth="1"/>
-    <col min="4868" max="4868" width="7.375" style="116" customWidth="1"/>
-    <col min="4869" max="4869" width="4.875" style="116" customWidth="1"/>
-    <col min="4870" max="4870" width="18.875" style="116" customWidth="1"/>
-    <col min="4871" max="4871" width="4.625" style="116" customWidth="1"/>
-    <col min="4872" max="4872" width="5.125" style="116" customWidth="1"/>
-    <col min="4873" max="4873" width="10.125" style="116" customWidth="1"/>
-    <col min="4874" max="4874" width="10" style="116" customWidth="1"/>
-    <col min="4875" max="4875" width="18.875" style="116" customWidth="1"/>
-    <col min="4876" max="5120" width="7.125" style="116"/>
-    <col min="5121" max="5121" width="4.75" style="116" customWidth="1"/>
-    <col min="5122" max="5122" width="16.75" style="116" customWidth="1"/>
-    <col min="5123" max="5123" width="7.625" style="116" customWidth="1"/>
-    <col min="5124" max="5124" width="7.375" style="116" customWidth="1"/>
-    <col min="5125" max="5125" width="4.875" style="116" customWidth="1"/>
-    <col min="5126" max="5126" width="18.875" style="116" customWidth="1"/>
-    <col min="5127" max="5127" width="4.625" style="116" customWidth="1"/>
-    <col min="5128" max="5128" width="5.125" style="116" customWidth="1"/>
-    <col min="5129" max="5129" width="10.125" style="116" customWidth="1"/>
-    <col min="5130" max="5130" width="10" style="116" customWidth="1"/>
-    <col min="5131" max="5131" width="18.875" style="116" customWidth="1"/>
-    <col min="5132" max="5376" width="7.125" style="116"/>
-    <col min="5377" max="5377" width="4.75" style="116" customWidth="1"/>
-    <col min="5378" max="5378" width="16.75" style="116" customWidth="1"/>
-    <col min="5379" max="5379" width="7.625" style="116" customWidth="1"/>
-    <col min="5380" max="5380" width="7.375" style="116" customWidth="1"/>
-    <col min="5381" max="5381" width="4.875" style="116" customWidth="1"/>
-    <col min="5382" max="5382" width="18.875" style="116" customWidth="1"/>
-    <col min="5383" max="5383" width="4.625" style="116" customWidth="1"/>
-    <col min="5384" max="5384" width="5.125" style="116" customWidth="1"/>
-    <col min="5385" max="5385" width="10.125" style="116" customWidth="1"/>
-    <col min="5386" max="5386" width="10" style="116" customWidth="1"/>
-    <col min="5387" max="5387" width="18.875" style="116" customWidth="1"/>
-    <col min="5388" max="5632" width="7.125" style="116"/>
-    <col min="5633" max="5633" width="4.75" style="116" customWidth="1"/>
-    <col min="5634" max="5634" width="16.75" style="116" customWidth="1"/>
-    <col min="5635" max="5635" width="7.625" style="116" customWidth="1"/>
-    <col min="5636" max="5636" width="7.375" style="116" customWidth="1"/>
-    <col min="5637" max="5637" width="4.875" style="116" customWidth="1"/>
-    <col min="5638" max="5638" width="18.875" style="116" customWidth="1"/>
-    <col min="5639" max="5639" width="4.625" style="116" customWidth="1"/>
-    <col min="5640" max="5640" width="5.125" style="116" customWidth="1"/>
-    <col min="5641" max="5641" width="10.125" style="116" customWidth="1"/>
-    <col min="5642" max="5642" width="10" style="116" customWidth="1"/>
-    <col min="5643" max="5643" width="18.875" style="116" customWidth="1"/>
-    <col min="5644" max="5888" width="7.125" style="116"/>
-    <col min="5889" max="5889" width="4.75" style="116" customWidth="1"/>
-    <col min="5890" max="5890" width="16.75" style="116" customWidth="1"/>
-    <col min="5891" max="5891" width="7.625" style="116" customWidth="1"/>
-    <col min="5892" max="5892" width="7.375" style="116" customWidth="1"/>
-    <col min="5893" max="5893" width="4.875" style="116" customWidth="1"/>
-    <col min="5894" max="5894" width="18.875" style="116" customWidth="1"/>
-    <col min="5895" max="5895" width="4.625" style="116" customWidth="1"/>
-    <col min="5896" max="5896" width="5.125" style="116" customWidth="1"/>
-    <col min="5897" max="5897" width="10.125" style="116" customWidth="1"/>
-    <col min="5898" max="5898" width="10" style="116" customWidth="1"/>
-    <col min="5899" max="5899" width="18.875" style="116" customWidth="1"/>
-    <col min="5900" max="6144" width="7.125" style="116"/>
-    <col min="6145" max="6145" width="4.75" style="116" customWidth="1"/>
-    <col min="6146" max="6146" width="16.75" style="116" customWidth="1"/>
-    <col min="6147" max="6147" width="7.625" style="116" customWidth="1"/>
-    <col min="6148" max="6148" width="7.375" style="116" customWidth="1"/>
-    <col min="6149" max="6149" width="4.875" style="116" customWidth="1"/>
-    <col min="6150" max="6150" width="18.875" style="116" customWidth="1"/>
-    <col min="6151" max="6151" width="4.625" style="116" customWidth="1"/>
-    <col min="6152" max="6152" width="5.125" style="116" customWidth="1"/>
-    <col min="6153" max="6153" width="10.125" style="116" customWidth="1"/>
-    <col min="6154" max="6154" width="10" style="116" customWidth="1"/>
-    <col min="6155" max="6155" width="18.875" style="116" customWidth="1"/>
-    <col min="6156" max="6400" width="7.125" style="116"/>
-    <col min="6401" max="6401" width="4.75" style="116" customWidth="1"/>
-    <col min="6402" max="6402" width="16.75" style="116" customWidth="1"/>
-    <col min="6403" max="6403" width="7.625" style="116" customWidth="1"/>
-    <col min="6404" max="6404" width="7.375" style="116" customWidth="1"/>
-    <col min="6405" max="6405" width="4.875" style="116" customWidth="1"/>
-    <col min="6406" max="6406" width="18.875" style="116" customWidth="1"/>
-    <col min="6407" max="6407" width="4.625" style="116" customWidth="1"/>
-    <col min="6408" max="6408" width="5.125" style="116" customWidth="1"/>
-    <col min="6409" max="6409" width="10.125" style="116" customWidth="1"/>
-    <col min="6410" max="6410" width="10" style="116" customWidth="1"/>
-    <col min="6411" max="6411" width="18.875" style="116" customWidth="1"/>
-    <col min="6412" max="6656" width="7.125" style="116"/>
-    <col min="6657" max="6657" width="4.75" style="116" customWidth="1"/>
-    <col min="6658" max="6658" width="16.75" style="116" customWidth="1"/>
-    <col min="6659" max="6659" width="7.625" style="116" customWidth="1"/>
-    <col min="6660" max="6660" width="7.375" style="116" customWidth="1"/>
-    <col min="6661" max="6661" width="4.875" style="116" customWidth="1"/>
-    <col min="6662" max="6662" width="18.875" style="116" customWidth="1"/>
-    <col min="6663" max="6663" width="4.625" style="116" customWidth="1"/>
-    <col min="6664" max="6664" width="5.125" style="116" customWidth="1"/>
-    <col min="6665" max="6665" width="10.125" style="116" customWidth="1"/>
-    <col min="6666" max="6666" width="10" style="116" customWidth="1"/>
-    <col min="6667" max="6667" width="18.875" style="116" customWidth="1"/>
-    <col min="6668" max="6912" width="7.125" style="116"/>
-    <col min="6913" max="6913" width="4.75" style="116" customWidth="1"/>
-    <col min="6914" max="6914" width="16.75" style="116" customWidth="1"/>
-    <col min="6915" max="6915" width="7.625" style="116" customWidth="1"/>
-    <col min="6916" max="6916" width="7.375" style="116" customWidth="1"/>
-    <col min="6917" max="6917" width="4.875" style="116" customWidth="1"/>
-    <col min="6918" max="6918" width="18.875" style="116" customWidth="1"/>
-    <col min="6919" max="6919" width="4.625" style="116" customWidth="1"/>
-    <col min="6920" max="6920" width="5.125" style="116" customWidth="1"/>
-    <col min="6921" max="6921" width="10.125" style="116" customWidth="1"/>
-    <col min="6922" max="6922" width="10" style="116" customWidth="1"/>
-    <col min="6923" max="6923" width="18.875" style="116" customWidth="1"/>
-    <col min="6924" max="7168" width="7.125" style="116"/>
-    <col min="7169" max="7169" width="4.75" style="116" customWidth="1"/>
-    <col min="7170" max="7170" width="16.75" style="116" customWidth="1"/>
-    <col min="7171" max="7171" width="7.625" style="116" customWidth="1"/>
-    <col min="7172" max="7172" width="7.375" style="116" customWidth="1"/>
-    <col min="7173" max="7173" width="4.875" style="116" customWidth="1"/>
-    <col min="7174" max="7174" width="18.875" style="116" customWidth="1"/>
-    <col min="7175" max="7175" width="4.625" style="116" customWidth="1"/>
-    <col min="7176" max="7176" width="5.125" style="116" customWidth="1"/>
-    <col min="7177" max="7177" width="10.125" style="116" customWidth="1"/>
-    <col min="7178" max="7178" width="10" style="116" customWidth="1"/>
-    <col min="7179" max="7179" width="18.875" style="116" customWidth="1"/>
-    <col min="7180" max="7424" width="7.125" style="116"/>
-    <col min="7425" max="7425" width="4.75" style="116" customWidth="1"/>
-    <col min="7426" max="7426" width="16.75" style="116" customWidth="1"/>
-    <col min="7427" max="7427" width="7.625" style="116" customWidth="1"/>
-    <col min="7428" max="7428" width="7.375" style="116" customWidth="1"/>
-    <col min="7429" max="7429" width="4.875" style="116" customWidth="1"/>
-    <col min="7430" max="7430" width="18.875" style="116" customWidth="1"/>
-    <col min="7431" max="7431" width="4.625" style="116" customWidth="1"/>
-    <col min="7432" max="7432" width="5.125" style="116" customWidth="1"/>
-    <col min="7433" max="7433" width="10.125" style="116" customWidth="1"/>
-    <col min="7434" max="7434" width="10" style="116" customWidth="1"/>
-    <col min="7435" max="7435" width="18.875" style="116" customWidth="1"/>
-    <col min="7436" max="7680" width="7.125" style="116"/>
-    <col min="7681" max="7681" width="4.75" style="116" customWidth="1"/>
-    <col min="7682" max="7682" width="16.75" style="116" customWidth="1"/>
-    <col min="7683" max="7683" width="7.625" style="116" customWidth="1"/>
-    <col min="7684" max="7684" width="7.375" style="116" customWidth="1"/>
-    <col min="7685" max="7685" width="4.875" style="116" customWidth="1"/>
-    <col min="7686" max="7686" width="18.875" style="116" customWidth="1"/>
-    <col min="7687" max="7687" width="4.625" style="116" customWidth="1"/>
-    <col min="7688" max="7688" width="5.125" style="116" customWidth="1"/>
-    <col min="7689" max="7689" width="10.125" style="116" customWidth="1"/>
-    <col min="7690" max="7690" width="10" style="116" customWidth="1"/>
-    <col min="7691" max="7691" width="18.875" style="116" customWidth="1"/>
-    <col min="7692" max="7936" width="7.125" style="116"/>
-    <col min="7937" max="7937" width="4.75" style="116" customWidth="1"/>
-    <col min="7938" max="7938" width="16.75" style="116" customWidth="1"/>
-    <col min="7939" max="7939" width="7.625" style="116" customWidth="1"/>
-    <col min="7940" max="7940" width="7.375" style="116" customWidth="1"/>
-    <col min="7941" max="7941" width="4.875" style="116" customWidth="1"/>
-    <col min="7942" max="7942" width="18.875" style="116" customWidth="1"/>
-    <col min="7943" max="7943" width="4.625" style="116" customWidth="1"/>
-    <col min="7944" max="7944" width="5.125" style="116" customWidth="1"/>
-    <col min="7945" max="7945" width="10.125" style="116" customWidth="1"/>
-    <col min="7946" max="7946" width="10" style="116" customWidth="1"/>
-    <col min="7947" max="7947" width="18.875" style="116" customWidth="1"/>
-    <col min="7948" max="8192" width="7.125" style="116"/>
-    <col min="8193" max="8193" width="4.75" style="116" customWidth="1"/>
-    <col min="8194" max="8194" width="16.75" style="116" customWidth="1"/>
-    <col min="8195" max="8195" width="7.625" style="116" customWidth="1"/>
-    <col min="8196" max="8196" width="7.375" style="116" customWidth="1"/>
-    <col min="8197" max="8197" width="4.875" style="116" customWidth="1"/>
-    <col min="8198" max="8198" width="18.875" style="116" customWidth="1"/>
-    <col min="8199" max="8199" width="4.625" style="116" customWidth="1"/>
-    <col min="8200" max="8200" width="5.125" style="116" customWidth="1"/>
-    <col min="8201" max="8201" width="10.125" style="116" customWidth="1"/>
-    <col min="8202" max="8202" width="10" style="116" customWidth="1"/>
-    <col min="8203" max="8203" width="18.875" style="116" customWidth="1"/>
-    <col min="8204" max="8448" width="7.125" style="116"/>
-    <col min="8449" max="8449" width="4.75" style="116" customWidth="1"/>
-    <col min="8450" max="8450" width="16.75" style="116" customWidth="1"/>
-    <col min="8451" max="8451" width="7.625" style="116" customWidth="1"/>
-    <col min="8452" max="8452" width="7.375" style="116" customWidth="1"/>
-    <col min="8453" max="8453" width="4.875" style="116" customWidth="1"/>
-    <col min="8454" max="8454" width="18.875" style="116" customWidth="1"/>
-    <col min="8455" max="8455" width="4.625" style="116" customWidth="1"/>
-    <col min="8456" max="8456" width="5.125" style="116" customWidth="1"/>
-    <col min="8457" max="8457" width="10.125" style="116" customWidth="1"/>
-    <col min="8458" max="8458" width="10" style="116" customWidth="1"/>
-    <col min="8459" max="8459" width="18.875" style="116" customWidth="1"/>
-    <col min="8460" max="8704" width="7.125" style="116"/>
-    <col min="8705" max="8705" width="4.75" style="116" customWidth="1"/>
-    <col min="8706" max="8706" width="16.75" style="116" customWidth="1"/>
-    <col min="8707" max="8707" width="7.625" style="116" customWidth="1"/>
-    <col min="8708" max="8708" width="7.375" style="116" customWidth="1"/>
-    <col min="8709" max="8709" width="4.875" style="116" customWidth="1"/>
-    <col min="8710" max="8710" width="18.875" style="116" customWidth="1"/>
-    <col min="8711" max="8711" width="4.625" style="116" customWidth="1"/>
-    <col min="8712" max="8712" width="5.125" style="116" customWidth="1"/>
-    <col min="8713" max="8713" width="10.125" style="116" customWidth="1"/>
-    <col min="8714" max="8714" width="10" style="116" customWidth="1"/>
-    <col min="8715" max="8715" width="18.875" style="116" customWidth="1"/>
-    <col min="8716" max="8960" width="7.125" style="116"/>
-    <col min="8961" max="8961" width="4.75" style="116" customWidth="1"/>
-    <col min="8962" max="8962" width="16.75" style="116" customWidth="1"/>
-    <col min="8963" max="8963" width="7.625" style="116" customWidth="1"/>
-    <col min="8964" max="8964" width="7.375" style="116" customWidth="1"/>
-    <col min="8965" max="8965" width="4.875" style="116" customWidth="1"/>
-    <col min="8966" max="8966" width="18.875" style="116" customWidth="1"/>
-    <col min="8967" max="8967" width="4.625" style="116" customWidth="1"/>
-    <col min="8968" max="8968" width="5.125" style="116" customWidth="1"/>
-    <col min="8969" max="8969" width="10.125" style="116" customWidth="1"/>
-    <col min="8970" max="8970" width="10" style="116" customWidth="1"/>
-    <col min="8971" max="8971" width="18.875" style="116" customWidth="1"/>
-    <col min="8972" max="9216" width="7.125" style="116"/>
-    <col min="9217" max="9217" width="4.75" style="116" customWidth="1"/>
-    <col min="9218" max="9218" width="16.75" style="116" customWidth="1"/>
-    <col min="9219" max="9219" width="7.625" style="116" customWidth="1"/>
-    <col min="9220" max="9220" width="7.375" style="116" customWidth="1"/>
-    <col min="9221" max="9221" width="4.875" style="116" customWidth="1"/>
-    <col min="9222" max="9222" width="18.875" style="116" customWidth="1"/>
-    <col min="9223" max="9223" width="4.625" style="116" customWidth="1"/>
-    <col min="9224" max="9224" width="5.125" style="116" customWidth="1"/>
-    <col min="9225" max="9225" width="10.125" style="116" customWidth="1"/>
-    <col min="9226" max="9226" width="10" style="116" customWidth="1"/>
-    <col min="9227" max="9227" width="18.875" style="116" customWidth="1"/>
-    <col min="9228" max="9472" width="7.125" style="116"/>
-    <col min="9473" max="9473" width="4.75" style="116" customWidth="1"/>
-    <col min="9474" max="9474" width="16.75" style="116" customWidth="1"/>
-    <col min="9475" max="9475" width="7.625" style="116" customWidth="1"/>
-    <col min="9476" max="9476" width="7.375" style="116" customWidth="1"/>
-    <col min="9477" max="9477" width="4.875" style="116" customWidth="1"/>
-    <col min="9478" max="9478" width="18.875" style="116" customWidth="1"/>
-    <col min="9479" max="9479" width="4.625" style="116" customWidth="1"/>
-    <col min="9480" max="9480" width="5.125" style="116" customWidth="1"/>
-    <col min="9481" max="9481" width="10.125" style="116" customWidth="1"/>
-    <col min="9482" max="9482" width="10" style="116" customWidth="1"/>
-    <col min="9483" max="9483" width="18.875" style="116" customWidth="1"/>
-    <col min="9484" max="9728" width="7.125" style="116"/>
-    <col min="9729" max="9729" width="4.75" style="116" customWidth="1"/>
-    <col min="9730" max="9730" width="16.75" style="116" customWidth="1"/>
-    <col min="9731" max="9731" width="7.625" style="116" customWidth="1"/>
-    <col min="9732" max="9732" width="7.375" style="116" customWidth="1"/>
-    <col min="9733" max="9733" width="4.875" style="116" customWidth="1"/>
-    <col min="9734" max="9734" width="18.875" style="116" customWidth="1"/>
-    <col min="9735" max="9735" width="4.625" style="116" customWidth="1"/>
-    <col min="9736" max="9736" width="5.125" style="116" customWidth="1"/>
-    <col min="9737" max="9737" width="10.125" style="116" customWidth="1"/>
-    <col min="9738" max="9738" width="10" style="116" customWidth="1"/>
-    <col min="9739" max="9739" width="18.875" style="116" customWidth="1"/>
-    <col min="9740" max="9984" width="7.125" style="116"/>
-    <col min="9985" max="9985" width="4.75" style="116" customWidth="1"/>
-    <col min="9986" max="9986" width="16.75" style="116" customWidth="1"/>
-    <col min="9987" max="9987" width="7.625" style="116" customWidth="1"/>
-    <col min="9988" max="9988" width="7.375" style="116" customWidth="1"/>
-    <col min="9989" max="9989" width="4.875" style="116" customWidth="1"/>
-    <col min="9990" max="9990" width="18.875" style="116" customWidth="1"/>
-    <col min="9991" max="9991" width="4.625" style="116" customWidth="1"/>
-    <col min="9992" max="9992" width="5.125" style="116" customWidth="1"/>
-    <col min="9993" max="9993" width="10.125" style="116" customWidth="1"/>
-    <col min="9994" max="9994" width="10" style="116" customWidth="1"/>
-    <col min="9995" max="9995" width="18.875" style="116" customWidth="1"/>
-    <col min="9996" max="10240" width="7.125" style="116"/>
-    <col min="10241" max="10241" width="4.75" style="116" customWidth="1"/>
-    <col min="10242" max="10242" width="16.75" style="116" customWidth="1"/>
-    <col min="10243" max="10243" width="7.625" style="116" customWidth="1"/>
-    <col min="10244" max="10244" width="7.375" style="116" customWidth="1"/>
-    <col min="10245" max="10245" width="4.875" style="116" customWidth="1"/>
-    <col min="10246" max="10246" width="18.875" style="116" customWidth="1"/>
-    <col min="10247" max="10247" width="4.625" style="116" customWidth="1"/>
-    <col min="10248" max="10248" width="5.125" style="116" customWidth="1"/>
-    <col min="10249" max="10249" width="10.125" style="116" customWidth="1"/>
-    <col min="10250" max="10250" width="10" style="116" customWidth="1"/>
-    <col min="10251" max="10251" width="18.875" style="116" customWidth="1"/>
-    <col min="10252" max="10496" width="7.125" style="116"/>
-    <col min="10497" max="10497" width="4.75" style="116" customWidth="1"/>
-    <col min="10498" max="10498" width="16.75" style="116" customWidth="1"/>
-    <col min="10499" max="10499" width="7.625" style="116" customWidth="1"/>
-    <col min="10500" max="10500" width="7.375" style="116" customWidth="1"/>
-    <col min="10501" max="10501" width="4.875" style="116" customWidth="1"/>
-    <col min="10502" max="10502" width="18.875" style="116" customWidth="1"/>
-    <col min="10503" max="10503" width="4.625" style="116" customWidth="1"/>
-    <col min="10504" max="10504" width="5.125" style="116" customWidth="1"/>
-    <col min="10505" max="10505" width="10.125" style="116" customWidth="1"/>
-    <col min="10506" max="10506" width="10" style="116" customWidth="1"/>
-    <col min="10507" max="10507" width="18.875" style="116" customWidth="1"/>
-    <col min="10508" max="10752" width="7.125" style="116"/>
-    <col min="10753" max="10753" width="4.75" style="116" customWidth="1"/>
-    <col min="10754" max="10754" width="16.75" style="116" customWidth="1"/>
-    <col min="10755" max="10755" width="7.625" style="116" customWidth="1"/>
-    <col min="10756" max="10756" width="7.375" style="116" customWidth="1"/>
-    <col min="10757" max="10757" width="4.875" style="116" customWidth="1"/>
-    <col min="10758" max="10758" width="18.875" style="116" customWidth="1"/>
-    <col min="10759" max="10759" width="4.625" style="116" customWidth="1"/>
-    <col min="10760" max="10760" width="5.125" style="116" customWidth="1"/>
-    <col min="10761" max="10761" width="10.125" style="116" customWidth="1"/>
-    <col min="10762" max="10762" width="10" style="116" customWidth="1"/>
-    <col min="10763" max="10763" width="18.875" style="116" customWidth="1"/>
-    <col min="10764" max="11008" width="7.125" style="116"/>
-    <col min="11009" max="11009" width="4.75" style="116" customWidth="1"/>
-    <col min="11010" max="11010" width="16.75" style="116" customWidth="1"/>
-    <col min="11011" max="11011" width="7.625" style="116" customWidth="1"/>
-    <col min="11012" max="11012" width="7.375" style="116" customWidth="1"/>
-    <col min="11013" max="11013" width="4.875" style="116" customWidth="1"/>
-    <col min="11014" max="11014" width="18.875" style="116" customWidth="1"/>
-    <col min="11015" max="11015" width="4.625" style="116" customWidth="1"/>
-    <col min="11016" max="11016" width="5.125" style="116" customWidth="1"/>
-    <col min="11017" max="11017" width="10.125" style="116" customWidth="1"/>
-    <col min="11018" max="11018" width="10" style="116" customWidth="1"/>
-    <col min="11019" max="11019" width="18.875" style="116" customWidth="1"/>
-    <col min="11020" max="11264" width="7.125" style="116"/>
-    <col min="11265" max="11265" width="4.75" style="116" customWidth="1"/>
-    <col min="11266" max="11266" width="16.75" style="116" customWidth="1"/>
-    <col min="11267" max="11267" width="7.625" style="116" customWidth="1"/>
-    <col min="11268" max="11268" width="7.375" style="116" customWidth="1"/>
-    <col min="11269" max="11269" width="4.875" style="116" customWidth="1"/>
-    <col min="11270" max="11270" width="18.875" style="116" customWidth="1"/>
-    <col min="11271" max="11271" width="4.625" style="116" customWidth="1"/>
-    <col min="11272" max="11272" width="5.125" style="116" customWidth="1"/>
-    <col min="11273" max="11273" width="10.125" style="116" customWidth="1"/>
-    <col min="11274" max="11274" width="10" style="116" customWidth="1"/>
-    <col min="11275" max="11275" width="18.875" style="116" customWidth="1"/>
-    <col min="11276" max="11520" width="7.125" style="116"/>
-    <col min="11521" max="11521" width="4.75" style="116" customWidth="1"/>
-    <col min="11522" max="11522" width="16.75" style="116" customWidth="1"/>
-    <col min="11523" max="11523" width="7.625" style="116" customWidth="1"/>
-    <col min="11524" max="11524" width="7.375" style="116" customWidth="1"/>
-    <col min="11525" max="11525" width="4.875" style="116" customWidth="1"/>
-    <col min="11526" max="11526" width="18.875" style="116" customWidth="1"/>
-    <col min="11527" max="11527" width="4.625" style="116" customWidth="1"/>
-    <col min="11528" max="11528" width="5.125" style="116" customWidth="1"/>
-    <col min="11529" max="11529" width="10.125" style="116" customWidth="1"/>
-    <col min="11530" max="11530" width="10" style="116" customWidth="1"/>
-    <col min="11531" max="11531" width="18.875" style="116" customWidth="1"/>
-    <col min="11532" max="11776" width="7.125" style="116"/>
-    <col min="11777" max="11777" width="4.75" style="116" customWidth="1"/>
-    <col min="11778" max="11778" width="16.75" style="116" customWidth="1"/>
-    <col min="11779" max="11779" width="7.625" style="116" customWidth="1"/>
-    <col min="11780" max="11780" width="7.375" style="116" customWidth="1"/>
-    <col min="11781" max="11781" width="4.875" style="116" customWidth="1"/>
-    <col min="11782" max="11782" width="18.875" style="116" customWidth="1"/>
-    <col min="11783" max="11783" width="4.625" style="116" customWidth="1"/>
-    <col min="11784" max="11784" width="5.125" style="116" customWidth="1"/>
-    <col min="11785" max="11785" width="10.125" style="116" customWidth="1"/>
-    <col min="11786" max="11786" width="10" style="116" customWidth="1"/>
-    <col min="11787" max="11787" width="18.875" style="116" customWidth="1"/>
-    <col min="11788" max="12032" width="7.125" style="116"/>
-    <col min="12033" max="12033" width="4.75" style="116" customWidth="1"/>
-    <col min="12034" max="12034" width="16.75" style="116" customWidth="1"/>
-    <col min="12035" max="12035" width="7.625" style="116" customWidth="1"/>
-    <col min="12036" max="12036" width="7.375" style="116" customWidth="1"/>
-    <col min="12037" max="12037" width="4.875" style="116" customWidth="1"/>
-    <col min="12038" max="12038" width="18.875" style="116" customWidth="1"/>
-    <col min="12039" max="12039" width="4.625" style="116" customWidth="1"/>
-    <col min="12040" max="12040" width="5.125" style="116" customWidth="1"/>
-    <col min="12041" max="12041" width="10.125" style="116" customWidth="1"/>
-    <col min="12042" max="12042" width="10" style="116" customWidth="1"/>
-    <col min="12043" max="12043" width="18.875" style="116" customWidth="1"/>
-    <col min="12044" max="12288" width="7.125" style="116"/>
-    <col min="12289" max="12289" width="4.75" style="116" customWidth="1"/>
-    <col min="12290" max="12290" width="16.75" style="116" customWidth="1"/>
-    <col min="12291" max="12291" width="7.625" style="116" customWidth="1"/>
-    <col min="12292" max="12292" width="7.375" style="116" customWidth="1"/>
-    <col min="12293" max="12293" width="4.875" style="116" customWidth="1"/>
-    <col min="12294" max="12294" width="18.875" style="116" customWidth="1"/>
-    <col min="12295" max="12295" width="4.625" style="116" customWidth="1"/>
-    <col min="12296" max="12296" width="5.125" style="116" customWidth="1"/>
-    <col min="12297" max="12297" width="10.125" style="116" customWidth="1"/>
-    <col min="12298" max="12298" width="10" style="116" customWidth="1"/>
-    <col min="12299" max="12299" width="18.875" style="116" customWidth="1"/>
-    <col min="12300" max="12544" width="7.125" style="116"/>
-    <col min="12545" max="12545" width="4.75" style="116" customWidth="1"/>
-    <col min="12546" max="12546" width="16.75" style="116" customWidth="1"/>
-    <col min="12547" max="12547" width="7.625" style="116" customWidth="1"/>
-    <col min="12548" max="12548" width="7.375" style="116" customWidth="1"/>
-    <col min="12549" max="12549" width="4.875" style="116" customWidth="1"/>
-    <col min="12550" max="12550" width="18.875" style="116" customWidth="1"/>
-    <col min="12551" max="12551" width="4.625" style="116" customWidth="1"/>
-    <col min="12552" max="12552" width="5.125" style="116" customWidth="1"/>
-    <col min="12553" max="12553" width="10.125" style="116" customWidth="1"/>
-    <col min="12554" max="12554" width="10" style="116" customWidth="1"/>
-    <col min="12555" max="12555" width="18.875" style="116" customWidth="1"/>
-    <col min="12556" max="12800" width="7.125" style="116"/>
-    <col min="12801" max="12801" width="4.75" style="116" customWidth="1"/>
-    <col min="12802" max="12802" width="16.75" style="116" customWidth="1"/>
-    <col min="12803" max="12803" width="7.625" style="116" customWidth="1"/>
-    <col min="12804" max="12804" width="7.375" style="116" customWidth="1"/>
-    <col min="12805" max="12805" width="4.875" style="116" customWidth="1"/>
-    <col min="12806" max="12806" width="18.875" style="116" customWidth="1"/>
-    <col min="12807" max="12807" width="4.625" style="116" customWidth="1"/>
-    <col min="12808" max="12808" width="5.125" style="116" customWidth="1"/>
-    <col min="12809" max="12809" width="10.125" style="116" customWidth="1"/>
-    <col min="12810" max="12810" width="10" style="116" customWidth="1"/>
-    <col min="12811" max="12811" width="18.875" style="116" customWidth="1"/>
-    <col min="12812" max="13056" width="7.125" style="116"/>
-    <col min="13057" max="13057" width="4.75" style="116" customWidth="1"/>
-    <col min="13058" max="13058" width="16.75" style="116" customWidth="1"/>
-    <col min="13059" max="13059" width="7.625" style="116" customWidth="1"/>
-    <col min="13060" max="13060" width="7.375" style="116" customWidth="1"/>
-    <col min="13061" max="13061" width="4.875" style="116" customWidth="1"/>
-    <col min="13062" max="13062" width="18.875" style="116" customWidth="1"/>
-    <col min="13063" max="13063" width="4.625" style="116" customWidth="1"/>
-    <col min="13064" max="13064" width="5.125" style="116" customWidth="1"/>
-    <col min="13065" max="13065" width="10.125" style="116" customWidth="1"/>
-    <col min="13066" max="13066" width="10" style="116" customWidth="1"/>
-    <col min="13067" max="13067" width="18.875" style="116" customWidth="1"/>
-    <col min="13068" max="13312" width="7.125" style="116"/>
-    <col min="13313" max="13313" width="4.75" style="116" customWidth="1"/>
-    <col min="13314" max="13314" width="16.75" style="116" customWidth="1"/>
-    <col min="13315" max="13315" width="7.625" style="116" customWidth="1"/>
-    <col min="13316" max="13316" width="7.375" style="116" customWidth="1"/>
-    <col min="13317" max="13317" width="4.875" style="116" customWidth="1"/>
-    <col min="13318" max="13318" width="18.875" style="116" customWidth="1"/>
-    <col min="13319" max="13319" width="4.625" style="116" customWidth="1"/>
-    <col min="13320" max="13320" width="5.125" style="116" customWidth="1"/>
-    <col min="13321" max="13321" width="10.125" style="116" customWidth="1"/>
-    <col min="13322" max="13322" width="10" style="116" customWidth="1"/>
-    <col min="13323" max="13323" width="18.875" style="116" customWidth="1"/>
-    <col min="13324" max="13568" width="7.125" style="116"/>
-    <col min="13569" max="13569" width="4.75" style="116" customWidth="1"/>
-    <col min="13570" max="13570" width="16.75" style="116" customWidth="1"/>
-    <col min="13571" max="13571" width="7.625" style="116" customWidth="1"/>
-    <col min="13572" max="13572" width="7.375" style="116" customWidth="1"/>
-    <col min="13573" max="13573" width="4.875" style="116" customWidth="1"/>
-    <col min="13574" max="13574" width="18.875" style="116" customWidth="1"/>
-    <col min="13575" max="13575" width="4.625" style="116" customWidth="1"/>
-    <col min="13576" max="13576" width="5.125" style="116" customWidth="1"/>
-    <col min="13577" max="13577" width="10.125" style="116" customWidth="1"/>
-    <col min="13578" max="13578" width="10" style="116" customWidth="1"/>
-    <col min="13579" max="13579" width="18.875" style="116" customWidth="1"/>
-    <col min="13580" max="13824" width="7.125" style="116"/>
-    <col min="13825" max="13825" width="4.75" style="116" customWidth="1"/>
-    <col min="13826" max="13826" width="16.75" style="116" customWidth="1"/>
-    <col min="13827" max="13827" width="7.625" style="116" customWidth="1"/>
-    <col min="13828" max="13828" width="7.375" style="116" customWidth="1"/>
-    <col min="13829" max="13829" width="4.875" style="116" customWidth="1"/>
-    <col min="13830" max="13830" width="18.875" style="116" customWidth="1"/>
-    <col min="13831" max="13831" width="4.625" style="116" customWidth="1"/>
-    <col min="13832" max="13832" width="5.125" style="116" customWidth="1"/>
-    <col min="13833" max="13833" width="10.125" style="116" customWidth="1"/>
-    <col min="13834" max="13834" width="10" style="116" customWidth="1"/>
-    <col min="13835" max="13835" width="18.875" style="116" customWidth="1"/>
-    <col min="13836" max="14080" width="7.125" style="116"/>
-    <col min="14081" max="14081" width="4.75" style="116" customWidth="1"/>
-    <col min="14082" max="14082" width="16.75" style="116" customWidth="1"/>
-    <col min="14083" max="14083" width="7.625" style="116" customWidth="1"/>
-    <col min="14084" max="14084" width="7.375" style="116" customWidth="1"/>
-    <col min="14085" max="14085" width="4.875" style="116" customWidth="1"/>
-    <col min="14086" max="14086" width="18.875" style="116" customWidth="1"/>
-    <col min="14087" max="14087" width="4.625" style="116" customWidth="1"/>
-    <col min="14088" max="14088" width="5.125" style="116" customWidth="1"/>
-    <col min="14089" max="14089" width="10.125" style="116" customWidth="1"/>
-    <col min="14090" max="14090" width="10" style="116" customWidth="1"/>
-    <col min="14091" max="14091" width="18.875" style="116" customWidth="1"/>
-    <col min="14092" max="14336" width="7.125" style="116"/>
-    <col min="14337" max="14337" width="4.75" style="116" customWidth="1"/>
-    <col min="14338" max="14338" width="16.75" style="116" customWidth="1"/>
-    <col min="14339" max="14339" width="7.625" style="116" customWidth="1"/>
-    <col min="14340" max="14340" width="7.375" style="116" customWidth="1"/>
-    <col min="14341" max="14341" width="4.875" style="116" customWidth="1"/>
-    <col min="14342" max="14342" width="18.875" style="116" customWidth="1"/>
-    <col min="14343" max="14343" width="4.625" style="116" customWidth="1"/>
-    <col min="14344" max="14344" width="5.125" style="116" customWidth="1"/>
-    <col min="14345" max="14345" width="10.125" style="116" customWidth="1"/>
-    <col min="14346" max="14346" width="10" style="116" customWidth="1"/>
-    <col min="14347" max="14347" width="18.875" style="116" customWidth="1"/>
-    <col min="14348" max="14592" width="7.125" style="116"/>
-    <col min="14593" max="14593" width="4.75" style="116" customWidth="1"/>
-    <col min="14594" max="14594" width="16.75" style="116" customWidth="1"/>
-    <col min="14595" max="14595" width="7.625" style="116" customWidth="1"/>
-    <col min="14596" max="14596" width="7.375" style="116" customWidth="1"/>
-    <col min="14597" max="14597" width="4.875" style="116" customWidth="1"/>
-    <col min="14598" max="14598" width="18.875" style="116" customWidth="1"/>
-    <col min="14599" max="14599" width="4.625" style="116" customWidth="1"/>
-    <col min="14600" max="14600" width="5.125" style="116" customWidth="1"/>
-    <col min="14601" max="14601" width="10.125" style="116" customWidth="1"/>
-    <col min="14602" max="14602" width="10" style="116" customWidth="1"/>
-    <col min="14603" max="14603" width="18.875" style="116" customWidth="1"/>
-    <col min="14604" max="14848" width="7.125" style="116"/>
-    <col min="14849" max="14849" width="4.75" style="116" customWidth="1"/>
-    <col min="14850" max="14850" width="16.75" style="116" customWidth="1"/>
-    <col min="14851" max="14851" width="7.625" style="116" customWidth="1"/>
-    <col min="14852" max="14852" width="7.375" style="116" customWidth="1"/>
-    <col min="14853" max="14853" width="4.875" style="116" customWidth="1"/>
-    <col min="14854" max="14854" width="18.875" style="116" customWidth="1"/>
-    <col min="14855" max="14855" width="4.625" style="116" customWidth="1"/>
-    <col min="14856" max="14856" width="5.125" style="116" customWidth="1"/>
-    <col min="14857" max="14857" width="10.125" style="116" customWidth="1"/>
-    <col min="14858" max="14858" width="10" style="116" customWidth="1"/>
-    <col min="14859" max="14859" width="18.875" style="116" customWidth="1"/>
-    <col min="14860" max="15104" width="7.125" style="116"/>
-    <col min="15105" max="15105" width="4.75" style="116" customWidth="1"/>
-    <col min="15106" max="15106" width="16.75" style="116" customWidth="1"/>
-    <col min="15107" max="15107" width="7.625" style="116" customWidth="1"/>
-    <col min="15108" max="15108" width="7.375" style="116" customWidth="1"/>
-    <col min="15109" max="15109" width="4.875" style="116" customWidth="1"/>
-    <col min="15110" max="15110" width="18.875" style="116" customWidth="1"/>
-    <col min="15111" max="15111" width="4.625" style="116" customWidth="1"/>
-    <col min="15112" max="15112" width="5.125" style="116" customWidth="1"/>
-    <col min="15113" max="15113" width="10.125" style="116" customWidth="1"/>
-    <col min="15114" max="15114" width="10" style="116" customWidth="1"/>
-    <col min="15115" max="15115" width="18.875" style="116" customWidth="1"/>
-    <col min="15116" max="15360" width="7.125" style="116"/>
-    <col min="15361" max="15361" width="4.75" style="116" customWidth="1"/>
-    <col min="15362" max="15362" width="16.75" style="116" customWidth="1"/>
-    <col min="15363" max="15363" width="7.625" style="116" customWidth="1"/>
-    <col min="15364" max="15364" width="7.375" style="116" customWidth="1"/>
-    <col min="15365" max="15365" width="4.875" style="116" customWidth="1"/>
-    <col min="15366" max="15366" width="18.875" style="116" customWidth="1"/>
-    <col min="15367" max="15367" width="4.625" style="116" customWidth="1"/>
-    <col min="15368" max="15368" width="5.125" style="116" customWidth="1"/>
-    <col min="15369" max="15369" width="10.125" style="116" customWidth="1"/>
-    <col min="15370" max="15370" width="10" style="116" customWidth="1"/>
-    <col min="15371" max="15371" width="18.875" style="116" customWidth="1"/>
-    <col min="15372" max="15616" width="7.125" style="116"/>
-    <col min="15617" max="15617" width="4.75" style="116" customWidth="1"/>
-    <col min="15618" max="15618" width="16.75" style="116" customWidth="1"/>
-    <col min="15619" max="15619" width="7.625" style="116" customWidth="1"/>
-    <col min="15620" max="15620" width="7.375" style="116" customWidth="1"/>
-    <col min="15621" max="15621" width="4.875" style="116" customWidth="1"/>
-    <col min="15622" max="15622" width="18.875" style="116" customWidth="1"/>
-    <col min="15623" max="15623" width="4.625" style="116" customWidth="1"/>
-    <col min="15624" max="15624" width="5.125" style="116" customWidth="1"/>
-    <col min="15625" max="15625" width="10.125" style="116" customWidth="1"/>
-    <col min="15626" max="15626" width="10" style="116" customWidth="1"/>
-    <col min="15627" max="15627" width="18.875" style="116" customWidth="1"/>
-    <col min="15628" max="15872" width="7.125" style="116"/>
-    <col min="15873" max="15873" width="4.75" style="116" customWidth="1"/>
-    <col min="15874" max="15874" width="16.75" style="116" customWidth="1"/>
-    <col min="15875" max="15875" width="7.625" style="116" customWidth="1"/>
-    <col min="15876" max="15876" width="7.375" style="116" customWidth="1"/>
-    <col min="15877" max="15877" width="4.875" style="116" customWidth="1"/>
-    <col min="15878" max="15878" width="18.875" style="116" customWidth="1"/>
-    <col min="15879" max="15879" width="4.625" style="116" customWidth="1"/>
-    <col min="15880" max="15880" width="5.125" style="116" customWidth="1"/>
-    <col min="15881" max="15881" width="10.125" style="116" customWidth="1"/>
-    <col min="15882" max="15882" width="10" style="116" customWidth="1"/>
-    <col min="15883" max="15883" width="18.875" style="116" customWidth="1"/>
-    <col min="15884" max="16128" width="7.125" style="116"/>
-    <col min="16129" max="16129" width="4.75" style="116" customWidth="1"/>
-    <col min="16130" max="16130" width="16.75" style="116" customWidth="1"/>
-    <col min="16131" max="16131" width="7.625" style="116" customWidth="1"/>
-    <col min="16132" max="16132" width="7.375" style="116" customWidth="1"/>
-    <col min="16133" max="16133" width="4.875" style="116" customWidth="1"/>
-    <col min="16134" max="16134" width="18.875" style="116" customWidth="1"/>
-    <col min="16135" max="16135" width="4.625" style="116" customWidth="1"/>
-    <col min="16136" max="16136" width="5.125" style="116" customWidth="1"/>
-    <col min="16137" max="16137" width="10.125" style="116" customWidth="1"/>
-    <col min="16138" max="16138" width="10" style="116" customWidth="1"/>
-    <col min="16139" max="16139" width="18.875" style="116" customWidth="1"/>
-    <col min="16140" max="16384" width="7.125" style="116"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="112" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="270" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="I1" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1">
-      <c r="A2" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="I2" s="8">
-        <v>45205</v>
-      </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-    </row>
-    <row r="3" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A3" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-    </row>
-    <row r="4" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A4" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="273" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-    </row>
-    <row r="5" spans="1:21" ht="39" customHeight="1">
-      <c r="A5" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="126"/>
-    </row>
-    <row r="6" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A6" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="11.25" customHeight="1" thickBot="1"/>
-    <row r="8" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A8" s="274" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="276" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="277"/>
-      <c r="H8" s="278" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
-    </row>
-    <row r="9" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="275"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-    </row>
-    <row r="10" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A10" s="140">
-        <v>1</v>
-      </c>
-      <c r="B10" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-    </row>
-    <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="140">
-        <v>2</v>
-      </c>
-      <c r="B11" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-    </row>
-    <row r="12" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A12" s="140">
-        <v>3</v>
-      </c>
-      <c r="B12" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="352" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="353"/>
-      <c r="K12" s="147"/>
-      <c r="U12" s="116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A13" s="140">
-        <v>4</v>
-      </c>
-      <c r="B13" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="152" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-    </row>
-    <row r="14" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A14" s="140">
-        <v>5</v>
-      </c>
-      <c r="B14" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="143"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="153" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-    </row>
-    <row r="15" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A15" s="140">
-        <v>6</v>
-      </c>
-      <c r="B15" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="221"/>
-      <c r="K15" s="147"/>
-    </row>
-    <row r="16" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A16" s="140">
-        <v>7</v>
-      </c>
-      <c r="B16" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="221"/>
-      <c r="K16" s="147"/>
-    </row>
-    <row r="17" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A17" s="140">
-        <v>8</v>
-      </c>
-      <c r="B17" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="220" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="221"/>
-      <c r="K17" s="147"/>
-    </row>
-    <row r="18" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A18" s="140">
-        <v>9</v>
-      </c>
-      <c r="B18" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="220" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="221"/>
-      <c r="K18" s="147"/>
-    </row>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A19" s="140">
-        <v>10</v>
-      </c>
-      <c r="B19" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="220" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="221"/>
-      <c r="K19" s="147"/>
-    </row>
-    <row r="20" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A20" s="140">
-        <v>11</v>
-      </c>
-      <c r="B20" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="352" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="353"/>
-      <c r="K20" s="147"/>
-    </row>
-    <row r="21" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A21" s="140">
-        <v>12</v>
-      </c>
-      <c r="B21" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="143"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="153" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-    </row>
-    <row r="22" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A22" s="140">
-        <v>13</v>
-      </c>
-      <c r="B22" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-    </row>
-    <row r="23" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A23" s="140">
-        <v>14</v>
-      </c>
-      <c r="B23" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-    </row>
-    <row r="24" spans="1:15" s="160" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="265" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="266"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="268"/>
-      <c r="G24" s="269"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="268" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="269"/>
-      <c r="K24" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="159"/>
-    </row>
-    <row r="25" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="242">
-        <v>15</v>
-      </c>
-      <c r="B25" s="254" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="257" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="259" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="260"/>
-      <c r="K25" s="163"/>
-    </row>
-    <row r="26" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="253"/>
-      <c r="B26" s="238" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="166"/>
-      <c r="M26" s="160">
-        <v>70</v>
-      </c>
-      <c r="N26" s="160">
-        <v>80</v>
-      </c>
-      <c r="O26" s="160">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="228">
-        <v>16</v>
-      </c>
-      <c r="B27" s="229" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="263"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="264"/>
-      <c r="F27" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="232" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="233"/>
-      <c r="K27" s="170"/>
-      <c r="M27" s="160">
-        <v>4100</v>
-      </c>
-      <c r="N27" s="160">
-        <v>4200</v>
-      </c>
-      <c r="O27" s="160">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="228"/>
-      <c r="B28" s="238" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="166"/>
-    </row>
-    <row r="29" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="228">
-        <v>17</v>
-      </c>
-      <c r="B29" s="229" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="174"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="232" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="233"/>
-      <c r="K29" s="236" t="s">
-        <v>132</v>
-      </c>
-      <c r="M29" s="160">
-        <f>M27/M26*2</f>
-        <v>117.14285714285714</v>
-      </c>
-      <c r="N29" s="175">
-        <f>N27/N26*2</f>
-        <v>105</v>
-      </c>
-      <c r="O29" s="160">
-        <f>O27/O26*2</f>
-        <v>95.555555555555557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="228"/>
-      <c r="B30" s="238" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="235"/>
-      <c r="K30" s="237"/>
-      <c r="M30" s="160">
-        <f>M27/O26*2</f>
-        <v>91.111111111111114</v>
-      </c>
-      <c r="O30" s="160">
-        <f>O27/M26*2</f>
-        <v>122.85714285714286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="241">
-        <v>18</v>
-      </c>
-      <c r="B31" s="243" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="245"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="246" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="247"/>
-      <c r="K31" s="180"/>
-    </row>
-    <row r="32" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="242"/>
-      <c r="B32" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="251"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="249"/>
-      <c r="K32" s="180"/>
-      <c r="M32" s="184">
-        <f>N29-M30</f>
-        <v>13.888888888888886</v>
-      </c>
-      <c r="N32" s="184">
-        <f>O30-N29</f>
-        <v>17.857142857142861</v>
-      </c>
-      <c r="O32" s="184">
-        <f>M32+N32</f>
-        <v>31.746031746031747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="190" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="189"/>
-    </row>
-    <row r="34" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A34" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="H34" s="214" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="215"/>
-      <c r="J34" s="193" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="194" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="190">
-        <f>O32/2</f>
-        <v>15.873015873015873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="196" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A35" s="195" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="216" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="217"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="198"/>
-    </row>
-    <row r="36" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="195" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
-    </row>
-    <row r="37" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="195" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="192"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="202" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="203" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A38" s="195" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="192"/>
-      <c r="H38" s="222" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="223"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="204"/>
-    </row>
-    <row r="39" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="195" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="192"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="205"/>
-    </row>
-    <row r="40" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A40" s="206" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="211" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="212" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="190" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="213" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="226" t="s">
-        <v>97</v>
-      </c>
-      <c r="K41" s="227"/>
-    </row>
-    <row r="42" spans="1:15" ht="21.6" thickTop="1"/>
-    <row r="44" spans="1:15">
-      <c r="C44" s="190"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="H40:I40"/>
-  </mergeCells>
-  <pageMargins left="0.24" right="0.14000000000000001" top="0.14000000000000001" bottom="0.19" header="0.12" footer="0.19"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -6068,14 +4459,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="347" t="s">
+      <c r="F3" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -6089,21 +4480,21 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="348"/>
-      <c r="J4" s="349"/>
-      <c r="K4" s="349"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
     </row>
     <row r="5" spans="1:14" ht="39" customHeight="1">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="325"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="327" t="s">
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="326"/>
+      <c r="F5" s="216"/>
       <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
@@ -6115,36 +4506,36 @@
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="346"/>
-      <c r="C6" s="346"/>
-      <c r="D6" s="343" t="s">
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="344"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="343"/>
-      <c r="K6" s="343"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
     </row>
     <row r="7" spans="1:14" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A8" s="321" t="s">
+      <c r="A8" s="304" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="341" t="s">
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="342"/>
-      <c r="H8" s="328" t="s">
+      <c r="G8" s="308"/>
+      <c r="H8" s="309" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -6157,14 +4548,14 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="322"/>
+      <c r="A9" s="305"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="329"/>
+      <c r="H9" s="310"/>
       <c r="I9" s="26" t="s">
         <v>22</v>
       </c>
@@ -6177,7 +4568,7 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A10" s="319">
+      <c r="A10" s="311">
         <v>1</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -6190,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="330" t="s">
+      <c r="H10" s="312" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="35" t="s">
@@ -6200,7 +4591,7 @@
       <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A11" s="319"/>
+      <c r="A11" s="311"/>
       <c r="B11" s="38" t="s">
         <v>28</v>
       </c>
@@ -6211,7 +4602,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="331"/>
+      <c r="H11" s="313"/>
       <c r="I11" s="35" t="s">
         <v>30</v>
       </c>
@@ -6219,7 +4610,7 @@
       <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A12" s="320">
+      <c r="A12" s="314">
         <v>2</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -6232,7 +4623,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="332"/>
+      <c r="H12" s="218"/>
       <c r="I12" s="35">
         <v>224</v>
       </c>
@@ -6240,7 +4631,7 @@
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A13" s="320"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="38" t="s">
         <v>33</v>
       </c>
@@ -6251,7 +4642,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="332"/>
+      <c r="H13" s="218"/>
       <c r="I13" s="35">
         <v>236</v>
       </c>
@@ -6259,7 +4650,7 @@
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A14" s="319">
+      <c r="A14" s="311">
         <v>3</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -6272,7 +4663,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="332"/>
+      <c r="H14" s="218"/>
       <c r="I14" s="35">
         <v>15.6</v>
       </c>
@@ -6280,7 +4671,7 @@
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A15" s="319"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
@@ -6291,7 +4682,7 @@
         <v>37</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="332"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="35">
         <v>28</v>
       </c>
@@ -6299,7 +4690,7 @@
       <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A16" s="319">
+      <c r="A16" s="311">
         <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -6314,7 +4705,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="34"/>
-      <c r="H16" s="332"/>
+      <c r="H16" s="218"/>
       <c r="I16" s="39">
         <v>35</v>
       </c>
@@ -6322,7 +4713,7 @@
       <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A17" s="319"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="38" t="s">
         <v>41</v>
       </c>
@@ -6335,7 +4726,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="332"/>
+      <c r="H17" s="218"/>
       <c r="I17" s="35" t="s">
         <v>44</v>
       </c>
@@ -6343,7 +4734,7 @@
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A18" s="307">
+      <c r="A18" s="299">
         <v>5</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -6354,7 +4745,7 @@
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="332"/>
+      <c r="H18" s="218"/>
       <c r="I18" s="35">
         <v>3</v>
       </c>
@@ -6362,7 +4753,7 @@
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A19" s="308"/>
+      <c r="A19" s="300"/>
       <c r="B19" s="38" t="s">
         <v>46</v>
       </c>
@@ -6371,7 +4762,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="332"/>
+      <c r="H19" s="218"/>
       <c r="I19" s="35" t="s">
         <v>47</v>
       </c>
@@ -6379,7 +4770,7 @@
       <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A20" s="307">
+      <c r="A20" s="299">
         <v>6</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -6390,15 +4781,15 @@
       <c r="E20" s="34"/>
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="350" t="s">
+      <c r="H20" s="218"/>
+      <c r="I20" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="351"/>
+      <c r="J20" s="230"/>
       <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A21" s="308"/>
+      <c r="A21" s="300"/>
       <c r="B21" s="38" t="s">
         <v>50</v>
       </c>
@@ -6409,7 +4800,7 @@
         <v>51</v>
       </c>
       <c r="G21" s="34"/>
-      <c r="H21" s="332"/>
+      <c r="H21" s="218"/>
       <c r="I21" s="42" t="s">
         <v>52</v>
       </c>
@@ -6417,7 +4808,7 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A22" s="307">
+      <c r="A22" s="299">
         <v>8</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -6430,7 +4821,7 @@
         <v>54</v>
       </c>
       <c r="G22" s="34"/>
-      <c r="H22" s="332"/>
+      <c r="H22" s="218"/>
       <c r="I22" s="43" t="s">
         <v>55</v>
       </c>
@@ -6442,7 +4833,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A23" s="308"/>
+      <c r="A23" s="300"/>
       <c r="B23" s="38" t="s">
         <v>56</v>
       </c>
@@ -6453,7 +4844,7 @@
         <v>57</v>
       </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="332"/>
+      <c r="H23" s="218"/>
       <c r="I23" s="35" t="s">
         <v>58</v>
       </c>
@@ -6474,7 +4865,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="34"/>
-      <c r="H24" s="332"/>
+      <c r="H24" s="218"/>
       <c r="I24" s="35" t="s">
         <v>61</v>
       </c>
@@ -6491,7 +4882,7 @@
       <c r="E25" s="50"/>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="333"/>
+      <c r="H25" s="219"/>
       <c r="I25" s="51" t="s">
         <v>63</v>
       </c>
@@ -6500,26 +4891,26 @@
     </row>
     <row r="26" spans="1:18" s="59" customFormat="1" ht="18" customHeight="1" thickTop="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="315" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
-      <c r="E26" s="311"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
       <c r="F26" s="55"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="334"/>
-      <c r="I26" s="312" t="s">
+      <c r="H26" s="220"/>
+      <c r="I26" s="318" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="313"/>
+      <c r="J26" s="319"/>
       <c r="K26" s="57" t="s">
         <v>66</v>
       </c>
       <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="302">
+      <c r="A27" s="320">
         <v>10</v>
       </c>
       <c r="B27" s="60" t="s">
@@ -6530,13 +4921,13 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63"/>
       <c r="G27" s="62"/>
-      <c r="H27" s="335" t="s">
+      <c r="H27" s="322" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="315" t="s">
+      <c r="I27" s="324" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="316"/>
+      <c r="J27" s="325"/>
       <c r="K27" s="64"/>
       <c r="M27" s="59">
         <v>70</v>
@@ -6549,7 +4940,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="314"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="65" t="s">
         <v>69</v>
       </c>
@@ -6558,9 +4949,9 @@
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="336"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="318"/>
+      <c r="H28" s="323"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="327"/>
       <c r="K28" s="69"/>
       <c r="M28" s="59">
         <v>4050</v>
@@ -6573,7 +4964,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="294">
+      <c r="A29" s="330">
         <v>11</v>
       </c>
       <c r="B29" s="60" t="s">
@@ -6584,11 +4975,11 @@
       <c r="E29" s="70"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="337"/>
-      <c r="I29" s="295" t="s">
+      <c r="H29" s="221"/>
+      <c r="I29" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="296"/>
+      <c r="J29" s="332"/>
       <c r="K29" s="71"/>
       <c r="M29" s="59">
         <f>4150/80*2</f>
@@ -6596,7 +4987,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="294"/>
+      <c r="A30" s="330"/>
       <c r="B30" s="65" t="s">
         <v>72</v>
       </c>
@@ -6605,9 +4996,9 @@
       <c r="E30" s="72"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="338"/>
-      <c r="I30" s="297"/>
-      <c r="J30" s="298"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="334"/>
       <c r="K30" s="69"/>
       <c r="M30" s="59">
         <f>N28/N27*2</f>
@@ -6635,7 +5026,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="294">
+      <c r="A31" s="330">
         <v>12</v>
       </c>
       <c r="B31" s="60" t="s">
@@ -6646,17 +5037,17 @@
       <c r="E31" s="70"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="337"/>
-      <c r="I31" s="295" t="s">
+      <c r="H31" s="221"/>
+      <c r="I31" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="296"/>
-      <c r="K31" s="299" t="s">
+      <c r="J31" s="332"/>
+      <c r="K31" s="335" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A32" s="294"/>
+      <c r="A32" s="330"/>
       <c r="B32" s="65" t="s">
         <v>76</v>
       </c>
@@ -6665,10 +5056,10 @@
       <c r="E32" s="75"/>
       <c r="F32" s="76"/>
       <c r="G32" s="76"/>
-      <c r="H32" s="338"/>
-      <c r="I32" s="297"/>
-      <c r="J32" s="298"/>
-      <c r="K32" s="300"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="334"/>
+      <c r="K32" s="336"/>
       <c r="N32" s="59">
         <f>M30-N30</f>
         <v>13.75</v>
@@ -6687,7 +5078,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="81" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="301">
+      <c r="A33" s="337">
         <v>13</v>
       </c>
       <c r="B33" s="77" t="s">
@@ -6698,15 +5089,15 @@
       <c r="E33" s="79"/>
       <c r="F33" s="78"/>
       <c r="G33" s="78"/>
-      <c r="H33" s="339"/>
-      <c r="I33" s="303" t="s">
+      <c r="H33" s="223"/>
+      <c r="I33" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="304"/>
+      <c r="J33" s="339"/>
       <c r="K33" s="80"/>
     </row>
     <row r="34" spans="1:11" s="81" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="302"/>
+      <c r="A34" s="320"/>
       <c r="B34" s="82" t="s">
         <v>79</v>
       </c>
@@ -6715,9 +5106,9 @@
       <c r="E34" s="84"/>
       <c r="F34" s="85"/>
       <c r="G34" s="85"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="306"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="340"/>
+      <c r="J34" s="341"/>
       <c r="K34" s="80"/>
     </row>
     <row r="35" spans="1:11" s="91" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
@@ -6745,10 +5136,10 @@
       <c r="E36" s="93"/>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
-      <c r="H36" s="280" t="s">
+      <c r="H36" s="342" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="281"/>
+      <c r="I36" s="343"/>
       <c r="J36" s="94" t="s">
         <v>83</v>
       </c>
@@ -6766,10 +5157,10 @@
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
-      <c r="H37" s="282" t="s">
+      <c r="H37" s="344" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="283"/>
+      <c r="I37" s="345"/>
       <c r="J37" s="97"/>
       <c r="K37" s="98"/>
     </row>
@@ -6783,8 +5174,8 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
-      <c r="H38" s="284"/>
-      <c r="I38" s="285"/>
+      <c r="H38" s="346"/>
+      <c r="I38" s="347"/>
       <c r="J38" s="100"/>
       <c r="K38" s="101"/>
     </row>
@@ -6798,8 +5189,8 @@
       <c r="E39" s="93"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
-      <c r="H39" s="286"/>
-      <c r="I39" s="287"/>
+      <c r="H39" s="348"/>
+      <c r="I39" s="349"/>
       <c r="J39" s="102" t="s">
         <v>86</v>
       </c>
@@ -6817,10 +5208,10 @@
       <c r="E40" s="93"/>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
-      <c r="H40" s="288" t="s">
+      <c r="H40" s="350" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="289"/>
+      <c r="I40" s="351"/>
       <c r="J40" s="97"/>
       <c r="K40" s="104"/>
     </row>
@@ -6834,8 +5225,8 @@
       <c r="E41" s="93"/>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
-      <c r="H41" s="288"/>
-      <c r="I41" s="289"/>
+      <c r="H41" s="350"/>
+      <c r="I41" s="351"/>
       <c r="J41" s="100"/>
       <c r="K41" s="105"/>
     </row>
@@ -6849,8 +5240,8 @@
       <c r="E42" s="108"/>
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="291"/>
+      <c r="H42" s="352"/>
+      <c r="I42" s="353"/>
       <c r="J42" s="109" t="s">
         <v>94</v>
       </c>
@@ -6862,33 +5253,14 @@
       <c r="A43" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="292" t="s">
+      <c r="J43" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="293"/>
+      <c r="K43" s="329"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:J28"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="I29:J30"/>
@@ -6902,10 +5274,1638 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I41"/>
     <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.15748031496062992" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="116" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="116" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="116" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="116" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="116" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="116" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="116" customWidth="1"/>
+    <col min="10" max="10" width="10" style="116" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="116" customWidth="1"/>
+    <col min="12" max="256" width="7.125" style="116"/>
+    <col min="257" max="257" width="4.75" style="116" customWidth="1"/>
+    <col min="258" max="258" width="16.75" style="116" customWidth="1"/>
+    <col min="259" max="259" width="7.625" style="116" customWidth="1"/>
+    <col min="260" max="260" width="7.375" style="116" customWidth="1"/>
+    <col min="261" max="261" width="4.875" style="116" customWidth="1"/>
+    <col min="262" max="262" width="18.875" style="116" customWidth="1"/>
+    <col min="263" max="263" width="4.625" style="116" customWidth="1"/>
+    <col min="264" max="264" width="5.125" style="116" customWidth="1"/>
+    <col min="265" max="265" width="10.125" style="116" customWidth="1"/>
+    <col min="266" max="266" width="10" style="116" customWidth="1"/>
+    <col min="267" max="267" width="18.875" style="116" customWidth="1"/>
+    <col min="268" max="512" width="7.125" style="116"/>
+    <col min="513" max="513" width="4.75" style="116" customWidth="1"/>
+    <col min="514" max="514" width="16.75" style="116" customWidth="1"/>
+    <col min="515" max="515" width="7.625" style="116" customWidth="1"/>
+    <col min="516" max="516" width="7.375" style="116" customWidth="1"/>
+    <col min="517" max="517" width="4.875" style="116" customWidth="1"/>
+    <col min="518" max="518" width="18.875" style="116" customWidth="1"/>
+    <col min="519" max="519" width="4.625" style="116" customWidth="1"/>
+    <col min="520" max="520" width="5.125" style="116" customWidth="1"/>
+    <col min="521" max="521" width="10.125" style="116" customWidth="1"/>
+    <col min="522" max="522" width="10" style="116" customWidth="1"/>
+    <col min="523" max="523" width="18.875" style="116" customWidth="1"/>
+    <col min="524" max="768" width="7.125" style="116"/>
+    <col min="769" max="769" width="4.75" style="116" customWidth="1"/>
+    <col min="770" max="770" width="16.75" style="116" customWidth="1"/>
+    <col min="771" max="771" width="7.625" style="116" customWidth="1"/>
+    <col min="772" max="772" width="7.375" style="116" customWidth="1"/>
+    <col min="773" max="773" width="4.875" style="116" customWidth="1"/>
+    <col min="774" max="774" width="18.875" style="116" customWidth="1"/>
+    <col min="775" max="775" width="4.625" style="116" customWidth="1"/>
+    <col min="776" max="776" width="5.125" style="116" customWidth="1"/>
+    <col min="777" max="777" width="10.125" style="116" customWidth="1"/>
+    <col min="778" max="778" width="10" style="116" customWidth="1"/>
+    <col min="779" max="779" width="18.875" style="116" customWidth="1"/>
+    <col min="780" max="1024" width="7.125" style="116"/>
+    <col min="1025" max="1025" width="4.75" style="116" customWidth="1"/>
+    <col min="1026" max="1026" width="16.75" style="116" customWidth="1"/>
+    <col min="1027" max="1027" width="7.625" style="116" customWidth="1"/>
+    <col min="1028" max="1028" width="7.375" style="116" customWidth="1"/>
+    <col min="1029" max="1029" width="4.875" style="116" customWidth="1"/>
+    <col min="1030" max="1030" width="18.875" style="116" customWidth="1"/>
+    <col min="1031" max="1031" width="4.625" style="116" customWidth="1"/>
+    <col min="1032" max="1032" width="5.125" style="116" customWidth="1"/>
+    <col min="1033" max="1033" width="10.125" style="116" customWidth="1"/>
+    <col min="1034" max="1034" width="10" style="116" customWidth="1"/>
+    <col min="1035" max="1035" width="18.875" style="116" customWidth="1"/>
+    <col min="1036" max="1280" width="7.125" style="116"/>
+    <col min="1281" max="1281" width="4.75" style="116" customWidth="1"/>
+    <col min="1282" max="1282" width="16.75" style="116" customWidth="1"/>
+    <col min="1283" max="1283" width="7.625" style="116" customWidth="1"/>
+    <col min="1284" max="1284" width="7.375" style="116" customWidth="1"/>
+    <col min="1285" max="1285" width="4.875" style="116" customWidth="1"/>
+    <col min="1286" max="1286" width="18.875" style="116" customWidth="1"/>
+    <col min="1287" max="1287" width="4.625" style="116" customWidth="1"/>
+    <col min="1288" max="1288" width="5.125" style="116" customWidth="1"/>
+    <col min="1289" max="1289" width="10.125" style="116" customWidth="1"/>
+    <col min="1290" max="1290" width="10" style="116" customWidth="1"/>
+    <col min="1291" max="1291" width="18.875" style="116" customWidth="1"/>
+    <col min="1292" max="1536" width="7.125" style="116"/>
+    <col min="1537" max="1537" width="4.75" style="116" customWidth="1"/>
+    <col min="1538" max="1538" width="16.75" style="116" customWidth="1"/>
+    <col min="1539" max="1539" width="7.625" style="116" customWidth="1"/>
+    <col min="1540" max="1540" width="7.375" style="116" customWidth="1"/>
+    <col min="1541" max="1541" width="4.875" style="116" customWidth="1"/>
+    <col min="1542" max="1542" width="18.875" style="116" customWidth="1"/>
+    <col min="1543" max="1543" width="4.625" style="116" customWidth="1"/>
+    <col min="1544" max="1544" width="5.125" style="116" customWidth="1"/>
+    <col min="1545" max="1545" width="10.125" style="116" customWidth="1"/>
+    <col min="1546" max="1546" width="10" style="116" customWidth="1"/>
+    <col min="1547" max="1547" width="18.875" style="116" customWidth="1"/>
+    <col min="1548" max="1792" width="7.125" style="116"/>
+    <col min="1793" max="1793" width="4.75" style="116" customWidth="1"/>
+    <col min="1794" max="1794" width="16.75" style="116" customWidth="1"/>
+    <col min="1795" max="1795" width="7.625" style="116" customWidth="1"/>
+    <col min="1796" max="1796" width="7.375" style="116" customWidth="1"/>
+    <col min="1797" max="1797" width="4.875" style="116" customWidth="1"/>
+    <col min="1798" max="1798" width="18.875" style="116" customWidth="1"/>
+    <col min="1799" max="1799" width="4.625" style="116" customWidth="1"/>
+    <col min="1800" max="1800" width="5.125" style="116" customWidth="1"/>
+    <col min="1801" max="1801" width="10.125" style="116" customWidth="1"/>
+    <col min="1802" max="1802" width="10" style="116" customWidth="1"/>
+    <col min="1803" max="1803" width="18.875" style="116" customWidth="1"/>
+    <col min="1804" max="2048" width="7.125" style="116"/>
+    <col min="2049" max="2049" width="4.75" style="116" customWidth="1"/>
+    <col min="2050" max="2050" width="16.75" style="116" customWidth="1"/>
+    <col min="2051" max="2051" width="7.625" style="116" customWidth="1"/>
+    <col min="2052" max="2052" width="7.375" style="116" customWidth="1"/>
+    <col min="2053" max="2053" width="4.875" style="116" customWidth="1"/>
+    <col min="2054" max="2054" width="18.875" style="116" customWidth="1"/>
+    <col min="2055" max="2055" width="4.625" style="116" customWidth="1"/>
+    <col min="2056" max="2056" width="5.125" style="116" customWidth="1"/>
+    <col min="2057" max="2057" width="10.125" style="116" customWidth="1"/>
+    <col min="2058" max="2058" width="10" style="116" customWidth="1"/>
+    <col min="2059" max="2059" width="18.875" style="116" customWidth="1"/>
+    <col min="2060" max="2304" width="7.125" style="116"/>
+    <col min="2305" max="2305" width="4.75" style="116" customWidth="1"/>
+    <col min="2306" max="2306" width="16.75" style="116" customWidth="1"/>
+    <col min="2307" max="2307" width="7.625" style="116" customWidth="1"/>
+    <col min="2308" max="2308" width="7.375" style="116" customWidth="1"/>
+    <col min="2309" max="2309" width="4.875" style="116" customWidth="1"/>
+    <col min="2310" max="2310" width="18.875" style="116" customWidth="1"/>
+    <col min="2311" max="2311" width="4.625" style="116" customWidth="1"/>
+    <col min="2312" max="2312" width="5.125" style="116" customWidth="1"/>
+    <col min="2313" max="2313" width="10.125" style="116" customWidth="1"/>
+    <col min="2314" max="2314" width="10" style="116" customWidth="1"/>
+    <col min="2315" max="2315" width="18.875" style="116" customWidth="1"/>
+    <col min="2316" max="2560" width="7.125" style="116"/>
+    <col min="2561" max="2561" width="4.75" style="116" customWidth="1"/>
+    <col min="2562" max="2562" width="16.75" style="116" customWidth="1"/>
+    <col min="2563" max="2563" width="7.625" style="116" customWidth="1"/>
+    <col min="2564" max="2564" width="7.375" style="116" customWidth="1"/>
+    <col min="2565" max="2565" width="4.875" style="116" customWidth="1"/>
+    <col min="2566" max="2566" width="18.875" style="116" customWidth="1"/>
+    <col min="2567" max="2567" width="4.625" style="116" customWidth="1"/>
+    <col min="2568" max="2568" width="5.125" style="116" customWidth="1"/>
+    <col min="2569" max="2569" width="10.125" style="116" customWidth="1"/>
+    <col min="2570" max="2570" width="10" style="116" customWidth="1"/>
+    <col min="2571" max="2571" width="18.875" style="116" customWidth="1"/>
+    <col min="2572" max="2816" width="7.125" style="116"/>
+    <col min="2817" max="2817" width="4.75" style="116" customWidth="1"/>
+    <col min="2818" max="2818" width="16.75" style="116" customWidth="1"/>
+    <col min="2819" max="2819" width="7.625" style="116" customWidth="1"/>
+    <col min="2820" max="2820" width="7.375" style="116" customWidth="1"/>
+    <col min="2821" max="2821" width="4.875" style="116" customWidth="1"/>
+    <col min="2822" max="2822" width="18.875" style="116" customWidth="1"/>
+    <col min="2823" max="2823" width="4.625" style="116" customWidth="1"/>
+    <col min="2824" max="2824" width="5.125" style="116" customWidth="1"/>
+    <col min="2825" max="2825" width="10.125" style="116" customWidth="1"/>
+    <col min="2826" max="2826" width="10" style="116" customWidth="1"/>
+    <col min="2827" max="2827" width="18.875" style="116" customWidth="1"/>
+    <col min="2828" max="3072" width="7.125" style="116"/>
+    <col min="3073" max="3073" width="4.75" style="116" customWidth="1"/>
+    <col min="3074" max="3074" width="16.75" style="116" customWidth="1"/>
+    <col min="3075" max="3075" width="7.625" style="116" customWidth="1"/>
+    <col min="3076" max="3076" width="7.375" style="116" customWidth="1"/>
+    <col min="3077" max="3077" width="4.875" style="116" customWidth="1"/>
+    <col min="3078" max="3078" width="18.875" style="116" customWidth="1"/>
+    <col min="3079" max="3079" width="4.625" style="116" customWidth="1"/>
+    <col min="3080" max="3080" width="5.125" style="116" customWidth="1"/>
+    <col min="3081" max="3081" width="10.125" style="116" customWidth="1"/>
+    <col min="3082" max="3082" width="10" style="116" customWidth="1"/>
+    <col min="3083" max="3083" width="18.875" style="116" customWidth="1"/>
+    <col min="3084" max="3328" width="7.125" style="116"/>
+    <col min="3329" max="3329" width="4.75" style="116" customWidth="1"/>
+    <col min="3330" max="3330" width="16.75" style="116" customWidth="1"/>
+    <col min="3331" max="3331" width="7.625" style="116" customWidth="1"/>
+    <col min="3332" max="3332" width="7.375" style="116" customWidth="1"/>
+    <col min="3333" max="3333" width="4.875" style="116" customWidth="1"/>
+    <col min="3334" max="3334" width="18.875" style="116" customWidth="1"/>
+    <col min="3335" max="3335" width="4.625" style="116" customWidth="1"/>
+    <col min="3336" max="3336" width="5.125" style="116" customWidth="1"/>
+    <col min="3337" max="3337" width="10.125" style="116" customWidth="1"/>
+    <col min="3338" max="3338" width="10" style="116" customWidth="1"/>
+    <col min="3339" max="3339" width="18.875" style="116" customWidth="1"/>
+    <col min="3340" max="3584" width="7.125" style="116"/>
+    <col min="3585" max="3585" width="4.75" style="116" customWidth="1"/>
+    <col min="3586" max="3586" width="16.75" style="116" customWidth="1"/>
+    <col min="3587" max="3587" width="7.625" style="116" customWidth="1"/>
+    <col min="3588" max="3588" width="7.375" style="116" customWidth="1"/>
+    <col min="3589" max="3589" width="4.875" style="116" customWidth="1"/>
+    <col min="3590" max="3590" width="18.875" style="116" customWidth="1"/>
+    <col min="3591" max="3591" width="4.625" style="116" customWidth="1"/>
+    <col min="3592" max="3592" width="5.125" style="116" customWidth="1"/>
+    <col min="3593" max="3593" width="10.125" style="116" customWidth="1"/>
+    <col min="3594" max="3594" width="10" style="116" customWidth="1"/>
+    <col min="3595" max="3595" width="18.875" style="116" customWidth="1"/>
+    <col min="3596" max="3840" width="7.125" style="116"/>
+    <col min="3841" max="3841" width="4.75" style="116" customWidth="1"/>
+    <col min="3842" max="3842" width="16.75" style="116" customWidth="1"/>
+    <col min="3843" max="3843" width="7.625" style="116" customWidth="1"/>
+    <col min="3844" max="3844" width="7.375" style="116" customWidth="1"/>
+    <col min="3845" max="3845" width="4.875" style="116" customWidth="1"/>
+    <col min="3846" max="3846" width="18.875" style="116" customWidth="1"/>
+    <col min="3847" max="3847" width="4.625" style="116" customWidth="1"/>
+    <col min="3848" max="3848" width="5.125" style="116" customWidth="1"/>
+    <col min="3849" max="3849" width="10.125" style="116" customWidth="1"/>
+    <col min="3850" max="3850" width="10" style="116" customWidth="1"/>
+    <col min="3851" max="3851" width="18.875" style="116" customWidth="1"/>
+    <col min="3852" max="4096" width="7.125" style="116"/>
+    <col min="4097" max="4097" width="4.75" style="116" customWidth="1"/>
+    <col min="4098" max="4098" width="16.75" style="116" customWidth="1"/>
+    <col min="4099" max="4099" width="7.625" style="116" customWidth="1"/>
+    <col min="4100" max="4100" width="7.375" style="116" customWidth="1"/>
+    <col min="4101" max="4101" width="4.875" style="116" customWidth="1"/>
+    <col min="4102" max="4102" width="18.875" style="116" customWidth="1"/>
+    <col min="4103" max="4103" width="4.625" style="116" customWidth="1"/>
+    <col min="4104" max="4104" width="5.125" style="116" customWidth="1"/>
+    <col min="4105" max="4105" width="10.125" style="116" customWidth="1"/>
+    <col min="4106" max="4106" width="10" style="116" customWidth="1"/>
+    <col min="4107" max="4107" width="18.875" style="116" customWidth="1"/>
+    <col min="4108" max="4352" width="7.125" style="116"/>
+    <col min="4353" max="4353" width="4.75" style="116" customWidth="1"/>
+    <col min="4354" max="4354" width="16.75" style="116" customWidth="1"/>
+    <col min="4355" max="4355" width="7.625" style="116" customWidth="1"/>
+    <col min="4356" max="4356" width="7.375" style="116" customWidth="1"/>
+    <col min="4357" max="4357" width="4.875" style="116" customWidth="1"/>
+    <col min="4358" max="4358" width="18.875" style="116" customWidth="1"/>
+    <col min="4359" max="4359" width="4.625" style="116" customWidth="1"/>
+    <col min="4360" max="4360" width="5.125" style="116" customWidth="1"/>
+    <col min="4361" max="4361" width="10.125" style="116" customWidth="1"/>
+    <col min="4362" max="4362" width="10" style="116" customWidth="1"/>
+    <col min="4363" max="4363" width="18.875" style="116" customWidth="1"/>
+    <col min="4364" max="4608" width="7.125" style="116"/>
+    <col min="4609" max="4609" width="4.75" style="116" customWidth="1"/>
+    <col min="4610" max="4610" width="16.75" style="116" customWidth="1"/>
+    <col min="4611" max="4611" width="7.625" style="116" customWidth="1"/>
+    <col min="4612" max="4612" width="7.375" style="116" customWidth="1"/>
+    <col min="4613" max="4613" width="4.875" style="116" customWidth="1"/>
+    <col min="4614" max="4614" width="18.875" style="116" customWidth="1"/>
+    <col min="4615" max="4615" width="4.625" style="116" customWidth="1"/>
+    <col min="4616" max="4616" width="5.125" style="116" customWidth="1"/>
+    <col min="4617" max="4617" width="10.125" style="116" customWidth="1"/>
+    <col min="4618" max="4618" width="10" style="116" customWidth="1"/>
+    <col min="4619" max="4619" width="18.875" style="116" customWidth="1"/>
+    <col min="4620" max="4864" width="7.125" style="116"/>
+    <col min="4865" max="4865" width="4.75" style="116" customWidth="1"/>
+    <col min="4866" max="4866" width="16.75" style="116" customWidth="1"/>
+    <col min="4867" max="4867" width="7.625" style="116" customWidth="1"/>
+    <col min="4868" max="4868" width="7.375" style="116" customWidth="1"/>
+    <col min="4869" max="4869" width="4.875" style="116" customWidth="1"/>
+    <col min="4870" max="4870" width="18.875" style="116" customWidth="1"/>
+    <col min="4871" max="4871" width="4.625" style="116" customWidth="1"/>
+    <col min="4872" max="4872" width="5.125" style="116" customWidth="1"/>
+    <col min="4873" max="4873" width="10.125" style="116" customWidth="1"/>
+    <col min="4874" max="4874" width="10" style="116" customWidth="1"/>
+    <col min="4875" max="4875" width="18.875" style="116" customWidth="1"/>
+    <col min="4876" max="5120" width="7.125" style="116"/>
+    <col min="5121" max="5121" width="4.75" style="116" customWidth="1"/>
+    <col min="5122" max="5122" width="16.75" style="116" customWidth="1"/>
+    <col min="5123" max="5123" width="7.625" style="116" customWidth="1"/>
+    <col min="5124" max="5124" width="7.375" style="116" customWidth="1"/>
+    <col min="5125" max="5125" width="4.875" style="116" customWidth="1"/>
+    <col min="5126" max="5126" width="18.875" style="116" customWidth="1"/>
+    <col min="5127" max="5127" width="4.625" style="116" customWidth="1"/>
+    <col min="5128" max="5128" width="5.125" style="116" customWidth="1"/>
+    <col min="5129" max="5129" width="10.125" style="116" customWidth="1"/>
+    <col min="5130" max="5130" width="10" style="116" customWidth="1"/>
+    <col min="5131" max="5131" width="18.875" style="116" customWidth="1"/>
+    <col min="5132" max="5376" width="7.125" style="116"/>
+    <col min="5377" max="5377" width="4.75" style="116" customWidth="1"/>
+    <col min="5378" max="5378" width="16.75" style="116" customWidth="1"/>
+    <col min="5379" max="5379" width="7.625" style="116" customWidth="1"/>
+    <col min="5380" max="5380" width="7.375" style="116" customWidth="1"/>
+    <col min="5381" max="5381" width="4.875" style="116" customWidth="1"/>
+    <col min="5382" max="5382" width="18.875" style="116" customWidth="1"/>
+    <col min="5383" max="5383" width="4.625" style="116" customWidth="1"/>
+    <col min="5384" max="5384" width="5.125" style="116" customWidth="1"/>
+    <col min="5385" max="5385" width="10.125" style="116" customWidth="1"/>
+    <col min="5386" max="5386" width="10" style="116" customWidth="1"/>
+    <col min="5387" max="5387" width="18.875" style="116" customWidth="1"/>
+    <col min="5388" max="5632" width="7.125" style="116"/>
+    <col min="5633" max="5633" width="4.75" style="116" customWidth="1"/>
+    <col min="5634" max="5634" width="16.75" style="116" customWidth="1"/>
+    <col min="5635" max="5635" width="7.625" style="116" customWidth="1"/>
+    <col min="5636" max="5636" width="7.375" style="116" customWidth="1"/>
+    <col min="5637" max="5637" width="4.875" style="116" customWidth="1"/>
+    <col min="5638" max="5638" width="18.875" style="116" customWidth="1"/>
+    <col min="5639" max="5639" width="4.625" style="116" customWidth="1"/>
+    <col min="5640" max="5640" width="5.125" style="116" customWidth="1"/>
+    <col min="5641" max="5641" width="10.125" style="116" customWidth="1"/>
+    <col min="5642" max="5642" width="10" style="116" customWidth="1"/>
+    <col min="5643" max="5643" width="18.875" style="116" customWidth="1"/>
+    <col min="5644" max="5888" width="7.125" style="116"/>
+    <col min="5889" max="5889" width="4.75" style="116" customWidth="1"/>
+    <col min="5890" max="5890" width="16.75" style="116" customWidth="1"/>
+    <col min="5891" max="5891" width="7.625" style="116" customWidth="1"/>
+    <col min="5892" max="5892" width="7.375" style="116" customWidth="1"/>
+    <col min="5893" max="5893" width="4.875" style="116" customWidth="1"/>
+    <col min="5894" max="5894" width="18.875" style="116" customWidth="1"/>
+    <col min="5895" max="5895" width="4.625" style="116" customWidth="1"/>
+    <col min="5896" max="5896" width="5.125" style="116" customWidth="1"/>
+    <col min="5897" max="5897" width="10.125" style="116" customWidth="1"/>
+    <col min="5898" max="5898" width="10" style="116" customWidth="1"/>
+    <col min="5899" max="5899" width="18.875" style="116" customWidth="1"/>
+    <col min="5900" max="6144" width="7.125" style="116"/>
+    <col min="6145" max="6145" width="4.75" style="116" customWidth="1"/>
+    <col min="6146" max="6146" width="16.75" style="116" customWidth="1"/>
+    <col min="6147" max="6147" width="7.625" style="116" customWidth="1"/>
+    <col min="6148" max="6148" width="7.375" style="116" customWidth="1"/>
+    <col min="6149" max="6149" width="4.875" style="116" customWidth="1"/>
+    <col min="6150" max="6150" width="18.875" style="116" customWidth="1"/>
+    <col min="6151" max="6151" width="4.625" style="116" customWidth="1"/>
+    <col min="6152" max="6152" width="5.125" style="116" customWidth="1"/>
+    <col min="6153" max="6153" width="10.125" style="116" customWidth="1"/>
+    <col min="6154" max="6154" width="10" style="116" customWidth="1"/>
+    <col min="6155" max="6155" width="18.875" style="116" customWidth="1"/>
+    <col min="6156" max="6400" width="7.125" style="116"/>
+    <col min="6401" max="6401" width="4.75" style="116" customWidth="1"/>
+    <col min="6402" max="6402" width="16.75" style="116" customWidth="1"/>
+    <col min="6403" max="6403" width="7.625" style="116" customWidth="1"/>
+    <col min="6404" max="6404" width="7.375" style="116" customWidth="1"/>
+    <col min="6405" max="6405" width="4.875" style="116" customWidth="1"/>
+    <col min="6406" max="6406" width="18.875" style="116" customWidth="1"/>
+    <col min="6407" max="6407" width="4.625" style="116" customWidth="1"/>
+    <col min="6408" max="6408" width="5.125" style="116" customWidth="1"/>
+    <col min="6409" max="6409" width="10.125" style="116" customWidth="1"/>
+    <col min="6410" max="6410" width="10" style="116" customWidth="1"/>
+    <col min="6411" max="6411" width="18.875" style="116" customWidth="1"/>
+    <col min="6412" max="6656" width="7.125" style="116"/>
+    <col min="6657" max="6657" width="4.75" style="116" customWidth="1"/>
+    <col min="6658" max="6658" width="16.75" style="116" customWidth="1"/>
+    <col min="6659" max="6659" width="7.625" style="116" customWidth="1"/>
+    <col min="6660" max="6660" width="7.375" style="116" customWidth="1"/>
+    <col min="6661" max="6661" width="4.875" style="116" customWidth="1"/>
+    <col min="6662" max="6662" width="18.875" style="116" customWidth="1"/>
+    <col min="6663" max="6663" width="4.625" style="116" customWidth="1"/>
+    <col min="6664" max="6664" width="5.125" style="116" customWidth="1"/>
+    <col min="6665" max="6665" width="10.125" style="116" customWidth="1"/>
+    <col min="6666" max="6666" width="10" style="116" customWidth="1"/>
+    <col min="6667" max="6667" width="18.875" style="116" customWidth="1"/>
+    <col min="6668" max="6912" width="7.125" style="116"/>
+    <col min="6913" max="6913" width="4.75" style="116" customWidth="1"/>
+    <col min="6914" max="6914" width="16.75" style="116" customWidth="1"/>
+    <col min="6915" max="6915" width="7.625" style="116" customWidth="1"/>
+    <col min="6916" max="6916" width="7.375" style="116" customWidth="1"/>
+    <col min="6917" max="6917" width="4.875" style="116" customWidth="1"/>
+    <col min="6918" max="6918" width="18.875" style="116" customWidth="1"/>
+    <col min="6919" max="6919" width="4.625" style="116" customWidth="1"/>
+    <col min="6920" max="6920" width="5.125" style="116" customWidth="1"/>
+    <col min="6921" max="6921" width="10.125" style="116" customWidth="1"/>
+    <col min="6922" max="6922" width="10" style="116" customWidth="1"/>
+    <col min="6923" max="6923" width="18.875" style="116" customWidth="1"/>
+    <col min="6924" max="7168" width="7.125" style="116"/>
+    <col min="7169" max="7169" width="4.75" style="116" customWidth="1"/>
+    <col min="7170" max="7170" width="16.75" style="116" customWidth="1"/>
+    <col min="7171" max="7171" width="7.625" style="116" customWidth="1"/>
+    <col min="7172" max="7172" width="7.375" style="116" customWidth="1"/>
+    <col min="7173" max="7173" width="4.875" style="116" customWidth="1"/>
+    <col min="7174" max="7174" width="18.875" style="116" customWidth="1"/>
+    <col min="7175" max="7175" width="4.625" style="116" customWidth="1"/>
+    <col min="7176" max="7176" width="5.125" style="116" customWidth="1"/>
+    <col min="7177" max="7177" width="10.125" style="116" customWidth="1"/>
+    <col min="7178" max="7178" width="10" style="116" customWidth="1"/>
+    <col min="7179" max="7179" width="18.875" style="116" customWidth="1"/>
+    <col min="7180" max="7424" width="7.125" style="116"/>
+    <col min="7425" max="7425" width="4.75" style="116" customWidth="1"/>
+    <col min="7426" max="7426" width="16.75" style="116" customWidth="1"/>
+    <col min="7427" max="7427" width="7.625" style="116" customWidth="1"/>
+    <col min="7428" max="7428" width="7.375" style="116" customWidth="1"/>
+    <col min="7429" max="7429" width="4.875" style="116" customWidth="1"/>
+    <col min="7430" max="7430" width="18.875" style="116" customWidth="1"/>
+    <col min="7431" max="7431" width="4.625" style="116" customWidth="1"/>
+    <col min="7432" max="7432" width="5.125" style="116" customWidth="1"/>
+    <col min="7433" max="7433" width="10.125" style="116" customWidth="1"/>
+    <col min="7434" max="7434" width="10" style="116" customWidth="1"/>
+    <col min="7435" max="7435" width="18.875" style="116" customWidth="1"/>
+    <col min="7436" max="7680" width="7.125" style="116"/>
+    <col min="7681" max="7681" width="4.75" style="116" customWidth="1"/>
+    <col min="7682" max="7682" width="16.75" style="116" customWidth="1"/>
+    <col min="7683" max="7683" width="7.625" style="116" customWidth="1"/>
+    <col min="7684" max="7684" width="7.375" style="116" customWidth="1"/>
+    <col min="7685" max="7685" width="4.875" style="116" customWidth="1"/>
+    <col min="7686" max="7686" width="18.875" style="116" customWidth="1"/>
+    <col min="7687" max="7687" width="4.625" style="116" customWidth="1"/>
+    <col min="7688" max="7688" width="5.125" style="116" customWidth="1"/>
+    <col min="7689" max="7689" width="10.125" style="116" customWidth="1"/>
+    <col min="7690" max="7690" width="10" style="116" customWidth="1"/>
+    <col min="7691" max="7691" width="18.875" style="116" customWidth="1"/>
+    <col min="7692" max="7936" width="7.125" style="116"/>
+    <col min="7937" max="7937" width="4.75" style="116" customWidth="1"/>
+    <col min="7938" max="7938" width="16.75" style="116" customWidth="1"/>
+    <col min="7939" max="7939" width="7.625" style="116" customWidth="1"/>
+    <col min="7940" max="7940" width="7.375" style="116" customWidth="1"/>
+    <col min="7941" max="7941" width="4.875" style="116" customWidth="1"/>
+    <col min="7942" max="7942" width="18.875" style="116" customWidth="1"/>
+    <col min="7943" max="7943" width="4.625" style="116" customWidth="1"/>
+    <col min="7944" max="7944" width="5.125" style="116" customWidth="1"/>
+    <col min="7945" max="7945" width="10.125" style="116" customWidth="1"/>
+    <col min="7946" max="7946" width="10" style="116" customWidth="1"/>
+    <col min="7947" max="7947" width="18.875" style="116" customWidth="1"/>
+    <col min="7948" max="8192" width="7.125" style="116"/>
+    <col min="8193" max="8193" width="4.75" style="116" customWidth="1"/>
+    <col min="8194" max="8194" width="16.75" style="116" customWidth="1"/>
+    <col min="8195" max="8195" width="7.625" style="116" customWidth="1"/>
+    <col min="8196" max="8196" width="7.375" style="116" customWidth="1"/>
+    <col min="8197" max="8197" width="4.875" style="116" customWidth="1"/>
+    <col min="8198" max="8198" width="18.875" style="116" customWidth="1"/>
+    <col min="8199" max="8199" width="4.625" style="116" customWidth="1"/>
+    <col min="8200" max="8200" width="5.125" style="116" customWidth="1"/>
+    <col min="8201" max="8201" width="10.125" style="116" customWidth="1"/>
+    <col min="8202" max="8202" width="10" style="116" customWidth="1"/>
+    <col min="8203" max="8203" width="18.875" style="116" customWidth="1"/>
+    <col min="8204" max="8448" width="7.125" style="116"/>
+    <col min="8449" max="8449" width="4.75" style="116" customWidth="1"/>
+    <col min="8450" max="8450" width="16.75" style="116" customWidth="1"/>
+    <col min="8451" max="8451" width="7.625" style="116" customWidth="1"/>
+    <col min="8452" max="8452" width="7.375" style="116" customWidth="1"/>
+    <col min="8453" max="8453" width="4.875" style="116" customWidth="1"/>
+    <col min="8454" max="8454" width="18.875" style="116" customWidth="1"/>
+    <col min="8455" max="8455" width="4.625" style="116" customWidth="1"/>
+    <col min="8456" max="8456" width="5.125" style="116" customWidth="1"/>
+    <col min="8457" max="8457" width="10.125" style="116" customWidth="1"/>
+    <col min="8458" max="8458" width="10" style="116" customWidth="1"/>
+    <col min="8459" max="8459" width="18.875" style="116" customWidth="1"/>
+    <col min="8460" max="8704" width="7.125" style="116"/>
+    <col min="8705" max="8705" width="4.75" style="116" customWidth="1"/>
+    <col min="8706" max="8706" width="16.75" style="116" customWidth="1"/>
+    <col min="8707" max="8707" width="7.625" style="116" customWidth="1"/>
+    <col min="8708" max="8708" width="7.375" style="116" customWidth="1"/>
+    <col min="8709" max="8709" width="4.875" style="116" customWidth="1"/>
+    <col min="8710" max="8710" width="18.875" style="116" customWidth="1"/>
+    <col min="8711" max="8711" width="4.625" style="116" customWidth="1"/>
+    <col min="8712" max="8712" width="5.125" style="116" customWidth="1"/>
+    <col min="8713" max="8713" width="10.125" style="116" customWidth="1"/>
+    <col min="8714" max="8714" width="10" style="116" customWidth="1"/>
+    <col min="8715" max="8715" width="18.875" style="116" customWidth="1"/>
+    <col min="8716" max="8960" width="7.125" style="116"/>
+    <col min="8961" max="8961" width="4.75" style="116" customWidth="1"/>
+    <col min="8962" max="8962" width="16.75" style="116" customWidth="1"/>
+    <col min="8963" max="8963" width="7.625" style="116" customWidth="1"/>
+    <col min="8964" max="8964" width="7.375" style="116" customWidth="1"/>
+    <col min="8965" max="8965" width="4.875" style="116" customWidth="1"/>
+    <col min="8966" max="8966" width="18.875" style="116" customWidth="1"/>
+    <col min="8967" max="8967" width="4.625" style="116" customWidth="1"/>
+    <col min="8968" max="8968" width="5.125" style="116" customWidth="1"/>
+    <col min="8969" max="8969" width="10.125" style="116" customWidth="1"/>
+    <col min="8970" max="8970" width="10" style="116" customWidth="1"/>
+    <col min="8971" max="8971" width="18.875" style="116" customWidth="1"/>
+    <col min="8972" max="9216" width="7.125" style="116"/>
+    <col min="9217" max="9217" width="4.75" style="116" customWidth="1"/>
+    <col min="9218" max="9218" width="16.75" style="116" customWidth="1"/>
+    <col min="9219" max="9219" width="7.625" style="116" customWidth="1"/>
+    <col min="9220" max="9220" width="7.375" style="116" customWidth="1"/>
+    <col min="9221" max="9221" width="4.875" style="116" customWidth="1"/>
+    <col min="9222" max="9222" width="18.875" style="116" customWidth="1"/>
+    <col min="9223" max="9223" width="4.625" style="116" customWidth="1"/>
+    <col min="9224" max="9224" width="5.125" style="116" customWidth="1"/>
+    <col min="9225" max="9225" width="10.125" style="116" customWidth="1"/>
+    <col min="9226" max="9226" width="10" style="116" customWidth="1"/>
+    <col min="9227" max="9227" width="18.875" style="116" customWidth="1"/>
+    <col min="9228" max="9472" width="7.125" style="116"/>
+    <col min="9473" max="9473" width="4.75" style="116" customWidth="1"/>
+    <col min="9474" max="9474" width="16.75" style="116" customWidth="1"/>
+    <col min="9475" max="9475" width="7.625" style="116" customWidth="1"/>
+    <col min="9476" max="9476" width="7.375" style="116" customWidth="1"/>
+    <col min="9477" max="9477" width="4.875" style="116" customWidth="1"/>
+    <col min="9478" max="9478" width="18.875" style="116" customWidth="1"/>
+    <col min="9479" max="9479" width="4.625" style="116" customWidth="1"/>
+    <col min="9480" max="9480" width="5.125" style="116" customWidth="1"/>
+    <col min="9481" max="9481" width="10.125" style="116" customWidth="1"/>
+    <col min="9482" max="9482" width="10" style="116" customWidth="1"/>
+    <col min="9483" max="9483" width="18.875" style="116" customWidth="1"/>
+    <col min="9484" max="9728" width="7.125" style="116"/>
+    <col min="9729" max="9729" width="4.75" style="116" customWidth="1"/>
+    <col min="9730" max="9730" width="16.75" style="116" customWidth="1"/>
+    <col min="9731" max="9731" width="7.625" style="116" customWidth="1"/>
+    <col min="9732" max="9732" width="7.375" style="116" customWidth="1"/>
+    <col min="9733" max="9733" width="4.875" style="116" customWidth="1"/>
+    <col min="9734" max="9734" width="18.875" style="116" customWidth="1"/>
+    <col min="9735" max="9735" width="4.625" style="116" customWidth="1"/>
+    <col min="9736" max="9736" width="5.125" style="116" customWidth="1"/>
+    <col min="9737" max="9737" width="10.125" style="116" customWidth="1"/>
+    <col min="9738" max="9738" width="10" style="116" customWidth="1"/>
+    <col min="9739" max="9739" width="18.875" style="116" customWidth="1"/>
+    <col min="9740" max="9984" width="7.125" style="116"/>
+    <col min="9985" max="9985" width="4.75" style="116" customWidth="1"/>
+    <col min="9986" max="9986" width="16.75" style="116" customWidth="1"/>
+    <col min="9987" max="9987" width="7.625" style="116" customWidth="1"/>
+    <col min="9988" max="9988" width="7.375" style="116" customWidth="1"/>
+    <col min="9989" max="9989" width="4.875" style="116" customWidth="1"/>
+    <col min="9990" max="9990" width="18.875" style="116" customWidth="1"/>
+    <col min="9991" max="9991" width="4.625" style="116" customWidth="1"/>
+    <col min="9992" max="9992" width="5.125" style="116" customWidth="1"/>
+    <col min="9993" max="9993" width="10.125" style="116" customWidth="1"/>
+    <col min="9994" max="9994" width="10" style="116" customWidth="1"/>
+    <col min="9995" max="9995" width="18.875" style="116" customWidth="1"/>
+    <col min="9996" max="10240" width="7.125" style="116"/>
+    <col min="10241" max="10241" width="4.75" style="116" customWidth="1"/>
+    <col min="10242" max="10242" width="16.75" style="116" customWidth="1"/>
+    <col min="10243" max="10243" width="7.625" style="116" customWidth="1"/>
+    <col min="10244" max="10244" width="7.375" style="116" customWidth="1"/>
+    <col min="10245" max="10245" width="4.875" style="116" customWidth="1"/>
+    <col min="10246" max="10246" width="18.875" style="116" customWidth="1"/>
+    <col min="10247" max="10247" width="4.625" style="116" customWidth="1"/>
+    <col min="10248" max="10248" width="5.125" style="116" customWidth="1"/>
+    <col min="10249" max="10249" width="10.125" style="116" customWidth="1"/>
+    <col min="10250" max="10250" width="10" style="116" customWidth="1"/>
+    <col min="10251" max="10251" width="18.875" style="116" customWidth="1"/>
+    <col min="10252" max="10496" width="7.125" style="116"/>
+    <col min="10497" max="10497" width="4.75" style="116" customWidth="1"/>
+    <col min="10498" max="10498" width="16.75" style="116" customWidth="1"/>
+    <col min="10499" max="10499" width="7.625" style="116" customWidth="1"/>
+    <col min="10500" max="10500" width="7.375" style="116" customWidth="1"/>
+    <col min="10501" max="10501" width="4.875" style="116" customWidth="1"/>
+    <col min="10502" max="10502" width="18.875" style="116" customWidth="1"/>
+    <col min="10503" max="10503" width="4.625" style="116" customWidth="1"/>
+    <col min="10504" max="10504" width="5.125" style="116" customWidth="1"/>
+    <col min="10505" max="10505" width="10.125" style="116" customWidth="1"/>
+    <col min="10506" max="10506" width="10" style="116" customWidth="1"/>
+    <col min="10507" max="10507" width="18.875" style="116" customWidth="1"/>
+    <col min="10508" max="10752" width="7.125" style="116"/>
+    <col min="10753" max="10753" width="4.75" style="116" customWidth="1"/>
+    <col min="10754" max="10754" width="16.75" style="116" customWidth="1"/>
+    <col min="10755" max="10755" width="7.625" style="116" customWidth="1"/>
+    <col min="10756" max="10756" width="7.375" style="116" customWidth="1"/>
+    <col min="10757" max="10757" width="4.875" style="116" customWidth="1"/>
+    <col min="10758" max="10758" width="18.875" style="116" customWidth="1"/>
+    <col min="10759" max="10759" width="4.625" style="116" customWidth="1"/>
+    <col min="10760" max="10760" width="5.125" style="116" customWidth="1"/>
+    <col min="10761" max="10761" width="10.125" style="116" customWidth="1"/>
+    <col min="10762" max="10762" width="10" style="116" customWidth="1"/>
+    <col min="10763" max="10763" width="18.875" style="116" customWidth="1"/>
+    <col min="10764" max="11008" width="7.125" style="116"/>
+    <col min="11009" max="11009" width="4.75" style="116" customWidth="1"/>
+    <col min="11010" max="11010" width="16.75" style="116" customWidth="1"/>
+    <col min="11011" max="11011" width="7.625" style="116" customWidth="1"/>
+    <col min="11012" max="11012" width="7.375" style="116" customWidth="1"/>
+    <col min="11013" max="11013" width="4.875" style="116" customWidth="1"/>
+    <col min="11014" max="11014" width="18.875" style="116" customWidth="1"/>
+    <col min="11015" max="11015" width="4.625" style="116" customWidth="1"/>
+    <col min="11016" max="11016" width="5.125" style="116" customWidth="1"/>
+    <col min="11017" max="11017" width="10.125" style="116" customWidth="1"/>
+    <col min="11018" max="11018" width="10" style="116" customWidth="1"/>
+    <col min="11019" max="11019" width="18.875" style="116" customWidth="1"/>
+    <col min="11020" max="11264" width="7.125" style="116"/>
+    <col min="11265" max="11265" width="4.75" style="116" customWidth="1"/>
+    <col min="11266" max="11266" width="16.75" style="116" customWidth="1"/>
+    <col min="11267" max="11267" width="7.625" style="116" customWidth="1"/>
+    <col min="11268" max="11268" width="7.375" style="116" customWidth="1"/>
+    <col min="11269" max="11269" width="4.875" style="116" customWidth="1"/>
+    <col min="11270" max="11270" width="18.875" style="116" customWidth="1"/>
+    <col min="11271" max="11271" width="4.625" style="116" customWidth="1"/>
+    <col min="11272" max="11272" width="5.125" style="116" customWidth="1"/>
+    <col min="11273" max="11273" width="10.125" style="116" customWidth="1"/>
+    <col min="11274" max="11274" width="10" style="116" customWidth="1"/>
+    <col min="11275" max="11275" width="18.875" style="116" customWidth="1"/>
+    <col min="11276" max="11520" width="7.125" style="116"/>
+    <col min="11521" max="11521" width="4.75" style="116" customWidth="1"/>
+    <col min="11522" max="11522" width="16.75" style="116" customWidth="1"/>
+    <col min="11523" max="11523" width="7.625" style="116" customWidth="1"/>
+    <col min="11524" max="11524" width="7.375" style="116" customWidth="1"/>
+    <col min="11525" max="11525" width="4.875" style="116" customWidth="1"/>
+    <col min="11526" max="11526" width="18.875" style="116" customWidth="1"/>
+    <col min="11527" max="11527" width="4.625" style="116" customWidth="1"/>
+    <col min="11528" max="11528" width="5.125" style="116" customWidth="1"/>
+    <col min="11529" max="11529" width="10.125" style="116" customWidth="1"/>
+    <col min="11530" max="11530" width="10" style="116" customWidth="1"/>
+    <col min="11531" max="11531" width="18.875" style="116" customWidth="1"/>
+    <col min="11532" max="11776" width="7.125" style="116"/>
+    <col min="11777" max="11777" width="4.75" style="116" customWidth="1"/>
+    <col min="11778" max="11778" width="16.75" style="116" customWidth="1"/>
+    <col min="11779" max="11779" width="7.625" style="116" customWidth="1"/>
+    <col min="11780" max="11780" width="7.375" style="116" customWidth="1"/>
+    <col min="11781" max="11781" width="4.875" style="116" customWidth="1"/>
+    <col min="11782" max="11782" width="18.875" style="116" customWidth="1"/>
+    <col min="11783" max="11783" width="4.625" style="116" customWidth="1"/>
+    <col min="11784" max="11784" width="5.125" style="116" customWidth="1"/>
+    <col min="11785" max="11785" width="10.125" style="116" customWidth="1"/>
+    <col min="11786" max="11786" width="10" style="116" customWidth="1"/>
+    <col min="11787" max="11787" width="18.875" style="116" customWidth="1"/>
+    <col min="11788" max="12032" width="7.125" style="116"/>
+    <col min="12033" max="12033" width="4.75" style="116" customWidth="1"/>
+    <col min="12034" max="12034" width="16.75" style="116" customWidth="1"/>
+    <col min="12035" max="12035" width="7.625" style="116" customWidth="1"/>
+    <col min="12036" max="12036" width="7.375" style="116" customWidth="1"/>
+    <col min="12037" max="12037" width="4.875" style="116" customWidth="1"/>
+    <col min="12038" max="12038" width="18.875" style="116" customWidth="1"/>
+    <col min="12039" max="12039" width="4.625" style="116" customWidth="1"/>
+    <col min="12040" max="12040" width="5.125" style="116" customWidth="1"/>
+    <col min="12041" max="12041" width="10.125" style="116" customWidth="1"/>
+    <col min="12042" max="12042" width="10" style="116" customWidth="1"/>
+    <col min="12043" max="12043" width="18.875" style="116" customWidth="1"/>
+    <col min="12044" max="12288" width="7.125" style="116"/>
+    <col min="12289" max="12289" width="4.75" style="116" customWidth="1"/>
+    <col min="12290" max="12290" width="16.75" style="116" customWidth="1"/>
+    <col min="12291" max="12291" width="7.625" style="116" customWidth="1"/>
+    <col min="12292" max="12292" width="7.375" style="116" customWidth="1"/>
+    <col min="12293" max="12293" width="4.875" style="116" customWidth="1"/>
+    <col min="12294" max="12294" width="18.875" style="116" customWidth="1"/>
+    <col min="12295" max="12295" width="4.625" style="116" customWidth="1"/>
+    <col min="12296" max="12296" width="5.125" style="116" customWidth="1"/>
+    <col min="12297" max="12297" width="10.125" style="116" customWidth="1"/>
+    <col min="12298" max="12298" width="10" style="116" customWidth="1"/>
+    <col min="12299" max="12299" width="18.875" style="116" customWidth="1"/>
+    <col min="12300" max="12544" width="7.125" style="116"/>
+    <col min="12545" max="12545" width="4.75" style="116" customWidth="1"/>
+    <col min="12546" max="12546" width="16.75" style="116" customWidth="1"/>
+    <col min="12547" max="12547" width="7.625" style="116" customWidth="1"/>
+    <col min="12548" max="12548" width="7.375" style="116" customWidth="1"/>
+    <col min="12549" max="12549" width="4.875" style="116" customWidth="1"/>
+    <col min="12550" max="12550" width="18.875" style="116" customWidth="1"/>
+    <col min="12551" max="12551" width="4.625" style="116" customWidth="1"/>
+    <col min="12552" max="12552" width="5.125" style="116" customWidth="1"/>
+    <col min="12553" max="12553" width="10.125" style="116" customWidth="1"/>
+    <col min="12554" max="12554" width="10" style="116" customWidth="1"/>
+    <col min="12555" max="12555" width="18.875" style="116" customWidth="1"/>
+    <col min="12556" max="12800" width="7.125" style="116"/>
+    <col min="12801" max="12801" width="4.75" style="116" customWidth="1"/>
+    <col min="12802" max="12802" width="16.75" style="116" customWidth="1"/>
+    <col min="12803" max="12803" width="7.625" style="116" customWidth="1"/>
+    <col min="12804" max="12804" width="7.375" style="116" customWidth="1"/>
+    <col min="12805" max="12805" width="4.875" style="116" customWidth="1"/>
+    <col min="12806" max="12806" width="18.875" style="116" customWidth="1"/>
+    <col min="12807" max="12807" width="4.625" style="116" customWidth="1"/>
+    <col min="12808" max="12808" width="5.125" style="116" customWidth="1"/>
+    <col min="12809" max="12809" width="10.125" style="116" customWidth="1"/>
+    <col min="12810" max="12810" width="10" style="116" customWidth="1"/>
+    <col min="12811" max="12811" width="18.875" style="116" customWidth="1"/>
+    <col min="12812" max="13056" width="7.125" style="116"/>
+    <col min="13057" max="13057" width="4.75" style="116" customWidth="1"/>
+    <col min="13058" max="13058" width="16.75" style="116" customWidth="1"/>
+    <col min="13059" max="13059" width="7.625" style="116" customWidth="1"/>
+    <col min="13060" max="13060" width="7.375" style="116" customWidth="1"/>
+    <col min="13061" max="13061" width="4.875" style="116" customWidth="1"/>
+    <col min="13062" max="13062" width="18.875" style="116" customWidth="1"/>
+    <col min="13063" max="13063" width="4.625" style="116" customWidth="1"/>
+    <col min="13064" max="13064" width="5.125" style="116" customWidth="1"/>
+    <col min="13065" max="13065" width="10.125" style="116" customWidth="1"/>
+    <col min="13066" max="13066" width="10" style="116" customWidth="1"/>
+    <col min="13067" max="13067" width="18.875" style="116" customWidth="1"/>
+    <col min="13068" max="13312" width="7.125" style="116"/>
+    <col min="13313" max="13313" width="4.75" style="116" customWidth="1"/>
+    <col min="13314" max="13314" width="16.75" style="116" customWidth="1"/>
+    <col min="13315" max="13315" width="7.625" style="116" customWidth="1"/>
+    <col min="13316" max="13316" width="7.375" style="116" customWidth="1"/>
+    <col min="13317" max="13317" width="4.875" style="116" customWidth="1"/>
+    <col min="13318" max="13318" width="18.875" style="116" customWidth="1"/>
+    <col min="13319" max="13319" width="4.625" style="116" customWidth="1"/>
+    <col min="13320" max="13320" width="5.125" style="116" customWidth="1"/>
+    <col min="13321" max="13321" width="10.125" style="116" customWidth="1"/>
+    <col min="13322" max="13322" width="10" style="116" customWidth="1"/>
+    <col min="13323" max="13323" width="18.875" style="116" customWidth="1"/>
+    <col min="13324" max="13568" width="7.125" style="116"/>
+    <col min="13569" max="13569" width="4.75" style="116" customWidth="1"/>
+    <col min="13570" max="13570" width="16.75" style="116" customWidth="1"/>
+    <col min="13571" max="13571" width="7.625" style="116" customWidth="1"/>
+    <col min="13572" max="13572" width="7.375" style="116" customWidth="1"/>
+    <col min="13573" max="13573" width="4.875" style="116" customWidth="1"/>
+    <col min="13574" max="13574" width="18.875" style="116" customWidth="1"/>
+    <col min="13575" max="13575" width="4.625" style="116" customWidth="1"/>
+    <col min="13576" max="13576" width="5.125" style="116" customWidth="1"/>
+    <col min="13577" max="13577" width="10.125" style="116" customWidth="1"/>
+    <col min="13578" max="13578" width="10" style="116" customWidth="1"/>
+    <col min="13579" max="13579" width="18.875" style="116" customWidth="1"/>
+    <col min="13580" max="13824" width="7.125" style="116"/>
+    <col min="13825" max="13825" width="4.75" style="116" customWidth="1"/>
+    <col min="13826" max="13826" width="16.75" style="116" customWidth="1"/>
+    <col min="13827" max="13827" width="7.625" style="116" customWidth="1"/>
+    <col min="13828" max="13828" width="7.375" style="116" customWidth="1"/>
+    <col min="13829" max="13829" width="4.875" style="116" customWidth="1"/>
+    <col min="13830" max="13830" width="18.875" style="116" customWidth="1"/>
+    <col min="13831" max="13831" width="4.625" style="116" customWidth="1"/>
+    <col min="13832" max="13832" width="5.125" style="116" customWidth="1"/>
+    <col min="13833" max="13833" width="10.125" style="116" customWidth="1"/>
+    <col min="13834" max="13834" width="10" style="116" customWidth="1"/>
+    <col min="13835" max="13835" width="18.875" style="116" customWidth="1"/>
+    <col min="13836" max="14080" width="7.125" style="116"/>
+    <col min="14081" max="14081" width="4.75" style="116" customWidth="1"/>
+    <col min="14082" max="14082" width="16.75" style="116" customWidth="1"/>
+    <col min="14083" max="14083" width="7.625" style="116" customWidth="1"/>
+    <col min="14084" max="14084" width="7.375" style="116" customWidth="1"/>
+    <col min="14085" max="14085" width="4.875" style="116" customWidth="1"/>
+    <col min="14086" max="14086" width="18.875" style="116" customWidth="1"/>
+    <col min="14087" max="14087" width="4.625" style="116" customWidth="1"/>
+    <col min="14088" max="14088" width="5.125" style="116" customWidth="1"/>
+    <col min="14089" max="14089" width="10.125" style="116" customWidth="1"/>
+    <col min="14090" max="14090" width="10" style="116" customWidth="1"/>
+    <col min="14091" max="14091" width="18.875" style="116" customWidth="1"/>
+    <col min="14092" max="14336" width="7.125" style="116"/>
+    <col min="14337" max="14337" width="4.75" style="116" customWidth="1"/>
+    <col min="14338" max="14338" width="16.75" style="116" customWidth="1"/>
+    <col min="14339" max="14339" width="7.625" style="116" customWidth="1"/>
+    <col min="14340" max="14340" width="7.375" style="116" customWidth="1"/>
+    <col min="14341" max="14341" width="4.875" style="116" customWidth="1"/>
+    <col min="14342" max="14342" width="18.875" style="116" customWidth="1"/>
+    <col min="14343" max="14343" width="4.625" style="116" customWidth="1"/>
+    <col min="14344" max="14344" width="5.125" style="116" customWidth="1"/>
+    <col min="14345" max="14345" width="10.125" style="116" customWidth="1"/>
+    <col min="14346" max="14346" width="10" style="116" customWidth="1"/>
+    <col min="14347" max="14347" width="18.875" style="116" customWidth="1"/>
+    <col min="14348" max="14592" width="7.125" style="116"/>
+    <col min="14593" max="14593" width="4.75" style="116" customWidth="1"/>
+    <col min="14594" max="14594" width="16.75" style="116" customWidth="1"/>
+    <col min="14595" max="14595" width="7.625" style="116" customWidth="1"/>
+    <col min="14596" max="14596" width="7.375" style="116" customWidth="1"/>
+    <col min="14597" max="14597" width="4.875" style="116" customWidth="1"/>
+    <col min="14598" max="14598" width="18.875" style="116" customWidth="1"/>
+    <col min="14599" max="14599" width="4.625" style="116" customWidth="1"/>
+    <col min="14600" max="14600" width="5.125" style="116" customWidth="1"/>
+    <col min="14601" max="14601" width="10.125" style="116" customWidth="1"/>
+    <col min="14602" max="14602" width="10" style="116" customWidth="1"/>
+    <col min="14603" max="14603" width="18.875" style="116" customWidth="1"/>
+    <col min="14604" max="14848" width="7.125" style="116"/>
+    <col min="14849" max="14849" width="4.75" style="116" customWidth="1"/>
+    <col min="14850" max="14850" width="16.75" style="116" customWidth="1"/>
+    <col min="14851" max="14851" width="7.625" style="116" customWidth="1"/>
+    <col min="14852" max="14852" width="7.375" style="116" customWidth="1"/>
+    <col min="14853" max="14853" width="4.875" style="116" customWidth="1"/>
+    <col min="14854" max="14854" width="18.875" style="116" customWidth="1"/>
+    <col min="14855" max="14855" width="4.625" style="116" customWidth="1"/>
+    <col min="14856" max="14856" width="5.125" style="116" customWidth="1"/>
+    <col min="14857" max="14857" width="10.125" style="116" customWidth="1"/>
+    <col min="14858" max="14858" width="10" style="116" customWidth="1"/>
+    <col min="14859" max="14859" width="18.875" style="116" customWidth="1"/>
+    <col min="14860" max="15104" width="7.125" style="116"/>
+    <col min="15105" max="15105" width="4.75" style="116" customWidth="1"/>
+    <col min="15106" max="15106" width="16.75" style="116" customWidth="1"/>
+    <col min="15107" max="15107" width="7.625" style="116" customWidth="1"/>
+    <col min="15108" max="15108" width="7.375" style="116" customWidth="1"/>
+    <col min="15109" max="15109" width="4.875" style="116" customWidth="1"/>
+    <col min="15110" max="15110" width="18.875" style="116" customWidth="1"/>
+    <col min="15111" max="15111" width="4.625" style="116" customWidth="1"/>
+    <col min="15112" max="15112" width="5.125" style="116" customWidth="1"/>
+    <col min="15113" max="15113" width="10.125" style="116" customWidth="1"/>
+    <col min="15114" max="15114" width="10" style="116" customWidth="1"/>
+    <col min="15115" max="15115" width="18.875" style="116" customWidth="1"/>
+    <col min="15116" max="15360" width="7.125" style="116"/>
+    <col min="15361" max="15361" width="4.75" style="116" customWidth="1"/>
+    <col min="15362" max="15362" width="16.75" style="116" customWidth="1"/>
+    <col min="15363" max="15363" width="7.625" style="116" customWidth="1"/>
+    <col min="15364" max="15364" width="7.375" style="116" customWidth="1"/>
+    <col min="15365" max="15365" width="4.875" style="116" customWidth="1"/>
+    <col min="15366" max="15366" width="18.875" style="116" customWidth="1"/>
+    <col min="15367" max="15367" width="4.625" style="116" customWidth="1"/>
+    <col min="15368" max="15368" width="5.125" style="116" customWidth="1"/>
+    <col min="15369" max="15369" width="10.125" style="116" customWidth="1"/>
+    <col min="15370" max="15370" width="10" style="116" customWidth="1"/>
+    <col min="15371" max="15371" width="18.875" style="116" customWidth="1"/>
+    <col min="15372" max="15616" width="7.125" style="116"/>
+    <col min="15617" max="15617" width="4.75" style="116" customWidth="1"/>
+    <col min="15618" max="15618" width="16.75" style="116" customWidth="1"/>
+    <col min="15619" max="15619" width="7.625" style="116" customWidth="1"/>
+    <col min="15620" max="15620" width="7.375" style="116" customWidth="1"/>
+    <col min="15621" max="15621" width="4.875" style="116" customWidth="1"/>
+    <col min="15622" max="15622" width="18.875" style="116" customWidth="1"/>
+    <col min="15623" max="15623" width="4.625" style="116" customWidth="1"/>
+    <col min="15624" max="15624" width="5.125" style="116" customWidth="1"/>
+    <col min="15625" max="15625" width="10.125" style="116" customWidth="1"/>
+    <col min="15626" max="15626" width="10" style="116" customWidth="1"/>
+    <col min="15627" max="15627" width="18.875" style="116" customWidth="1"/>
+    <col min="15628" max="15872" width="7.125" style="116"/>
+    <col min="15873" max="15873" width="4.75" style="116" customWidth="1"/>
+    <col min="15874" max="15874" width="16.75" style="116" customWidth="1"/>
+    <col min="15875" max="15875" width="7.625" style="116" customWidth="1"/>
+    <col min="15876" max="15876" width="7.375" style="116" customWidth="1"/>
+    <col min="15877" max="15877" width="4.875" style="116" customWidth="1"/>
+    <col min="15878" max="15878" width="18.875" style="116" customWidth="1"/>
+    <col min="15879" max="15879" width="4.625" style="116" customWidth="1"/>
+    <col min="15880" max="15880" width="5.125" style="116" customWidth="1"/>
+    <col min="15881" max="15881" width="10.125" style="116" customWidth="1"/>
+    <col min="15882" max="15882" width="10" style="116" customWidth="1"/>
+    <col min="15883" max="15883" width="18.875" style="116" customWidth="1"/>
+    <col min="15884" max="16128" width="7.125" style="116"/>
+    <col min="16129" max="16129" width="4.75" style="116" customWidth="1"/>
+    <col min="16130" max="16130" width="16.75" style="116" customWidth="1"/>
+    <col min="16131" max="16131" width="7.625" style="116" customWidth="1"/>
+    <col min="16132" max="16132" width="7.375" style="116" customWidth="1"/>
+    <col min="16133" max="16133" width="4.875" style="116" customWidth="1"/>
+    <col min="16134" max="16134" width="18.875" style="116" customWidth="1"/>
+    <col min="16135" max="16135" width="4.625" style="116" customWidth="1"/>
+    <col min="16136" max="16136" width="5.125" style="116" customWidth="1"/>
+    <col min="16137" max="16137" width="10.125" style="116" customWidth="1"/>
+    <col min="16138" max="16138" width="10" style="116" customWidth="1"/>
+    <col min="16139" max="16139" width="18.875" style="116" customWidth="1"/>
+    <col min="16140" max="16384" width="7.125" style="116"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="112" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="233" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="I1" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1">
+      <c r="A2" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="112"/>
+      <c r="I2" s="8">
+        <v>45205</v>
+      </c>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+    </row>
+    <row r="3" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A3" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="235" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+    </row>
+    <row r="4" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A4" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="236" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+    </row>
+    <row r="5" spans="1:21" ht="39" customHeight="1">
+      <c r="A5" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="120"/>
+      <c r="E5" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="126"/>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A6" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="11.25" customHeight="1" thickBot="1"/>
+    <row r="8" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+      <c r="A8" s="237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="239" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="240"/>
+      <c r="H8" s="241" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+    </row>
+    <row r="9" spans="1:21" s="132" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="238"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+    </row>
+    <row r="10" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A10" s="140">
+        <v>1</v>
+      </c>
+      <c r="B10" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+    </row>
+    <row r="11" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A11" s="140">
+        <v>2</v>
+      </c>
+      <c r="B11" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="143"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+    </row>
+    <row r="12" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A12" s="140">
+        <v>3</v>
+      </c>
+      <c r="B12" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="231" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="232"/>
+      <c r="K12" s="147"/>
+      <c r="U12" s="116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A13" s="140">
+        <v>4</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+    </row>
+    <row r="14" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A14" s="140">
+        <v>5</v>
+      </c>
+      <c r="B14" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="143"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+    </row>
+    <row r="15" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A15" s="140">
+        <v>6</v>
+      </c>
+      <c r="B15" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="254" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="255"/>
+      <c r="K15" s="147"/>
+    </row>
+    <row r="16" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A16" s="140">
+        <v>7</v>
+      </c>
+      <c r="B16" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="254" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="255"/>
+      <c r="K16" s="147"/>
+    </row>
+    <row r="17" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A17" s="140">
+        <v>8</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="254" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="255"/>
+      <c r="K17" s="147"/>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A18" s="140">
+        <v>9</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="255"/>
+      <c r="K18" s="147"/>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A19" s="140">
+        <v>10</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="254" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="255"/>
+      <c r="K19" s="147"/>
+    </row>
+    <row r="20" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A20" s="140">
+        <v>11</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="231" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="232"/>
+      <c r="K20" s="147"/>
+    </row>
+    <row r="21" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A21" s="140">
+        <v>12</v>
+      </c>
+      <c r="B21" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="143"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A22" s="140">
+        <v>13</v>
+      </c>
+      <c r="B22" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="143"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A23" s="140">
+        <v>14</v>
+      </c>
+      <c r="B23" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="143"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+    </row>
+    <row r="24" spans="1:15" s="160" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="256" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="259"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="259" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="260"/>
+      <c r="K24" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="159"/>
+    </row>
+    <row r="25" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="261">
+        <v>15</v>
+      </c>
+      <c r="B25" s="263" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="264"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="162"/>
+      <c r="H25" s="266" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="268" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="269"/>
+      <c r="K25" s="163"/>
+    </row>
+    <row r="26" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="262"/>
+      <c r="B26" s="251" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="271"/>
+      <c r="K26" s="166"/>
+      <c r="M26" s="160">
+        <v>70</v>
+      </c>
+      <c r="N26" s="160">
+        <v>80</v>
+      </c>
+      <c r="O26" s="160">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="243">
+        <v>16</v>
+      </c>
+      <c r="B27" s="244" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="247" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="248"/>
+      <c r="K27" s="170"/>
+      <c r="M27" s="160">
+        <v>4100</v>
+      </c>
+      <c r="N27" s="160">
+        <v>4200</v>
+      </c>
+      <c r="O27" s="160">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="243"/>
+      <c r="B28" s="251" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="166"/>
+    </row>
+    <row r="29" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="243">
+        <v>17</v>
+      </c>
+      <c r="B29" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="274"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="174"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="247" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="248"/>
+      <c r="K29" s="276" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="160">
+        <f>M27/M26*2</f>
+        <v>117.14285714285714</v>
+      </c>
+      <c r="N29" s="175">
+        <f>N27/N26*2</f>
+        <v>105</v>
+      </c>
+      <c r="O29" s="160">
+        <f>O27/O26*2</f>
+        <v>95.555555555555557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="160" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="243"/>
+      <c r="B30" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="277"/>
+      <c r="M30" s="160">
+        <f>M27/O26*2</f>
+        <v>91.111111111111114</v>
+      </c>
+      <c r="O30" s="160">
+        <f>O27/M26*2</f>
+        <v>122.85714285714286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="278">
+        <v>18</v>
+      </c>
+      <c r="B31" s="279" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="281"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="282" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="283"/>
+      <c r="K31" s="180"/>
+    </row>
+    <row r="32" spans="1:15" s="181" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="261"/>
+      <c r="B32" s="286" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="285"/>
+      <c r="K32" s="180"/>
+      <c r="M32" s="184">
+        <f>N29-M30</f>
+        <v>13.888888888888886</v>
+      </c>
+      <c r="N32" s="184">
+        <f>O30-N29</f>
+        <v>17.857142857142861</v>
+      </c>
+      <c r="O32" s="184">
+        <f>M32+N32</f>
+        <v>31.746031746031747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="190" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="185" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="186"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="189"/>
+    </row>
+    <row r="34" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A34" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="192"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="H34" s="289" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="290"/>
+      <c r="J34" s="193" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="190">
+        <f>O32/2</f>
+        <v>15.873015873015873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="196" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A35" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="291" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="292"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+    </row>
+    <row r="36" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="293"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="201"/>
+    </row>
+    <row r="37" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A37" s="195" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="192"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="254"/>
+      <c r="I37" s="255"/>
+      <c r="J37" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="203" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A38" s="195" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="192"/>
+      <c r="H38" s="295" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="296"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="204"/>
+    </row>
+    <row r="39" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A39" s="195" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="192"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="296"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="205"/>
+    </row>
+    <row r="40" spans="1:15" s="190" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A40" s="206" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="207"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="297"/>
+      <c r="I40" s="298"/>
+      <c r="J40" s="211" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="212" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="190" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A41" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="272" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="273"/>
+    </row>
+    <row r="42" spans="1:15" ht="21.6" thickTop="1"/>
+    <row r="44" spans="1:15">
+      <c r="C44" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:H9"/>
+  </mergeCells>
+  <pageMargins left="0.24" right="0.14000000000000001" top="0.14000000000000001" bottom="0.19" header="0.12" footer="0.19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>